--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B639"/>
+  <dimension ref="A1:B640"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5298,7 +5298,7 @@
         <v>44568</v>
       </c>
       <c r="B614">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5346,7 +5346,7 @@
         <v>44574</v>
       </c>
       <c r="B620">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5394,7 +5394,7 @@
         <v>44580</v>
       </c>
       <c r="B626">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -5410,7 +5410,7 @@
         <v>44582</v>
       </c>
       <c r="B628">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -5418,7 +5418,7 @@
         <v>44583</v>
       </c>
       <c r="B629">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -5426,7 +5426,7 @@
         <v>44584</v>
       </c>
       <c r="B630">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5434,7 +5434,7 @@
         <v>44585</v>
       </c>
       <c r="B631">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5450,7 +5450,7 @@
         <v>44587</v>
       </c>
       <c r="B633">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -5466,7 +5466,7 @@
         <v>44589</v>
       </c>
       <c r="B635">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -5474,7 +5474,7 @@
         <v>44590</v>
       </c>
       <c r="B636">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5490,7 +5490,7 @@
         <v>44592</v>
       </c>
       <c r="B638">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -5498,7 +5498,15 @@
         <v>44593</v>
       </c>
       <c r="B639">
-        <v>76</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2">
+      <c r="A640" s="2">
+        <v>44594</v>
+      </c>
+      <c r="B640">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B640"/>
+  <dimension ref="A1:B643"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5330,7 +5330,7 @@
         <v>44572</v>
       </c>
       <c r="B618">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5338,7 +5338,7 @@
         <v>44573</v>
       </c>
       <c r="B619">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -5354,7 +5354,7 @@
         <v>44575</v>
       </c>
       <c r="B621">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -5370,7 +5370,7 @@
         <v>44577</v>
       </c>
       <c r="B623">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -5378,7 +5378,7 @@
         <v>44578</v>
       </c>
       <c r="B624">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5394,7 +5394,7 @@
         <v>44580</v>
       </c>
       <c r="B626">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -5402,7 +5402,7 @@
         <v>44581</v>
       </c>
       <c r="B627">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -5410,7 +5410,7 @@
         <v>44582</v>
       </c>
       <c r="B628">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -5418,7 +5418,7 @@
         <v>44583</v>
       </c>
       <c r="B629">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -5426,7 +5426,7 @@
         <v>44584</v>
       </c>
       <c r="B630">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5434,7 +5434,7 @@
         <v>44585</v>
       </c>
       <c r="B631">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5442,7 +5442,7 @@
         <v>44586</v>
       </c>
       <c r="B632">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5450,7 +5450,7 @@
         <v>44587</v>
       </c>
       <c r="B633">
-        <v>378</v>
+        <v>395</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -5458,7 +5458,7 @@
         <v>44588</v>
       </c>
       <c r="B634">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -5466,7 +5466,7 @@
         <v>44589</v>
       </c>
       <c r="B635">
-        <v>378</v>
+        <v>388</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -5474,7 +5474,7 @@
         <v>44590</v>
       </c>
       <c r="B636">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5482,7 +5482,7 @@
         <v>44591</v>
       </c>
       <c r="B637">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5490,7 +5490,7 @@
         <v>44592</v>
       </c>
       <c r="B638">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -5498,7 +5498,7 @@
         <v>44593</v>
       </c>
       <c r="B639">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -5506,7 +5506,31 @@
         <v>44594</v>
       </c>
       <c r="B640">
-        <v>123</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2">
+      <c r="A641" s="2">
+        <v>44595</v>
+      </c>
+      <c r="B641">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2">
+      <c r="A642" s="2">
+        <v>44596</v>
+      </c>
+      <c r="B642">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2">
+      <c r="A643" s="2">
+        <v>44597</v>
+      </c>
+      <c r="B643">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B643"/>
+  <dimension ref="A1:B644"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5474,7 +5474,7 @@
         <v>44590</v>
       </c>
       <c r="B636">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5506,7 +5506,7 @@
         <v>44594</v>
       </c>
       <c r="B640">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5514,7 +5514,7 @@
         <v>44595</v>
       </c>
       <c r="B641">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -5522,7 +5522,7 @@
         <v>44596</v>
       </c>
       <c r="B642">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -5530,7 +5530,15 @@
         <v>44597</v>
       </c>
       <c r="B643">
-        <v>109</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2">
+      <c r="A644" s="2">
+        <v>44598</v>
+      </c>
+      <c r="B644">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B644"/>
+  <dimension ref="A1:B645"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5418,7 +5418,7 @@
         <v>44583</v>
       </c>
       <c r="B629">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -5434,7 +5434,7 @@
         <v>44585</v>
       </c>
       <c r="B631">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5498,7 +5498,7 @@
         <v>44593</v>
       </c>
       <c r="B639">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -5506,7 +5506,7 @@
         <v>44594</v>
       </c>
       <c r="B640">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5514,7 +5514,7 @@
         <v>44595</v>
       </c>
       <c r="B641">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -5522,7 +5522,7 @@
         <v>44596</v>
       </c>
       <c r="B642">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -5530,7 +5530,7 @@
         <v>44597</v>
       </c>
       <c r="B643">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -5538,7 +5538,15 @@
         <v>44598</v>
       </c>
       <c r="B644">
-        <v>11</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2">
+      <c r="A645" s="2">
+        <v>44599</v>
+      </c>
+      <c r="B645">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B645"/>
+  <dimension ref="A1:B646"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5250,7 +5250,7 @@
         <v>44561</v>
       </c>
       <c r="B608">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -5362,7 +5362,7 @@
         <v>44576</v>
       </c>
       <c r="B622">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -5378,7 +5378,7 @@
         <v>44578</v>
       </c>
       <c r="B624">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5402,7 +5402,7 @@
         <v>44581</v>
       </c>
       <c r="B627">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -5434,7 +5434,7 @@
         <v>44585</v>
       </c>
       <c r="B631">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5498,7 +5498,7 @@
         <v>44593</v>
       </c>
       <c r="B639">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -5506,7 +5506,7 @@
         <v>44594</v>
       </c>
       <c r="B640">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5522,7 +5522,7 @@
         <v>44596</v>
       </c>
       <c r="B642">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -5530,7 +5530,7 @@
         <v>44597</v>
       </c>
       <c r="B643">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -5546,7 +5546,15 @@
         <v>44599</v>
       </c>
       <c r="B645">
-        <v>31</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2">
+      <c r="A646" s="2">
+        <v>44600</v>
+      </c>
+      <c r="B646">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B646"/>
+  <dimension ref="A1:B647"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5418,7 +5418,7 @@
         <v>44583</v>
       </c>
       <c r="B629">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -5426,7 +5426,7 @@
         <v>44584</v>
       </c>
       <c r="B630">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5434,7 +5434,7 @@
         <v>44585</v>
       </c>
       <c r="B631">
-        <v>569</v>
+        <v>584</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5442,7 +5442,7 @@
         <v>44586</v>
       </c>
       <c r="B632">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5450,7 +5450,7 @@
         <v>44587</v>
       </c>
       <c r="B633">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -5466,7 +5466,7 @@
         <v>44589</v>
       </c>
       <c r="B635">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -5530,7 +5530,7 @@
         <v>44597</v>
       </c>
       <c r="B643">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -5546,7 +5546,7 @@
         <v>44599</v>
       </c>
       <c r="B645">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -5554,7 +5554,15 @@
         <v>44600</v>
       </c>
       <c r="B646">
-        <v>25</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2">
+      <c r="A647" s="2">
+        <v>44601</v>
+      </c>
+      <c r="B647">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B647"/>
+  <dimension ref="A1:B615"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -938,7 +938,7 @@
         <v>43993</v>
       </c>
       <c r="B69">
-        <v>210</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -946,7 +946,7 @@
         <v>43994</v>
       </c>
       <c r="B70">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2119,175 +2119,175 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44142</v>
+        <v>44141</v>
       </c>
       <c r="B217">
-        <v>56</v>
+        <v>27</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44143</v>
+        <v>44142</v>
       </c>
       <c r="B218">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44144</v>
+        <v>44143</v>
       </c>
       <c r="B219">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44145</v>
+        <v>44144</v>
       </c>
       <c r="B220">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44146</v>
+        <v>44145</v>
       </c>
       <c r="B221">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44147</v>
+        <v>44146</v>
       </c>
       <c r="B222">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44148</v>
+        <v>44147</v>
       </c>
       <c r="B223">
-        <v>72</v>
+        <v>38</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44149</v>
+        <v>44148</v>
       </c>
       <c r="B224">
-        <v>22</v>
+        <v>72</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44150</v>
+        <v>44149</v>
       </c>
       <c r="B225">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44151</v>
+        <v>44150</v>
       </c>
       <c r="B226">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44152</v>
+        <v>44151</v>
       </c>
       <c r="B227">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44153</v>
+        <v>44152</v>
       </c>
       <c r="B228">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44154</v>
+        <v>44153</v>
       </c>
       <c r="B229">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44155</v>
+        <v>44154</v>
       </c>
       <c r="B230">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44156</v>
+        <v>44155</v>
       </c>
       <c r="B231">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44157</v>
+        <v>44156</v>
       </c>
       <c r="B232">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44158</v>
+        <v>44157</v>
       </c>
       <c r="B233">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44159</v>
+        <v>44158</v>
       </c>
       <c r="B234">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44160</v>
+        <v>44159</v>
       </c>
       <c r="B235">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44161</v>
+        <v>44160</v>
       </c>
       <c r="B236">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44162</v>
+        <v>44161</v>
       </c>
       <c r="B237">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44163</v>
+        <v>44162</v>
       </c>
       <c r="B238">
         <v>5</v>
@@ -2295,175 +2295,175 @@
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44164</v>
+        <v>44163</v>
       </c>
       <c r="B239">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44165</v>
+        <v>44164</v>
       </c>
       <c r="B240">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44166</v>
+        <v>44165</v>
       </c>
       <c r="B241">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44167</v>
+        <v>44166</v>
       </c>
       <c r="B242">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44168</v>
+        <v>44167</v>
       </c>
       <c r="B243">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44169</v>
+        <v>44168</v>
       </c>
       <c r="B244">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44170</v>
+        <v>44169</v>
       </c>
       <c r="B245">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44172</v>
+        <v>44170</v>
       </c>
       <c r="B246">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44173</v>
+        <v>44171</v>
       </c>
       <c r="B247">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44174</v>
+        <v>44172</v>
       </c>
       <c r="B248">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44175</v>
+        <v>44173</v>
       </c>
       <c r="B249">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44176</v>
+        <v>44174</v>
       </c>
       <c r="B250">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44177</v>
+        <v>44175</v>
       </c>
       <c r="B251">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44178</v>
+        <v>44176</v>
       </c>
       <c r="B252">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44179</v>
+        <v>44177</v>
       </c>
       <c r="B253">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44180</v>
+        <v>44178</v>
       </c>
       <c r="B254">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="B255">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44182</v>
+        <v>44180</v>
       </c>
       <c r="B256">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44183</v>
+        <v>44181</v>
       </c>
       <c r="B257">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44184</v>
+        <v>44182</v>
       </c>
       <c r="B258">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44185</v>
+        <v>44183</v>
       </c>
       <c r="B259">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44186</v>
+        <v>44184</v>
       </c>
       <c r="B260">
         <v>27</v>
@@ -2471,1114 +2471,1114 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44187</v>
+        <v>44185</v>
       </c>
       <c r="B261">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44188</v>
+        <v>44186</v>
       </c>
       <c r="B262">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="B263">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44190</v>
+        <v>44188</v>
       </c>
       <c r="B264">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44191</v>
+        <v>44189</v>
       </c>
       <c r="B265">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44192</v>
+        <v>44190</v>
       </c>
       <c r="B266">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44193</v>
+        <v>44191</v>
       </c>
       <c r="B267">
-        <v>59</v>
+        <v>35</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="B268">
-        <v>59</v>
+        <v>14</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44195</v>
+        <v>44193</v>
       </c>
       <c r="B269">
-        <v>28</v>
+        <v>59</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="B270">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44197</v>
+        <v>44195</v>
       </c>
       <c r="B271">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44198</v>
+        <v>44196</v>
       </c>
       <c r="B272">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44199</v>
+        <v>44197</v>
       </c>
       <c r="B273">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44200</v>
+        <v>44198</v>
       </c>
       <c r="B274">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44201</v>
+        <v>44199</v>
       </c>
       <c r="B275">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44202</v>
+        <v>44200</v>
       </c>
       <c r="B276">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44203</v>
+        <v>44201</v>
       </c>
       <c r="B277">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44204</v>
+        <v>44202</v>
       </c>
       <c r="B278">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44205</v>
+        <v>44203</v>
       </c>
       <c r="B279">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44206</v>
+        <v>44204</v>
       </c>
       <c r="B280">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44207</v>
+        <v>44205</v>
       </c>
       <c r="B281">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44208</v>
+        <v>44206</v>
       </c>
       <c r="B282">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44209</v>
+        <v>44207</v>
       </c>
       <c r="B283">
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44210</v>
+        <v>44208</v>
       </c>
       <c r="B284">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44211</v>
+        <v>44209</v>
       </c>
       <c r="B285">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44212</v>
+        <v>44210</v>
       </c>
       <c r="B286">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44213</v>
+        <v>44211</v>
       </c>
       <c r="B287">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44214</v>
+        <v>44212</v>
       </c>
       <c r="B288">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44215</v>
+        <v>44213</v>
       </c>
       <c r="B289">
-        <v>52</v>
+        <v>14</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44216</v>
+        <v>44214</v>
       </c>
       <c r="B290">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44217</v>
+        <v>44215</v>
       </c>
       <c r="B291">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44218</v>
+        <v>44216</v>
       </c>
       <c r="B292">
-        <v>61</v>
+        <v>32</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44219</v>
+        <v>44217</v>
       </c>
       <c r="B293">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44220</v>
+        <v>44218</v>
       </c>
       <c r="B294">
-        <v>14</v>
+        <v>52</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44221</v>
+        <v>44219</v>
       </c>
       <c r="B295">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44222</v>
+        <v>44220</v>
       </c>
       <c r="B296">
-        <v>59</v>
+        <v>14</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44223</v>
+        <v>44221</v>
       </c>
       <c r="B297">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44224</v>
+        <v>44222</v>
       </c>
       <c r="B298">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44225</v>
+        <v>44223</v>
       </c>
       <c r="B299">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44226</v>
+        <v>44224</v>
       </c>
       <c r="B300">
-        <v>62</v>
+        <v>38</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44227</v>
+        <v>44225</v>
       </c>
       <c r="B301">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44228</v>
+        <v>44226</v>
       </c>
       <c r="B302">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44229</v>
+        <v>44227</v>
       </c>
       <c r="B303">
-        <v>66</v>
+        <v>9</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44230</v>
+        <v>44228</v>
       </c>
       <c r="B304">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44231</v>
+        <v>44229</v>
       </c>
       <c r="B305">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44232</v>
+        <v>44230</v>
       </c>
       <c r="B306">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44233</v>
+        <v>44231</v>
       </c>
       <c r="B307">
-        <v>59</v>
+        <v>28</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44234</v>
+        <v>44232</v>
       </c>
       <c r="B308">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44235</v>
+        <v>44233</v>
       </c>
       <c r="B309">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44236</v>
+        <v>44234</v>
       </c>
       <c r="B310">
-        <v>63</v>
+        <v>8</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44237</v>
+        <v>44235</v>
       </c>
       <c r="B311">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44238</v>
+        <v>44236</v>
       </c>
       <c r="B312">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44239</v>
+        <v>44237</v>
       </c>
       <c r="B313">
-        <v>46</v>
+        <v>15</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44240</v>
+        <v>44238</v>
       </c>
       <c r="B314">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44241</v>
+        <v>44239</v>
       </c>
       <c r="B315">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44242</v>
+        <v>44240</v>
       </c>
       <c r="B316">
-        <v>54</v>
+        <v>24</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44243</v>
+        <v>44241</v>
       </c>
       <c r="B317">
-        <v>60</v>
+        <v>6</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44244</v>
+        <v>44242</v>
       </c>
       <c r="B318">
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44245</v>
+        <v>44243</v>
       </c>
       <c r="B319">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44246</v>
+        <v>44244</v>
       </c>
       <c r="B320">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44247</v>
+        <v>44245</v>
       </c>
       <c r="B321">
-        <v>71</v>
+        <v>33</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44248</v>
+        <v>44246</v>
       </c>
       <c r="B322">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44249</v>
+        <v>44247</v>
       </c>
       <c r="B323">
-        <v>81</v>
+        <v>35</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44250</v>
+        <v>44248</v>
       </c>
       <c r="B324">
-        <v>77</v>
+        <v>13</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44251</v>
+        <v>44249</v>
       </c>
       <c r="B325">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44252</v>
+        <v>44250</v>
       </c>
       <c r="B326">
-        <v>82</v>
+        <v>46</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44253</v>
+        <v>44251</v>
       </c>
       <c r="B327">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44254</v>
+        <v>44252</v>
       </c>
       <c r="B328">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44255</v>
+        <v>44253</v>
       </c>
       <c r="B329">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44256</v>
+        <v>44254</v>
       </c>
       <c r="B330">
-        <v>91</v>
+        <v>25</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44257</v>
+        <v>44255</v>
       </c>
       <c r="B331">
-        <v>97</v>
+        <v>6</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44258</v>
+        <v>44256</v>
       </c>
       <c r="B332">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44259</v>
+        <v>44257</v>
       </c>
       <c r="B333">
-        <v>106</v>
+        <v>51</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44260</v>
+        <v>44258</v>
       </c>
       <c r="B334">
-        <v>128</v>
+        <v>34</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44261</v>
+        <v>44259</v>
       </c>
       <c r="B335">
-        <v>100</v>
+        <v>26</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44262</v>
+        <v>44260</v>
       </c>
       <c r="B336">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44263</v>
+        <v>44261</v>
       </c>
       <c r="B337">
-        <v>147</v>
+        <v>37</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44264</v>
+        <v>44262</v>
       </c>
       <c r="B338">
-        <v>133</v>
+        <v>8</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44265</v>
+        <v>44263</v>
       </c>
       <c r="B339">
-        <v>175</v>
+        <v>34</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44266</v>
+        <v>44264</v>
       </c>
       <c r="B340">
-        <v>193</v>
+        <v>34</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44267</v>
+        <v>44265</v>
       </c>
       <c r="B341">
-        <v>133</v>
+        <v>63</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44268</v>
+        <v>44266</v>
       </c>
       <c r="B342">
-        <v>126</v>
+        <v>85</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44269</v>
+        <v>44267</v>
       </c>
       <c r="B343">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44270</v>
+        <v>44268</v>
       </c>
       <c r="B344">
-        <v>265</v>
+        <v>19</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44271</v>
+        <v>44269</v>
       </c>
       <c r="B345">
-        <v>162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44272</v>
+        <v>44270</v>
       </c>
       <c r="B346">
-        <v>205</v>
+        <v>73</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44273</v>
+        <v>44271</v>
       </c>
       <c r="B347">
-        <v>220</v>
+        <v>27</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44274</v>
+        <v>44272</v>
       </c>
       <c r="B348">
-        <v>199</v>
+        <v>48</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44275</v>
+        <v>44273</v>
       </c>
       <c r="B349">
-        <v>160</v>
+        <v>41</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44276</v>
+        <v>44274</v>
       </c>
       <c r="B350">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44277</v>
+        <v>44275</v>
       </c>
       <c r="B351">
-        <v>214</v>
+        <v>30</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44278</v>
+        <v>44276</v>
       </c>
       <c r="B352">
-        <v>184</v>
+        <v>3</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44279</v>
+        <v>44277</v>
       </c>
       <c r="B353">
-        <v>199</v>
+        <v>29</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44280</v>
+        <v>44278</v>
       </c>
       <c r="B354">
-        <v>198</v>
+        <v>41</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44281</v>
+        <v>44279</v>
       </c>
       <c r="B355">
-        <v>169</v>
+        <v>52</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44282</v>
+        <v>44280</v>
       </c>
       <c r="B356">
-        <v>141</v>
+        <v>57</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44283</v>
+        <v>44281</v>
       </c>
       <c r="B357">
-        <v>57</v>
+        <v>25</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44284</v>
+        <v>44282</v>
       </c>
       <c r="B358">
-        <v>146</v>
+        <v>12</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44285</v>
+        <v>44283</v>
       </c>
       <c r="B359">
-        <v>172</v>
+        <v>32</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44286</v>
+        <v>44284</v>
       </c>
       <c r="B360">
-        <v>137</v>
+        <v>18</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44287</v>
+        <v>44285</v>
       </c>
       <c r="B361">
-        <v>110</v>
+        <v>29</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44288</v>
+        <v>44286</v>
       </c>
       <c r="B362">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44289</v>
+        <v>44287</v>
       </c>
       <c r="B363">
-        <v>112</v>
+        <v>43</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44290</v>
+        <v>44288</v>
       </c>
       <c r="B364">
-        <v>61</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44291</v>
+        <v>44289</v>
       </c>
       <c r="B365">
-        <v>183</v>
+        <v>9</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44292</v>
+        <v>44290</v>
       </c>
       <c r="B366">
-        <v>170</v>
+        <v>3</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44293</v>
+        <v>44291</v>
       </c>
       <c r="B367">
-        <v>133</v>
+        <v>26</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44294</v>
+        <v>44292</v>
       </c>
       <c r="B368">
-        <v>122</v>
+        <v>33</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44295</v>
+        <v>44293</v>
       </c>
       <c r="B369">
-        <v>121</v>
+        <v>39</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44296</v>
+        <v>44294</v>
       </c>
       <c r="B370">
-        <v>98</v>
+        <v>25</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44297</v>
+        <v>44295</v>
       </c>
       <c r="B371">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44298</v>
+        <v>44296</v>
       </c>
       <c r="B372">
-        <v>86</v>
+        <v>27</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44299</v>
+        <v>44297</v>
       </c>
       <c r="B373">
-        <v>130</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44300</v>
+        <v>44298</v>
       </c>
       <c r="B374">
-        <v>109</v>
+        <v>11</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44301</v>
+        <v>44299</v>
       </c>
       <c r="B375">
-        <v>111</v>
+        <v>48</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44302</v>
+        <v>44300</v>
       </c>
       <c r="B376">
-        <v>95</v>
+        <v>30</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44303</v>
+        <v>44301</v>
       </c>
       <c r="B377">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44304</v>
+        <v>44302</v>
       </c>
       <c r="B378">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44305</v>
+        <v>44303</v>
       </c>
       <c r="B379">
-        <v>91</v>
+        <v>25</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44306</v>
+        <v>44304</v>
       </c>
       <c r="B380">
-        <v>101</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44307</v>
+        <v>44305</v>
       </c>
       <c r="B381">
-        <v>116</v>
+        <v>9</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44308</v>
+        <v>44306</v>
       </c>
       <c r="B382">
-        <v>93</v>
+        <v>45</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44309</v>
+        <v>44307</v>
       </c>
       <c r="B383">
-        <v>60</v>
+        <v>26</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44310</v>
+        <v>44308</v>
       </c>
       <c r="B384">
-        <v>97</v>
+        <v>31</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44311</v>
+        <v>44309</v>
       </c>
       <c r="B385">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44312</v>
+        <v>44310</v>
       </c>
       <c r="B386">
-        <v>79</v>
+        <v>34</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44313</v>
+        <v>44311</v>
       </c>
       <c r="B387">
-        <v>95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44314</v>
+        <v>44312</v>
       </c>
       <c r="B388">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44315</v>
+        <v>44313</v>
       </c>
       <c r="B389">
-        <v>71</v>
+        <v>37</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44316</v>
+        <v>44314</v>
       </c>
       <c r="B390">
-        <v>65</v>
+        <v>13</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44317</v>
+        <v>44315</v>
       </c>
       <c r="B391">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44318</v>
+        <v>44316</v>
       </c>
       <c r="B392">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44319</v>
+        <v>44317</v>
       </c>
       <c r="B393">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44320</v>
+        <v>44319</v>
       </c>
       <c r="B394">
-        <v>63</v>
+        <v>5</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44321</v>
+        <v>44320</v>
       </c>
       <c r="B395">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44322</v>
+        <v>44321</v>
       </c>
       <c r="B396">
-        <v>58</v>
+        <v>8</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44323</v>
+        <v>44322</v>
       </c>
       <c r="B397">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44324</v>
+        <v>44323</v>
       </c>
       <c r="B398">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44325</v>
+        <v>44324</v>
       </c>
       <c r="B399">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3586,7 +3586,7 @@
         <v>44326</v>
       </c>
       <c r="B400">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3594,7 +3594,7 @@
         <v>44327</v>
       </c>
       <c r="B401">
-        <v>69</v>
+        <v>11</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3602,7 +3602,7 @@
         <v>44328</v>
       </c>
       <c r="B402">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3610,7 +3610,7 @@
         <v>44329</v>
       </c>
       <c r="B403">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3618,7 +3618,7 @@
         <v>44330</v>
       </c>
       <c r="B404">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3626,7 +3626,7 @@
         <v>44331</v>
       </c>
       <c r="B405">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3634,7 +3634,7 @@
         <v>44332</v>
       </c>
       <c r="B406">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3642,7 +3642,7 @@
         <v>44333</v>
       </c>
       <c r="B407">
-        <v>50</v>
+        <v>4</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3650,7 +3650,7 @@
         <v>44334</v>
       </c>
       <c r="B408">
-        <v>62</v>
+        <v>10</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3658,7 +3658,7 @@
         <v>44335</v>
       </c>
       <c r="B409">
-        <v>37</v>
+        <v>6</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3666,7 +3666,7 @@
         <v>44336</v>
       </c>
       <c r="B410">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3674,7 +3674,7 @@
         <v>44337</v>
       </c>
       <c r="B411">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3682,7 +3682,7 @@
         <v>44338</v>
       </c>
       <c r="B412">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3690,7 +3690,7 @@
         <v>44339</v>
       </c>
       <c r="B413">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3698,7 +3698,7 @@
         <v>44340</v>
       </c>
       <c r="B414">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3706,7 +3706,7 @@
         <v>44341</v>
       </c>
       <c r="B415">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3714,7 +3714,7 @@
         <v>44342</v>
       </c>
       <c r="B416">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3722,7 +3722,7 @@
         <v>44343</v>
       </c>
       <c r="B417">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3730,7 +3730,7 @@
         <v>44344</v>
       </c>
       <c r="B418">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3738,236 +3738,236 @@
         <v>44345</v>
       </c>
       <c r="B419">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44346</v>
+        <v>44347</v>
       </c>
       <c r="B420">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44347</v>
+        <v>44348</v>
       </c>
       <c r="B421">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44348</v>
+        <v>44349</v>
       </c>
       <c r="B422">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44349</v>
+        <v>44350</v>
       </c>
       <c r="B423">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="B424">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44351</v>
+        <v>44352</v>
       </c>
       <c r="B425">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44352</v>
+        <v>44353</v>
       </c>
       <c r="B426">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44353</v>
+        <v>44354</v>
       </c>
       <c r="B427">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44354</v>
+        <v>44355</v>
       </c>
       <c r="B428">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44355</v>
+        <v>44356</v>
       </c>
       <c r="B429">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44356</v>
+        <v>44357</v>
       </c>
       <c r="B430">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44357</v>
+        <v>44358</v>
       </c>
       <c r="B431">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44358</v>
+        <v>44359</v>
       </c>
       <c r="B432">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44359</v>
+        <v>44361</v>
       </c>
       <c r="B433">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44360</v>
+        <v>44362</v>
       </c>
       <c r="B434">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44361</v>
+        <v>44363</v>
       </c>
       <c r="B435">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44362</v>
+        <v>44364</v>
       </c>
       <c r="B436">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44363</v>
+        <v>44365</v>
       </c>
       <c r="B437">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44364</v>
+        <v>44366</v>
       </c>
       <c r="B438">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44365</v>
+        <v>44367</v>
       </c>
       <c r="B439">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44366</v>
+        <v>44368</v>
       </c>
       <c r="B440">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44367</v>
+        <v>44369</v>
       </c>
       <c r="B441">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44368</v>
+        <v>44370</v>
       </c>
       <c r="B442">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44369</v>
+        <v>44373</v>
       </c>
       <c r="B443">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44370</v>
+        <v>44375</v>
       </c>
       <c r="B444">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44371</v>
+        <v>44377</v>
       </c>
       <c r="B445">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44372</v>
+        <v>44378</v>
       </c>
       <c r="B446">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44373</v>
+        <v>44379</v>
       </c>
       <c r="B447">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44374</v>
+        <v>44380</v>
       </c>
       <c r="B448">
         <v>1</v>
@@ -3975,103 +3975,103 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44375</v>
+        <v>44382</v>
       </c>
       <c r="B449">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44376</v>
+        <v>44383</v>
       </c>
       <c r="B450">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44377</v>
+        <v>44384</v>
       </c>
       <c r="B451">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44378</v>
+        <v>44385</v>
       </c>
       <c r="B452">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44379</v>
+        <v>44386</v>
       </c>
       <c r="B453">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44380</v>
+        <v>44388</v>
       </c>
       <c r="B454">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44382</v>
+        <v>44389</v>
       </c>
       <c r="B455">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44383</v>
+        <v>44390</v>
       </c>
       <c r="B456">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44384</v>
+        <v>44393</v>
       </c>
       <c r="B457">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44385</v>
+        <v>44394</v>
       </c>
       <c r="B458">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44386</v>
+        <v>44396</v>
       </c>
       <c r="B459">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44387</v>
+        <v>44397</v>
       </c>
       <c r="B460">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44388</v>
+        <v>44398</v>
       </c>
       <c r="B461">
         <v>3</v>
@@ -4079,15 +4079,15 @@
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44389</v>
+        <v>44399</v>
       </c>
       <c r="B462">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44390</v>
+        <v>44400</v>
       </c>
       <c r="B463">
         <v>3</v>
@@ -4095,47 +4095,47 @@
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44391</v>
+        <v>44401</v>
       </c>
       <c r="B464">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44392</v>
+        <v>44403</v>
       </c>
       <c r="B465">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44393</v>
+        <v>44404</v>
       </c>
       <c r="B466">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44394</v>
+        <v>44405</v>
       </c>
       <c r="B467">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44395</v>
+        <v>44407</v>
       </c>
       <c r="B468">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44396</v>
+        <v>44408</v>
       </c>
       <c r="B469">
         <v>2</v>
@@ -4143,127 +4143,127 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44397</v>
+        <v>44410</v>
       </c>
       <c r="B470">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44398</v>
+        <v>44411</v>
       </c>
       <c r="B471">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44399</v>
+        <v>44412</v>
       </c>
       <c r="B472">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44400</v>
+        <v>44413</v>
       </c>
       <c r="B473">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44401</v>
+        <v>44416</v>
       </c>
       <c r="B474">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44403</v>
+        <v>44418</v>
       </c>
       <c r="B475">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44404</v>
+        <v>44419</v>
       </c>
       <c r="B476">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44405</v>
+        <v>44420</v>
       </c>
       <c r="B477">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44407</v>
+        <v>44421</v>
       </c>
       <c r="B478">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44408</v>
+        <v>44424</v>
       </c>
       <c r="B479">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44409</v>
+        <v>44425</v>
       </c>
       <c r="B480">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44410</v>
+        <v>44426</v>
       </c>
       <c r="B481">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44411</v>
+        <v>44427</v>
       </c>
       <c r="B482">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44412</v>
+        <v>44428</v>
       </c>
       <c r="B483">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44413</v>
+        <v>44430</v>
       </c>
       <c r="B484">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44414</v>
+        <v>44431</v>
       </c>
       <c r="B485">
         <v>1</v>
@@ -4271,39 +4271,39 @@
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44416</v>
+        <v>44432</v>
       </c>
       <c r="B486">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44418</v>
+        <v>44433</v>
       </c>
       <c r="B487">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44419</v>
+        <v>44439</v>
       </c>
       <c r="B488">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44420</v>
+        <v>44441</v>
       </c>
       <c r="B489">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44421</v>
+        <v>44442</v>
       </c>
       <c r="B490">
         <v>2</v>
@@ -4311,47 +4311,47 @@
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44422</v>
+        <v>44443</v>
       </c>
       <c r="B491">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44423</v>
+        <v>44444</v>
       </c>
       <c r="B492">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44424</v>
+        <v>44445</v>
       </c>
       <c r="B493">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44425</v>
+        <v>44446</v>
       </c>
       <c r="B494">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44426</v>
+        <v>44447</v>
       </c>
       <c r="B495">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44427</v>
+        <v>44448</v>
       </c>
       <c r="B496">
         <v>3</v>
@@ -4359,55 +4359,55 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44428</v>
+        <v>44449</v>
       </c>
       <c r="B497">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44430</v>
+        <v>44450</v>
       </c>
       <c r="B498">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44431</v>
+        <v>44453</v>
       </c>
       <c r="B499">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44432</v>
+        <v>44455</v>
       </c>
       <c r="B500">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44433</v>
+        <v>44456</v>
       </c>
       <c r="B501">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44434</v>
+        <v>44460</v>
       </c>
       <c r="B502">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44435</v>
+        <v>44461</v>
       </c>
       <c r="B503">
         <v>2</v>
@@ -4415,23 +4415,23 @@
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44436</v>
+        <v>44463</v>
       </c>
       <c r="B504">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44437</v>
+        <v>44464</v>
       </c>
       <c r="B505">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44438</v>
+        <v>44465</v>
       </c>
       <c r="B506">
         <v>1</v>
@@ -4439,7 +4439,7 @@
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44439</v>
+        <v>44466</v>
       </c>
       <c r="B507">
         <v>2</v>
@@ -4447,79 +4447,79 @@
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44440</v>
+        <v>44468</v>
       </c>
       <c r="B508">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44441</v>
+        <v>44469</v>
       </c>
       <c r="B509">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44442</v>
+        <v>44470</v>
       </c>
       <c r="B510">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44443</v>
+        <v>44474</v>
       </c>
       <c r="B511">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44444</v>
+        <v>44476</v>
       </c>
       <c r="B512">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44445</v>
+        <v>44477</v>
       </c>
       <c r="B513">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44446</v>
+        <v>44478</v>
       </c>
       <c r="B514">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44447</v>
+        <v>44480</v>
       </c>
       <c r="B515">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44448</v>
+        <v>44482</v>
       </c>
       <c r="B516">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44449</v>
+        <v>44484</v>
       </c>
       <c r="B517">
         <v>2</v>
@@ -4527,23 +4527,23 @@
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44450</v>
+        <v>44485</v>
       </c>
       <c r="B518">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44451</v>
+        <v>44488</v>
       </c>
       <c r="B519">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44453</v>
+        <v>44489</v>
       </c>
       <c r="B520">
         <v>1</v>
@@ -4551,55 +4551,55 @@
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44455</v>
+        <v>44490</v>
       </c>
       <c r="B521">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44456</v>
+        <v>44491</v>
       </c>
       <c r="B522">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44459</v>
+        <v>44493</v>
       </c>
       <c r="B523">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44460</v>
+        <v>44494</v>
       </c>
       <c r="B524">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44461</v>
+        <v>44495</v>
       </c>
       <c r="B525">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44463</v>
+        <v>44496</v>
       </c>
       <c r="B526">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44464</v>
+        <v>44497</v>
       </c>
       <c r="B527">
         <v>3</v>
@@ -4607,15 +4607,15 @@
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44465</v>
+        <v>44498</v>
       </c>
       <c r="B528">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44466</v>
+        <v>44500</v>
       </c>
       <c r="B529">
         <v>3</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44467</v>
+        <v>44502</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44468</v>
+        <v>44503</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -4639,31 +4639,31 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44469</v>
+        <v>44505</v>
       </c>
       <c r="B532">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44470</v>
+        <v>44506</v>
       </c>
       <c r="B533">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44474</v>
+        <v>44508</v>
       </c>
       <c r="B534">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44476</v>
+        <v>44510</v>
       </c>
       <c r="B535">
         <v>2</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44477</v>
+        <v>44511</v>
       </c>
       <c r="B536">
         <v>1</v>
@@ -4679,15 +4679,15 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44478</v>
+        <v>44512</v>
       </c>
       <c r="B537">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44480</v>
+        <v>44516</v>
       </c>
       <c r="B538">
         <v>3</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44481</v>
+        <v>44517</v>
       </c>
       <c r="B539">
         <v>2</v>
@@ -4703,31 +4703,31 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44482</v>
+        <v>44518</v>
       </c>
       <c r="B540">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44483</v>
+        <v>44520</v>
       </c>
       <c r="B541">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44484</v>
+        <v>44521</v>
       </c>
       <c r="B542">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44485</v>
+        <v>44522</v>
       </c>
       <c r="B543">
         <v>1</v>
@@ -4735,103 +4735,103 @@
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44488</v>
+        <v>44523</v>
       </c>
       <c r="B544">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44489</v>
+        <v>44524</v>
       </c>
       <c r="B545">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44490</v>
+        <v>44525</v>
       </c>
       <c r="B546">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44491</v>
+        <v>44526</v>
       </c>
       <c r="B547">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44493</v>
+        <v>44527</v>
       </c>
       <c r="B548">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44494</v>
+        <v>44530</v>
       </c>
       <c r="B549">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44495</v>
+        <v>44531</v>
       </c>
       <c r="B550">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44496</v>
+        <v>44532</v>
       </c>
       <c r="B551">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44497</v>
+        <v>44533</v>
       </c>
       <c r="B552">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44498</v>
+        <v>44534</v>
       </c>
       <c r="B553">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44499</v>
+        <v>44537</v>
       </c>
       <c r="B554">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44500</v>
+        <v>44538</v>
       </c>
       <c r="B555">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44502</v>
+        <v>44539</v>
       </c>
       <c r="B556">
         <v>3</v>
@@ -4839,39 +4839,39 @@
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44503</v>
+        <v>44540</v>
       </c>
       <c r="B557">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44504</v>
+        <v>44541</v>
       </c>
       <c r="B558">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44505</v>
+        <v>44542</v>
       </c>
       <c r="B559">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44506</v>
+        <v>44543</v>
       </c>
       <c r="B560">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44508</v>
+        <v>44544</v>
       </c>
       <c r="B561">
         <v>1</v>
@@ -4879,63 +4879,63 @@
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44510</v>
+        <v>44545</v>
       </c>
       <c r="B562">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44511</v>
+        <v>44546</v>
       </c>
       <c r="B563">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44512</v>
+        <v>44547</v>
       </c>
       <c r="B564">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44513</v>
+        <v>44548</v>
       </c>
       <c r="B565">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44516</v>
+        <v>44549</v>
       </c>
       <c r="B566">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44517</v>
+        <v>44550</v>
       </c>
       <c r="B567">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44518</v>
+        <v>44551</v>
       </c>
       <c r="B568">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44519</v>
+        <v>44552</v>
       </c>
       <c r="B569">
         <v>1</v>
@@ -4943,55 +4943,55 @@
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44520</v>
+        <v>44553</v>
       </c>
       <c r="B570">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44521</v>
+        <v>44554</v>
       </c>
       <c r="B571">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44522</v>
+        <v>44558</v>
       </c>
       <c r="B572">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44523</v>
+        <v>44560</v>
       </c>
       <c r="B573">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44524</v>
+        <v>44561</v>
       </c>
       <c r="B574">
-        <v>6</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44525</v>
+        <v>44564</v>
       </c>
       <c r="B575">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44526</v>
+        <v>44565</v>
       </c>
       <c r="B576">
         <v>2</v>
@@ -4999,569 +4999,313 @@
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44527</v>
+        <v>44566</v>
       </c>
       <c r="B577">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44529</v>
+        <v>44567</v>
       </c>
       <c r="B578">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>44530</v>
+        <v>44568</v>
       </c>
       <c r="B579">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2">
-        <v>44531</v>
+        <v>44569</v>
       </c>
       <c r="B580">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2">
-        <v>44532</v>
+        <v>44570</v>
       </c>
       <c r="B581">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2">
-        <v>44533</v>
+        <v>44571</v>
       </c>
       <c r="B582">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2">
-        <v>44534</v>
+        <v>44572</v>
       </c>
       <c r="B583">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2">
-        <v>44536</v>
+        <v>44573</v>
       </c>
       <c r="B584">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2">
-        <v>44537</v>
+        <v>44574</v>
       </c>
       <c r="B585">
-        <v>8</v>
+        <v>91</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2">
-        <v>44538</v>
+        <v>44575</v>
       </c>
       <c r="B586">
-        <v>1</v>
+        <v>111</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2">
-        <v>44539</v>
+        <v>44576</v>
       </c>
       <c r="B587">
-        <v>3</v>
+        <v>49</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2">
-        <v>44540</v>
+        <v>44577</v>
       </c>
       <c r="B588">
-        <v>4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="2">
-        <v>44541</v>
+        <v>44578</v>
       </c>
       <c r="B589">
-        <v>3</v>
+        <v>237</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2">
-        <v>44542</v>
+        <v>44579</v>
       </c>
       <c r="B590">
-        <v>1</v>
+        <v>96</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="2">
-        <v>44543</v>
+        <v>44580</v>
       </c>
       <c r="B591">
-        <v>7</v>
+        <v>233</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2">
-        <v>44544</v>
+        <v>44581</v>
       </c>
       <c r="B592">
-        <v>1</v>
+        <v>335</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="2">
-        <v>44545</v>
+        <v>44582</v>
       </c>
       <c r="B593">
-        <v>7</v>
+        <v>339</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2">
-        <v>44546</v>
+        <v>44583</v>
       </c>
       <c r="B594">
-        <v>7</v>
+        <v>430</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="2">
-        <v>44547</v>
+        <v>44584</v>
       </c>
       <c r="B595">
-        <v>2</v>
+        <v>132</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2">
-        <v>44548</v>
+        <v>44585</v>
       </c>
       <c r="B596">
-        <v>9</v>
+        <v>584</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="2">
-        <v>44549</v>
+        <v>44586</v>
       </c>
       <c r="B597">
-        <v>1</v>
+        <v>353</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2">
-        <v>44550</v>
+        <v>44587</v>
       </c>
       <c r="B598">
-        <v>3</v>
+        <v>401</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="2">
-        <v>44551</v>
+        <v>44588</v>
       </c>
       <c r="B599">
-        <v>9</v>
+        <v>331</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="2">
-        <v>44552</v>
+        <v>44589</v>
       </c>
       <c r="B600">
-        <v>1</v>
+        <v>390</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="2">
-        <v>44553</v>
+        <v>44590</v>
       </c>
       <c r="B601">
-        <v>9</v>
+        <v>320</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="2">
-        <v>44554</v>
+        <v>44591</v>
       </c>
       <c r="B602">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="2">
-        <v>44556</v>
+        <v>44592</v>
       </c>
       <c r="B603">
-        <v>1</v>
+        <v>146</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="2">
-        <v>44557</v>
+        <v>44593</v>
       </c>
       <c r="B604">
-        <v>2</v>
+        <v>118</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="2">
-        <v>44558</v>
+        <v>44594</v>
       </c>
       <c r="B605">
-        <v>12</v>
+        <v>183</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="2">
-        <v>44559</v>
+        <v>44595</v>
       </c>
       <c r="B606">
-        <v>6</v>
+        <v>192</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="2">
-        <v>44560</v>
+        <v>44596</v>
       </c>
       <c r="B607">
-        <v>18</v>
+        <v>147</v>
       </c>
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="2">
-        <v>44561</v>
+        <v>44597</v>
       </c>
       <c r="B608">
-        <v>10</v>
+        <v>177</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="2">
-        <v>44563</v>
+        <v>44598</v>
       </c>
       <c r="B609">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="2">
-        <v>44564</v>
+        <v>44599</v>
       </c>
       <c r="B610">
-        <v>9</v>
+        <v>71</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" s="2">
-        <v>44565</v>
+        <v>44600</v>
       </c>
       <c r="B611">
-        <v>21</v>
+        <v>67</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" s="2">
-        <v>44566</v>
+        <v>44601</v>
       </c>
       <c r="B612">
-        <v>22</v>
+        <v>66</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="2">
-        <v>44567</v>
+        <v>44602</v>
       </c>
       <c r="B613">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="2">
-        <v>44568</v>
+        <v>44603</v>
       </c>
       <c r="B614">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" s="2">
-        <v>44569</v>
+        <v>44604</v>
       </c>
       <c r="B615">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="616" spans="1:2">
-      <c r="A616" s="2">
-        <v>44570</v>
-      </c>
-      <c r="B616">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="617" spans="1:2">
-      <c r="A617" s="2">
-        <v>44571</v>
-      </c>
-      <c r="B617">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="618" spans="1:2">
-      <c r="A618" s="2">
-        <v>44572</v>
-      </c>
-      <c r="B618">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="619" spans="1:2">
-      <c r="A619" s="2">
-        <v>44573</v>
-      </c>
-      <c r="B619">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="620" spans="1:2">
-      <c r="A620" s="2">
-        <v>44574</v>
-      </c>
-      <c r="B620">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="621" spans="1:2">
-      <c r="A621" s="2">
-        <v>44575</v>
-      </c>
-      <c r="B621">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="622" spans="1:2">
-      <c r="A622" s="2">
-        <v>44576</v>
-      </c>
-      <c r="B622">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="623" spans="1:2">
-      <c r="A623" s="2">
-        <v>44577</v>
-      </c>
-      <c r="B623">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="624" spans="1:2">
-      <c r="A624" s="2">
-        <v>44578</v>
-      </c>
-      <c r="B624">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="625" spans="1:2">
-      <c r="A625" s="2">
-        <v>44579</v>
-      </c>
-      <c r="B625">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="626" spans="1:2">
-      <c r="A626" s="2">
-        <v>44580</v>
-      </c>
-      <c r="B626">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="627" spans="1:2">
-      <c r="A627" s="2">
-        <v>44581</v>
-      </c>
-      <c r="B627">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="628" spans="1:2">
-      <c r="A628" s="2">
-        <v>44582</v>
-      </c>
-      <c r="B628">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="629" spans="1:2">
-      <c r="A629" s="2">
-        <v>44583</v>
-      </c>
-      <c r="B629">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="630" spans="1:2">
-      <c r="A630" s="2">
-        <v>44584</v>
-      </c>
-      <c r="B630">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="631" spans="1:2">
-      <c r="A631" s="2">
-        <v>44585</v>
-      </c>
-      <c r="B631">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="632" spans="1:2">
-      <c r="A632" s="2">
-        <v>44586</v>
-      </c>
-      <c r="B632">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="633" spans="1:2">
-      <c r="A633" s="2">
-        <v>44587</v>
-      </c>
-      <c r="B633">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="634" spans="1:2">
-      <c r="A634" s="2">
-        <v>44588</v>
-      </c>
-      <c r="B634">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="635" spans="1:2">
-      <c r="A635" s="2">
-        <v>44589</v>
-      </c>
-      <c r="B635">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="636" spans="1:2">
-      <c r="A636" s="2">
-        <v>44590</v>
-      </c>
-      <c r="B636">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="637" spans="1:2">
-      <c r="A637" s="2">
-        <v>44591</v>
-      </c>
-      <c r="B637">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="638" spans="1:2">
-      <c r="A638" s="2">
-        <v>44592</v>
-      </c>
-      <c r="B638">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="639" spans="1:2">
-      <c r="A639" s="2">
-        <v>44593</v>
-      </c>
-      <c r="B639">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="640" spans="1:2">
-      <c r="A640" s="2">
-        <v>44594</v>
-      </c>
-      <c r="B640">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="641" spans="1:2">
-      <c r="A641" s="2">
-        <v>44595</v>
-      </c>
-      <c r="B641">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="642" spans="1:2">
-      <c r="A642" s="2">
-        <v>44596</v>
-      </c>
-      <c r="B642">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="643" spans="1:2">
-      <c r="A643" s="2">
-        <v>44597</v>
-      </c>
-      <c r="B643">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="644" spans="1:2">
-      <c r="A644" s="2">
-        <v>44598</v>
-      </c>
-      <c r="B644">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="645" spans="1:2">
-      <c r="A645" s="2">
-        <v>44599</v>
-      </c>
-      <c r="B645">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="646" spans="1:2">
-      <c r="A646" s="2">
-        <v>44600</v>
-      </c>
-      <c r="B646">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="647" spans="1:2">
-      <c r="A647" s="2">
-        <v>44601</v>
-      </c>
-      <c r="B647">
         <v>24</v>
       </c>
     </row>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B615"/>
+  <dimension ref="A1:B617"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5106,7 +5106,7 @@
         <v>44579</v>
       </c>
       <c r="B590">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -5154,7 +5154,7 @@
         <v>44585</v>
       </c>
       <c r="B596">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5162,7 +5162,7 @@
         <v>44586</v>
       </c>
       <c r="B597">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -5186,7 +5186,7 @@
         <v>44589</v>
       </c>
       <c r="B600">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -5290,7 +5290,7 @@
         <v>44602</v>
       </c>
       <c r="B613">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5298,7 +5298,7 @@
         <v>44603</v>
       </c>
       <c r="B614">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5306,7 +5306,23 @@
         <v>44604</v>
       </c>
       <c r="B615">
-        <v>24</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2">
+      <c r="A616" s="2">
+        <v>44605</v>
+      </c>
+      <c r="B616">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2">
+      <c r="A617" s="2">
+        <v>44606</v>
+      </c>
+      <c r="B617">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B617"/>
+  <dimension ref="A1:B618"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5082,7 +5082,7 @@
         <v>44576</v>
       </c>
       <c r="B587">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -5154,7 +5154,7 @@
         <v>44585</v>
       </c>
       <c r="B596">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5266,7 +5266,7 @@
         <v>44599</v>
       </c>
       <c r="B610">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -5298,7 +5298,7 @@
         <v>44603</v>
       </c>
       <c r="B614">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5306,7 +5306,7 @@
         <v>44604</v>
       </c>
       <c r="B615">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5322,7 +5322,15 @@
         <v>44606</v>
       </c>
       <c r="B617">
-        <v>16</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2">
+      <c r="A618" s="2">
+        <v>44607</v>
+      </c>
+      <c r="B618">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B618"/>
+  <dimension ref="A1:B654"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -938,7 +938,7 @@
         <v>43993</v>
       </c>
       <c r="B69">
-        <v>183</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -946,7 +946,7 @@
         <v>43994</v>
       </c>
       <c r="B70">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2119,175 +2119,175 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44141</v>
+        <v>44142</v>
       </c>
       <c r="B217">
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44142</v>
+        <v>44143</v>
       </c>
       <c r="B218">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44143</v>
+        <v>44144</v>
       </c>
       <c r="B219">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44144</v>
+        <v>44145</v>
       </c>
       <c r="B220">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44145</v>
+        <v>44146</v>
       </c>
       <c r="B221">
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44146</v>
+        <v>44147</v>
       </c>
       <c r="B222">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="B223">
-        <v>38</v>
+        <v>72</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44148</v>
+        <v>44149</v>
       </c>
       <c r="B224">
-        <v>72</v>
+        <v>22</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44149</v>
+        <v>44150</v>
       </c>
       <c r="B225">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44150</v>
+        <v>44151</v>
       </c>
       <c r="B226">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44151</v>
+        <v>44152</v>
       </c>
       <c r="B227">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44152</v>
+        <v>44153</v>
       </c>
       <c r="B228">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44153</v>
+        <v>44154</v>
       </c>
       <c r="B229">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44154</v>
+        <v>44155</v>
       </c>
       <c r="B230">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44155</v>
+        <v>44156</v>
       </c>
       <c r="B231">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44156</v>
+        <v>44157</v>
       </c>
       <c r="B232">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44157</v>
+        <v>44158</v>
       </c>
       <c r="B233">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44158</v>
+        <v>44159</v>
       </c>
       <c r="B234">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44159</v>
+        <v>44160</v>
       </c>
       <c r="B235">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="B236">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44161</v>
+        <v>44162</v>
       </c>
       <c r="B237">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44162</v>
+        <v>44163</v>
       </c>
       <c r="B238">
         <v>5</v>
@@ -2295,175 +2295,175 @@
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44163</v>
+        <v>44164</v>
       </c>
       <c r="B239">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44164</v>
+        <v>44165</v>
       </c>
       <c r="B240">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44165</v>
+        <v>44166</v>
       </c>
       <c r="B241">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44166</v>
+        <v>44167</v>
       </c>
       <c r="B242">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44167</v>
+        <v>44168</v>
       </c>
       <c r="B243">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44168</v>
+        <v>44169</v>
       </c>
       <c r="B244">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44169</v>
+        <v>44170</v>
       </c>
       <c r="B245">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44170</v>
+        <v>44172</v>
       </c>
       <c r="B246">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44171</v>
+        <v>44173</v>
       </c>
       <c r="B247">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44172</v>
+        <v>44174</v>
       </c>
       <c r="B248">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44173</v>
+        <v>44175</v>
       </c>
       <c r="B249">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44174</v>
+        <v>44176</v>
       </c>
       <c r="B250">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44175</v>
+        <v>44177</v>
       </c>
       <c r="B251">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44176</v>
+        <v>44178</v>
       </c>
       <c r="B252">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44177</v>
+        <v>44179</v>
       </c>
       <c r="B253">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44178</v>
+        <v>44180</v>
       </c>
       <c r="B254">
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44179</v>
+        <v>44181</v>
       </c>
       <c r="B255">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44180</v>
+        <v>44182</v>
       </c>
       <c r="B256">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44181</v>
+        <v>44183</v>
       </c>
       <c r="B257">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44182</v>
+        <v>44184</v>
       </c>
       <c r="B258">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44183</v>
+        <v>44185</v>
       </c>
       <c r="B259">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44184</v>
+        <v>44186</v>
       </c>
       <c r="B260">
         <v>27</v>
@@ -2471,1114 +2471,1114 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44185</v>
+        <v>44187</v>
       </c>
       <c r="B261">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44186</v>
+        <v>44188</v>
       </c>
       <c r="B262">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44187</v>
+        <v>44189</v>
       </c>
       <c r="B263">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44188</v>
+        <v>44190</v>
       </c>
       <c r="B264">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44189</v>
+        <v>44191</v>
       </c>
       <c r="B265">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44190</v>
+        <v>44192</v>
       </c>
       <c r="B266">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44191</v>
+        <v>44193</v>
       </c>
       <c r="B267">
-        <v>35</v>
+        <v>59</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44192</v>
+        <v>44194</v>
       </c>
       <c r="B268">
-        <v>14</v>
+        <v>59</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44193</v>
+        <v>44195</v>
       </c>
       <c r="B269">
-        <v>59</v>
+        <v>28</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44194</v>
+        <v>44196</v>
       </c>
       <c r="B270">
-        <v>59</v>
+        <v>3</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44195</v>
+        <v>44197</v>
       </c>
       <c r="B271">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44196</v>
+        <v>44198</v>
       </c>
       <c r="B272">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44197</v>
+        <v>44199</v>
       </c>
       <c r="B273">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44198</v>
+        <v>44200</v>
       </c>
       <c r="B274">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44199</v>
+        <v>44201</v>
       </c>
       <c r="B275">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44200</v>
+        <v>44202</v>
       </c>
       <c r="B276">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44201</v>
+        <v>44203</v>
       </c>
       <c r="B277">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44202</v>
+        <v>44204</v>
       </c>
       <c r="B278">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44203</v>
+        <v>44205</v>
       </c>
       <c r="B279">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44204</v>
+        <v>44206</v>
       </c>
       <c r="B280">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44205</v>
+        <v>44207</v>
       </c>
       <c r="B281">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44206</v>
+        <v>44208</v>
       </c>
       <c r="B282">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44207</v>
+        <v>44209</v>
       </c>
       <c r="B283">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44208</v>
+        <v>44210</v>
       </c>
       <c r="B284">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44209</v>
+        <v>44211</v>
       </c>
       <c r="B285">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44210</v>
+        <v>44212</v>
       </c>
       <c r="B286">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44211</v>
+        <v>44213</v>
       </c>
       <c r="B287">
-        <v>61</v>
+        <v>15</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44212</v>
+        <v>44214</v>
       </c>
       <c r="B288">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44213</v>
+        <v>44215</v>
       </c>
       <c r="B289">
-        <v>14</v>
+        <v>52</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44214</v>
+        <v>44216</v>
       </c>
       <c r="B290">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44215</v>
+        <v>44217</v>
       </c>
       <c r="B291">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44216</v>
+        <v>44218</v>
       </c>
       <c r="B292">
-        <v>32</v>
+        <v>61</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44217</v>
+        <v>44219</v>
       </c>
       <c r="B293">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44218</v>
+        <v>44220</v>
       </c>
       <c r="B294">
-        <v>52</v>
+        <v>14</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44219</v>
+        <v>44221</v>
       </c>
       <c r="B295">
-        <v>36</v>
+        <v>58</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44220</v>
+        <v>44222</v>
       </c>
       <c r="B296">
-        <v>14</v>
+        <v>59</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44221</v>
+        <v>44223</v>
       </c>
       <c r="B297">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44222</v>
+        <v>44224</v>
       </c>
       <c r="B298">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44223</v>
+        <v>44225</v>
       </c>
       <c r="B299">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44224</v>
+        <v>44226</v>
       </c>
       <c r="B300">
-        <v>38</v>
+        <v>62</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44225</v>
+        <v>44227</v>
       </c>
       <c r="B301">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44226</v>
+        <v>44228</v>
       </c>
       <c r="B302">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44227</v>
+        <v>44229</v>
       </c>
       <c r="B303">
-        <v>9</v>
+        <v>66</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44228</v>
+        <v>44230</v>
       </c>
       <c r="B304">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44229</v>
+        <v>44231</v>
       </c>
       <c r="B305">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44230</v>
+        <v>44232</v>
       </c>
       <c r="B306">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44231</v>
+        <v>44233</v>
       </c>
       <c r="B307">
-        <v>28</v>
+        <v>59</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44232</v>
+        <v>44234</v>
       </c>
       <c r="B308">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44233</v>
+        <v>44235</v>
       </c>
       <c r="B309">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44234</v>
+        <v>44236</v>
       </c>
       <c r="B310">
-        <v>8</v>
+        <v>63</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44235</v>
+        <v>44237</v>
       </c>
       <c r="B311">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="B312">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44237</v>
+        <v>44239</v>
       </c>
       <c r="B313">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44238</v>
+        <v>44240</v>
       </c>
       <c r="B314">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44239</v>
+        <v>44241</v>
       </c>
       <c r="B315">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44240</v>
+        <v>44242</v>
       </c>
       <c r="B316">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44241</v>
+        <v>44243</v>
       </c>
       <c r="B317">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44242</v>
+        <v>44244</v>
       </c>
       <c r="B318">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44243</v>
+        <v>44245</v>
       </c>
       <c r="B319">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44244</v>
+        <v>44246</v>
       </c>
       <c r="B320">
-        <v>37</v>
+        <v>63</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44245</v>
+        <v>44247</v>
       </c>
       <c r="B321">
-        <v>33</v>
+        <v>71</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44246</v>
+        <v>44248</v>
       </c>
       <c r="B322">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44247</v>
+        <v>44249</v>
       </c>
       <c r="B323">
-        <v>35</v>
+        <v>81</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44248</v>
+        <v>44250</v>
       </c>
       <c r="B324">
-        <v>13</v>
+        <v>77</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44249</v>
+        <v>44251</v>
       </c>
       <c r="B325">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44250</v>
+        <v>44252</v>
       </c>
       <c r="B326">
-        <v>46</v>
+        <v>82</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44251</v>
+        <v>44253</v>
       </c>
       <c r="B327">
-        <v>19</v>
+        <v>74</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44252</v>
+        <v>44254</v>
       </c>
       <c r="B328">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44253</v>
+        <v>44255</v>
       </c>
       <c r="B329">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44254</v>
+        <v>44256</v>
       </c>
       <c r="B330">
-        <v>25</v>
+        <v>91</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44255</v>
+        <v>44257</v>
       </c>
       <c r="B331">
-        <v>6</v>
+        <v>97</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44256</v>
+        <v>44258</v>
       </c>
       <c r="B332">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44257</v>
+        <v>44259</v>
       </c>
       <c r="B333">
-        <v>51</v>
+        <v>106</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44258</v>
+        <v>44260</v>
       </c>
       <c r="B334">
-        <v>34</v>
+        <v>128</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44259</v>
+        <v>44261</v>
       </c>
       <c r="B335">
-        <v>26</v>
+        <v>100</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44260</v>
+        <v>44262</v>
       </c>
       <c r="B336">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44261</v>
+        <v>44263</v>
       </c>
       <c r="B337">
-        <v>37</v>
+        <v>147</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44262</v>
+        <v>44264</v>
       </c>
       <c r="B338">
-        <v>8</v>
+        <v>133</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44263</v>
+        <v>44265</v>
       </c>
       <c r="B339">
-        <v>34</v>
+        <v>175</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44264</v>
+        <v>44266</v>
       </c>
       <c r="B340">
-        <v>34</v>
+        <v>193</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44265</v>
+        <v>44267</v>
       </c>
       <c r="B341">
-        <v>63</v>
+        <v>133</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44266</v>
+        <v>44268</v>
       </c>
       <c r="B342">
-        <v>85</v>
+        <v>126</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44267</v>
+        <v>44269</v>
       </c>
       <c r="B343">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44268</v>
+        <v>44270</v>
       </c>
       <c r="B344">
-        <v>19</v>
+        <v>265</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44269</v>
+        <v>44271</v>
       </c>
       <c r="B345">
-        <v>1</v>
+        <v>162</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44270</v>
+        <v>44272</v>
       </c>
       <c r="B346">
-        <v>73</v>
+        <v>205</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44271</v>
+        <v>44273</v>
       </c>
       <c r="B347">
-        <v>27</v>
+        <v>220</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44272</v>
+        <v>44274</v>
       </c>
       <c r="B348">
-        <v>48</v>
+        <v>199</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44273</v>
+        <v>44275</v>
       </c>
       <c r="B349">
-        <v>41</v>
+        <v>160</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44274</v>
+        <v>44276</v>
       </c>
       <c r="B350">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44275</v>
+        <v>44277</v>
       </c>
       <c r="B351">
-        <v>30</v>
+        <v>214</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44276</v>
+        <v>44278</v>
       </c>
       <c r="B352">
-        <v>3</v>
+        <v>184</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="B353">
-        <v>29</v>
+        <v>199</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44278</v>
+        <v>44280</v>
       </c>
       <c r="B354">
-        <v>41</v>
+        <v>198</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44279</v>
+        <v>44281</v>
       </c>
       <c r="B355">
-        <v>52</v>
+        <v>169</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44280</v>
+        <v>44282</v>
       </c>
       <c r="B356">
-        <v>57</v>
+        <v>141</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44281</v>
+        <v>44283</v>
       </c>
       <c r="B357">
-        <v>25</v>
+        <v>57</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44282</v>
+        <v>44284</v>
       </c>
       <c r="B358">
-        <v>12</v>
+        <v>146</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44283</v>
+        <v>44285</v>
       </c>
       <c r="B359">
-        <v>32</v>
+        <v>172</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44284</v>
+        <v>44286</v>
       </c>
       <c r="B360">
-        <v>18</v>
+        <v>137</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44285</v>
+        <v>44287</v>
       </c>
       <c r="B361">
-        <v>29</v>
+        <v>110</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44286</v>
+        <v>44288</v>
       </c>
       <c r="B362">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44287</v>
+        <v>44289</v>
       </c>
       <c r="B363">
-        <v>43</v>
+        <v>112</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44288</v>
+        <v>44290</v>
       </c>
       <c r="B364">
-        <v>2</v>
+        <v>61</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44289</v>
+        <v>44291</v>
       </c>
       <c r="B365">
-        <v>9</v>
+        <v>183</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44290</v>
+        <v>44292</v>
       </c>
       <c r="B366">
-        <v>3</v>
+        <v>170</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44291</v>
+        <v>44293</v>
       </c>
       <c r="B367">
-        <v>26</v>
+        <v>133</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44292</v>
+        <v>44294</v>
       </c>
       <c r="B368">
-        <v>33</v>
+        <v>122</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44293</v>
+        <v>44295</v>
       </c>
       <c r="B369">
-        <v>39</v>
+        <v>121</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44294</v>
+        <v>44296</v>
       </c>
       <c r="B370">
-        <v>25</v>
+        <v>98</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44295</v>
+        <v>44297</v>
       </c>
       <c r="B371">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44296</v>
+        <v>44298</v>
       </c>
       <c r="B372">
-        <v>27</v>
+        <v>86</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44297</v>
+        <v>44299</v>
       </c>
       <c r="B373">
-        <v>2</v>
+        <v>130</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44298</v>
+        <v>44300</v>
       </c>
       <c r="B374">
-        <v>11</v>
+        <v>109</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44299</v>
+        <v>44301</v>
       </c>
       <c r="B375">
-        <v>48</v>
+        <v>111</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44300</v>
+        <v>44302</v>
       </c>
       <c r="B376">
-        <v>30</v>
+        <v>95</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44301</v>
+        <v>44303</v>
       </c>
       <c r="B377">
-        <v>17</v>
+        <v>98</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44302</v>
+        <v>44304</v>
       </c>
       <c r="B378">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44303</v>
+        <v>44305</v>
       </c>
       <c r="B379">
-        <v>25</v>
+        <v>91</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44304</v>
+        <v>44306</v>
       </c>
       <c r="B380">
-        <v>2</v>
+        <v>101</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44305</v>
+        <v>44307</v>
       </c>
       <c r="B381">
-        <v>9</v>
+        <v>116</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44306</v>
+        <v>44308</v>
       </c>
       <c r="B382">
-        <v>45</v>
+        <v>93</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44307</v>
+        <v>44309</v>
       </c>
       <c r="B383">
-        <v>26</v>
+        <v>60</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44308</v>
+        <v>44310</v>
       </c>
       <c r="B384">
-        <v>31</v>
+        <v>97</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44309</v>
+        <v>44311</v>
       </c>
       <c r="B385">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44310</v>
+        <v>44312</v>
       </c>
       <c r="B386">
-        <v>34</v>
+        <v>79</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44311</v>
+        <v>44313</v>
       </c>
       <c r="B387">
-        <v>1</v>
+        <v>95</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44312</v>
+        <v>44314</v>
       </c>
       <c r="B388">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44313</v>
+        <v>44315</v>
       </c>
       <c r="B389">
-        <v>37</v>
+        <v>71</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44314</v>
+        <v>44316</v>
       </c>
       <c r="B390">
-        <v>13</v>
+        <v>65</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44315</v>
+        <v>44317</v>
       </c>
       <c r="B391">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44316</v>
+        <v>44318</v>
       </c>
       <c r="B392">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44317</v>
+        <v>44319</v>
       </c>
       <c r="B393">
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44319</v>
+        <v>44320</v>
       </c>
       <c r="B394">
-        <v>5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44320</v>
+        <v>44321</v>
       </c>
       <c r="B395">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44321</v>
+        <v>44322</v>
       </c>
       <c r="B396">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="B397">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44323</v>
+        <v>44324</v>
       </c>
       <c r="B398">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44324</v>
+        <v>44325</v>
       </c>
       <c r="B399">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3586,7 +3586,7 @@
         <v>44326</v>
       </c>
       <c r="B400">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3594,7 +3594,7 @@
         <v>44327</v>
       </c>
       <c r="B401">
-        <v>11</v>
+        <v>69</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3602,7 +3602,7 @@
         <v>44328</v>
       </c>
       <c r="B402">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3610,7 +3610,7 @@
         <v>44329</v>
       </c>
       <c r="B403">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3618,7 +3618,7 @@
         <v>44330</v>
       </c>
       <c r="B404">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3626,7 +3626,7 @@
         <v>44331</v>
       </c>
       <c r="B405">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3634,7 +3634,7 @@
         <v>44332</v>
       </c>
       <c r="B406">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3642,7 +3642,7 @@
         <v>44333</v>
       </c>
       <c r="B407">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3650,7 +3650,7 @@
         <v>44334</v>
       </c>
       <c r="B408">
-        <v>10</v>
+        <v>62</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3658,7 +3658,7 @@
         <v>44335</v>
       </c>
       <c r="B409">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3666,7 +3666,7 @@
         <v>44336</v>
       </c>
       <c r="B410">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3674,7 +3674,7 @@
         <v>44337</v>
       </c>
       <c r="B411">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3682,7 +3682,7 @@
         <v>44338</v>
       </c>
       <c r="B412">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3690,7 +3690,7 @@
         <v>44339</v>
       </c>
       <c r="B413">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3698,7 +3698,7 @@
         <v>44340</v>
       </c>
       <c r="B414">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3706,7 +3706,7 @@
         <v>44341</v>
       </c>
       <c r="B415">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3714,7 +3714,7 @@
         <v>44342</v>
       </c>
       <c r="B416">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3722,7 +3722,7 @@
         <v>44343</v>
       </c>
       <c r="B417">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3730,7 +3730,7 @@
         <v>44344</v>
       </c>
       <c r="B418">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3738,236 +3738,236 @@
         <v>44345</v>
       </c>
       <c r="B419">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44347</v>
+        <v>44346</v>
       </c>
       <c r="B420">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44348</v>
+        <v>44347</v>
       </c>
       <c r="B421">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44349</v>
+        <v>44348</v>
       </c>
       <c r="B422">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="B423">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44351</v>
+        <v>44350</v>
       </c>
       <c r="B424">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44352</v>
+        <v>44351</v>
       </c>
       <c r="B425">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44353</v>
+        <v>44352</v>
       </c>
       <c r="B426">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44354</v>
+        <v>44353</v>
       </c>
       <c r="B427">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44355</v>
+        <v>44354</v>
       </c>
       <c r="B428">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44356</v>
+        <v>44355</v>
       </c>
       <c r="B429">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44357</v>
+        <v>44356</v>
       </c>
       <c r="B430">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44358</v>
+        <v>44357</v>
       </c>
       <c r="B431">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44359</v>
+        <v>44358</v>
       </c>
       <c r="B432">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44361</v>
+        <v>44359</v>
       </c>
       <c r="B433">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44362</v>
+        <v>44360</v>
       </c>
       <c r="B434">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44363</v>
+        <v>44361</v>
       </c>
       <c r="B435">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44364</v>
+        <v>44362</v>
       </c>
       <c r="B436">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44365</v>
+        <v>44363</v>
       </c>
       <c r="B437">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44366</v>
+        <v>44364</v>
       </c>
       <c r="B438">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44367</v>
+        <v>44365</v>
       </c>
       <c r="B439">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44368</v>
+        <v>44366</v>
       </c>
       <c r="B440">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44369</v>
+        <v>44367</v>
       </c>
       <c r="B441">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44370</v>
+        <v>44368</v>
       </c>
       <c r="B442">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44373</v>
+        <v>44369</v>
       </c>
       <c r="B443">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44375</v>
+        <v>44370</v>
       </c>
       <c r="B444">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44377</v>
+        <v>44371</v>
       </c>
       <c r="B445">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44378</v>
+        <v>44372</v>
       </c>
       <c r="B446">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44379</v>
+        <v>44373</v>
       </c>
       <c r="B447">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44380</v>
+        <v>44374</v>
       </c>
       <c r="B448">
         <v>1</v>
@@ -3975,103 +3975,103 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44382</v>
+        <v>44375</v>
       </c>
       <c r="B449">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44383</v>
+        <v>44376</v>
       </c>
       <c r="B450">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44384</v>
+        <v>44377</v>
       </c>
       <c r="B451">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44385</v>
+        <v>44378</v>
       </c>
       <c r="B452">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44386</v>
+        <v>44379</v>
       </c>
       <c r="B453">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44388</v>
+        <v>44380</v>
       </c>
       <c r="B454">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44389</v>
+        <v>44382</v>
       </c>
       <c r="B455">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44390</v>
+        <v>44383</v>
       </c>
       <c r="B456">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44393</v>
+        <v>44384</v>
       </c>
       <c r="B457">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44394</v>
+        <v>44385</v>
       </c>
       <c r="B458">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44396</v>
+        <v>44386</v>
       </c>
       <c r="B459">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44397</v>
+        <v>44387</v>
       </c>
       <c r="B460">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44398</v>
+        <v>44388</v>
       </c>
       <c r="B461">
         <v>3</v>
@@ -4079,15 +4079,15 @@
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="B462">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44400</v>
+        <v>44390</v>
       </c>
       <c r="B463">
         <v>3</v>
@@ -4095,47 +4095,47 @@
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44401</v>
+        <v>44391</v>
       </c>
       <c r="B464">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44403</v>
+        <v>44392</v>
       </c>
       <c r="B465">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44404</v>
+        <v>44393</v>
       </c>
       <c r="B466">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44405</v>
+        <v>44394</v>
       </c>
       <c r="B467">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44407</v>
+        <v>44395</v>
       </c>
       <c r="B468">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44408</v>
+        <v>44396</v>
       </c>
       <c r="B469">
         <v>2</v>
@@ -4143,127 +4143,127 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44410</v>
+        <v>44397</v>
       </c>
       <c r="B470">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44411</v>
+        <v>44398</v>
       </c>
       <c r="B471">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44412</v>
+        <v>44399</v>
       </c>
       <c r="B472">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44413</v>
+        <v>44400</v>
       </c>
       <c r="B473">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44416</v>
+        <v>44401</v>
       </c>
       <c r="B474">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44418</v>
+        <v>44403</v>
       </c>
       <c r="B475">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44419</v>
+        <v>44404</v>
       </c>
       <c r="B476">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44420</v>
+        <v>44405</v>
       </c>
       <c r="B477">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44421</v>
+        <v>44407</v>
       </c>
       <c r="B478">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44424</v>
+        <v>44408</v>
       </c>
       <c r="B479">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44425</v>
+        <v>44409</v>
       </c>
       <c r="B480">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44426</v>
+        <v>44410</v>
       </c>
       <c r="B481">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44427</v>
+        <v>44411</v>
       </c>
       <c r="B482">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44428</v>
+        <v>44412</v>
       </c>
       <c r="B483">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44430</v>
+        <v>44413</v>
       </c>
       <c r="B484">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44431</v>
+        <v>44414</v>
       </c>
       <c r="B485">
         <v>1</v>
@@ -4271,39 +4271,39 @@
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44432</v>
+        <v>44416</v>
       </c>
       <c r="B486">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44433</v>
+        <v>44418</v>
       </c>
       <c r="B487">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44439</v>
+        <v>44419</v>
       </c>
       <c r="B488">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44441</v>
+        <v>44420</v>
       </c>
       <c r="B489">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44442</v>
+        <v>44421</v>
       </c>
       <c r="B490">
         <v>2</v>
@@ -4311,47 +4311,47 @@
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44443</v>
+        <v>44422</v>
       </c>
       <c r="B491">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44444</v>
+        <v>44423</v>
       </c>
       <c r="B492">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44445</v>
+        <v>44424</v>
       </c>
       <c r="B493">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44446</v>
+        <v>44425</v>
       </c>
       <c r="B494">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44447</v>
+        <v>44426</v>
       </c>
       <c r="B495">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44448</v>
+        <v>44427</v>
       </c>
       <c r="B496">
         <v>3</v>
@@ -4359,55 +4359,55 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44449</v>
+        <v>44428</v>
       </c>
       <c r="B497">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44450</v>
+        <v>44430</v>
       </c>
       <c r="B498">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44453</v>
+        <v>44431</v>
       </c>
       <c r="B499">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44455</v>
+        <v>44432</v>
       </c>
       <c r="B500">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44456</v>
+        <v>44433</v>
       </c>
       <c r="B501">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44460</v>
+        <v>44434</v>
       </c>
       <c r="B502">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44461</v>
+        <v>44435</v>
       </c>
       <c r="B503">
         <v>2</v>
@@ -4415,23 +4415,23 @@
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44463</v>
+        <v>44436</v>
       </c>
       <c r="B504">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44464</v>
+        <v>44437</v>
       </c>
       <c r="B505">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44465</v>
+        <v>44438</v>
       </c>
       <c r="B506">
         <v>1</v>
@@ -4439,7 +4439,7 @@
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44466</v>
+        <v>44439</v>
       </c>
       <c r="B507">
         <v>2</v>
@@ -4447,79 +4447,79 @@
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44468</v>
+        <v>44440</v>
       </c>
       <c r="B508">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44469</v>
+        <v>44441</v>
       </c>
       <c r="B509">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44470</v>
+        <v>44442</v>
       </c>
       <c r="B510">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44474</v>
+        <v>44443</v>
       </c>
       <c r="B511">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44476</v>
+        <v>44444</v>
       </c>
       <c r="B512">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44477</v>
+        <v>44445</v>
       </c>
       <c r="B513">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44478</v>
+        <v>44446</v>
       </c>
       <c r="B514">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44480</v>
+        <v>44447</v>
       </c>
       <c r="B515">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44482</v>
+        <v>44448</v>
       </c>
       <c r="B516">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44484</v>
+        <v>44449</v>
       </c>
       <c r="B517">
         <v>2</v>
@@ -4527,23 +4527,23 @@
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44485</v>
+        <v>44450</v>
       </c>
       <c r="B518">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44488</v>
+        <v>44451</v>
       </c>
       <c r="B519">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44489</v>
+        <v>44453</v>
       </c>
       <c r="B520">
         <v>1</v>
@@ -4551,55 +4551,55 @@
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44490</v>
+        <v>44455</v>
       </c>
       <c r="B521">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44491</v>
+        <v>44456</v>
       </c>
       <c r="B522">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44493</v>
+        <v>44459</v>
       </c>
       <c r="B523">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44494</v>
+        <v>44460</v>
       </c>
       <c r="B524">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44495</v>
+        <v>44461</v>
       </c>
       <c r="B525">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44496</v>
+        <v>44463</v>
       </c>
       <c r="B526">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44497</v>
+        <v>44464</v>
       </c>
       <c r="B527">
         <v>3</v>
@@ -4607,15 +4607,15 @@
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44498</v>
+        <v>44465</v>
       </c>
       <c r="B528">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44500</v>
+        <v>44466</v>
       </c>
       <c r="B529">
         <v>3</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44502</v>
+        <v>44467</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44503</v>
+        <v>44468</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -4639,31 +4639,31 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44505</v>
+        <v>44469</v>
       </c>
       <c r="B532">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44506</v>
+        <v>44470</v>
       </c>
       <c r="B533">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44508</v>
+        <v>44474</v>
       </c>
       <c r="B534">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44510</v>
+        <v>44476</v>
       </c>
       <c r="B535">
         <v>2</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44511</v>
+        <v>44477</v>
       </c>
       <c r="B536">
         <v>1</v>
@@ -4679,15 +4679,15 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44512</v>
+        <v>44478</v>
       </c>
       <c r="B537">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44516</v>
+        <v>44480</v>
       </c>
       <c r="B538">
         <v>3</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44517</v>
+        <v>44481</v>
       </c>
       <c r="B539">
         <v>2</v>
@@ -4703,31 +4703,31 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44518</v>
+        <v>44482</v>
       </c>
       <c r="B540">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44520</v>
+        <v>44483</v>
       </c>
       <c r="B541">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44521</v>
+        <v>44484</v>
       </c>
       <c r="B542">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44522</v>
+        <v>44485</v>
       </c>
       <c r="B543">
         <v>1</v>
@@ -4735,103 +4735,103 @@
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44523</v>
+        <v>44488</v>
       </c>
       <c r="B544">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44524</v>
+        <v>44489</v>
       </c>
       <c r="B545">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44525</v>
+        <v>44490</v>
       </c>
       <c r="B546">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44526</v>
+        <v>44491</v>
       </c>
       <c r="B547">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44527</v>
+        <v>44493</v>
       </c>
       <c r="B548">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44530</v>
+        <v>44494</v>
       </c>
       <c r="B549">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44531</v>
+        <v>44495</v>
       </c>
       <c r="B550">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44532</v>
+        <v>44496</v>
       </c>
       <c r="B551">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44533</v>
+        <v>44497</v>
       </c>
       <c r="B552">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44534</v>
+        <v>44498</v>
       </c>
       <c r="B553">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44537</v>
+        <v>44499</v>
       </c>
       <c r="B554">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44538</v>
+        <v>44500</v>
       </c>
       <c r="B555">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44539</v>
+        <v>44502</v>
       </c>
       <c r="B556">
         <v>3</v>
@@ -4839,39 +4839,39 @@
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44540</v>
+        <v>44503</v>
       </c>
       <c r="B557">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44541</v>
+        <v>44504</v>
       </c>
       <c r="B558">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44542</v>
+        <v>44505</v>
       </c>
       <c r="B559">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44543</v>
+        <v>44506</v>
       </c>
       <c r="B560">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44544</v>
+        <v>44508</v>
       </c>
       <c r="B561">
         <v>1</v>
@@ -4879,63 +4879,63 @@
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44545</v>
+        <v>44510</v>
       </c>
       <c r="B562">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44546</v>
+        <v>44511</v>
       </c>
       <c r="B563">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44547</v>
+        <v>44512</v>
       </c>
       <c r="B564">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44548</v>
+        <v>44513</v>
       </c>
       <c r="B565">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44549</v>
+        <v>44516</v>
       </c>
       <c r="B566">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44550</v>
+        <v>44517</v>
       </c>
       <c r="B567">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44551</v>
+        <v>44518</v>
       </c>
       <c r="B568">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44552</v>
+        <v>44519</v>
       </c>
       <c r="B569">
         <v>1</v>
@@ -4943,55 +4943,55 @@
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44553</v>
+        <v>44520</v>
       </c>
       <c r="B570">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44554</v>
+        <v>44521</v>
       </c>
       <c r="B571">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44558</v>
+        <v>44522</v>
       </c>
       <c r="B572">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44560</v>
+        <v>44523</v>
       </c>
       <c r="B573">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44561</v>
+        <v>44524</v>
       </c>
       <c r="B574">
-        <v>8100</v>
+        <v>6</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44564</v>
+        <v>44525</v>
       </c>
       <c r="B575">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44565</v>
+        <v>44526</v>
       </c>
       <c r="B576">
         <v>2</v>
@@ -4999,338 +4999,626 @@
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44566</v>
+        <v>44527</v>
       </c>
       <c r="B577">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44567</v>
+        <v>44529</v>
       </c>
       <c r="B578">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>44568</v>
+        <v>44530</v>
       </c>
       <c r="B579">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2">
-        <v>44569</v>
+        <v>44531</v>
       </c>
       <c r="B580">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2">
-        <v>44570</v>
+        <v>44532</v>
       </c>
       <c r="B581">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2">
-        <v>44571</v>
+        <v>44533</v>
       </c>
       <c r="B582">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2">
-        <v>44572</v>
+        <v>44534</v>
       </c>
       <c r="B583">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2">
-        <v>44573</v>
+        <v>44536</v>
       </c>
       <c r="B584">
-        <v>39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2">
-        <v>44574</v>
+        <v>44537</v>
       </c>
       <c r="B585">
-        <v>91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2">
-        <v>44575</v>
+        <v>44538</v>
       </c>
       <c r="B586">
-        <v>111</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2">
-        <v>44576</v>
+        <v>44539</v>
       </c>
       <c r="B587">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2">
-        <v>44577</v>
+        <v>44540</v>
       </c>
       <c r="B588">
-        <v>46</v>
+        <v>4</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="2">
-        <v>44578</v>
+        <v>44541</v>
       </c>
       <c r="B589">
-        <v>237</v>
+        <v>3</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2">
-        <v>44579</v>
+        <v>44542</v>
       </c>
       <c r="B590">
-        <v>97</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="2">
-        <v>44580</v>
+        <v>44543</v>
       </c>
       <c r="B591">
-        <v>233</v>
+        <v>7</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2">
-        <v>44581</v>
+        <v>44544</v>
       </c>
       <c r="B592">
-        <v>335</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="2">
-        <v>44582</v>
+        <v>44545</v>
       </c>
       <c r="B593">
-        <v>339</v>
+        <v>7</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2">
-        <v>44583</v>
+        <v>44546</v>
       </c>
       <c r="B594">
-        <v>430</v>
+        <v>7</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="2">
-        <v>44584</v>
+        <v>44547</v>
       </c>
       <c r="B595">
-        <v>132</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2">
-        <v>44585</v>
+        <v>44548</v>
       </c>
       <c r="B596">
-        <v>589</v>
+        <v>9</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="2">
-        <v>44586</v>
+        <v>44549</v>
       </c>
       <c r="B597">
-        <v>355</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2">
-        <v>44587</v>
+        <v>44550</v>
       </c>
       <c r="B598">
-        <v>401</v>
+        <v>3</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="2">
-        <v>44588</v>
+        <v>44551</v>
       </c>
       <c r="B599">
-        <v>331</v>
+        <v>9</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="2">
-        <v>44589</v>
+        <v>44552</v>
       </c>
       <c r="B600">
-        <v>391</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="2">
-        <v>44590</v>
+        <v>44553</v>
       </c>
       <c r="B601">
-        <v>320</v>
+        <v>9</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="2">
-        <v>44591</v>
+        <v>44554</v>
       </c>
       <c r="B602">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="2">
-        <v>44592</v>
+        <v>44556</v>
       </c>
       <c r="B603">
-        <v>146</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="2">
-        <v>44593</v>
+        <v>44557</v>
       </c>
       <c r="B604">
-        <v>118</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="2">
-        <v>44594</v>
+        <v>44558</v>
       </c>
       <c r="B605">
-        <v>183</v>
+        <v>12</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="2">
-        <v>44595</v>
+        <v>44559</v>
       </c>
       <c r="B606">
-        <v>192</v>
+        <v>6</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="2">
-        <v>44596</v>
+        <v>44560</v>
       </c>
       <c r="B607">
-        <v>147</v>
+        <v>18</v>
       </c>
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="2">
-        <v>44597</v>
+        <v>44561</v>
       </c>
       <c r="B608">
-        <v>177</v>
+        <v>10</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="2">
-        <v>44598</v>
+        <v>44563</v>
       </c>
       <c r="B609">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="2">
-        <v>44599</v>
+        <v>44564</v>
       </c>
       <c r="B610">
-        <v>72</v>
+        <v>9</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" s="2">
-        <v>44600</v>
+        <v>44565</v>
       </c>
       <c r="B611">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" s="2">
-        <v>44601</v>
+        <v>44566</v>
       </c>
       <c r="B612">
-        <v>66</v>
+        <v>22</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="2">
-        <v>44602</v>
+        <v>44567</v>
       </c>
       <c r="B613">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="2">
-        <v>44603</v>
+        <v>44568</v>
       </c>
       <c r="B614">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" s="2">
-        <v>44604</v>
+        <v>44569</v>
       </c>
       <c r="B615">
-        <v>85</v>
+        <v>53</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" s="2">
-        <v>44605</v>
+        <v>44570</v>
       </c>
       <c r="B616">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" s="2">
-        <v>44606</v>
+        <v>44571</v>
       </c>
       <c r="B617">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" s="2">
+        <v>44572</v>
+      </c>
+      <c r="B618">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2">
+      <c r="A619" s="2">
+        <v>44573</v>
+      </c>
+      <c r="B619">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2">
+      <c r="A620" s="2">
+        <v>44574</v>
+      </c>
+      <c r="B620">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2">
+      <c r="A621" s="2">
+        <v>44575</v>
+      </c>
+      <c r="B621">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2">
+      <c r="A622" s="2">
+        <v>44576</v>
+      </c>
+      <c r="B622">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2">
+      <c r="A623" s="2">
+        <v>44577</v>
+      </c>
+      <c r="B623">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2">
+      <c r="A624" s="2">
+        <v>44578</v>
+      </c>
+      <c r="B624">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2">
+      <c r="A625" s="2">
+        <v>44579</v>
+      </c>
+      <c r="B625">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2">
+      <c r="A626" s="2">
+        <v>44580</v>
+      </c>
+      <c r="B626">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2">
+      <c r="A627" s="2">
+        <v>44581</v>
+      </c>
+      <c r="B627">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2">
+      <c r="A628" s="2">
+        <v>44582</v>
+      </c>
+      <c r="B628">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2">
+      <c r="A629" s="2">
+        <v>44583</v>
+      </c>
+      <c r="B629">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2">
+      <c r="A630" s="2">
+        <v>44584</v>
+      </c>
+      <c r="B630">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2">
+      <c r="A631" s="2">
+        <v>44585</v>
+      </c>
+      <c r="B631">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2">
+      <c r="A632" s="2">
+        <v>44586</v>
+      </c>
+      <c r="B632">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2">
+      <c r="A633" s="2">
+        <v>44587</v>
+      </c>
+      <c r="B633">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2">
+      <c r="A634" s="2">
+        <v>44588</v>
+      </c>
+      <c r="B634">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2">
+      <c r="A635" s="2">
+        <v>44589</v>
+      </c>
+      <c r="B635">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2">
+      <c r="A636" s="2">
+        <v>44590</v>
+      </c>
+      <c r="B636">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2">
+      <c r="A637" s="2">
+        <v>44591</v>
+      </c>
+      <c r="B637">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2">
+      <c r="A638" s="2">
+        <v>44592</v>
+      </c>
+      <c r="B638">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2">
+      <c r="A639" s="2">
+        <v>44593</v>
+      </c>
+      <c r="B639">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2">
+      <c r="A640" s="2">
+        <v>44594</v>
+      </c>
+      <c r="B640">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2">
+      <c r="A641" s="2">
+        <v>44595</v>
+      </c>
+      <c r="B641">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2">
+      <c r="A642" s="2">
+        <v>44596</v>
+      </c>
+      <c r="B642">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2">
+      <c r="A643" s="2">
+        <v>44597</v>
+      </c>
+      <c r="B643">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2">
+      <c r="A644" s="2">
+        <v>44598</v>
+      </c>
+      <c r="B644">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2">
+      <c r="A645" s="2">
+        <v>44599</v>
+      </c>
+      <c r="B645">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2">
+      <c r="A646" s="2">
+        <v>44600</v>
+      </c>
+      <c r="B646">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2">
+      <c r="A647" s="2">
+        <v>44601</v>
+      </c>
+      <c r="B647">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2">
+      <c r="A648" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B648">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2">
+      <c r="A649" s="2">
+        <v>44603</v>
+      </c>
+      <c r="B649">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2">
+      <c r="A650" s="2">
+        <v>44604</v>
+      </c>
+      <c r="B650">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2">
+      <c r="A651" s="2">
+        <v>44605</v>
+      </c>
+      <c r="B651">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2">
+      <c r="A652" s="2">
+        <v>44606</v>
+      </c>
+      <c r="B652">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2">
+      <c r="A653" s="2">
         <v>44607</v>
       </c>
-      <c r="B618">
-        <v>19</v>
+      <c r="B653">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2">
+      <c r="A654" s="2">
+        <v>44608</v>
+      </c>
+      <c r="B654">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B654"/>
+  <dimension ref="A1:B655"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5370,7 +5370,7 @@
         <v>44577</v>
       </c>
       <c r="B623">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -5378,7 +5378,7 @@
         <v>44578</v>
       </c>
       <c r="B624">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5442,7 +5442,7 @@
         <v>44586</v>
       </c>
       <c r="B632">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5506,7 +5506,7 @@
         <v>44594</v>
       </c>
       <c r="B640">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5522,7 +5522,7 @@
         <v>44596</v>
       </c>
       <c r="B642">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -5602,7 +5602,7 @@
         <v>44606</v>
       </c>
       <c r="B652">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -5618,6 +5618,14 @@
         <v>44608</v>
       </c>
       <c r="B654">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2">
+      <c r="A655" s="2">
+        <v>44609</v>
+      </c>
+      <c r="B655">
         <v>7</v>
       </c>
     </row>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B655"/>
+  <dimension ref="A1:B657"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5338,7 +5338,7 @@
         <v>44573</v>
       </c>
       <c r="B619">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -5394,7 +5394,7 @@
         <v>44580</v>
       </c>
       <c r="B626">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -5402,7 +5402,7 @@
         <v>44581</v>
       </c>
       <c r="B627">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -5442,7 +5442,7 @@
         <v>44586</v>
       </c>
       <c r="B632">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5498,7 +5498,7 @@
         <v>44593</v>
       </c>
       <c r="B639">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -5506,7 +5506,7 @@
         <v>44594</v>
       </c>
       <c r="B640">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5522,7 +5522,7 @@
         <v>44596</v>
       </c>
       <c r="B642">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -5530,7 +5530,7 @@
         <v>44597</v>
       </c>
       <c r="B643">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -5546,7 +5546,7 @@
         <v>44599</v>
       </c>
       <c r="B645">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -5562,7 +5562,7 @@
         <v>44601</v>
       </c>
       <c r="B647">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -5594,7 +5594,7 @@
         <v>44605</v>
       </c>
       <c r="B651">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -5618,7 +5618,7 @@
         <v>44608</v>
       </c>
       <c r="B654">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -5626,7 +5626,23 @@
         <v>44609</v>
       </c>
       <c r="B655">
-        <v>7</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2">
+      <c r="A656" s="2">
+        <v>44610</v>
+      </c>
+      <c r="B656">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2">
+      <c r="A657" s="2">
+        <v>44611</v>
+      </c>
+      <c r="B657">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B657"/>
+  <dimension ref="A1:B658"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5506,7 +5506,7 @@
         <v>44594</v>
       </c>
       <c r="B640">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5522,7 +5522,7 @@
         <v>44596</v>
       </c>
       <c r="B642">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -5642,6 +5642,14 @@
         <v>44611</v>
       </c>
       <c r="B657">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2">
+      <c r="A658" s="2">
+        <v>44612</v>
+      </c>
+      <c r="B658">
         <v>3</v>
       </c>
     </row>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B658"/>
+  <dimension ref="A1:B659"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5402,7 +5402,7 @@
         <v>44581</v>
       </c>
       <c r="B627">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -5410,7 +5410,7 @@
         <v>44582</v>
       </c>
       <c r="B628">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -5650,7 +5650,15 @@
         <v>44612</v>
       </c>
       <c r="B658">
-        <v>3</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2">
+      <c r="A659" s="2">
+        <v>44613</v>
+      </c>
+      <c r="B659">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B659"/>
+  <dimension ref="A1:B664"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5330,7 +5330,7 @@
         <v>44572</v>
       </c>
       <c r="B618">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5378,7 +5378,7 @@
         <v>44578</v>
       </c>
       <c r="B624">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5386,7 +5386,7 @@
         <v>44579</v>
       </c>
       <c r="B625">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5410,7 +5410,7 @@
         <v>44582</v>
       </c>
       <c r="B628">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -5434,7 +5434,7 @@
         <v>44585</v>
       </c>
       <c r="B631">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5442,7 +5442,7 @@
         <v>44586</v>
       </c>
       <c r="B632">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5450,7 +5450,7 @@
         <v>44587</v>
       </c>
       <c r="B633">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -5474,7 +5474,7 @@
         <v>44590</v>
       </c>
       <c r="B636">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5514,7 +5514,7 @@
         <v>44595</v>
       </c>
       <c r="B641">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -5530,7 +5530,7 @@
         <v>44597</v>
       </c>
       <c r="B643">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -5538,7 +5538,7 @@
         <v>44598</v>
       </c>
       <c r="B644">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -5562,7 +5562,7 @@
         <v>44601</v>
       </c>
       <c r="B647">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -5610,7 +5610,7 @@
         <v>44607</v>
       </c>
       <c r="B653">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -5618,7 +5618,7 @@
         <v>44608</v>
       </c>
       <c r="B654">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -5626,7 +5626,7 @@
         <v>44609</v>
       </c>
       <c r="B655">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5634,7 +5634,7 @@
         <v>44610</v>
       </c>
       <c r="B656">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5642,7 +5642,7 @@
         <v>44611</v>
       </c>
       <c r="B657">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -5650,7 +5650,7 @@
         <v>44612</v>
       </c>
       <c r="B658">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -5658,6 +5658,46 @@
         <v>44613</v>
       </c>
       <c r="B659">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2">
+      <c r="A660" s="2">
+        <v>44614</v>
+      </c>
+      <c r="B660">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2">
+      <c r="A661" s="2">
+        <v>44615</v>
+      </c>
+      <c r="B661">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2">
+      <c r="A662" s="2">
+        <v>44616</v>
+      </c>
+      <c r="B662">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2">
+      <c r="A663" s="2">
+        <v>44617</v>
+      </c>
+      <c r="B663">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2">
+      <c r="A664" s="2">
+        <v>44618</v>
+      </c>
+      <c r="B664">
         <v>4</v>
       </c>
     </row>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B664"/>
+  <dimension ref="A1:B667"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5402,7 +5402,7 @@
         <v>44581</v>
       </c>
       <c r="B627">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -5474,7 +5474,7 @@
         <v>44590</v>
       </c>
       <c r="B636">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5498,7 +5498,7 @@
         <v>44593</v>
       </c>
       <c r="B639">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -5626,7 +5626,7 @@
         <v>44609</v>
       </c>
       <c r="B655">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5658,7 +5658,7 @@
         <v>44613</v>
       </c>
       <c r="B659">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5698,6 +5698,30 @@
         <v>44618</v>
       </c>
       <c r="B664">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2">
+      <c r="A665" s="2">
+        <v>44619</v>
+      </c>
+      <c r="B665">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2">
+      <c r="A666" s="2">
+        <v>44620</v>
+      </c>
+      <c r="B666">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2">
+      <c r="A667" s="2">
+        <v>44621</v>
+      </c>
+      <c r="B667">
         <v>4</v>
       </c>
     </row>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B667"/>
+  <dimension ref="A1:B669"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5410,7 +5410,7 @@
         <v>44582</v>
       </c>
       <c r="B628">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -5434,7 +5434,7 @@
         <v>44585</v>
       </c>
       <c r="B631">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5458,7 +5458,7 @@
         <v>44588</v>
       </c>
       <c r="B634">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -5722,6 +5722,22 @@
         <v>44621</v>
       </c>
       <c r="B667">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2">
+      <c r="A668" s="2">
+        <v>44622</v>
+      </c>
+      <c r="B668">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2">
+      <c r="A669" s="2">
+        <v>44623</v>
+      </c>
+      <c r="B669">
         <v>4</v>
       </c>
     </row>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B669"/>
+  <dimension ref="A1:B671"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5418,7 +5418,7 @@
         <v>44583</v>
       </c>
       <c r="B629">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -5739,6 +5739,22 @@
       </c>
       <c r="B669">
         <v>4</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2">
+      <c r="A670" s="2">
+        <v>44624</v>
+      </c>
+      <c r="B670">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2">
+      <c r="A671" s="2">
+        <v>44625</v>
+      </c>
+      <c r="B671">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B671"/>
+  <dimension ref="A1:B673"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5426,7 +5426,7 @@
         <v>44584</v>
       </c>
       <c r="B630">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5442,7 +5442,7 @@
         <v>44586</v>
       </c>
       <c r="B632">
-        <v>358</v>
+        <v>365</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5450,7 +5450,7 @@
         <v>44587</v>
       </c>
       <c r="B633">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -5754,7 +5754,23 @@
         <v>44625</v>
       </c>
       <c r="B671">
-        <v>3</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2">
+      <c r="A672" s="2">
+        <v>44626</v>
+      </c>
+      <c r="B672">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2">
+      <c r="A673" s="2">
+        <v>44627</v>
+      </c>
+      <c r="B673">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -5426,7 +5426,7 @@
         <v>44584</v>
       </c>
       <c r="B630">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5474,7 +5474,7 @@
         <v>44590</v>
       </c>
       <c r="B636">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="637" spans="1:2">

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B673"/>
+  <dimension ref="A1:B679"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5442,7 +5442,7 @@
         <v>44586</v>
       </c>
       <c r="B632">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5458,7 +5458,7 @@
         <v>44588</v>
       </c>
       <c r="B634">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -5490,7 +5490,7 @@
         <v>44592</v>
       </c>
       <c r="B638">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -5498,7 +5498,7 @@
         <v>44593</v>
       </c>
       <c r="B639">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -5570,7 +5570,7 @@
         <v>44602</v>
       </c>
       <c r="B648">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -5602,7 +5602,7 @@
         <v>44606</v>
       </c>
       <c r="B652">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -5730,7 +5730,7 @@
         <v>44622</v>
       </c>
       <c r="B668">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -5770,7 +5770,55 @@
         <v>44627</v>
       </c>
       <c r="B673">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2">
+      <c r="A674" s="2">
+        <v>44630</v>
+      </c>
+      <c r="B674">
         <v>2</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2">
+      <c r="A675" s="2">
+        <v>44631</v>
+      </c>
+      <c r="B675">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2">
+      <c r="A676" s="2">
+        <v>44632</v>
+      </c>
+      <c r="B676">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2">
+      <c r="A677" s="2">
+        <v>44635</v>
+      </c>
+      <c r="B677">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2">
+      <c r="A678" s="2">
+        <v>44636</v>
+      </c>
+      <c r="B678">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2">
+      <c r="A679" s="2">
+        <v>44637</v>
+      </c>
+      <c r="B679">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B679"/>
+  <dimension ref="A1:B684"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5722,7 +5722,7 @@
         <v>44621</v>
       </c>
       <c r="B667">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -5778,7 +5778,7 @@
         <v>44630</v>
       </c>
       <c r="B674">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -5819,6 +5819,46 @@
       </c>
       <c r="B679">
         <v>7</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2">
+      <c r="A680" s="2">
+        <v>44640</v>
+      </c>
+      <c r="B680">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2">
+      <c r="A681" s="2">
+        <v>44643</v>
+      </c>
+      <c r="B681">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2">
+      <c r="A682" s="2">
+        <v>44644</v>
+      </c>
+      <c r="B682">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2">
+      <c r="A683" s="2">
+        <v>44646</v>
+      </c>
+      <c r="B683">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2">
+      <c r="A684" s="2">
+        <v>44648</v>
+      </c>
+      <c r="B684">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B684"/>
+  <dimension ref="A1:B688"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5858,7 +5858,39 @@
         <v>44648</v>
       </c>
       <c r="B684">
-        <v>1</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2">
+      <c r="A685" s="2">
+        <v>44649</v>
+      </c>
+      <c r="B685">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2">
+      <c r="A686" s="2">
+        <v>44650</v>
+      </c>
+      <c r="B686">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2">
+      <c r="A687" s="2">
+        <v>44651</v>
+      </c>
+      <c r="B687">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2">
+      <c r="A688" s="2">
+        <v>44653</v>
+      </c>
+      <c r="B688">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B688"/>
+  <dimension ref="A1:B690"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5887,10 +5887,26 @@
     </row>
     <row r="688" spans="1:2">
       <c r="A688" s="2">
+        <v>44652</v>
+      </c>
+      <c r="B688">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2">
+      <c r="A689" s="2">
         <v>44653</v>
       </c>
-      <c r="B688">
+      <c r="B689">
         <v>33</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2">
+      <c r="A690" s="2">
+        <v>44655</v>
+      </c>
+      <c r="B690">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B690"/>
+  <dimension ref="A1:B693"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5882,7 +5882,7 @@
         <v>44651</v>
       </c>
       <c r="B687">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -5907,6 +5907,30 @@
       </c>
       <c r="B690">
         <v>8</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2">
+      <c r="A691" s="2">
+        <v>44657</v>
+      </c>
+      <c r="B691">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2">
+      <c r="A692" s="2">
+        <v>44658</v>
+      </c>
+      <c r="B692">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2">
+      <c r="A693" s="2">
+        <v>44660</v>
+      </c>
+      <c r="B693">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B693"/>
+  <dimension ref="A1:B703"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5530,7 +5530,7 @@
         <v>44597</v>
       </c>
       <c r="B643">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -5546,7 +5546,7 @@
         <v>44599</v>
       </c>
       <c r="B645">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -5586,7 +5586,7 @@
         <v>44604</v>
       </c>
       <c r="B650">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -5602,7 +5602,7 @@
         <v>44606</v>
       </c>
       <c r="B652">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -5610,7 +5610,7 @@
         <v>44607</v>
       </c>
       <c r="B653">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -5634,7 +5634,7 @@
         <v>44610</v>
       </c>
       <c r="B656">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5690,7 +5690,7 @@
         <v>44617</v>
       </c>
       <c r="B663">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -5882,7 +5882,7 @@
         <v>44651</v>
       </c>
       <c r="B687">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -5914,7 +5914,7 @@
         <v>44657</v>
       </c>
       <c r="B691">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -5922,15 +5922,95 @@
         <v>44658</v>
       </c>
       <c r="B692">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" s="2">
+        <v>44659</v>
+      </c>
+      <c r="B693">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2">
+      <c r="A694" s="2">
         <v>44660</v>
       </c>
-      <c r="B693">
+      <c r="B694">
         <v>2</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2">
+      <c r="A695" s="2">
+        <v>44662</v>
+      </c>
+      <c r="B695">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2">
+      <c r="A696" s="2">
+        <v>44664</v>
+      </c>
+      <c r="B696">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2">
+      <c r="A697" s="2">
+        <v>44667</v>
+      </c>
+      <c r="B697">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2">
+      <c r="A698" s="2">
+        <v>44668</v>
+      </c>
+      <c r="B698">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2">
+      <c r="A699" s="2">
+        <v>44669</v>
+      </c>
+      <c r="B699">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2">
+      <c r="A700" s="2">
+        <v>44670</v>
+      </c>
+      <c r="B700">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2">
+      <c r="A701" s="2">
+        <v>44671</v>
+      </c>
+      <c r="B701">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2">
+      <c r="A702" s="2">
+        <v>44672</v>
+      </c>
+      <c r="B702">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2">
+      <c r="A703" s="2">
+        <v>44673</v>
+      </c>
+      <c r="B703">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B703"/>
+  <dimension ref="A1:B715"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5514,7 +5514,7 @@
         <v>44595</v>
       </c>
       <c r="B641">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -5522,7 +5522,7 @@
         <v>44596</v>
       </c>
       <c r="B642">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -5530,7 +5530,7 @@
         <v>44597</v>
       </c>
       <c r="B643">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -5546,7 +5546,7 @@
         <v>44599</v>
       </c>
       <c r="B645">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -5554,7 +5554,7 @@
         <v>44600</v>
       </c>
       <c r="B646">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -5562,7 +5562,7 @@
         <v>44601</v>
       </c>
       <c r="B647">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -5578,7 +5578,7 @@
         <v>44603</v>
       </c>
       <c r="B649">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -6011,6 +6011,102 @@
       </c>
       <c r="B703">
         <v>3</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2">
+      <c r="A704" s="2">
+        <v>44677</v>
+      </c>
+      <c r="B704">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2">
+      <c r="A705" s="2">
+        <v>44678</v>
+      </c>
+      <c r="B705">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2">
+      <c r="A706" s="2">
+        <v>44680</v>
+      </c>
+      <c r="B706">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2">
+      <c r="A707" s="2">
+        <v>44685</v>
+      </c>
+      <c r="B707">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2">
+      <c r="A708" s="2">
+        <v>44692</v>
+      </c>
+      <c r="B708">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2">
+      <c r="A709" s="2">
+        <v>44694</v>
+      </c>
+      <c r="B709">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2">
+      <c r="A710" s="2">
+        <v>44698</v>
+      </c>
+      <c r="B710">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2">
+      <c r="A711" s="2">
+        <v>44699</v>
+      </c>
+      <c r="B711">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2">
+      <c r="A712" s="2">
+        <v>44700</v>
+      </c>
+      <c r="B712">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2">
+      <c r="A713" s="2">
+        <v>44705</v>
+      </c>
+      <c r="B713">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2">
+      <c r="A714" s="2">
+        <v>44708</v>
+      </c>
+      <c r="B714">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2">
+      <c r="A715" s="2">
+        <v>44711</v>
+      </c>
+      <c r="B715">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B715"/>
+  <dimension ref="A1:B729"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5530,7 +5530,7 @@
         <v>44597</v>
       </c>
       <c r="B643">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -5626,7 +5626,7 @@
         <v>44609</v>
       </c>
       <c r="B655">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5658,7 +5658,7 @@
         <v>44613</v>
       </c>
       <c r="B659">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5666,7 +5666,7 @@
         <v>44614</v>
       </c>
       <c r="B660">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5674,7 +5674,7 @@
         <v>44615</v>
       </c>
       <c r="B661">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5682,7 +5682,7 @@
         <v>44616</v>
       </c>
       <c r="B662">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -6034,7 +6034,7 @@
         <v>44680</v>
       </c>
       <c r="B706">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -6058,7 +6058,7 @@
         <v>44694</v>
       </c>
       <c r="B709">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -6087,7 +6087,7 @@
     </row>
     <row r="713" spans="1:2">
       <c r="A713" s="2">
-        <v>44705</v>
+        <v>44701</v>
       </c>
       <c r="B713">
         <v>1</v>
@@ -6095,7 +6095,7 @@
     </row>
     <row r="714" spans="1:2">
       <c r="A714" s="2">
-        <v>44708</v>
+        <v>44705</v>
       </c>
       <c r="B714">
         <v>1</v>
@@ -6103,10 +6103,122 @@
     </row>
     <row r="715" spans="1:2">
       <c r="A715" s="2">
+        <v>44708</v>
+      </c>
+      <c r="B715">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2">
+      <c r="A716" s="2">
         <v>44711</v>
       </c>
-      <c r="B715">
-        <v>1</v>
+      <c r="B716">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2">
+      <c r="A717" s="2">
+        <v>44714</v>
+      </c>
+      <c r="B717">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2">
+      <c r="A718" s="2">
+        <v>44715</v>
+      </c>
+      <c r="B718">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2">
+      <c r="A719" s="2">
+        <v>44716</v>
+      </c>
+      <c r="B719">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2">
+      <c r="A720" s="2">
+        <v>44719</v>
+      </c>
+      <c r="B720">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2">
+      <c r="A721" s="2">
+        <v>44722</v>
+      </c>
+      <c r="B721">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2">
+      <c r="A722" s="2">
+        <v>44723</v>
+      </c>
+      <c r="B722">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2">
+      <c r="A723" s="2">
+        <v>44725</v>
+      </c>
+      <c r="B723">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2">
+      <c r="A724" s="2">
+        <v>44728</v>
+      </c>
+      <c r="B724">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2">
+      <c r="A725" s="2">
+        <v>44730</v>
+      </c>
+      <c r="B725">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2">
+      <c r="A726" s="2">
+        <v>44732</v>
+      </c>
+      <c r="B726">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2">
+      <c r="A727" s="2">
+        <v>44733</v>
+      </c>
+      <c r="B727">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2">
+      <c r="A728" s="2">
+        <v>44735</v>
+      </c>
+      <c r="B728">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2">
+      <c r="A729" s="2">
+        <v>44737</v>
+      </c>
+      <c r="B729">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B729"/>
+  <dimension ref="A1:B735"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6207,7 +6207,7 @@
     </row>
     <row r="728" spans="1:2">
       <c r="A728" s="2">
-        <v>44735</v>
+        <v>44734</v>
       </c>
       <c r="B728">
         <v>1</v>
@@ -6215,9 +6215,57 @@
     </row>
     <row r="729" spans="1:2">
       <c r="A729" s="2">
+        <v>44735</v>
+      </c>
+      <c r="B729">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2">
+      <c r="A730" s="2">
         <v>44737</v>
       </c>
-      <c r="B729">
+      <c r="B730">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2">
+      <c r="A731" s="2">
+        <v>44738</v>
+      </c>
+      <c r="B731">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2">
+      <c r="A732" s="2">
+        <v>44739</v>
+      </c>
+      <c r="B732">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2">
+      <c r="A733" s="2">
+        <v>44740</v>
+      </c>
+      <c r="B733">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2">
+      <c r="A734" s="2">
+        <v>44741</v>
+      </c>
+      <c r="B734">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2">
+      <c r="A735" s="2">
+        <v>44742</v>
+      </c>
+      <c r="B735">
         <v>4</v>
       </c>
     </row>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B735"/>
+  <dimension ref="A1:B737"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6266,7 +6266,23 @@
         <v>44742</v>
       </c>
       <c r="B735">
-        <v>4</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2">
+      <c r="A736" s="2">
+        <v>44743</v>
+      </c>
+      <c r="B736">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2">
+      <c r="A737" s="2">
+        <v>44744</v>
+      </c>
+      <c r="B737">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -6282,7 +6282,7 @@
         <v>44744</v>
       </c>
       <c r="B737">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B737"/>
+  <dimension ref="A1:B738"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6274,7 +6274,7 @@
         <v>44743</v>
       </c>
       <c r="B736">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -6283,6 +6283,14 @@
       </c>
       <c r="B737">
         <v>14</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2">
+      <c r="A738" s="2">
+        <v>44746</v>
+      </c>
+      <c r="B738">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B738"/>
+  <dimension ref="A1:B740"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6274,7 +6274,7 @@
         <v>44743</v>
       </c>
       <c r="B736">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -6287,10 +6287,26 @@
     </row>
     <row r="738" spans="1:2">
       <c r="A738" s="2">
+        <v>44745</v>
+      </c>
+      <c r="B738">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2">
+      <c r="A739" s="2">
         <v>44746</v>
       </c>
-      <c r="B738">
-        <v>1</v>
+      <c r="B739">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2">
+      <c r="A740" s="2">
+        <v>44747</v>
+      </c>
+      <c r="B740">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B740"/>
+  <dimension ref="A1:B745"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6242,7 +6242,7 @@
         <v>44739</v>
       </c>
       <c r="B732">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -6250,7 +6250,7 @@
         <v>44740</v>
       </c>
       <c r="B733">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -6266,7 +6266,7 @@
         <v>44742</v>
       </c>
       <c r="B735">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -6274,7 +6274,7 @@
         <v>44743</v>
       </c>
       <c r="B736">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -6290,7 +6290,7 @@
         <v>44745</v>
       </c>
       <c r="B738">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -6306,7 +6306,47 @@
         <v>44747</v>
       </c>
       <c r="B740">
-        <v>5</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2">
+      <c r="A741" s="2">
+        <v>44748</v>
+      </c>
+      <c r="B741">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2">
+      <c r="A742" s="2">
+        <v>44749</v>
+      </c>
+      <c r="B742">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2">
+      <c r="A743" s="2">
+        <v>44750</v>
+      </c>
+      <c r="B743">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2">
+      <c r="A744" s="2">
+        <v>44751</v>
+      </c>
+      <c r="B744">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2">
+      <c r="A745" s="2">
+        <v>44752</v>
+      </c>
+      <c r="B745">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -6242,7 +6242,7 @@
         <v>44739</v>
       </c>
       <c r="B732">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -6250,7 +6250,7 @@
         <v>44740</v>
       </c>
       <c r="B733">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -6266,7 +6266,7 @@
         <v>44742</v>
       </c>
       <c r="B735">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -6274,7 +6274,7 @@
         <v>44743</v>
       </c>
       <c r="B736">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -6314,7 +6314,7 @@
         <v>44748</v>
       </c>
       <c r="B741">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -6322,7 +6322,7 @@
         <v>44749</v>
       </c>
       <c r="B742">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -6330,7 +6330,7 @@
         <v>44750</v>
       </c>
       <c r="B743">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -6338,7 +6338,7 @@
         <v>44751</v>
       </c>
       <c r="B744">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="745" spans="1:2">

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B745"/>
+  <dimension ref="A1:B747"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6242,7 +6242,7 @@
         <v>44739</v>
       </c>
       <c r="B732">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -6250,7 +6250,7 @@
         <v>44740</v>
       </c>
       <c r="B733">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -6266,7 +6266,7 @@
         <v>44742</v>
       </c>
       <c r="B735">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -6274,7 +6274,7 @@
         <v>44743</v>
       </c>
       <c r="B736">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -6330,7 +6330,7 @@
         <v>44750</v>
       </c>
       <c r="B743">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -6346,7 +6346,23 @@
         <v>44752</v>
       </c>
       <c r="B745">
-        <v>3</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2">
+      <c r="A746" s="2">
+        <v>44753</v>
+      </c>
+      <c r="B746">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2">
+      <c r="A747" s="2">
+        <v>44754</v>
+      </c>
+      <c r="B747">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B747"/>
+  <dimension ref="A1:B755"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6330,7 +6330,7 @@
         <v>44750</v>
       </c>
       <c r="B743">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -6338,7 +6338,7 @@
         <v>44751</v>
       </c>
       <c r="B744">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -6362,7 +6362,71 @@
         <v>44754</v>
       </c>
       <c r="B747">
-        <v>42</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2">
+      <c r="A748" s="2">
+        <v>44755</v>
+      </c>
+      <c r="B748">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2">
+      <c r="A749" s="2">
+        <v>44756</v>
+      </c>
+      <c r="B749">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2">
+      <c r="A750" s="2">
+        <v>44757</v>
+      </c>
+      <c r="B750">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2">
+      <c r="A751" s="2">
+        <v>44758</v>
+      </c>
+      <c r="B751">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2">
+      <c r="A752" s="2">
+        <v>44759</v>
+      </c>
+      <c r="B752">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2">
+      <c r="A753" s="2">
+        <v>44760</v>
+      </c>
+      <c r="B753">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2">
+      <c r="A754" s="2">
+        <v>44761</v>
+      </c>
+      <c r="B754">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2">
+      <c r="A755" s="2">
+        <v>44762</v>
+      </c>
+      <c r="B755">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B755"/>
+  <dimension ref="A1:B759"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6330,7 +6330,7 @@
         <v>44750</v>
       </c>
       <c r="B743">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -6410,7 +6410,7 @@
         <v>44760</v>
       </c>
       <c r="B753">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -6418,7 +6418,7 @@
         <v>44761</v>
       </c>
       <c r="B754">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="755" spans="1:2">
@@ -6426,7 +6426,39 @@
         <v>44762</v>
       </c>
       <c r="B755">
-        <v>86</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2">
+      <c r="A756" s="2">
+        <v>44763</v>
+      </c>
+      <c r="B756">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2">
+      <c r="A757" s="2">
+        <v>44764</v>
+      </c>
+      <c r="B757">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2">
+      <c r="A758" s="2">
+        <v>44765</v>
+      </c>
+      <c r="B758">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2">
+      <c r="A759" s="2">
+        <v>44766</v>
+      </c>
+      <c r="B759">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B759"/>
+  <dimension ref="A1:B760"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6410,7 +6410,7 @@
         <v>44760</v>
       </c>
       <c r="B753">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -6442,7 +6442,7 @@
         <v>44764</v>
       </c>
       <c r="B757">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -6450,7 +6450,7 @@
         <v>44765</v>
       </c>
       <c r="B758">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -6458,7 +6458,15 @@
         <v>44766</v>
       </c>
       <c r="B759">
-        <v>20</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2">
+      <c r="A760" s="2">
+        <v>44767</v>
+      </c>
+      <c r="B760">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B760"/>
+  <dimension ref="A1:B765"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6442,7 +6442,7 @@
         <v>44764</v>
       </c>
       <c r="B757">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -6450,7 +6450,7 @@
         <v>44765</v>
       </c>
       <c r="B758">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -6458,7 +6458,7 @@
         <v>44766</v>
       </c>
       <c r="B759">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -6466,7 +6466,47 @@
         <v>44767</v>
       </c>
       <c r="B760">
-        <v>60</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2">
+      <c r="A761" s="2">
+        <v>44768</v>
+      </c>
+      <c r="B761">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2">
+      <c r="A762" s="2">
+        <v>44769</v>
+      </c>
+      <c r="B762">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2">
+      <c r="A763" s="2">
+        <v>44770</v>
+      </c>
+      <c r="B763">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2">
+      <c r="A764" s="2">
+        <v>44771</v>
+      </c>
+      <c r="B764">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2">
+      <c r="A765" s="2">
+        <v>44772</v>
+      </c>
+      <c r="B765">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B765"/>
+  <dimension ref="A1:B767"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6466,7 +6466,7 @@
         <v>44767</v>
       </c>
       <c r="B760">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -6474,7 +6474,7 @@
         <v>44768</v>
       </c>
       <c r="B761">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -6507,6 +6507,22 @@
       </c>
       <c r="B765">
         <v>82</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2">
+      <c r="A766" s="2">
+        <v>44773</v>
+      </c>
+      <c r="B766">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2">
+      <c r="A767" s="2">
+        <v>44774</v>
+      </c>
+      <c r="B767">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B767"/>
+  <dimension ref="A1:B768"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6474,7 +6474,7 @@
         <v>44768</v>
       </c>
       <c r="B761">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -6498,7 +6498,7 @@
         <v>44771</v>
       </c>
       <c r="B764">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -6506,7 +6506,7 @@
         <v>44772</v>
       </c>
       <c r="B765">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -6514,7 +6514,7 @@
         <v>44773</v>
       </c>
       <c r="B766">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -6522,7 +6522,15 @@
         <v>44774</v>
       </c>
       <c r="B767">
-        <v>58</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2">
+      <c r="A768" s="2">
+        <v>44775</v>
+      </c>
+      <c r="B768">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B768"/>
+  <dimension ref="A1:B771"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6282,7 +6282,7 @@
         <v>44744</v>
       </c>
       <c r="B737">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -6474,7 +6474,7 @@
         <v>44768</v>
       </c>
       <c r="B761">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -6498,7 +6498,7 @@
         <v>44771</v>
       </c>
       <c r="B764">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -6514,7 +6514,7 @@
         <v>44773</v>
       </c>
       <c r="B766">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -6522,7 +6522,7 @@
         <v>44774</v>
       </c>
       <c r="B767">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="768" spans="1:2">
@@ -6530,7 +6530,31 @@
         <v>44775</v>
       </c>
       <c r="B768">
-        <v>34</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2">
+      <c r="A769" s="2">
+        <v>44776</v>
+      </c>
+      <c r="B769">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2">
+      <c r="A770" s="2">
+        <v>44777</v>
+      </c>
+      <c r="B770">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2">
+      <c r="A771" s="2">
+        <v>44778</v>
+      </c>
+      <c r="B771">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B771"/>
+  <dimension ref="A1:B774"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6290,7 +6290,7 @@
         <v>44745</v>
       </c>
       <c r="B738">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -6506,7 +6506,7 @@
         <v>44772</v>
       </c>
       <c r="B765">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -6514,7 +6514,7 @@
         <v>44773</v>
       </c>
       <c r="B766">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -6522,7 +6522,7 @@
         <v>44774</v>
       </c>
       <c r="B767">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="768" spans="1:2">
@@ -6538,7 +6538,7 @@
         <v>44776</v>
       </c>
       <c r="B769">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -6546,7 +6546,7 @@
         <v>44777</v>
       </c>
       <c r="B770">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -6554,7 +6554,31 @@
         <v>44778</v>
       </c>
       <c r="B771">
-        <v>91</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2">
+      <c r="A772" s="2">
+        <v>44779</v>
+      </c>
+      <c r="B772">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2">
+      <c r="A773" s="2">
+        <v>44780</v>
+      </c>
+      <c r="B773">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2">
+      <c r="A774" s="2">
+        <v>44781</v>
+      </c>
+      <c r="B774">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B774"/>
+  <dimension ref="A1:B779"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3866,7 +3866,7 @@
         <v>44361</v>
       </c>
       <c r="B435">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3882,7 +3882,7 @@
         <v>44363</v>
       </c>
       <c r="B437">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -3906,7 +3906,7 @@
         <v>44366</v>
       </c>
       <c r="B440">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3914,7 +3914,7 @@
         <v>44367</v>
       </c>
       <c r="B441">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3922,7 +3922,7 @@
         <v>44368</v>
       </c>
       <c r="B442">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -6266,7 +6266,7 @@
         <v>44742</v>
       </c>
       <c r="B735">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -6298,7 +6298,7 @@
         <v>44746</v>
       </c>
       <c r="B739">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -6554,7 +6554,7 @@
         <v>44778</v>
       </c>
       <c r="B771">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -6570,7 +6570,7 @@
         <v>44780</v>
       </c>
       <c r="B773">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -6578,7 +6578,47 @@
         <v>44781</v>
       </c>
       <c r="B774">
-        <v>26</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2">
+      <c r="A775" s="2">
+        <v>44782</v>
+      </c>
+      <c r="B775">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2">
+      <c r="A776" s="2">
+        <v>44783</v>
+      </c>
+      <c r="B776">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2">
+      <c r="A777" s="2">
+        <v>44784</v>
+      </c>
+      <c r="B777">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2">
+      <c r="A778" s="2">
+        <v>44785</v>
+      </c>
+      <c r="B778">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2">
+      <c r="A779" s="2">
+        <v>44786</v>
+      </c>
+      <c r="B779">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B779"/>
+  <dimension ref="A1:B781"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6330,7 +6330,7 @@
         <v>44750</v>
       </c>
       <c r="B743">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -6346,7 +6346,7 @@
         <v>44752</v>
       </c>
       <c r="B745">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -6354,7 +6354,7 @@
         <v>44753</v>
       </c>
       <c r="B746">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -6362,7 +6362,7 @@
         <v>44754</v>
       </c>
       <c r="B747">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -6594,7 +6594,7 @@
         <v>44783</v>
       </c>
       <c r="B776">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -6602,7 +6602,7 @@
         <v>44784</v>
       </c>
       <c r="B777">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -6610,7 +6610,7 @@
         <v>44785</v>
       </c>
       <c r="B778">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="779" spans="1:2">
@@ -6618,6 +6618,22 @@
         <v>44786</v>
       </c>
       <c r="B779">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2">
+      <c r="A780" s="2">
+        <v>44787</v>
+      </c>
+      <c r="B780">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2">
+      <c r="A781" s="2">
+        <v>44788</v>
+      </c>
+      <c r="B781">
         <v>23</v>
       </c>
     </row>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B781"/>
+  <dimension ref="A1:B790"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3930,7 +3930,7 @@
         <v>44369</v>
       </c>
       <c r="B443">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3938,7 +3938,7 @@
         <v>44370</v>
       </c>
       <c r="B444">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3954,7 +3954,7 @@
         <v>44372</v>
       </c>
       <c r="B446">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3962,7 +3962,7 @@
         <v>44373</v>
       </c>
       <c r="B447">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -3970,7 +3970,7 @@
         <v>44374</v>
       </c>
       <c r="B448">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3978,7 +3978,7 @@
         <v>44375</v>
       </c>
       <c r="B449">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -4010,7 +4010,7 @@
         <v>44379</v>
       </c>
       <c r="B453">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4023,31 +4023,31 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44382</v>
+        <v>44381</v>
       </c>
       <c r="B455">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44383</v>
+        <v>44382</v>
       </c>
       <c r="B456">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44384</v>
+        <v>44383</v>
       </c>
       <c r="B457">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44385</v>
+        <v>44384</v>
       </c>
       <c r="B458">
         <v>6</v>
@@ -4055,223 +4055,223 @@
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44386</v>
+        <v>44385</v>
       </c>
       <c r="B459">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44387</v>
+        <v>44386</v>
       </c>
       <c r="B460">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44388</v>
+        <v>44387</v>
       </c>
       <c r="B461">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44389</v>
+        <v>44388</v>
       </c>
       <c r="B462">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44390</v>
+        <v>44389</v>
       </c>
       <c r="B463">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44391</v>
+        <v>44390</v>
       </c>
       <c r="B464">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44392</v>
+        <v>44391</v>
       </c>
       <c r="B465">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44393</v>
+        <v>44392</v>
       </c>
       <c r="B466">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44394</v>
+        <v>44393</v>
       </c>
       <c r="B467">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44395</v>
+        <v>44394</v>
       </c>
       <c r="B468">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44396</v>
+        <v>44395</v>
       </c>
       <c r="B469">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44397</v>
+        <v>44396</v>
       </c>
       <c r="B470">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44398</v>
+        <v>44397</v>
       </c>
       <c r="B471">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44399</v>
+        <v>44398</v>
       </c>
       <c r="B472">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="B473">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44401</v>
+        <v>44400</v>
       </c>
       <c r="B474">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44403</v>
+        <v>44401</v>
       </c>
       <c r="B475">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44404</v>
+        <v>44403</v>
       </c>
       <c r="B476">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44405</v>
+        <v>44404</v>
       </c>
       <c r="B477">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44407</v>
+        <v>44405</v>
       </c>
       <c r="B478">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B479">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44409</v>
+        <v>44408</v>
       </c>
       <c r="B480">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44410</v>
+        <v>44409</v>
       </c>
       <c r="B481">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="B482">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44412</v>
+        <v>44411</v>
       </c>
       <c r="B483">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44413</v>
+        <v>44412</v>
       </c>
       <c r="B484">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44414</v>
+        <v>44413</v>
       </c>
       <c r="B485">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44416</v>
+        <v>44414</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -4279,39 +4279,39 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44418</v>
+        <v>44416</v>
       </c>
       <c r="B487">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44419</v>
+        <v>44418</v>
       </c>
       <c r="B488">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="B489">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44421</v>
+        <v>44420</v>
       </c>
       <c r="B490">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44422</v>
+        <v>44421</v>
       </c>
       <c r="B491">
         <v>2</v>
@@ -4319,15 +4319,15 @@
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44423</v>
+        <v>44422</v>
       </c>
       <c r="B492">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44424</v>
+        <v>44423</v>
       </c>
       <c r="B493">
         <v>1</v>
@@ -4335,63 +4335,63 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44425</v>
+        <v>44424</v>
       </c>
       <c r="B494">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44426</v>
+        <v>44425</v>
       </c>
       <c r="B495">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44427</v>
+        <v>44426</v>
       </c>
       <c r="B496">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44428</v>
+        <v>44427</v>
       </c>
       <c r="B497">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44430</v>
+        <v>44428</v>
       </c>
       <c r="B498">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44431</v>
+        <v>44430</v>
       </c>
       <c r="B499">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44432</v>
+        <v>44431</v>
       </c>
       <c r="B500">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44433</v>
+        <v>44432</v>
       </c>
       <c r="B501">
         <v>3</v>
@@ -4399,31 +4399,31 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44434</v>
+        <v>44433</v>
       </c>
       <c r="B502">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44435</v>
+        <v>44434</v>
       </c>
       <c r="B503">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44436</v>
+        <v>44435</v>
       </c>
       <c r="B504">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44437</v>
+        <v>44436</v>
       </c>
       <c r="B505">
         <v>1</v>
@@ -4431,7 +4431,7 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44438</v>
+        <v>44437</v>
       </c>
       <c r="B506">
         <v>1</v>
@@ -4439,55 +4439,55 @@
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44439</v>
+        <v>44438</v>
       </c>
       <c r="B507">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44440</v>
+        <v>44439</v>
       </c>
       <c r="B508">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44441</v>
+        <v>44440</v>
       </c>
       <c r="B509">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44442</v>
+        <v>44441</v>
       </c>
       <c r="B510">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44443</v>
+        <v>44442</v>
       </c>
       <c r="B511">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44444</v>
+        <v>44443</v>
       </c>
       <c r="B512">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44445</v>
+        <v>44444</v>
       </c>
       <c r="B513">
         <v>2</v>
@@ -4495,39 +4495,39 @@
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44446</v>
+        <v>44445</v>
       </c>
       <c r="B514">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44447</v>
+        <v>44446</v>
       </c>
       <c r="B515">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44448</v>
+        <v>44447</v>
       </c>
       <c r="B516">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44449</v>
+        <v>44448</v>
       </c>
       <c r="B517">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44450</v>
+        <v>44449</v>
       </c>
       <c r="B518">
         <v>2</v>
@@ -4535,15 +4535,15 @@
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44451</v>
+        <v>44450</v>
       </c>
       <c r="B519">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44453</v>
+        <v>44451</v>
       </c>
       <c r="B520">
         <v>1</v>
@@ -4551,31 +4551,31 @@
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44455</v>
+        <v>44453</v>
       </c>
       <c r="B521">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44456</v>
+        <v>44455</v>
       </c>
       <c r="B522">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44459</v>
+        <v>44456</v>
       </c>
       <c r="B523">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44460</v>
+        <v>44459</v>
       </c>
       <c r="B524">
         <v>2</v>
@@ -4583,7 +4583,7 @@
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44461</v>
+        <v>44460</v>
       </c>
       <c r="B525">
         <v>2</v>
@@ -4591,47 +4591,47 @@
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44463</v>
+        <v>44461</v>
       </c>
       <c r="B526">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44464</v>
+        <v>44463</v>
       </c>
       <c r="B527">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44465</v>
+        <v>44464</v>
       </c>
       <c r="B528">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44466</v>
+        <v>44465</v>
       </c>
       <c r="B529">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44467</v>
+        <v>44466</v>
       </c>
       <c r="B530">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44468</v>
+        <v>44467</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -4639,15 +4639,15 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44469</v>
+        <v>44468</v>
       </c>
       <c r="B532">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44470</v>
+        <v>44469</v>
       </c>
       <c r="B533">
         <v>3</v>
@@ -4655,15 +4655,15 @@
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44474</v>
+        <v>44470</v>
       </c>
       <c r="B534">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44476</v>
+        <v>44474</v>
       </c>
       <c r="B535">
         <v>2</v>
@@ -4671,95 +4671,95 @@
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44477</v>
+        <v>44476</v>
       </c>
       <c r="B536">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44478</v>
+        <v>44477</v>
       </c>
       <c r="B537">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44480</v>
+        <v>44478</v>
       </c>
       <c r="B538">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44481</v>
+        <v>44480</v>
       </c>
       <c r="B539">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44482</v>
+        <v>44481</v>
       </c>
       <c r="B540">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44483</v>
+        <v>44482</v>
       </c>
       <c r="B541">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44484</v>
+        <v>44483</v>
       </c>
       <c r="B542">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44485</v>
+        <v>44484</v>
       </c>
       <c r="B543">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44488</v>
+        <v>44485</v>
       </c>
       <c r="B544">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44489</v>
+        <v>44488</v>
       </c>
       <c r="B545">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44490</v>
+        <v>44489</v>
       </c>
       <c r="B546">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44491</v>
+        <v>44490</v>
       </c>
       <c r="B547">
         <v>3</v>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44493</v>
+        <v>44491</v>
       </c>
       <c r="B548">
         <v>3</v>
@@ -4775,39 +4775,39 @@
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44494</v>
+        <v>44493</v>
       </c>
       <c r="B549">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44495</v>
+        <v>44494</v>
       </c>
       <c r="B550">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44496</v>
+        <v>44495</v>
       </c>
       <c r="B551">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44497</v>
+        <v>44496</v>
       </c>
       <c r="B552">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44498</v>
+        <v>44497</v>
       </c>
       <c r="B553">
         <v>3</v>
@@ -4815,23 +4815,23 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44499</v>
+        <v>44498</v>
       </c>
       <c r="B554">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44500</v>
+        <v>44499</v>
       </c>
       <c r="B555">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44502</v>
+        <v>44500</v>
       </c>
       <c r="B556">
         <v>3</v>
@@ -4839,15 +4839,15 @@
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44503</v>
+        <v>44502</v>
       </c>
       <c r="B557">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44504</v>
+        <v>44503</v>
       </c>
       <c r="B558">
         <v>1</v>
@@ -4855,79 +4855,79 @@
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44505</v>
+        <v>44504</v>
       </c>
       <c r="B559">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44506</v>
+        <v>44505</v>
       </c>
       <c r="B560">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44508</v>
+        <v>44506</v>
       </c>
       <c r="B561">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44510</v>
+        <v>44508</v>
       </c>
       <c r="B562">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44511</v>
+        <v>44510</v>
       </c>
       <c r="B563">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44512</v>
+        <v>44511</v>
       </c>
       <c r="B564">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44513</v>
+        <v>44512</v>
       </c>
       <c r="B565">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44516</v>
+        <v>44513</v>
       </c>
       <c r="B566">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44517</v>
+        <v>44516</v>
       </c>
       <c r="B567">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44518</v>
+        <v>44517</v>
       </c>
       <c r="B568">
         <v>2</v>
@@ -4935,87 +4935,87 @@
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44519</v>
+        <v>44518</v>
       </c>
       <c r="B569">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44520</v>
+        <v>44519</v>
       </c>
       <c r="B570">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44521</v>
+        <v>44520</v>
       </c>
       <c r="B571">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44522</v>
+        <v>44521</v>
       </c>
       <c r="B572">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44523</v>
+        <v>44522</v>
       </c>
       <c r="B573">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44524</v>
+        <v>44523</v>
       </c>
       <c r="B574">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44525</v>
+        <v>44524</v>
       </c>
       <c r="B575">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44526</v>
+        <v>44525</v>
       </c>
       <c r="B576">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44527</v>
+        <v>44526</v>
       </c>
       <c r="B577">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44529</v>
+        <v>44527</v>
       </c>
       <c r="B578">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>44530</v>
+        <v>44529</v>
       </c>
       <c r="B579">
         <v>3</v>
@@ -5023,23 +5023,23 @@
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2">
-        <v>44531</v>
+        <v>44530</v>
       </c>
       <c r="B580">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2">
-        <v>44532</v>
+        <v>44531</v>
       </c>
       <c r="B581">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2">
-        <v>44533</v>
+        <v>44532</v>
       </c>
       <c r="B582">
         <v>2</v>
@@ -5047,95 +5047,95 @@
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2">
-        <v>44534</v>
+        <v>44533</v>
       </c>
       <c r="B583">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2">
-        <v>44536</v>
+        <v>44534</v>
       </c>
       <c r="B584">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2">
-        <v>44537</v>
+        <v>44536</v>
       </c>
       <c r="B585">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2">
-        <v>44538</v>
+        <v>44537</v>
       </c>
       <c r="B586">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2">
-        <v>44539</v>
+        <v>44538</v>
       </c>
       <c r="B587">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2">
-        <v>44540</v>
+        <v>44539</v>
       </c>
       <c r="B588">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="2">
-        <v>44541</v>
+        <v>44540</v>
       </c>
       <c r="B589">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2">
-        <v>44542</v>
+        <v>44541</v>
       </c>
       <c r="B590">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="2">
-        <v>44543</v>
+        <v>44542</v>
       </c>
       <c r="B591">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2">
-        <v>44544</v>
+        <v>44543</v>
       </c>
       <c r="B592">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="2">
-        <v>44545</v>
+        <v>44544</v>
       </c>
       <c r="B593">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2">
-        <v>44546</v>
+        <v>44545</v>
       </c>
       <c r="B594">
         <v>7</v>
@@ -5143,639 +5143,639 @@
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="2">
-        <v>44547</v>
+        <v>44546</v>
       </c>
       <c r="B595">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2">
-        <v>44548</v>
+        <v>44547</v>
       </c>
       <c r="B596">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="2">
-        <v>44549</v>
+        <v>44548</v>
       </c>
       <c r="B597">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2">
-        <v>44550</v>
+        <v>44549</v>
       </c>
       <c r="B598">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="2">
-        <v>44551</v>
+        <v>44550</v>
       </c>
       <c r="B599">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="2">
-        <v>44552</v>
+        <v>44551</v>
       </c>
       <c r="B600">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="2">
-        <v>44553</v>
+        <v>44552</v>
       </c>
       <c r="B601">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="2">
-        <v>44554</v>
+        <v>44553</v>
       </c>
       <c r="B602">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="2">
-        <v>44556</v>
+        <v>44554</v>
       </c>
       <c r="B603">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="2">
-        <v>44557</v>
+        <v>44556</v>
       </c>
       <c r="B604">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="2">
-        <v>44558</v>
+        <v>44557</v>
       </c>
       <c r="B605">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="2">
-        <v>44559</v>
+        <v>44558</v>
       </c>
       <c r="B606">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="2">
-        <v>44560</v>
+        <v>44559</v>
       </c>
       <c r="B607">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="2">
-        <v>44561</v>
+        <v>44560</v>
       </c>
       <c r="B608">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="2">
-        <v>44563</v>
+        <v>44561</v>
       </c>
       <c r="B609">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="2">
-        <v>44564</v>
+        <v>44563</v>
       </c>
       <c r="B610">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" s="2">
-        <v>44565</v>
+        <v>44564</v>
       </c>
       <c r="B611">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" s="2">
-        <v>44566</v>
+        <v>44565</v>
       </c>
       <c r="B612">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="2">
-        <v>44567</v>
+        <v>44566</v>
       </c>
       <c r="B613">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="2">
-        <v>44568</v>
+        <v>44567</v>
       </c>
       <c r="B614">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" s="2">
-        <v>44569</v>
+        <v>44568</v>
       </c>
       <c r="B615">
-        <v>53</v>
+        <v>14</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" s="2">
-        <v>44570</v>
+        <v>44569</v>
       </c>
       <c r="B616">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" s="2">
-        <v>44571</v>
+        <v>44570</v>
       </c>
       <c r="B617">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" s="2">
-        <v>44572</v>
+        <v>44571</v>
       </c>
       <c r="B618">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="619" spans="1:2">
       <c r="A619" s="2">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B619">
-        <v>73</v>
+        <v>42</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" s="2">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B620">
-        <v>135</v>
+        <v>73</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" s="2">
-        <v>44575</v>
+        <v>44574</v>
       </c>
       <c r="B621">
-        <v>157</v>
+        <v>135</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" s="2">
-        <v>44576</v>
+        <v>44575</v>
       </c>
       <c r="B622">
-        <v>86</v>
+        <v>157</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" s="2">
-        <v>44577</v>
+        <v>44576</v>
       </c>
       <c r="B623">
-        <v>71</v>
+        <v>86</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" s="2">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B624">
-        <v>327</v>
+        <v>71</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" s="2">
-        <v>44579</v>
+        <v>44578</v>
       </c>
       <c r="B625">
-        <v>189</v>
+        <v>327</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" s="2">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="B626">
-        <v>277</v>
+        <v>189</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" s="2">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B627">
-        <v>339</v>
+        <v>277</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" s="2">
-        <v>44582</v>
+        <v>44581</v>
       </c>
       <c r="B628">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" s="2">
-        <v>44583</v>
+        <v>44582</v>
       </c>
       <c r="B629">
-        <v>432</v>
+        <v>347</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" s="2">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B630">
-        <v>137</v>
+        <v>432</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" s="2">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B631">
-        <v>595</v>
+        <v>137</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" s="2">
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="B632">
-        <v>366</v>
+        <v>595</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" s="2">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="B633">
-        <v>405</v>
+        <v>366</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B634">
-        <v>333</v>
+        <v>405</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B635">
-        <v>391</v>
+        <v>333</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B636">
-        <v>325</v>
+        <v>391</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" s="2">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B637">
-        <v>25</v>
+        <v>325</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B638">
-        <v>148</v>
+        <v>25</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B639">
-        <v>125</v>
+        <v>148</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B640">
-        <v>187</v>
+        <v>125</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" s="2">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B641">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" s="2">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="B642">
-        <v>156</v>
+        <v>196</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B643">
-        <v>183</v>
+        <v>156</v>
       </c>
     </row>
     <row r="644" spans="1:2">
       <c r="A644" s="2">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="B644">
-        <v>22</v>
+        <v>183</v>
       </c>
     </row>
     <row r="645" spans="1:2">
       <c r="A645" s="2">
-        <v>44599</v>
+        <v>44598</v>
       </c>
       <c r="B645">
-        <v>76</v>
+        <v>22</v>
       </c>
     </row>
     <row r="646" spans="1:2">
       <c r="A646" s="2">
-        <v>44600</v>
+        <v>44599</v>
       </c>
       <c r="B646">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="647" spans="1:2">
       <c r="A647" s="2">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="B647">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" s="2">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="B648">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B649">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" s="2">
-        <v>44604</v>
+        <v>44603</v>
       </c>
       <c r="B650">
-        <v>88</v>
+        <v>46</v>
       </c>
     </row>
     <row r="651" spans="1:2">
       <c r="A651" s="2">
-        <v>44605</v>
+        <v>44604</v>
       </c>
       <c r="B651">
-        <v>14</v>
+        <v>88</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" s="2">
-        <v>44606</v>
+        <v>44605</v>
       </c>
       <c r="B652">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" s="2">
-        <v>44607</v>
+        <v>44606</v>
       </c>
       <c r="B653">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="654" spans="1:2">
       <c r="A654" s="2">
-        <v>44608</v>
+        <v>44607</v>
       </c>
       <c r="B654">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" s="2">
-        <v>44609</v>
+        <v>44608</v>
       </c>
       <c r="B655">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" s="2">
-        <v>44610</v>
+        <v>44609</v>
       </c>
       <c r="B656">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" s="2">
-        <v>44611</v>
+        <v>44610</v>
       </c>
       <c r="B657">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="658" spans="1:2">
       <c r="A658" s="2">
-        <v>44612</v>
+        <v>44611</v>
       </c>
       <c r="B658">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" s="2">
-        <v>44613</v>
+        <v>44612</v>
       </c>
       <c r="B659">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="660" spans="1:2">
       <c r="A660" s="2">
-        <v>44614</v>
+        <v>44613</v>
       </c>
       <c r="B660">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="661" spans="1:2">
       <c r="A661" s="2">
-        <v>44615</v>
+        <v>44614</v>
       </c>
       <c r="B661">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="662" spans="1:2">
       <c r="A662" s="2">
-        <v>44616</v>
+        <v>44615</v>
       </c>
       <c r="B662">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="663" spans="1:2">
       <c r="A663" s="2">
-        <v>44617</v>
+        <v>44616</v>
       </c>
       <c r="B663">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" s="2">
-        <v>44618</v>
+        <v>44617</v>
       </c>
       <c r="B664">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" s="2">
-        <v>44619</v>
+        <v>44618</v>
       </c>
       <c r="B665">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" s="2">
-        <v>44620</v>
+        <v>44619</v>
       </c>
       <c r="B666">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" s="2">
-        <v>44621</v>
+        <v>44620</v>
       </c>
       <c r="B667">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" s="2">
-        <v>44622</v>
+        <v>44621</v>
       </c>
       <c r="B668">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669" s="2">
-        <v>44623</v>
+        <v>44622</v>
       </c>
       <c r="B669">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="670" spans="1:2">
       <c r="A670" s="2">
-        <v>44624</v>
+        <v>44623</v>
       </c>
       <c r="B670">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" s="2">
-        <v>44625</v>
+        <v>44624</v>
       </c>
       <c r="B671">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" s="2">
-        <v>44626</v>
+        <v>44625</v>
       </c>
       <c r="B672">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="673" spans="1:2">
       <c r="A673" s="2">
-        <v>44627</v>
+        <v>44626</v>
       </c>
       <c r="B673">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" s="2">
-        <v>44630</v>
+        <v>44627</v>
       </c>
       <c r="B674">
         <v>3</v>
@@ -5783,143 +5783,143 @@
     </row>
     <row r="675" spans="1:2">
       <c r="A675" s="2">
-        <v>44631</v>
+        <v>44630</v>
       </c>
       <c r="B675">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" s="2">
-        <v>44632</v>
+        <v>44631</v>
       </c>
       <c r="B676">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" s="2">
-        <v>44635</v>
+        <v>44632</v>
       </c>
       <c r="B677">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" s="2">
-        <v>44636</v>
+        <v>44635</v>
       </c>
       <c r="B678">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:2">
       <c r="A679" s="2">
-        <v>44637</v>
+        <v>44636</v>
       </c>
       <c r="B679">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680" spans="1:2">
       <c r="A680" s="2">
-        <v>44640</v>
+        <v>44637</v>
       </c>
       <c r="B680">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" s="2">
-        <v>44643</v>
+        <v>44640</v>
       </c>
       <c r="B681">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" s="2">
-        <v>44644</v>
+        <v>44643</v>
       </c>
       <c r="B682">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" s="2">
-        <v>44646</v>
+        <v>44644</v>
       </c>
       <c r="B683">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:2">
       <c r="A684" s="2">
-        <v>44648</v>
+        <v>44646</v>
       </c>
       <c r="B684">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685" spans="1:2">
       <c r="A685" s="2">
-        <v>44649</v>
+        <v>44648</v>
       </c>
       <c r="B685">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="686" spans="1:2">
       <c r="A686" s="2">
-        <v>44650</v>
+        <v>44649</v>
       </c>
       <c r="B686">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="687" spans="1:2">
       <c r="A687" s="2">
-        <v>44651</v>
+        <v>44650</v>
       </c>
       <c r="B687">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="688" spans="1:2">
       <c r="A688" s="2">
-        <v>44652</v>
+        <v>44651</v>
       </c>
       <c r="B688">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="689" spans="1:2">
       <c r="A689" s="2">
-        <v>44653</v>
+        <v>44652</v>
       </c>
       <c r="B689">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" s="2">
-        <v>44655</v>
+        <v>44653</v>
       </c>
       <c r="B690">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" s="2">
-        <v>44657</v>
+        <v>44655</v>
       </c>
       <c r="B691">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="692" spans="1:2">
       <c r="A692" s="2">
-        <v>44658</v>
+        <v>44657</v>
       </c>
       <c r="B692">
         <v>1</v>
@@ -5927,143 +5927,143 @@
     </row>
     <row r="693" spans="1:2">
       <c r="A693" s="2">
-        <v>44659</v>
+        <v>44658</v>
       </c>
       <c r="B693">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:2">
       <c r="A694" s="2">
-        <v>44660</v>
+        <v>44659</v>
       </c>
       <c r="B694">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="695" spans="1:2">
       <c r="A695" s="2">
-        <v>44662</v>
+        <v>44660</v>
       </c>
       <c r="B695">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:2">
       <c r="A696" s="2">
-        <v>44664</v>
+        <v>44662</v>
       </c>
       <c r="B696">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="697" spans="1:2">
       <c r="A697" s="2">
-        <v>44667</v>
+        <v>44664</v>
       </c>
       <c r="B697">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="698" spans="1:2">
       <c r="A698" s="2">
-        <v>44668</v>
+        <v>44667</v>
       </c>
       <c r="B698">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" s="2">
-        <v>44669</v>
+        <v>44668</v>
       </c>
       <c r="B699">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" s="2">
-        <v>44670</v>
+        <v>44669</v>
       </c>
       <c r="B700">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" s="2">
-        <v>44671</v>
+        <v>44670</v>
       </c>
       <c r="B701">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" s="2">
-        <v>44672</v>
+        <v>44671</v>
       </c>
       <c r="B702">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:2">
       <c r="A703" s="2">
-        <v>44673</v>
+        <v>44672</v>
       </c>
       <c r="B703">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" s="2">
-        <v>44677</v>
+        <v>44673</v>
       </c>
       <c r="B704">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" s="2">
-        <v>44678</v>
+        <v>44677</v>
       </c>
       <c r="B705">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" s="2">
-        <v>44680</v>
+        <v>44678</v>
       </c>
       <c r="B706">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" s="2">
-        <v>44685</v>
+        <v>44680</v>
       </c>
       <c r="B707">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" s="2">
-        <v>44692</v>
+        <v>44685</v>
       </c>
       <c r="B708">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" s="2">
-        <v>44694</v>
+        <v>44692</v>
       </c>
       <c r="B709">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" s="2">
-        <v>44698</v>
+        <v>44694</v>
       </c>
       <c r="B710">
         <v>1</v>
@@ -6071,7 +6071,7 @@
     </row>
     <row r="711" spans="1:2">
       <c r="A711" s="2">
-        <v>44699</v>
+        <v>44698</v>
       </c>
       <c r="B711">
         <v>1</v>
@@ -6079,7 +6079,7 @@
     </row>
     <row r="712" spans="1:2">
       <c r="A712" s="2">
-        <v>44700</v>
+        <v>44699</v>
       </c>
       <c r="B712">
         <v>1</v>
@@ -6087,7 +6087,7 @@
     </row>
     <row r="713" spans="1:2">
       <c r="A713" s="2">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="B713">
         <v>1</v>
@@ -6095,7 +6095,7 @@
     </row>
     <row r="714" spans="1:2">
       <c r="A714" s="2">
-        <v>44705</v>
+        <v>44701</v>
       </c>
       <c r="B714">
         <v>1</v>
@@ -6103,7 +6103,7 @@
     </row>
     <row r="715" spans="1:2">
       <c r="A715" s="2">
-        <v>44708</v>
+        <v>44705</v>
       </c>
       <c r="B715">
         <v>1</v>
@@ -6111,7 +6111,7 @@
     </row>
     <row r="716" spans="1:2">
       <c r="A716" s="2">
-        <v>44711</v>
+        <v>44708</v>
       </c>
       <c r="B716">
         <v>1</v>
@@ -6119,7 +6119,7 @@
     </row>
     <row r="717" spans="1:2">
       <c r="A717" s="2">
-        <v>44714</v>
+        <v>44711</v>
       </c>
       <c r="B717">
         <v>1</v>
@@ -6127,47 +6127,47 @@
     </row>
     <row r="718" spans="1:2">
       <c r="A718" s="2">
-        <v>44715</v>
+        <v>44714</v>
       </c>
       <c r="B718">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719" spans="1:2">
       <c r="A719" s="2">
-        <v>44716</v>
+        <v>44715</v>
       </c>
       <c r="B719">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="720" spans="1:2">
       <c r="A720" s="2">
-        <v>44719</v>
+        <v>44716</v>
       </c>
       <c r="B720">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721" spans="1:2">
       <c r="A721" s="2">
-        <v>44722</v>
+        <v>44719</v>
       </c>
       <c r="B721">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="722" spans="1:2">
       <c r="A722" s="2">
-        <v>44723</v>
+        <v>44722</v>
       </c>
       <c r="B722">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723" spans="1:2">
       <c r="A723" s="2">
-        <v>44725</v>
+        <v>44723</v>
       </c>
       <c r="B723">
         <v>2</v>
@@ -6175,47 +6175,47 @@
     </row>
     <row r="724" spans="1:2">
       <c r="A724" s="2">
-        <v>44728</v>
+        <v>44725</v>
       </c>
       <c r="B724">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="725" spans="1:2">
       <c r="A725" s="2">
-        <v>44730</v>
+        <v>44728</v>
       </c>
       <c r="B725">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726" spans="1:2">
       <c r="A726" s="2">
-        <v>44732</v>
+        <v>44730</v>
       </c>
       <c r="B726">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="727" spans="1:2">
       <c r="A727" s="2">
-        <v>44733</v>
+        <v>44732</v>
       </c>
       <c r="B727">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728" spans="1:2">
       <c r="A728" s="2">
-        <v>44734</v>
+        <v>44733</v>
       </c>
       <c r="B728">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729" spans="1:2">
       <c r="A729" s="2">
-        <v>44735</v>
+        <v>44734</v>
       </c>
       <c r="B729">
         <v>1</v>
@@ -6223,127 +6223,127 @@
     </row>
     <row r="730" spans="1:2">
       <c r="A730" s="2">
-        <v>44737</v>
+        <v>44735</v>
       </c>
       <c r="B730">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731" spans="1:2">
       <c r="A731" s="2">
-        <v>44738</v>
+        <v>44737</v>
       </c>
       <c r="B731">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="732" spans="1:2">
       <c r="A732" s="2">
-        <v>44739</v>
+        <v>44738</v>
       </c>
       <c r="B732">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:2">
       <c r="A733" s="2">
-        <v>44740</v>
+        <v>44739</v>
       </c>
       <c r="B733">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="734" spans="1:2">
       <c r="A734" s="2">
-        <v>44741</v>
+        <v>44740</v>
       </c>
       <c r="B734">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" s="2">
-        <v>44742</v>
+        <v>44741</v>
       </c>
       <c r="B735">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736" spans="1:2">
       <c r="A736" s="2">
-        <v>44743</v>
+        <v>44742</v>
       </c>
       <c r="B736">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" s="2">
-        <v>44744</v>
+        <v>44743</v>
       </c>
       <c r="B737">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" s="2">
-        <v>44745</v>
+        <v>44744</v>
       </c>
       <c r="B738">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" s="2">
-        <v>44746</v>
+        <v>44745</v>
       </c>
       <c r="B739">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" s="2">
-        <v>44747</v>
+        <v>44746</v>
       </c>
       <c r="B740">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" s="2">
-        <v>44748</v>
+        <v>44747</v>
       </c>
       <c r="B741">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" s="2">
-        <v>44749</v>
+        <v>44748</v>
       </c>
       <c r="B742">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" s="2">
-        <v>44750</v>
+        <v>44749</v>
       </c>
       <c r="B743">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" s="2">
-        <v>44751</v>
+        <v>44750</v>
       </c>
       <c r="B744">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" s="2">
-        <v>44752</v>
+        <v>44751</v>
       </c>
       <c r="B745">
         <v>10</v>
@@ -6351,290 +6351,362 @@
     </row>
     <row r="746" spans="1:2">
       <c r="A746" s="2">
-        <v>44753</v>
+        <v>44752</v>
       </c>
       <c r="B746">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" s="2">
-        <v>44754</v>
+        <v>44753</v>
       </c>
       <c r="B747">
-        <v>77</v>
+        <v>40</v>
       </c>
     </row>
     <row r="748" spans="1:2">
       <c r="A748" s="2">
-        <v>44755</v>
+        <v>44754</v>
       </c>
       <c r="B748">
-        <v>99</v>
+        <v>69</v>
       </c>
     </row>
     <row r="749" spans="1:2">
       <c r="A749" s="2">
-        <v>44756</v>
+        <v>44755</v>
       </c>
       <c r="B749">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="750" spans="1:2">
       <c r="A750" s="2">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="B750">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="751" spans="1:2">
       <c r="A751" s="2">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="B751">
-        <v>110</v>
+        <v>67</v>
       </c>
     </row>
     <row r="752" spans="1:2">
       <c r="A752" s="2">
-        <v>44759</v>
+        <v>44758</v>
       </c>
       <c r="B752">
-        <v>11</v>
+        <v>102</v>
       </c>
     </row>
     <row r="753" spans="1:2">
       <c r="A753" s="2">
-        <v>44760</v>
+        <v>44759</v>
       </c>
       <c r="B753">
-        <v>99</v>
+        <v>9</v>
       </c>
     </row>
     <row r="754" spans="1:2">
       <c r="A754" s="2">
-        <v>44761</v>
+        <v>44760</v>
       </c>
       <c r="B754">
-        <v>59</v>
+        <v>88</v>
       </c>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" s="2">
-        <v>44762</v>
+        <v>44761</v>
       </c>
       <c r="B755">
-        <v>127</v>
+        <v>58</v>
       </c>
     </row>
     <row r="756" spans="1:2">
       <c r="A756" s="2">
-        <v>44763</v>
+        <v>44762</v>
       </c>
       <c r="B756">
-        <v>176</v>
+        <v>115</v>
       </c>
     </row>
     <row r="757" spans="1:2">
       <c r="A757" s="2">
-        <v>44764</v>
+        <v>44763</v>
       </c>
       <c r="B757">
-        <v>138</v>
+        <v>169</v>
       </c>
     </row>
     <row r="758" spans="1:2">
       <c r="A758" s="2">
-        <v>44765</v>
+        <v>44764</v>
       </c>
       <c r="B758">
-        <v>155</v>
+        <v>126</v>
       </c>
     </row>
     <row r="759" spans="1:2">
       <c r="A759" s="2">
-        <v>44766</v>
+        <v>44765</v>
       </c>
       <c r="B759">
-        <v>41</v>
+        <v>143</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" s="2">
-        <v>44767</v>
+        <v>44766</v>
       </c>
       <c r="B760">
-        <v>99</v>
+        <v>40</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" s="2">
-        <v>44768</v>
+        <v>44767</v>
       </c>
       <c r="B761">
-        <v>183</v>
+        <v>72</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" s="2">
-        <v>44769</v>
+        <v>44768</v>
       </c>
       <c r="B762">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="763" spans="1:2">
       <c r="A763" s="2">
-        <v>44770</v>
+        <v>44769</v>
       </c>
       <c r="B763">
-        <v>81</v>
+        <v>161</v>
       </c>
     </row>
     <row r="764" spans="1:2">
       <c r="A764" s="2">
-        <v>44771</v>
+        <v>44770</v>
       </c>
       <c r="B764">
-        <v>43</v>
+        <v>74</v>
       </c>
     </row>
     <row r="765" spans="1:2">
       <c r="A765" s="2">
-        <v>44772</v>
+        <v>44771</v>
       </c>
       <c r="B765">
-        <v>86</v>
+        <v>47</v>
       </c>
     </row>
     <row r="766" spans="1:2">
       <c r="A766" s="2">
-        <v>44773</v>
+        <v>44772</v>
       </c>
       <c r="B766">
-        <v>26</v>
+        <v>86</v>
       </c>
     </row>
     <row r="767" spans="1:2">
       <c r="A767" s="2">
-        <v>44774</v>
+        <v>44773</v>
       </c>
       <c r="B767">
-        <v>85</v>
+        <v>32</v>
       </c>
     </row>
     <row r="768" spans="1:2">
       <c r="A768" s="2">
-        <v>44775</v>
+        <v>44774</v>
       </c>
       <c r="B768">
-        <v>41</v>
+        <v>95</v>
       </c>
     </row>
     <row r="769" spans="1:2">
       <c r="A769" s="2">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="B769">
-        <v>85</v>
+        <v>46</v>
       </c>
     </row>
     <row r="770" spans="1:2">
       <c r="A770" s="2">
-        <v>44777</v>
+        <v>44776</v>
       </c>
       <c r="B770">
-        <v>55</v>
+        <v>131</v>
       </c>
     </row>
     <row r="771" spans="1:2">
       <c r="A771" s="2">
-        <v>44778</v>
+        <v>44777</v>
       </c>
       <c r="B771">
-        <v>135</v>
+        <v>63</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" s="2">
-        <v>44779</v>
+        <v>44778</v>
       </c>
       <c r="B772">
-        <v>17</v>
+        <v>138</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" s="2">
-        <v>44780</v>
+        <v>44779</v>
       </c>
       <c r="B773">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="774" spans="1:2">
       <c r="A774" s="2">
-        <v>44781</v>
+        <v>44780</v>
       </c>
       <c r="B774">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="775" spans="1:2">
       <c r="A775" s="2">
-        <v>44782</v>
+        <v>44781</v>
       </c>
       <c r="B775">
-        <v>158</v>
+        <v>47</v>
       </c>
     </row>
     <row r="776" spans="1:2">
       <c r="A776" s="2">
-        <v>44783</v>
+        <v>44782</v>
       </c>
       <c r="B776">
-        <v>126</v>
+        <v>161</v>
       </c>
     </row>
     <row r="777" spans="1:2">
       <c r="A777" s="2">
-        <v>44784</v>
+        <v>44783</v>
       </c>
       <c r="B777">
-        <v>44</v>
+        <v>132</v>
       </c>
     </row>
     <row r="778" spans="1:2">
       <c r="A778" s="2">
-        <v>44785</v>
+        <v>44784</v>
       </c>
       <c r="B778">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="779" spans="1:2">
       <c r="A779" s="2">
-        <v>44786</v>
+        <v>44785</v>
       </c>
       <c r="B779">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="780" spans="1:2">
       <c r="A780" s="2">
-        <v>44787</v>
+        <v>44786</v>
       </c>
       <c r="B780">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781" s="2">
+        <v>44787</v>
+      </c>
+      <c r="B781">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2">
+      <c r="A782" s="2">
         <v>44788</v>
       </c>
-      <c r="B781">
+      <c r="B782">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2">
+      <c r="A783" s="2">
+        <v>44789</v>
+      </c>
+      <c r="B783">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2">
+      <c r="A784" s="2">
+        <v>44790</v>
+      </c>
+      <c r="B784">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2">
+      <c r="A785" s="2">
+        <v>44791</v>
+      </c>
+      <c r="B785">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2">
+      <c r="A786" s="2">
+        <v>44792</v>
+      </c>
+      <c r="B786">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2">
+      <c r="A787" s="2">
+        <v>44793</v>
+      </c>
+      <c r="B787">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2">
+      <c r="A788" s="2">
+        <v>44794</v>
+      </c>
+      <c r="B788">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2">
+      <c r="A789" s="2">
+        <v>44795</v>
+      </c>
+      <c r="B789">
         <v>23</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2">
+      <c r="A790" s="2">
+        <v>44796</v>
+      </c>
+      <c r="B790">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B790"/>
+  <dimension ref="A1:B794"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4066,7 +4066,7 @@
         <v>44386</v>
       </c>
       <c r="B460">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -6466,7 +6466,7 @@
         <v>44766</v>
       </c>
       <c r="B760">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -6482,7 +6482,7 @@
         <v>44768</v>
       </c>
       <c r="B762">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -6506,7 +6506,7 @@
         <v>44771</v>
       </c>
       <c r="B765">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -6522,7 +6522,7 @@
         <v>44773</v>
       </c>
       <c r="B767">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="768" spans="1:2">
@@ -6530,7 +6530,7 @@
         <v>44774</v>
       </c>
       <c r="B768">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="769" spans="1:2">
@@ -6538,7 +6538,7 @@
         <v>44775</v>
       </c>
       <c r="B769">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -6546,7 +6546,7 @@
         <v>44776</v>
       </c>
       <c r="B770">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -6554,7 +6554,7 @@
         <v>44777</v>
       </c>
       <c r="B771">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -6586,7 +6586,7 @@
         <v>44781</v>
       </c>
       <c r="B775">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -6594,7 +6594,7 @@
         <v>44782</v>
       </c>
       <c r="B776">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -6618,7 +6618,7 @@
         <v>44785</v>
       </c>
       <c r="B779">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -6626,7 +6626,7 @@
         <v>44786</v>
       </c>
       <c r="B780">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -6642,7 +6642,7 @@
         <v>44788</v>
       </c>
       <c r="B782">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -6658,7 +6658,7 @@
         <v>44790</v>
       </c>
       <c r="B784">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -6666,7 +6666,7 @@
         <v>44791</v>
       </c>
       <c r="B785">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -6698,7 +6698,7 @@
         <v>44795</v>
       </c>
       <c r="B789">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -6706,7 +6706,39 @@
         <v>44796</v>
       </c>
       <c r="B790">
-        <v>11</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2">
+      <c r="A791" s="2">
+        <v>44797</v>
+      </c>
+      <c r="B791">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2">
+      <c r="A792" s="2">
+        <v>44798</v>
+      </c>
+      <c r="B792">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2">
+      <c r="A793" s="2">
+        <v>44799</v>
+      </c>
+      <c r="B793">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2">
+      <c r="A794" s="2">
+        <v>44800</v>
+      </c>
+      <c r="B794">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B794"/>
+  <dimension ref="A1:B800"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4074,7 +4074,7 @@
         <v>44387</v>
       </c>
       <c r="B461">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4082,7 +4082,7 @@
         <v>44388</v>
       </c>
       <c r="B462">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4090,7 +4090,7 @@
         <v>44389</v>
       </c>
       <c r="B463">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4114,7 +4114,7 @@
         <v>44392</v>
       </c>
       <c r="B466">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -6730,7 +6730,7 @@
         <v>44799</v>
       </c>
       <c r="B793">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -6738,7 +6738,55 @@
         <v>44800</v>
       </c>
       <c r="B794">
-        <v>5</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2">
+      <c r="A795" s="2">
+        <v>44801</v>
+      </c>
+      <c r="B795">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2">
+      <c r="A796" s="2">
+        <v>44802</v>
+      </c>
+      <c r="B796">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2">
+      <c r="A797" s="2">
+        <v>44803</v>
+      </c>
+      <c r="B797">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2">
+      <c r="A798" s="2">
+        <v>44804</v>
+      </c>
+      <c r="B798">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2">
+      <c r="A799" s="2">
+        <v>44805</v>
+      </c>
+      <c r="B799">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2">
+      <c r="A800" s="2">
+        <v>44806</v>
+      </c>
+      <c r="B800">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B800"/>
+  <dimension ref="A1:B806"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4154,7 +4154,7 @@
         <v>44397</v>
       </c>
       <c r="B471">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4162,7 +4162,7 @@
         <v>44398</v>
       </c>
       <c r="B472">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -6466,7 +6466,7 @@
         <v>44766</v>
       </c>
       <c r="B760">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -6778,7 +6778,7 @@
         <v>44805</v>
       </c>
       <c r="B799">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -6786,7 +6786,55 @@
         <v>44806</v>
       </c>
       <c r="B800">
-        <v>2</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2">
+      <c r="A801" s="2">
+        <v>44807</v>
+      </c>
+      <c r="B801">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2">
+      <c r="A802" s="2">
+        <v>44809</v>
+      </c>
+      <c r="B802">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2">
+      <c r="A803" s="2">
+        <v>44810</v>
+      </c>
+      <c r="B803">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2">
+      <c r="A804" s="2">
+        <v>44811</v>
+      </c>
+      <c r="B804">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2">
+      <c r="A805" s="2">
+        <v>44812</v>
+      </c>
+      <c r="B805">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2">
+      <c r="A806" s="2">
+        <v>44814</v>
+      </c>
+      <c r="B806">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B806"/>
+  <dimension ref="A1:B809"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6618,7 +6618,7 @@
         <v>44785</v>
       </c>
       <c r="B779">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -6834,6 +6834,30 @@
         <v>44814</v>
       </c>
       <c r="B806">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2">
+      <c r="A807" s="2">
+        <v>44816</v>
+      </c>
+      <c r="B807">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2">
+      <c r="A808" s="2">
+        <v>44817</v>
+      </c>
+      <c r="B808">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2">
+      <c r="A809" s="2">
+        <v>44818</v>
+      </c>
+      <c r="B809">
         <v>4</v>
       </c>
     </row>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B809"/>
+  <dimension ref="A1:B813"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4202,7 +4202,7 @@
         <v>44404</v>
       </c>
       <c r="B477">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4218,7 +4218,7 @@
         <v>44407</v>
       </c>
       <c r="B479">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4226,7 +4226,7 @@
         <v>44408</v>
       </c>
       <c r="B480">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4394,7 +4394,7 @@
         <v>44432</v>
       </c>
       <c r="B501">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4402,7 +4402,7 @@
         <v>44433</v>
       </c>
       <c r="B502">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -4442,7 +4442,7 @@
         <v>44438</v>
       </c>
       <c r="B507">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4490,7 +4490,7 @@
         <v>44444</v>
       </c>
       <c r="B513">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4506,7 +4506,7 @@
         <v>44446</v>
       </c>
       <c r="B515">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -6658,7 +6658,7 @@
         <v>44790</v>
       </c>
       <c r="B784">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -6859,6 +6859,38 @@
       </c>
       <c r="B809">
         <v>4</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2">
+      <c r="A810" s="2">
+        <v>44824</v>
+      </c>
+      <c r="B810">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2">
+      <c r="A811" s="2">
+        <v>44825</v>
+      </c>
+      <c r="B811">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2">
+      <c r="A812" s="2">
+        <v>44826</v>
+      </c>
+      <c r="B812">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2">
+      <c r="A813" s="2">
+        <v>44827</v>
+      </c>
+      <c r="B813">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B813"/>
+  <dimension ref="A1:B816"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4530,7 +4530,7 @@
         <v>44449</v>
       </c>
       <c r="B518">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4538,7 +4538,7 @@
         <v>44450</v>
       </c>
       <c r="B519">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -6891,6 +6891,30 @@
       </c>
       <c r="B813">
         <v>2</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2">
+      <c r="A814" s="2">
+        <v>44830</v>
+      </c>
+      <c r="B814">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2">
+      <c r="A815" s="2">
+        <v>44831</v>
+      </c>
+      <c r="B815">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2">
+      <c r="A816" s="2">
+        <v>44834</v>
+      </c>
+      <c r="B816">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B816"/>
+  <dimension ref="A1:B820"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4559,31 +4559,31 @@
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44455</v>
+        <v>44454</v>
       </c>
       <c r="B522">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44456</v>
+        <v>44455</v>
       </c>
       <c r="B523">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44459</v>
+        <v>44456</v>
       </c>
       <c r="B524">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44460</v>
+        <v>44459</v>
       </c>
       <c r="B525">
         <v>2</v>
@@ -4591,7 +4591,7 @@
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44461</v>
+        <v>44460</v>
       </c>
       <c r="B526">
         <v>2</v>
@@ -4599,47 +4599,47 @@
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44463</v>
+        <v>44461</v>
       </c>
       <c r="B527">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44464</v>
+        <v>44463</v>
       </c>
       <c r="B528">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44465</v>
+        <v>44464</v>
       </c>
       <c r="B529">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44466</v>
+        <v>44465</v>
       </c>
       <c r="B530">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44467</v>
+        <v>44466</v>
       </c>
       <c r="B531">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44468</v>
+        <v>44467</v>
       </c>
       <c r="B532">
         <v>1</v>
@@ -4647,15 +4647,15 @@
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44469</v>
+        <v>44468</v>
       </c>
       <c r="B533">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44470</v>
+        <v>44469</v>
       </c>
       <c r="B534">
         <v>3</v>
@@ -4663,15 +4663,15 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44474</v>
+        <v>44470</v>
       </c>
       <c r="B535">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44476</v>
+        <v>44474</v>
       </c>
       <c r="B536">
         <v>2</v>
@@ -4679,95 +4679,95 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44477</v>
+        <v>44476</v>
       </c>
       <c r="B537">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44478</v>
+        <v>44477</v>
       </c>
       <c r="B538">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44480</v>
+        <v>44478</v>
       </c>
       <c r="B539">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44481</v>
+        <v>44480</v>
       </c>
       <c r="B540">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44482</v>
+        <v>44481</v>
       </c>
       <c r="B541">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44483</v>
+        <v>44482</v>
       </c>
       <c r="B542">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44484</v>
+        <v>44483</v>
       </c>
       <c r="B543">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44485</v>
+        <v>44484</v>
       </c>
       <c r="B544">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44488</v>
+        <v>44485</v>
       </c>
       <c r="B545">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44489</v>
+        <v>44488</v>
       </c>
       <c r="B546">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44490</v>
+        <v>44489</v>
       </c>
       <c r="B547">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44491</v>
+        <v>44490</v>
       </c>
       <c r="B548">
         <v>3</v>
@@ -4775,7 +4775,7 @@
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44493</v>
+        <v>44491</v>
       </c>
       <c r="B549">
         <v>3</v>
@@ -4783,39 +4783,39 @@
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44494</v>
+        <v>44493</v>
       </c>
       <c r="B550">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44495</v>
+        <v>44494</v>
       </c>
       <c r="B551">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44496</v>
+        <v>44495</v>
       </c>
       <c r="B552">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44497</v>
+        <v>44496</v>
       </c>
       <c r="B553">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44498</v>
+        <v>44497</v>
       </c>
       <c r="B554">
         <v>3</v>
@@ -4823,23 +4823,23 @@
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44499</v>
+        <v>44498</v>
       </c>
       <c r="B555">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44500</v>
+        <v>44499</v>
       </c>
       <c r="B556">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44502</v>
+        <v>44500</v>
       </c>
       <c r="B557">
         <v>3</v>
@@ -4847,15 +4847,15 @@
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44503</v>
+        <v>44502</v>
       </c>
       <c r="B558">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44504</v>
+        <v>44503</v>
       </c>
       <c r="B559">
         <v>1</v>
@@ -4863,79 +4863,79 @@
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44505</v>
+        <v>44504</v>
       </c>
       <c r="B560">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44506</v>
+        <v>44505</v>
       </c>
       <c r="B561">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44508</v>
+        <v>44506</v>
       </c>
       <c r="B562">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44510</v>
+        <v>44508</v>
       </c>
       <c r="B563">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44511</v>
+        <v>44510</v>
       </c>
       <c r="B564">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44512</v>
+        <v>44511</v>
       </c>
       <c r="B565">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44513</v>
+        <v>44512</v>
       </c>
       <c r="B566">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44516</v>
+        <v>44513</v>
       </c>
       <c r="B567">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44517</v>
+        <v>44516</v>
       </c>
       <c r="B568">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44518</v>
+        <v>44517</v>
       </c>
       <c r="B569">
         <v>2</v>
@@ -4943,87 +4943,87 @@
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44519</v>
+        <v>44518</v>
       </c>
       <c r="B570">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44520</v>
+        <v>44519</v>
       </c>
       <c r="B571">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44521</v>
+        <v>44520</v>
       </c>
       <c r="B572">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44522</v>
+        <v>44521</v>
       </c>
       <c r="B573">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44523</v>
+        <v>44522</v>
       </c>
       <c r="B574">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44524</v>
+        <v>44523</v>
       </c>
       <c r="B575">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44525</v>
+        <v>44524</v>
       </c>
       <c r="B576">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44526</v>
+        <v>44525</v>
       </c>
       <c r="B577">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44527</v>
+        <v>44526</v>
       </c>
       <c r="B578">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>44529</v>
+        <v>44527</v>
       </c>
       <c r="B579">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2">
-        <v>44530</v>
+        <v>44529</v>
       </c>
       <c r="B580">
         <v>3</v>
@@ -5031,23 +5031,23 @@
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2">
-        <v>44531</v>
+        <v>44530</v>
       </c>
       <c r="B581">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2">
-        <v>44532</v>
+        <v>44531</v>
       </c>
       <c r="B582">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2">
-        <v>44533</v>
+        <v>44532</v>
       </c>
       <c r="B583">
         <v>2</v>
@@ -5055,95 +5055,95 @@
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2">
-        <v>44534</v>
+        <v>44533</v>
       </c>
       <c r="B584">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2">
-        <v>44536</v>
+        <v>44534</v>
       </c>
       <c r="B585">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2">
-        <v>44537</v>
+        <v>44536</v>
       </c>
       <c r="B586">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2">
-        <v>44538</v>
+        <v>44537</v>
       </c>
       <c r="B587">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2">
-        <v>44539</v>
+        <v>44538</v>
       </c>
       <c r="B588">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="2">
-        <v>44540</v>
+        <v>44539</v>
       </c>
       <c r="B589">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2">
-        <v>44541</v>
+        <v>44540</v>
       </c>
       <c r="B590">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="2">
-        <v>44542</v>
+        <v>44541</v>
       </c>
       <c r="B591">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2">
-        <v>44543</v>
+        <v>44542</v>
       </c>
       <c r="B592">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="2">
-        <v>44544</v>
+        <v>44543</v>
       </c>
       <c r="B593">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2">
-        <v>44545</v>
+        <v>44544</v>
       </c>
       <c r="B594">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="2">
-        <v>44546</v>
+        <v>44545</v>
       </c>
       <c r="B595">
         <v>7</v>
@@ -5151,639 +5151,639 @@
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2">
-        <v>44547</v>
+        <v>44546</v>
       </c>
       <c r="B596">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="2">
-        <v>44548</v>
+        <v>44547</v>
       </c>
       <c r="B597">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2">
-        <v>44549</v>
+        <v>44548</v>
       </c>
       <c r="B598">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="2">
-        <v>44550</v>
+        <v>44549</v>
       </c>
       <c r="B599">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="2">
-        <v>44551</v>
+        <v>44550</v>
       </c>
       <c r="B600">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="2">
-        <v>44552</v>
+        <v>44551</v>
       </c>
       <c r="B601">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="2">
-        <v>44553</v>
+        <v>44552</v>
       </c>
       <c r="B602">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="2">
-        <v>44554</v>
+        <v>44553</v>
       </c>
       <c r="B603">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="2">
-        <v>44556</v>
+        <v>44554</v>
       </c>
       <c r="B604">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="2">
-        <v>44557</v>
+        <v>44556</v>
       </c>
       <c r="B605">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="2">
-        <v>44558</v>
+        <v>44557</v>
       </c>
       <c r="B606">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="2">
-        <v>44559</v>
+        <v>44558</v>
       </c>
       <c r="B607">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="2">
-        <v>44560</v>
+        <v>44559</v>
       </c>
       <c r="B608">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="2">
-        <v>44561</v>
+        <v>44560</v>
       </c>
       <c r="B609">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="2">
-        <v>44563</v>
+        <v>44561</v>
       </c>
       <c r="B610">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" s="2">
-        <v>44564</v>
+        <v>44563</v>
       </c>
       <c r="B611">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" s="2">
-        <v>44565</v>
+        <v>44564</v>
       </c>
       <c r="B612">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="2">
-        <v>44566</v>
+        <v>44565</v>
       </c>
       <c r="B613">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="2">
-        <v>44567</v>
+        <v>44566</v>
       </c>
       <c r="B614">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" s="2">
-        <v>44568</v>
+        <v>44567</v>
       </c>
       <c r="B615">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" s="2">
-        <v>44569</v>
+        <v>44568</v>
       </c>
       <c r="B616">
-        <v>53</v>
+        <v>14</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" s="2">
-        <v>44570</v>
+        <v>44569</v>
       </c>
       <c r="B617">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" s="2">
-        <v>44571</v>
+        <v>44570</v>
       </c>
       <c r="B618">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="619" spans="1:2">
       <c r="A619" s="2">
-        <v>44572</v>
+        <v>44571</v>
       </c>
       <c r="B619">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" s="2">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B620">
-        <v>73</v>
+        <v>42</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" s="2">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B621">
-        <v>135</v>
+        <v>73</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" s="2">
-        <v>44575</v>
+        <v>44574</v>
       </c>
       <c r="B622">
-        <v>157</v>
+        <v>135</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" s="2">
-        <v>44576</v>
+        <v>44575</v>
       </c>
       <c r="B623">
-        <v>86</v>
+        <v>157</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" s="2">
-        <v>44577</v>
+        <v>44576</v>
       </c>
       <c r="B624">
-        <v>71</v>
+        <v>86</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" s="2">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B625">
-        <v>327</v>
+        <v>71</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" s="2">
-        <v>44579</v>
+        <v>44578</v>
       </c>
       <c r="B626">
-        <v>189</v>
+        <v>327</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" s="2">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="B627">
-        <v>277</v>
+        <v>189</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" s="2">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B628">
-        <v>339</v>
+        <v>277</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" s="2">
-        <v>44582</v>
+        <v>44581</v>
       </c>
       <c r="B629">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" s="2">
-        <v>44583</v>
+        <v>44582</v>
       </c>
       <c r="B630">
-        <v>432</v>
+        <v>347</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" s="2">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B631">
-        <v>137</v>
+        <v>432</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" s="2">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B632">
-        <v>595</v>
+        <v>137</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" s="2">
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="B633">
-        <v>366</v>
+        <v>595</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" s="2">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="B634">
-        <v>405</v>
+        <v>366</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B635">
-        <v>333</v>
+        <v>405</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B636">
-        <v>391</v>
+        <v>333</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B637">
-        <v>325</v>
+        <v>391</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" s="2">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B638">
-        <v>25</v>
+        <v>325</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B639">
-        <v>148</v>
+        <v>25</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B640">
-        <v>125</v>
+        <v>148</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B641">
-        <v>187</v>
+        <v>125</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" s="2">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B642">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" s="2">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="B643">
-        <v>156</v>
+        <v>196</v>
       </c>
     </row>
     <row r="644" spans="1:2">
       <c r="A644" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B644">
-        <v>183</v>
+        <v>156</v>
       </c>
     </row>
     <row r="645" spans="1:2">
       <c r="A645" s="2">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="B645">
-        <v>22</v>
+        <v>183</v>
       </c>
     </row>
     <row r="646" spans="1:2">
       <c r="A646" s="2">
-        <v>44599</v>
+        <v>44598</v>
       </c>
       <c r="B646">
-        <v>76</v>
+        <v>22</v>
       </c>
     </row>
     <row r="647" spans="1:2">
       <c r="A647" s="2">
-        <v>44600</v>
+        <v>44599</v>
       </c>
       <c r="B647">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" s="2">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="B648">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" s="2">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="B649">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B650">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="651" spans="1:2">
       <c r="A651" s="2">
-        <v>44604</v>
+        <v>44603</v>
       </c>
       <c r="B651">
-        <v>88</v>
+        <v>46</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" s="2">
-        <v>44605</v>
+        <v>44604</v>
       </c>
       <c r="B652">
-        <v>14</v>
+        <v>88</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" s="2">
-        <v>44606</v>
+        <v>44605</v>
       </c>
       <c r="B653">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="654" spans="1:2">
       <c r="A654" s="2">
-        <v>44607</v>
+        <v>44606</v>
       </c>
       <c r="B654">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" s="2">
-        <v>44608</v>
+        <v>44607</v>
       </c>
       <c r="B655">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" s="2">
-        <v>44609</v>
+        <v>44608</v>
       </c>
       <c r="B656">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" s="2">
-        <v>44610</v>
+        <v>44609</v>
       </c>
       <c r="B657">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="658" spans="1:2">
       <c r="A658" s="2">
-        <v>44611</v>
+        <v>44610</v>
       </c>
       <c r="B658">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" s="2">
-        <v>44612</v>
+        <v>44611</v>
       </c>
       <c r="B659">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="660" spans="1:2">
       <c r="A660" s="2">
-        <v>44613</v>
+        <v>44612</v>
       </c>
       <c r="B660">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="661" spans="1:2">
       <c r="A661" s="2">
-        <v>44614</v>
+        <v>44613</v>
       </c>
       <c r="B661">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="662" spans="1:2">
       <c r="A662" s="2">
-        <v>44615</v>
+        <v>44614</v>
       </c>
       <c r="B662">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="663" spans="1:2">
       <c r="A663" s="2">
-        <v>44616</v>
+        <v>44615</v>
       </c>
       <c r="B663">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" s="2">
-        <v>44617</v>
+        <v>44616</v>
       </c>
       <c r="B664">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" s="2">
-        <v>44618</v>
+        <v>44617</v>
       </c>
       <c r="B665">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" s="2">
-        <v>44619</v>
+        <v>44618</v>
       </c>
       <c r="B666">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" s="2">
-        <v>44620</v>
+        <v>44619</v>
       </c>
       <c r="B667">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" s="2">
-        <v>44621</v>
+        <v>44620</v>
       </c>
       <c r="B668">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669" s="2">
-        <v>44622</v>
+        <v>44621</v>
       </c>
       <c r="B669">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="670" spans="1:2">
       <c r="A670" s="2">
-        <v>44623</v>
+        <v>44622</v>
       </c>
       <c r="B670">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" s="2">
-        <v>44624</v>
+        <v>44623</v>
       </c>
       <c r="B671">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" s="2">
-        <v>44625</v>
+        <v>44624</v>
       </c>
       <c r="B672">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:2">
       <c r="A673" s="2">
-        <v>44626</v>
+        <v>44625</v>
       </c>
       <c r="B673">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" s="2">
-        <v>44627</v>
+        <v>44626</v>
       </c>
       <c r="B674">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" s="2">
-        <v>44630</v>
+        <v>44627</v>
       </c>
       <c r="B675">
         <v>3</v>
@@ -5791,143 +5791,143 @@
     </row>
     <row r="676" spans="1:2">
       <c r="A676" s="2">
-        <v>44631</v>
+        <v>44630</v>
       </c>
       <c r="B676">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" s="2">
-        <v>44632</v>
+        <v>44631</v>
       </c>
       <c r="B677">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" s="2">
-        <v>44635</v>
+        <v>44632</v>
       </c>
       <c r="B678">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="679" spans="1:2">
       <c r="A679" s="2">
-        <v>44636</v>
+        <v>44635</v>
       </c>
       <c r="B679">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:2">
       <c r="A680" s="2">
-        <v>44637</v>
+        <v>44636</v>
       </c>
       <c r="B680">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" s="2">
-        <v>44640</v>
+        <v>44637</v>
       </c>
       <c r="B681">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" s="2">
-        <v>44643</v>
+        <v>44640</v>
       </c>
       <c r="B682">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" s="2">
-        <v>44644</v>
+        <v>44643</v>
       </c>
       <c r="B683">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="684" spans="1:2">
       <c r="A684" s="2">
-        <v>44646</v>
+        <v>44644</v>
       </c>
       <c r="B684">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:2">
       <c r="A685" s="2">
-        <v>44648</v>
+        <v>44646</v>
       </c>
       <c r="B685">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686" spans="1:2">
       <c r="A686" s="2">
-        <v>44649</v>
+        <v>44648</v>
       </c>
       <c r="B686">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="687" spans="1:2">
       <c r="A687" s="2">
-        <v>44650</v>
+        <v>44649</v>
       </c>
       <c r="B687">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="688" spans="1:2">
       <c r="A688" s="2">
-        <v>44651</v>
+        <v>44650</v>
       </c>
       <c r="B688">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="689" spans="1:2">
       <c r="A689" s="2">
-        <v>44652</v>
+        <v>44651</v>
       </c>
       <c r="B689">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" s="2">
-        <v>44653</v>
+        <v>44652</v>
       </c>
       <c r="B690">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" s="2">
-        <v>44655</v>
+        <v>44653</v>
       </c>
       <c r="B691">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="692" spans="1:2">
       <c r="A692" s="2">
-        <v>44657</v>
+        <v>44655</v>
       </c>
       <c r="B692">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" s="2">
-        <v>44658</v>
+        <v>44657</v>
       </c>
       <c r="B693">
         <v>1</v>
@@ -5935,143 +5935,143 @@
     </row>
     <row r="694" spans="1:2">
       <c r="A694" s="2">
-        <v>44659</v>
+        <v>44658</v>
       </c>
       <c r="B694">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" spans="1:2">
       <c r="A695" s="2">
-        <v>44660</v>
+        <v>44659</v>
       </c>
       <c r="B695">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="696" spans="1:2">
       <c r="A696" s="2">
-        <v>44662</v>
+        <v>44660</v>
       </c>
       <c r="B696">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:2">
       <c r="A697" s="2">
-        <v>44664</v>
+        <v>44662</v>
       </c>
       <c r="B697">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="698" spans="1:2">
       <c r="A698" s="2">
-        <v>44667</v>
+        <v>44664</v>
       </c>
       <c r="B698">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" s="2">
-        <v>44668</v>
+        <v>44667</v>
       </c>
       <c r="B699">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" s="2">
-        <v>44669</v>
+        <v>44668</v>
       </c>
       <c r="B700">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" s="2">
-        <v>44670</v>
+        <v>44669</v>
       </c>
       <c r="B701">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" s="2">
-        <v>44671</v>
+        <v>44670</v>
       </c>
       <c r="B702">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="703" spans="1:2">
       <c r="A703" s="2">
-        <v>44672</v>
+        <v>44671</v>
       </c>
       <c r="B703">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" s="2">
-        <v>44673</v>
+        <v>44672</v>
       </c>
       <c r="B704">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" s="2">
-        <v>44677</v>
+        <v>44673</v>
       </c>
       <c r="B705">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" s="2">
-        <v>44678</v>
+        <v>44677</v>
       </c>
       <c r="B706">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" s="2">
-        <v>44680</v>
+        <v>44678</v>
       </c>
       <c r="B707">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" s="2">
-        <v>44685</v>
+        <v>44680</v>
       </c>
       <c r="B708">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" s="2">
-        <v>44692</v>
+        <v>44685</v>
       </c>
       <c r="B709">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" s="2">
-        <v>44694</v>
+        <v>44692</v>
       </c>
       <c r="B710">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711" s="2">
-        <v>44698</v>
+        <v>44694</v>
       </c>
       <c r="B711">
         <v>1</v>
@@ -6079,7 +6079,7 @@
     </row>
     <row r="712" spans="1:2">
       <c r="A712" s="2">
-        <v>44699</v>
+        <v>44698</v>
       </c>
       <c r="B712">
         <v>1</v>
@@ -6087,7 +6087,7 @@
     </row>
     <row r="713" spans="1:2">
       <c r="A713" s="2">
-        <v>44700</v>
+        <v>44699</v>
       </c>
       <c r="B713">
         <v>1</v>
@@ -6095,7 +6095,7 @@
     </row>
     <row r="714" spans="1:2">
       <c r="A714" s="2">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="B714">
         <v>1</v>
@@ -6103,7 +6103,7 @@
     </row>
     <row r="715" spans="1:2">
       <c r="A715" s="2">
-        <v>44705</v>
+        <v>44701</v>
       </c>
       <c r="B715">
         <v>1</v>
@@ -6111,7 +6111,7 @@
     </row>
     <row r="716" spans="1:2">
       <c r="A716" s="2">
-        <v>44708</v>
+        <v>44705</v>
       </c>
       <c r="B716">
         <v>1</v>
@@ -6119,7 +6119,7 @@
     </row>
     <row r="717" spans="1:2">
       <c r="A717" s="2">
-        <v>44711</v>
+        <v>44708</v>
       </c>
       <c r="B717">
         <v>1</v>
@@ -6127,7 +6127,7 @@
     </row>
     <row r="718" spans="1:2">
       <c r="A718" s="2">
-        <v>44714</v>
+        <v>44711</v>
       </c>
       <c r="B718">
         <v>1</v>
@@ -6135,47 +6135,47 @@
     </row>
     <row r="719" spans="1:2">
       <c r="A719" s="2">
-        <v>44715</v>
+        <v>44714</v>
       </c>
       <c r="B719">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:2">
       <c r="A720" s="2">
-        <v>44716</v>
+        <v>44715</v>
       </c>
       <c r="B720">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="721" spans="1:2">
       <c r="A721" s="2">
-        <v>44719</v>
+        <v>44716</v>
       </c>
       <c r="B721">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="722" spans="1:2">
       <c r="A722" s="2">
-        <v>44722</v>
+        <v>44719</v>
       </c>
       <c r="B722">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="723" spans="1:2">
       <c r="A723" s="2">
-        <v>44723</v>
+        <v>44722</v>
       </c>
       <c r="B723">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724" spans="1:2">
       <c r="A724" s="2">
-        <v>44725</v>
+        <v>44723</v>
       </c>
       <c r="B724">
         <v>2</v>
@@ -6183,47 +6183,47 @@
     </row>
     <row r="725" spans="1:2">
       <c r="A725" s="2">
-        <v>44728</v>
+        <v>44725</v>
       </c>
       <c r="B725">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="726" spans="1:2">
       <c r="A726" s="2">
-        <v>44730</v>
+        <v>44728</v>
       </c>
       <c r="B726">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727" spans="1:2">
       <c r="A727" s="2">
-        <v>44732</v>
+        <v>44730</v>
       </c>
       <c r="B727">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="728" spans="1:2">
       <c r="A728" s="2">
-        <v>44733</v>
+        <v>44732</v>
       </c>
       <c r="B728">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729" spans="1:2">
       <c r="A729" s="2">
-        <v>44734</v>
+        <v>44733</v>
       </c>
       <c r="B729">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" s="2">
-        <v>44735</v>
+        <v>44734</v>
       </c>
       <c r="B730">
         <v>1</v>
@@ -6231,127 +6231,127 @@
     </row>
     <row r="731" spans="1:2">
       <c r="A731" s="2">
-        <v>44737</v>
+        <v>44735</v>
       </c>
       <c r="B731">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:2">
       <c r="A732" s="2">
-        <v>44738</v>
+        <v>44737</v>
       </c>
       <c r="B732">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="733" spans="1:2">
       <c r="A733" s="2">
-        <v>44739</v>
+        <v>44738</v>
       </c>
       <c r="B733">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:2">
       <c r="A734" s="2">
-        <v>44740</v>
+        <v>44739</v>
       </c>
       <c r="B734">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" s="2">
-        <v>44741</v>
+        <v>44740</v>
       </c>
       <c r="B735">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="736" spans="1:2">
       <c r="A736" s="2">
-        <v>44742</v>
+        <v>44741</v>
       </c>
       <c r="B736">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" s="2">
-        <v>44743</v>
+        <v>44742</v>
       </c>
       <c r="B737">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" s="2">
-        <v>44744</v>
+        <v>44743</v>
       </c>
       <c r="B738">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" s="2">
-        <v>44745</v>
+        <v>44744</v>
       </c>
       <c r="B739">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" s="2">
-        <v>44746</v>
+        <v>44745</v>
       </c>
       <c r="B740">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" s="2">
-        <v>44747</v>
+        <v>44746</v>
       </c>
       <c r="B741">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" s="2">
-        <v>44748</v>
+        <v>44747</v>
       </c>
       <c r="B742">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" s="2">
-        <v>44749</v>
+        <v>44748</v>
       </c>
       <c r="B743">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" s="2">
-        <v>44750</v>
+        <v>44749</v>
       </c>
       <c r="B744">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" s="2">
-        <v>44751</v>
+        <v>44750</v>
       </c>
       <c r="B745">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" s="2">
-        <v>44752</v>
+        <v>44751</v>
       </c>
       <c r="B746">
         <v>10</v>
@@ -6359,407 +6359,407 @@
     </row>
     <row r="747" spans="1:2">
       <c r="A747" s="2">
-        <v>44753</v>
+        <v>44752</v>
       </c>
       <c r="B747">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="748" spans="1:2">
       <c r="A748" s="2">
-        <v>44754</v>
+        <v>44753</v>
       </c>
       <c r="B748">
-        <v>69</v>
+        <v>40</v>
       </c>
     </row>
     <row r="749" spans="1:2">
       <c r="A749" s="2">
-        <v>44755</v>
+        <v>44754</v>
       </c>
       <c r="B749">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="750" spans="1:2">
       <c r="A750" s="2">
-        <v>44756</v>
+        <v>44755</v>
       </c>
       <c r="B750">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="751" spans="1:2">
       <c r="A751" s="2">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="B751">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="752" spans="1:2">
       <c r="A752" s="2">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="B752">
-        <v>102</v>
+        <v>67</v>
       </c>
     </row>
     <row r="753" spans="1:2">
       <c r="A753" s="2">
-        <v>44759</v>
+        <v>44758</v>
       </c>
       <c r="B753">
-        <v>9</v>
+        <v>102</v>
       </c>
     </row>
     <row r="754" spans="1:2">
       <c r="A754" s="2">
-        <v>44760</v>
+        <v>44759</v>
       </c>
       <c r="B754">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" s="2">
-        <v>44761</v>
+        <v>44760</v>
       </c>
       <c r="B755">
-        <v>58</v>
+        <v>88</v>
       </c>
     </row>
     <row r="756" spans="1:2">
       <c r="A756" s="2">
-        <v>44762</v>
+        <v>44761</v>
       </c>
       <c r="B756">
-        <v>115</v>
+        <v>58</v>
       </c>
     </row>
     <row r="757" spans="1:2">
       <c r="A757" s="2">
-        <v>44763</v>
+        <v>44762</v>
       </c>
       <c r="B757">
-        <v>169</v>
+        <v>115</v>
       </c>
     </row>
     <row r="758" spans="1:2">
       <c r="A758" s="2">
-        <v>44764</v>
+        <v>44763</v>
       </c>
       <c r="B758">
-        <v>126</v>
+        <v>169</v>
       </c>
     </row>
     <row r="759" spans="1:2">
       <c r="A759" s="2">
-        <v>44765</v>
+        <v>44764</v>
       </c>
       <c r="B759">
-        <v>143</v>
+        <v>126</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" s="2">
-        <v>44766</v>
+        <v>44765</v>
       </c>
       <c r="B760">
-        <v>42</v>
+        <v>143</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" s="2">
-        <v>44767</v>
+        <v>44766</v>
       </c>
       <c r="B761">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" s="2">
-        <v>44768</v>
+        <v>44767</v>
       </c>
       <c r="B762">
-        <v>175</v>
+        <v>72</v>
       </c>
     </row>
     <row r="763" spans="1:2">
       <c r="A763" s="2">
-        <v>44769</v>
+        <v>44768</v>
       </c>
       <c r="B763">
-        <v>161</v>
+        <v>175</v>
       </c>
     </row>
     <row r="764" spans="1:2">
       <c r="A764" s="2">
-        <v>44770</v>
+        <v>44769</v>
       </c>
       <c r="B764">
-        <v>74</v>
+        <v>161</v>
       </c>
     </row>
     <row r="765" spans="1:2">
       <c r="A765" s="2">
-        <v>44771</v>
+        <v>44770</v>
       </c>
       <c r="B765">
-        <v>48</v>
+        <v>74</v>
       </c>
     </row>
     <row r="766" spans="1:2">
       <c r="A766" s="2">
-        <v>44772</v>
+        <v>44771</v>
       </c>
       <c r="B766">
-        <v>86</v>
+        <v>48</v>
       </c>
     </row>
     <row r="767" spans="1:2">
       <c r="A767" s="2">
-        <v>44773</v>
+        <v>44772</v>
       </c>
       <c r="B767">
-        <v>34</v>
+        <v>86</v>
       </c>
     </row>
     <row r="768" spans="1:2">
       <c r="A768" s="2">
-        <v>44774</v>
+        <v>44773</v>
       </c>
       <c r="B768">
-        <v>98</v>
+        <v>34</v>
       </c>
     </row>
     <row r="769" spans="1:2">
       <c r="A769" s="2">
-        <v>44775</v>
+        <v>44774</v>
       </c>
       <c r="B769">
-        <v>47</v>
+        <v>98</v>
       </c>
     </row>
     <row r="770" spans="1:2">
       <c r="A770" s="2">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="B770">
-        <v>134</v>
+        <v>47</v>
       </c>
     </row>
     <row r="771" spans="1:2">
       <c r="A771" s="2">
-        <v>44777</v>
+        <v>44776</v>
       </c>
       <c r="B771">
-        <v>64</v>
+        <v>134</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" s="2">
-        <v>44778</v>
+        <v>44777</v>
       </c>
       <c r="B772">
-        <v>138</v>
+        <v>64</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" s="2">
-        <v>44779</v>
+        <v>44778</v>
       </c>
       <c r="B773">
-        <v>18</v>
+        <v>138</v>
       </c>
     </row>
     <row r="774" spans="1:2">
       <c r="A774" s="2">
-        <v>44780</v>
+        <v>44779</v>
       </c>
       <c r="B774">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="775" spans="1:2">
       <c r="A775" s="2">
-        <v>44781</v>
+        <v>44780</v>
       </c>
       <c r="B775">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="776" spans="1:2">
       <c r="A776" s="2">
-        <v>44782</v>
+        <v>44781</v>
       </c>
       <c r="B776">
-        <v>162</v>
+        <v>48</v>
       </c>
     </row>
     <row r="777" spans="1:2">
       <c r="A777" s="2">
-        <v>44783</v>
+        <v>44782</v>
       </c>
       <c r="B777">
-        <v>132</v>
+        <v>162</v>
       </c>
     </row>
     <row r="778" spans="1:2">
       <c r="A778" s="2">
-        <v>44784</v>
+        <v>44783</v>
       </c>
       <c r="B778">
-        <v>45</v>
+        <v>132</v>
       </c>
     </row>
     <row r="779" spans="1:2">
       <c r="A779" s="2">
-        <v>44785</v>
+        <v>44784</v>
       </c>
       <c r="B779">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="780" spans="1:2">
       <c r="A780" s="2">
-        <v>44786</v>
+        <v>44785</v>
       </c>
       <c r="B780">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781" s="2">
-        <v>44787</v>
+        <v>44786</v>
       </c>
       <c r="B781">
-        <v>3</v>
+        <v>41</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" s="2">
-        <v>44788</v>
+        <v>44787</v>
       </c>
       <c r="B782">
-        <v>48</v>
+        <v>3</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" s="2">
-        <v>44789</v>
+        <v>44788</v>
       </c>
       <c r="B783">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" s="2">
-        <v>44790</v>
+        <v>44789</v>
       </c>
       <c r="B784">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="785" spans="1:2">
       <c r="A785" s="2">
-        <v>44791</v>
+        <v>44790</v>
       </c>
       <c r="B785">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786" s="2">
-        <v>44792</v>
+        <v>44791</v>
       </c>
       <c r="B786">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="787" spans="1:2">
       <c r="A787" s="2">
-        <v>44793</v>
+        <v>44792</v>
       </c>
       <c r="B787">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" s="2">
-        <v>44794</v>
+        <v>44793</v>
       </c>
       <c r="B788">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" s="2">
-        <v>44795</v>
+        <v>44794</v>
       </c>
       <c r="B789">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" s="2">
-        <v>44796</v>
+        <v>44795</v>
       </c>
       <c r="B790">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" s="2">
-        <v>44797</v>
+        <v>44796</v>
       </c>
       <c r="B791">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" s="2">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="B792">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" s="2">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="B793">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" s="2">
-        <v>44800</v>
+        <v>44799</v>
       </c>
       <c r="B794">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" s="2">
-        <v>44801</v>
+        <v>44800</v>
       </c>
       <c r="B795">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" s="2">
-        <v>44802</v>
+        <v>44801</v>
       </c>
       <c r="B796">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" s="2">
-        <v>44803</v>
+        <v>44802</v>
       </c>
       <c r="B797">
         <v>3</v>
@@ -6767,55 +6767,55 @@
     </row>
     <row r="798" spans="1:2">
       <c r="A798" s="2">
-        <v>44804</v>
+        <v>44803</v>
       </c>
       <c r="B798">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="799" spans="1:2">
       <c r="A799" s="2">
-        <v>44805</v>
+        <v>44804</v>
       </c>
       <c r="B799">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="800" spans="1:2">
       <c r="A800" s="2">
-        <v>44806</v>
+        <v>44805</v>
       </c>
       <c r="B800">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="801" spans="1:2">
       <c r="A801" s="2">
-        <v>44807</v>
+        <v>44806</v>
       </c>
       <c r="B801">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="802" spans="1:2">
       <c r="A802" s="2">
-        <v>44809</v>
+        <v>44807</v>
       </c>
       <c r="B802">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="803" spans="1:2">
       <c r="A803" s="2">
-        <v>44810</v>
+        <v>44809</v>
       </c>
       <c r="B803">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="804" spans="1:2">
       <c r="A804" s="2">
-        <v>44811</v>
+        <v>44810</v>
       </c>
       <c r="B804">
         <v>8</v>
@@ -6823,55 +6823,55 @@
     </row>
     <row r="805" spans="1:2">
       <c r="A805" s="2">
-        <v>44812</v>
+        <v>44811</v>
       </c>
       <c r="B805">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" s="2">
-        <v>44814</v>
+        <v>44812</v>
       </c>
       <c r="B806">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" s="2">
-        <v>44816</v>
+        <v>44814</v>
       </c>
       <c r="B807">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" s="2">
-        <v>44817</v>
+        <v>44816</v>
       </c>
       <c r="B808">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="809" spans="1:2">
       <c r="A809" s="2">
-        <v>44818</v>
+        <v>44817</v>
       </c>
       <c r="B809">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810" spans="1:2">
       <c r="A810" s="2">
-        <v>44824</v>
+        <v>44818</v>
       </c>
       <c r="B810">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="811" spans="1:2">
       <c r="A811" s="2">
-        <v>44825</v>
+        <v>44824</v>
       </c>
       <c r="B811">
         <v>2</v>
@@ -6879,23 +6879,23 @@
     </row>
     <row r="812" spans="1:2">
       <c r="A812" s="2">
-        <v>44826</v>
+        <v>44825</v>
       </c>
       <c r="B812">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="813" spans="1:2">
       <c r="A813" s="2">
-        <v>44827</v>
+        <v>44826</v>
       </c>
       <c r="B813">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="814" spans="1:2">
       <c r="A814" s="2">
-        <v>44830</v>
+        <v>44827</v>
       </c>
       <c r="B814">
         <v>2</v>
@@ -6903,7 +6903,7 @@
     </row>
     <row r="815" spans="1:2">
       <c r="A815" s="2">
-        <v>44831</v>
+        <v>44830</v>
       </c>
       <c r="B815">
         <v>2</v>
@@ -6911,10 +6911,42 @@
     </row>
     <row r="816" spans="1:2">
       <c r="A816" s="2">
+        <v>44831</v>
+      </c>
+      <c r="B816">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2">
+      <c r="A817" s="2">
         <v>44834</v>
       </c>
-      <c r="B816">
+      <c r="B817">
         <v>3</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2">
+      <c r="A818" s="2">
+        <v>44835</v>
+      </c>
+      <c r="B818">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2">
+      <c r="A819" s="2">
+        <v>44841</v>
+      </c>
+      <c r="B819">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2">
+      <c r="A820" s="2">
+        <v>44847</v>
+      </c>
+      <c r="B820">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B820"/>
+  <dimension ref="A1:B826"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4658,7 +4658,7 @@
         <v>44469</v>
       </c>
       <c r="B534">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -4754,7 +4754,7 @@
         <v>44488</v>
       </c>
       <c r="B546">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -6842,7 +6842,7 @@
         <v>44814</v>
       </c>
       <c r="B807">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -6946,6 +6946,54 @@
         <v>44847</v>
       </c>
       <c r="B820">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2">
+      <c r="A821" s="2">
+        <v>44854</v>
+      </c>
+      <c r="B821">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2">
+      <c r="A822" s="2">
+        <v>44856</v>
+      </c>
+      <c r="B822">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2">
+      <c r="A823" s="2">
+        <v>44857</v>
+      </c>
+      <c r="B823">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2">
+      <c r="A824" s="2">
+        <v>44862</v>
+      </c>
+      <c r="B824">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2">
+      <c r="A825" s="2">
+        <v>44863</v>
+      </c>
+      <c r="B825">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2">
+      <c r="A826" s="2">
+        <v>44869</v>
+      </c>
+      <c r="B826">
         <v>1</v>
       </c>
     </row>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B826"/>
+  <dimension ref="A1:B827"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6997,6 +6997,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="827" spans="1:2">
+      <c r="A827" s="2">
+        <v>44870</v>
+      </c>
+      <c r="B827">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B827"/>
+  <dimension ref="A1:B829"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4810,7 +4810,7 @@
         <v>44496</v>
       </c>
       <c r="B553">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -4847,23 +4847,23 @@
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44502</v>
+        <v>44501</v>
       </c>
       <c r="B558">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44503</v>
+        <v>44502</v>
       </c>
       <c r="B559">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44504</v>
+        <v>44503</v>
       </c>
       <c r="B560">
         <v>1</v>
@@ -4871,79 +4871,79 @@
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44505</v>
+        <v>44504</v>
       </c>
       <c r="B561">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44506</v>
+        <v>44505</v>
       </c>
       <c r="B562">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44508</v>
+        <v>44506</v>
       </c>
       <c r="B563">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44510</v>
+        <v>44508</v>
       </c>
       <c r="B564">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44511</v>
+        <v>44510</v>
       </c>
       <c r="B565">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44512</v>
+        <v>44511</v>
       </c>
       <c r="B566">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44513</v>
+        <v>44512</v>
       </c>
       <c r="B567">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44516</v>
+        <v>44513</v>
       </c>
       <c r="B568">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44517</v>
+        <v>44516</v>
       </c>
       <c r="B569">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44518</v>
+        <v>44517</v>
       </c>
       <c r="B570">
         <v>2</v>
@@ -4951,87 +4951,87 @@
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44519</v>
+        <v>44518</v>
       </c>
       <c r="B571">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44520</v>
+        <v>44519</v>
       </c>
       <c r="B572">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44521</v>
+        <v>44520</v>
       </c>
       <c r="B573">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44522</v>
+        <v>44521</v>
       </c>
       <c r="B574">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44523</v>
+        <v>44522</v>
       </c>
       <c r="B575">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44524</v>
+        <v>44523</v>
       </c>
       <c r="B576">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44525</v>
+        <v>44524</v>
       </c>
       <c r="B577">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44526</v>
+        <v>44525</v>
       </c>
       <c r="B578">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>44527</v>
+        <v>44526</v>
       </c>
       <c r="B579">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2">
-        <v>44529</v>
+        <v>44527</v>
       </c>
       <c r="B580">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2">
-        <v>44530</v>
+        <v>44529</v>
       </c>
       <c r="B581">
         <v>3</v>
@@ -5039,23 +5039,23 @@
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2">
-        <v>44531</v>
+        <v>44530</v>
       </c>
       <c r="B582">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2">
-        <v>44532</v>
+        <v>44531</v>
       </c>
       <c r="B583">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2">
-        <v>44533</v>
+        <v>44532</v>
       </c>
       <c r="B584">
         <v>2</v>
@@ -5063,95 +5063,95 @@
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2">
-        <v>44534</v>
+        <v>44533</v>
       </c>
       <c r="B585">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2">
-        <v>44536</v>
+        <v>44534</v>
       </c>
       <c r="B586">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2">
-        <v>44537</v>
+        <v>44536</v>
       </c>
       <c r="B587">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2">
-        <v>44538</v>
+        <v>44537</v>
       </c>
       <c r="B588">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="2">
-        <v>44539</v>
+        <v>44538</v>
       </c>
       <c r="B589">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2">
-        <v>44540</v>
+        <v>44539</v>
       </c>
       <c r="B590">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="2">
-        <v>44541</v>
+        <v>44540</v>
       </c>
       <c r="B591">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2">
-        <v>44542</v>
+        <v>44541</v>
       </c>
       <c r="B592">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="2">
-        <v>44543</v>
+        <v>44542</v>
       </c>
       <c r="B593">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2">
-        <v>44544</v>
+        <v>44543</v>
       </c>
       <c r="B594">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="2">
-        <v>44545</v>
+        <v>44544</v>
       </c>
       <c r="B595">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2">
-        <v>44546</v>
+        <v>44545</v>
       </c>
       <c r="B596">
         <v>7</v>
@@ -5159,639 +5159,639 @@
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="2">
-        <v>44547</v>
+        <v>44546</v>
       </c>
       <c r="B597">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2">
-        <v>44548</v>
+        <v>44547</v>
       </c>
       <c r="B598">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="2">
-        <v>44549</v>
+        <v>44548</v>
       </c>
       <c r="B599">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="2">
-        <v>44550</v>
+        <v>44549</v>
       </c>
       <c r="B600">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="2">
-        <v>44551</v>
+        <v>44550</v>
       </c>
       <c r="B601">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="2">
-        <v>44552</v>
+        <v>44551</v>
       </c>
       <c r="B602">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="2">
-        <v>44553</v>
+        <v>44552</v>
       </c>
       <c r="B603">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="2">
-        <v>44554</v>
+        <v>44553</v>
       </c>
       <c r="B604">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="2">
-        <v>44556</v>
+        <v>44554</v>
       </c>
       <c r="B605">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="2">
-        <v>44557</v>
+        <v>44556</v>
       </c>
       <c r="B606">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="2">
-        <v>44558</v>
+        <v>44557</v>
       </c>
       <c r="B607">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="2">
-        <v>44559</v>
+        <v>44558</v>
       </c>
       <c r="B608">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="2">
-        <v>44560</v>
+        <v>44559</v>
       </c>
       <c r="B609">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="2">
-        <v>44561</v>
+        <v>44560</v>
       </c>
       <c r="B610">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" s="2">
-        <v>44563</v>
+        <v>44561</v>
       </c>
       <c r="B611">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" s="2">
-        <v>44564</v>
+        <v>44563</v>
       </c>
       <c r="B612">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="2">
-        <v>44565</v>
+        <v>44564</v>
       </c>
       <c r="B613">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="2">
-        <v>44566</v>
+        <v>44565</v>
       </c>
       <c r="B614">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" s="2">
-        <v>44567</v>
+        <v>44566</v>
       </c>
       <c r="B615">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" s="2">
-        <v>44568</v>
+        <v>44567</v>
       </c>
       <c r="B616">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" s="2">
-        <v>44569</v>
+        <v>44568</v>
       </c>
       <c r="B617">
-        <v>53</v>
+        <v>14</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" s="2">
-        <v>44570</v>
+        <v>44569</v>
       </c>
       <c r="B618">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="619" spans="1:2">
       <c r="A619" s="2">
-        <v>44571</v>
+        <v>44570</v>
       </c>
       <c r="B619">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" s="2">
-        <v>44572</v>
+        <v>44571</v>
       </c>
       <c r="B620">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" s="2">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B621">
-        <v>73</v>
+        <v>42</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" s="2">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B622">
-        <v>135</v>
+        <v>73</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" s="2">
-        <v>44575</v>
+        <v>44574</v>
       </c>
       <c r="B623">
-        <v>157</v>
+        <v>135</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" s="2">
-        <v>44576</v>
+        <v>44575</v>
       </c>
       <c r="B624">
-        <v>86</v>
+        <v>157</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" s="2">
-        <v>44577</v>
+        <v>44576</v>
       </c>
       <c r="B625">
-        <v>71</v>
+        <v>86</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" s="2">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B626">
-        <v>327</v>
+        <v>71</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" s="2">
-        <v>44579</v>
+        <v>44578</v>
       </c>
       <c r="B627">
-        <v>189</v>
+        <v>327</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" s="2">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="B628">
-        <v>277</v>
+        <v>189</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" s="2">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B629">
-        <v>339</v>
+        <v>277</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" s="2">
-        <v>44582</v>
+        <v>44581</v>
       </c>
       <c r="B630">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" s="2">
-        <v>44583</v>
+        <v>44582</v>
       </c>
       <c r="B631">
-        <v>432</v>
+        <v>347</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" s="2">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B632">
-        <v>137</v>
+        <v>432</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" s="2">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B633">
-        <v>595</v>
+        <v>137</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" s="2">
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="B634">
-        <v>366</v>
+        <v>595</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" s="2">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="B635">
-        <v>405</v>
+        <v>366</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B636">
-        <v>333</v>
+        <v>405</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B637">
-        <v>391</v>
+        <v>333</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B638">
-        <v>325</v>
+        <v>391</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" s="2">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B639">
-        <v>25</v>
+        <v>325</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B640">
-        <v>148</v>
+        <v>25</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B641">
-        <v>125</v>
+        <v>148</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B642">
-        <v>187</v>
+        <v>125</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" s="2">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B643">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="644" spans="1:2">
       <c r="A644" s="2">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="B644">
-        <v>156</v>
+        <v>196</v>
       </c>
     </row>
     <row r="645" spans="1:2">
       <c r="A645" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B645">
-        <v>183</v>
+        <v>156</v>
       </c>
     </row>
     <row r="646" spans="1:2">
       <c r="A646" s="2">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="B646">
-        <v>22</v>
+        <v>183</v>
       </c>
     </row>
     <row r="647" spans="1:2">
       <c r="A647" s="2">
-        <v>44599</v>
+        <v>44598</v>
       </c>
       <c r="B647">
-        <v>76</v>
+        <v>22</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" s="2">
-        <v>44600</v>
+        <v>44599</v>
       </c>
       <c r="B648">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" s="2">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="B649">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" s="2">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="B650">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="651" spans="1:2">
       <c r="A651" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B651">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" s="2">
-        <v>44604</v>
+        <v>44603</v>
       </c>
       <c r="B652">
-        <v>88</v>
+        <v>46</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" s="2">
-        <v>44605</v>
+        <v>44604</v>
       </c>
       <c r="B653">
-        <v>14</v>
+        <v>88</v>
       </c>
     </row>
     <row r="654" spans="1:2">
       <c r="A654" s="2">
-        <v>44606</v>
+        <v>44605</v>
       </c>
       <c r="B654">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" s="2">
-        <v>44607</v>
+        <v>44606</v>
       </c>
       <c r="B655">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" s="2">
-        <v>44608</v>
+        <v>44607</v>
       </c>
       <c r="B656">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" s="2">
-        <v>44609</v>
+        <v>44608</v>
       </c>
       <c r="B657">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="658" spans="1:2">
       <c r="A658" s="2">
-        <v>44610</v>
+        <v>44609</v>
       </c>
       <c r="B658">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" s="2">
-        <v>44611</v>
+        <v>44610</v>
       </c>
       <c r="B659">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="660" spans="1:2">
       <c r="A660" s="2">
-        <v>44612</v>
+        <v>44611</v>
       </c>
       <c r="B660">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="661" spans="1:2">
       <c r="A661" s="2">
-        <v>44613</v>
+        <v>44612</v>
       </c>
       <c r="B661">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="662" spans="1:2">
       <c r="A662" s="2">
-        <v>44614</v>
+        <v>44613</v>
       </c>
       <c r="B662">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="663" spans="1:2">
       <c r="A663" s="2">
-        <v>44615</v>
+        <v>44614</v>
       </c>
       <c r="B663">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" s="2">
-        <v>44616</v>
+        <v>44615</v>
       </c>
       <c r="B664">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" s="2">
-        <v>44617</v>
+        <v>44616</v>
       </c>
       <c r="B665">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" s="2">
-        <v>44618</v>
+        <v>44617</v>
       </c>
       <c r="B666">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" s="2">
-        <v>44619</v>
+        <v>44618</v>
       </c>
       <c r="B667">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" s="2">
-        <v>44620</v>
+        <v>44619</v>
       </c>
       <c r="B668">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669" s="2">
-        <v>44621</v>
+        <v>44620</v>
       </c>
       <c r="B669">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="670" spans="1:2">
       <c r="A670" s="2">
-        <v>44622</v>
+        <v>44621</v>
       </c>
       <c r="B670">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" s="2">
-        <v>44623</v>
+        <v>44622</v>
       </c>
       <c r="B671">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" s="2">
-        <v>44624</v>
+        <v>44623</v>
       </c>
       <c r="B672">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="673" spans="1:2">
       <c r="A673" s="2">
-        <v>44625</v>
+        <v>44624</v>
       </c>
       <c r="B673">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" s="2">
-        <v>44626</v>
+        <v>44625</v>
       </c>
       <c r="B674">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" s="2">
-        <v>44627</v>
+        <v>44626</v>
       </c>
       <c r="B675">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" s="2">
-        <v>44630</v>
+        <v>44627</v>
       </c>
       <c r="B676">
         <v>3</v>
@@ -5799,143 +5799,143 @@
     </row>
     <row r="677" spans="1:2">
       <c r="A677" s="2">
-        <v>44631</v>
+        <v>44630</v>
       </c>
       <c r="B677">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" s="2">
-        <v>44632</v>
+        <v>44631</v>
       </c>
       <c r="B678">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:2">
       <c r="A679" s="2">
-        <v>44635</v>
+        <v>44632</v>
       </c>
       <c r="B679">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="680" spans="1:2">
       <c r="A680" s="2">
-        <v>44636</v>
+        <v>44635</v>
       </c>
       <c r="B680">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" s="2">
-        <v>44637</v>
+        <v>44636</v>
       </c>
       <c r="B681">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" s="2">
-        <v>44640</v>
+        <v>44637</v>
       </c>
       <c r="B682">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" s="2">
-        <v>44643</v>
+        <v>44640</v>
       </c>
       <c r="B683">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:2">
       <c r="A684" s="2">
-        <v>44644</v>
+        <v>44643</v>
       </c>
       <c r="B684">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="685" spans="1:2">
       <c r="A685" s="2">
-        <v>44646</v>
+        <v>44644</v>
       </c>
       <c r="B685">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:2">
       <c r="A686" s="2">
-        <v>44648</v>
+        <v>44646</v>
       </c>
       <c r="B686">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687" spans="1:2">
       <c r="A687" s="2">
-        <v>44649</v>
+        <v>44648</v>
       </c>
       <c r="B687">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="688" spans="1:2">
       <c r="A688" s="2">
-        <v>44650</v>
+        <v>44649</v>
       </c>
       <c r="B688">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="689" spans="1:2">
       <c r="A689" s="2">
-        <v>44651</v>
+        <v>44650</v>
       </c>
       <c r="B689">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" s="2">
-        <v>44652</v>
+        <v>44651</v>
       </c>
       <c r="B690">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" s="2">
-        <v>44653</v>
+        <v>44652</v>
       </c>
       <c r="B691">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:2">
       <c r="A692" s="2">
-        <v>44655</v>
+        <v>44653</v>
       </c>
       <c r="B692">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" s="2">
-        <v>44657</v>
+        <v>44655</v>
       </c>
       <c r="B693">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="694" spans="1:2">
       <c r="A694" s="2">
-        <v>44658</v>
+        <v>44657</v>
       </c>
       <c r="B694">
         <v>1</v>
@@ -5943,143 +5943,143 @@
     </row>
     <row r="695" spans="1:2">
       <c r="A695" s="2">
-        <v>44659</v>
+        <v>44658</v>
       </c>
       <c r="B695">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:2">
       <c r="A696" s="2">
-        <v>44660</v>
+        <v>44659</v>
       </c>
       <c r="B696">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="697" spans="1:2">
       <c r="A697" s="2">
-        <v>44662</v>
+        <v>44660</v>
       </c>
       <c r="B697">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:2">
       <c r="A698" s="2">
-        <v>44664</v>
+        <v>44662</v>
       </c>
       <c r="B698">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" s="2">
-        <v>44667</v>
+        <v>44664</v>
       </c>
       <c r="B699">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" s="2">
-        <v>44668</v>
+        <v>44667</v>
       </c>
       <c r="B700">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" s="2">
-        <v>44669</v>
+        <v>44668</v>
       </c>
       <c r="B701">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" s="2">
-        <v>44670</v>
+        <v>44669</v>
       </c>
       <c r="B702">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="703" spans="1:2">
       <c r="A703" s="2">
-        <v>44671</v>
+        <v>44670</v>
       </c>
       <c r="B703">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" s="2">
-        <v>44672</v>
+        <v>44671</v>
       </c>
       <c r="B704">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" s="2">
-        <v>44673</v>
+        <v>44672</v>
       </c>
       <c r="B705">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" s="2">
-        <v>44677</v>
+        <v>44673</v>
       </c>
       <c r="B706">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" s="2">
-        <v>44678</v>
+        <v>44677</v>
       </c>
       <c r="B707">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" s="2">
-        <v>44680</v>
+        <v>44678</v>
       </c>
       <c r="B708">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" s="2">
-        <v>44685</v>
+        <v>44680</v>
       </c>
       <c r="B709">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" s="2">
-        <v>44692</v>
+        <v>44685</v>
       </c>
       <c r="B710">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711" s="2">
-        <v>44694</v>
+        <v>44692</v>
       </c>
       <c r="B711">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:2">
       <c r="A712" s="2">
-        <v>44698</v>
+        <v>44694</v>
       </c>
       <c r="B712">
         <v>1</v>
@@ -6087,7 +6087,7 @@
     </row>
     <row r="713" spans="1:2">
       <c r="A713" s="2">
-        <v>44699</v>
+        <v>44698</v>
       </c>
       <c r="B713">
         <v>1</v>
@@ -6095,7 +6095,7 @@
     </row>
     <row r="714" spans="1:2">
       <c r="A714" s="2">
-        <v>44700</v>
+        <v>44699</v>
       </c>
       <c r="B714">
         <v>1</v>
@@ -6103,7 +6103,7 @@
     </row>
     <row r="715" spans="1:2">
       <c r="A715" s="2">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="B715">
         <v>1</v>
@@ -6111,7 +6111,7 @@
     </row>
     <row r="716" spans="1:2">
       <c r="A716" s="2">
-        <v>44705</v>
+        <v>44701</v>
       </c>
       <c r="B716">
         <v>1</v>
@@ -6119,7 +6119,7 @@
     </row>
     <row r="717" spans="1:2">
       <c r="A717" s="2">
-        <v>44708</v>
+        <v>44705</v>
       </c>
       <c r="B717">
         <v>1</v>
@@ -6127,7 +6127,7 @@
     </row>
     <row r="718" spans="1:2">
       <c r="A718" s="2">
-        <v>44711</v>
+        <v>44708</v>
       </c>
       <c r="B718">
         <v>1</v>
@@ -6135,7 +6135,7 @@
     </row>
     <row r="719" spans="1:2">
       <c r="A719" s="2">
-        <v>44714</v>
+        <v>44711</v>
       </c>
       <c r="B719">
         <v>1</v>
@@ -6143,47 +6143,47 @@
     </row>
     <row r="720" spans="1:2">
       <c r="A720" s="2">
-        <v>44715</v>
+        <v>44714</v>
       </c>
       <c r="B720">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721" spans="1:2">
       <c r="A721" s="2">
-        <v>44716</v>
+        <v>44715</v>
       </c>
       <c r="B721">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="722" spans="1:2">
       <c r="A722" s="2">
-        <v>44719</v>
+        <v>44716</v>
       </c>
       <c r="B722">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="723" spans="1:2">
       <c r="A723" s="2">
-        <v>44722</v>
+        <v>44719</v>
       </c>
       <c r="B723">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="724" spans="1:2">
       <c r="A724" s="2">
-        <v>44723</v>
+        <v>44722</v>
       </c>
       <c r="B724">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725" spans="1:2">
       <c r="A725" s="2">
-        <v>44725</v>
+        <v>44723</v>
       </c>
       <c r="B725">
         <v>2</v>
@@ -6191,47 +6191,47 @@
     </row>
     <row r="726" spans="1:2">
       <c r="A726" s="2">
-        <v>44728</v>
+        <v>44725</v>
       </c>
       <c r="B726">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="727" spans="1:2">
       <c r="A727" s="2">
-        <v>44730</v>
+        <v>44728</v>
       </c>
       <c r="B727">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728" spans="1:2">
       <c r="A728" s="2">
-        <v>44732</v>
+        <v>44730</v>
       </c>
       <c r="B728">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="729" spans="1:2">
       <c r="A729" s="2">
-        <v>44733</v>
+        <v>44732</v>
       </c>
       <c r="B729">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" s="2">
-        <v>44734</v>
+        <v>44733</v>
       </c>
       <c r="B730">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="731" spans="1:2">
       <c r="A731" s="2">
-        <v>44735</v>
+        <v>44734</v>
       </c>
       <c r="B731">
         <v>1</v>
@@ -6239,127 +6239,127 @@
     </row>
     <row r="732" spans="1:2">
       <c r="A732" s="2">
-        <v>44737</v>
+        <v>44735</v>
       </c>
       <c r="B732">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:2">
       <c r="A733" s="2">
-        <v>44738</v>
+        <v>44737</v>
       </c>
       <c r="B733">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="734" spans="1:2">
       <c r="A734" s="2">
-        <v>44739</v>
+        <v>44738</v>
       </c>
       <c r="B734">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" s="2">
-        <v>44740</v>
+        <v>44739</v>
       </c>
       <c r="B735">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="736" spans="1:2">
       <c r="A736" s="2">
-        <v>44741</v>
+        <v>44740</v>
       </c>
       <c r="B736">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" s="2">
-        <v>44742</v>
+        <v>44741</v>
       </c>
       <c r="B737">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" s="2">
-        <v>44743</v>
+        <v>44742</v>
       </c>
       <c r="B738">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" s="2">
-        <v>44744</v>
+        <v>44743</v>
       </c>
       <c r="B739">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" s="2">
-        <v>44745</v>
+        <v>44744</v>
       </c>
       <c r="B740">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" s="2">
-        <v>44746</v>
+        <v>44745</v>
       </c>
       <c r="B741">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" s="2">
-        <v>44747</v>
+        <v>44746</v>
       </c>
       <c r="B742">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" s="2">
-        <v>44748</v>
+        <v>44747</v>
       </c>
       <c r="B743">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" s="2">
-        <v>44749</v>
+        <v>44748</v>
       </c>
       <c r="B744">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" s="2">
-        <v>44750</v>
+        <v>44749</v>
       </c>
       <c r="B745">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" s="2">
-        <v>44751</v>
+        <v>44750</v>
       </c>
       <c r="B746">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" s="2">
-        <v>44752</v>
+        <v>44751</v>
       </c>
       <c r="B747">
         <v>10</v>
@@ -6367,407 +6367,407 @@
     </row>
     <row r="748" spans="1:2">
       <c r="A748" s="2">
-        <v>44753</v>
+        <v>44752</v>
       </c>
       <c r="B748">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="749" spans="1:2">
       <c r="A749" s="2">
-        <v>44754</v>
+        <v>44753</v>
       </c>
       <c r="B749">
-        <v>69</v>
+        <v>40</v>
       </c>
     </row>
     <row r="750" spans="1:2">
       <c r="A750" s="2">
-        <v>44755</v>
+        <v>44754</v>
       </c>
       <c r="B750">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="751" spans="1:2">
       <c r="A751" s="2">
-        <v>44756</v>
+        <v>44755</v>
       </c>
       <c r="B751">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="752" spans="1:2">
       <c r="A752" s="2">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="B752">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="753" spans="1:2">
       <c r="A753" s="2">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="B753">
-        <v>102</v>
+        <v>67</v>
       </c>
     </row>
     <row r="754" spans="1:2">
       <c r="A754" s="2">
-        <v>44759</v>
+        <v>44758</v>
       </c>
       <c r="B754">
-        <v>9</v>
+        <v>102</v>
       </c>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" s="2">
-        <v>44760</v>
+        <v>44759</v>
       </c>
       <c r="B755">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="756" spans="1:2">
       <c r="A756" s="2">
-        <v>44761</v>
+        <v>44760</v>
       </c>
       <c r="B756">
-        <v>58</v>
+        <v>88</v>
       </c>
     </row>
     <row r="757" spans="1:2">
       <c r="A757" s="2">
-        <v>44762</v>
+        <v>44761</v>
       </c>
       <c r="B757">
-        <v>115</v>
+        <v>58</v>
       </c>
     </row>
     <row r="758" spans="1:2">
       <c r="A758" s="2">
-        <v>44763</v>
+        <v>44762</v>
       </c>
       <c r="B758">
-        <v>169</v>
+        <v>115</v>
       </c>
     </row>
     <row r="759" spans="1:2">
       <c r="A759" s="2">
-        <v>44764</v>
+        <v>44763</v>
       </c>
       <c r="B759">
-        <v>126</v>
+        <v>169</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" s="2">
-        <v>44765</v>
+        <v>44764</v>
       </c>
       <c r="B760">
-        <v>143</v>
+        <v>126</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" s="2">
-        <v>44766</v>
+        <v>44765</v>
       </c>
       <c r="B761">
-        <v>42</v>
+        <v>143</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" s="2">
-        <v>44767</v>
+        <v>44766</v>
       </c>
       <c r="B762">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="763" spans="1:2">
       <c r="A763" s="2">
-        <v>44768</v>
+        <v>44767</v>
       </c>
       <c r="B763">
-        <v>175</v>
+        <v>72</v>
       </c>
     </row>
     <row r="764" spans="1:2">
       <c r="A764" s="2">
-        <v>44769</v>
+        <v>44768</v>
       </c>
       <c r="B764">
-        <v>161</v>
+        <v>175</v>
       </c>
     </row>
     <row r="765" spans="1:2">
       <c r="A765" s="2">
-        <v>44770</v>
+        <v>44769</v>
       </c>
       <c r="B765">
-        <v>74</v>
+        <v>161</v>
       </c>
     </row>
     <row r="766" spans="1:2">
       <c r="A766" s="2">
-        <v>44771</v>
+        <v>44770</v>
       </c>
       <c r="B766">
-        <v>48</v>
+        <v>74</v>
       </c>
     </row>
     <row r="767" spans="1:2">
       <c r="A767" s="2">
-        <v>44772</v>
+        <v>44771</v>
       </c>
       <c r="B767">
-        <v>86</v>
+        <v>48</v>
       </c>
     </row>
     <row r="768" spans="1:2">
       <c r="A768" s="2">
-        <v>44773</v>
+        <v>44772</v>
       </c>
       <c r="B768">
-        <v>34</v>
+        <v>86</v>
       </c>
     </row>
     <row r="769" spans="1:2">
       <c r="A769" s="2">
-        <v>44774</v>
+        <v>44773</v>
       </c>
       <c r="B769">
-        <v>98</v>
+        <v>34</v>
       </c>
     </row>
     <row r="770" spans="1:2">
       <c r="A770" s="2">
-        <v>44775</v>
+        <v>44774</v>
       </c>
       <c r="B770">
-        <v>47</v>
+        <v>98</v>
       </c>
     </row>
     <row r="771" spans="1:2">
       <c r="A771" s="2">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="B771">
-        <v>134</v>
+        <v>47</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" s="2">
-        <v>44777</v>
+        <v>44776</v>
       </c>
       <c r="B772">
-        <v>64</v>
+        <v>134</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" s="2">
-        <v>44778</v>
+        <v>44777</v>
       </c>
       <c r="B773">
-        <v>138</v>
+        <v>64</v>
       </c>
     </row>
     <row r="774" spans="1:2">
       <c r="A774" s="2">
-        <v>44779</v>
+        <v>44778</v>
       </c>
       <c r="B774">
-        <v>18</v>
+        <v>138</v>
       </c>
     </row>
     <row r="775" spans="1:2">
       <c r="A775" s="2">
-        <v>44780</v>
+        <v>44779</v>
       </c>
       <c r="B775">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="776" spans="1:2">
       <c r="A776" s="2">
-        <v>44781</v>
+        <v>44780</v>
       </c>
       <c r="B776">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="777" spans="1:2">
       <c r="A777" s="2">
-        <v>44782</v>
+        <v>44781</v>
       </c>
       <c r="B777">
-        <v>162</v>
+        <v>48</v>
       </c>
     </row>
     <row r="778" spans="1:2">
       <c r="A778" s="2">
-        <v>44783</v>
+        <v>44782</v>
       </c>
       <c r="B778">
-        <v>132</v>
+        <v>162</v>
       </c>
     </row>
     <row r="779" spans="1:2">
       <c r="A779" s="2">
-        <v>44784</v>
+        <v>44783</v>
       </c>
       <c r="B779">
-        <v>45</v>
+        <v>132</v>
       </c>
     </row>
     <row r="780" spans="1:2">
       <c r="A780" s="2">
-        <v>44785</v>
+        <v>44784</v>
       </c>
       <c r="B780">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781" s="2">
-        <v>44786</v>
+        <v>44785</v>
       </c>
       <c r="B781">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" s="2">
-        <v>44787</v>
+        <v>44786</v>
       </c>
       <c r="B782">
-        <v>3</v>
+        <v>41</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" s="2">
-        <v>44788</v>
+        <v>44787</v>
       </c>
       <c r="B783">
-        <v>48</v>
+        <v>3</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" s="2">
-        <v>44789</v>
+        <v>44788</v>
       </c>
       <c r="B784">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="785" spans="1:2">
       <c r="A785" s="2">
-        <v>44790</v>
+        <v>44789</v>
       </c>
       <c r="B785">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786" s="2">
-        <v>44791</v>
+        <v>44790</v>
       </c>
       <c r="B786">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="787" spans="1:2">
       <c r="A787" s="2">
-        <v>44792</v>
+        <v>44791</v>
       </c>
       <c r="B787">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" s="2">
-        <v>44793</v>
+        <v>44792</v>
       </c>
       <c r="B788">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" s="2">
-        <v>44794</v>
+        <v>44793</v>
       </c>
       <c r="B789">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" s="2">
-        <v>44795</v>
+        <v>44794</v>
       </c>
       <c r="B790">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" s="2">
-        <v>44796</v>
+        <v>44795</v>
       </c>
       <c r="B791">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" s="2">
-        <v>44797</v>
+        <v>44796</v>
       </c>
       <c r="B792">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" s="2">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="B793">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" s="2">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="B794">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" s="2">
-        <v>44800</v>
+        <v>44799</v>
       </c>
       <c r="B795">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" s="2">
-        <v>44801</v>
+        <v>44800</v>
       </c>
       <c r="B796">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" s="2">
-        <v>44802</v>
+        <v>44801</v>
       </c>
       <c r="B797">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" s="2">
-        <v>44803</v>
+        <v>44802</v>
       </c>
       <c r="B798">
         <v>3</v>
@@ -6775,55 +6775,55 @@
     </row>
     <row r="799" spans="1:2">
       <c r="A799" s="2">
-        <v>44804</v>
+        <v>44803</v>
       </c>
       <c r="B799">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="800" spans="1:2">
       <c r="A800" s="2">
-        <v>44805</v>
+        <v>44804</v>
       </c>
       <c r="B800">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="801" spans="1:2">
       <c r="A801" s="2">
-        <v>44806</v>
+        <v>44805</v>
       </c>
       <c r="B801">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="802" spans="1:2">
       <c r="A802" s="2">
-        <v>44807</v>
+        <v>44806</v>
       </c>
       <c r="B802">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="803" spans="1:2">
       <c r="A803" s="2">
-        <v>44809</v>
+        <v>44807</v>
       </c>
       <c r="B803">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804" spans="1:2">
       <c r="A804" s="2">
-        <v>44810</v>
+        <v>44809</v>
       </c>
       <c r="B804">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" s="2">
-        <v>44811</v>
+        <v>44810</v>
       </c>
       <c r="B805">
         <v>8</v>
@@ -6831,55 +6831,55 @@
     </row>
     <row r="806" spans="1:2">
       <c r="A806" s="2">
-        <v>44812</v>
+        <v>44811</v>
       </c>
       <c r="B806">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" s="2">
-        <v>44814</v>
+        <v>44812</v>
       </c>
       <c r="B807">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" s="2">
-        <v>44816</v>
+        <v>44814</v>
       </c>
       <c r="B808">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="809" spans="1:2">
       <c r="A809" s="2">
-        <v>44817</v>
+        <v>44816</v>
       </c>
       <c r="B809">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="810" spans="1:2">
       <c r="A810" s="2">
-        <v>44818</v>
+        <v>44817</v>
       </c>
       <c r="B810">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="811" spans="1:2">
       <c r="A811" s="2">
-        <v>44824</v>
+        <v>44818</v>
       </c>
       <c r="B811">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="812" spans="1:2">
       <c r="A812" s="2">
-        <v>44825</v>
+        <v>44824</v>
       </c>
       <c r="B812">
         <v>2</v>
@@ -6887,23 +6887,23 @@
     </row>
     <row r="813" spans="1:2">
       <c r="A813" s="2">
-        <v>44826</v>
+        <v>44825</v>
       </c>
       <c r="B813">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="814" spans="1:2">
       <c r="A814" s="2">
-        <v>44827</v>
+        <v>44826</v>
       </c>
       <c r="B814">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="815" spans="1:2">
       <c r="A815" s="2">
-        <v>44830</v>
+        <v>44827</v>
       </c>
       <c r="B815">
         <v>2</v>
@@ -6911,7 +6911,7 @@
     </row>
     <row r="816" spans="1:2">
       <c r="A816" s="2">
-        <v>44831</v>
+        <v>44830</v>
       </c>
       <c r="B816">
         <v>2</v>
@@ -6919,31 +6919,31 @@
     </row>
     <row r="817" spans="1:2">
       <c r="A817" s="2">
-        <v>44834</v>
+        <v>44831</v>
       </c>
       <c r="B817">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="818" spans="1:2">
       <c r="A818" s="2">
-        <v>44835</v>
+        <v>44834</v>
       </c>
       <c r="B818">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" s="2">
-        <v>44841</v>
+        <v>44835</v>
       </c>
       <c r="B819">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="820" spans="1:2">
       <c r="A820" s="2">
-        <v>44847</v>
+        <v>44841</v>
       </c>
       <c r="B820">
         <v>1</v>
@@ -6951,7 +6951,7 @@
     </row>
     <row r="821" spans="1:2">
       <c r="A821" s="2">
-        <v>44854</v>
+        <v>44847</v>
       </c>
       <c r="B821">
         <v>1</v>
@@ -6959,7 +6959,7 @@
     </row>
     <row r="822" spans="1:2">
       <c r="A822" s="2">
-        <v>44856</v>
+        <v>44854</v>
       </c>
       <c r="B822">
         <v>1</v>
@@ -6967,7 +6967,7 @@
     </row>
     <row r="823" spans="1:2">
       <c r="A823" s="2">
-        <v>44857</v>
+        <v>44856</v>
       </c>
       <c r="B823">
         <v>1</v>
@@ -6975,7 +6975,7 @@
     </row>
     <row r="824" spans="1:2">
       <c r="A824" s="2">
-        <v>44862</v>
+        <v>44857</v>
       </c>
       <c r="B824">
         <v>1</v>
@@ -6983,7 +6983,7 @@
     </row>
     <row r="825" spans="1:2">
       <c r="A825" s="2">
-        <v>44863</v>
+        <v>44862</v>
       </c>
       <c r="B825">
         <v>1</v>
@@ -6991,7 +6991,7 @@
     </row>
     <row r="826" spans="1:2">
       <c r="A826" s="2">
-        <v>44869</v>
+        <v>44863</v>
       </c>
       <c r="B826">
         <v>1</v>
@@ -6999,9 +6999,25 @@
     </row>
     <row r="827" spans="1:2">
       <c r="A827" s="2">
+        <v>44869</v>
+      </c>
+      <c r="B827">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2">
+      <c r="A828" s="2">
         <v>44870</v>
       </c>
-      <c r="B827">
+      <c r="B828">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2">
+      <c r="A829" s="2">
+        <v>44872</v>
+      </c>
+      <c r="B829">
         <v>1</v>
       </c>
     </row>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B536"/>
+  <dimension ref="A1:B829"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,7 +399,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>43931</v>
+        <v>43923</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -407,7 +407,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>43934</v>
+        <v>43924</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -415,23 +415,23 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>43938</v>
+        <v>43925</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>43939</v>
+        <v>43927</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>43940</v>
+        <v>43928</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -439,3599 +439,3599 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>43941</v>
+        <v>43931</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>43942</v>
+        <v>43932</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>43943</v>
+        <v>43933</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>43945</v>
+        <v>43934</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>43946</v>
+        <v>43935</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>43948</v>
+        <v>43936</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>43949</v>
+        <v>43937</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>43950</v>
+        <v>43938</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>43951</v>
+        <v>43939</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>43952</v>
+        <v>43940</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>43953</v>
+        <v>43941</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>43954</v>
+        <v>43942</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>43955</v>
+        <v>43943</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>43956</v>
+        <v>43944</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>43957</v>
+        <v>43945</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>43958</v>
+        <v>43946</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>43959</v>
+        <v>43947</v>
       </c>
       <c r="B23">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>43960</v>
+        <v>43948</v>
       </c>
       <c r="B24">
-        <v>9</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>43961</v>
+        <v>43949</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>43962</v>
+        <v>43950</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>43963</v>
+        <v>43951</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>43964</v>
+        <v>43952</v>
       </c>
       <c r="B28">
-        <v>6</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>43965</v>
+        <v>43953</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>43966</v>
+        <v>43954</v>
       </c>
       <c r="B30">
-        <v>8</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>43967</v>
+        <v>43955</v>
       </c>
       <c r="B31">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>43968</v>
+        <v>43956</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>43969</v>
+        <v>43957</v>
       </c>
       <c r="B33">
-        <v>17</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>43970</v>
+        <v>43958</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>43971</v>
+        <v>43959</v>
       </c>
       <c r="B35">
-        <v>18</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>43972</v>
+        <v>43960</v>
       </c>
       <c r="B36">
-        <v>6</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>43973</v>
+        <v>43961</v>
       </c>
       <c r="B37">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>43974</v>
+        <v>43962</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>43975</v>
+        <v>43963</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>43976</v>
+        <v>43964</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>43977</v>
+        <v>43965</v>
       </c>
       <c r="B41">
-        <v>9</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>43978</v>
+        <v>43966</v>
       </c>
       <c r="B42">
-        <v>11</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>43979</v>
+        <v>43967</v>
       </c>
       <c r="B43">
-        <v>15</v>
+        <v>407</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>43980</v>
+        <v>43968</v>
       </c>
       <c r="B44">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>43981</v>
+        <v>43969</v>
       </c>
       <c r="B45">
-        <v>10</v>
+        <v>354</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>43982</v>
+        <v>43970</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>43983</v>
+        <v>43971</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>317</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>43984</v>
+        <v>43972</v>
       </c>
       <c r="B48">
-        <v>6</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>43985</v>
+        <v>43973</v>
       </c>
       <c r="B49">
-        <v>6</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>43986</v>
+        <v>43974</v>
       </c>
       <c r="B50">
-        <v>5</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>43987</v>
+        <v>43975</v>
       </c>
       <c r="B51">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>43988</v>
+        <v>43976</v>
       </c>
       <c r="B52">
-        <v>15</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>43989</v>
+        <v>43977</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>43990</v>
+        <v>43978</v>
       </c>
       <c r="B54">
-        <v>15</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>43991</v>
+        <v>43979</v>
       </c>
       <c r="B55">
-        <v>7</v>
+        <v>210</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>43992</v>
+        <v>43980</v>
       </c>
       <c r="B56">
-        <v>8</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>43993</v>
+        <v>43981</v>
       </c>
       <c r="B57">
-        <v>10</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>43994</v>
+        <v>43982</v>
       </c>
       <c r="B58">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>43995</v>
+        <v>43983</v>
       </c>
       <c r="B59">
-        <v>9</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>43996</v>
+        <v>43984</v>
       </c>
       <c r="B60">
-        <v>4</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>43997</v>
+        <v>43985</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>43999</v>
+        <v>43986</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>44000</v>
+        <v>43987</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>44001</v>
+        <v>43988</v>
       </c>
       <c r="B64">
-        <v>5</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>44002</v>
+        <v>43989</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>44003</v>
+        <v>43990</v>
       </c>
       <c r="B66">
-        <v>9</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>44004</v>
+        <v>43991</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>209</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>44005</v>
+        <v>43992</v>
       </c>
       <c r="B68">
-        <v>4</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>44006</v>
+        <v>43993</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>44007</v>
+        <v>43994</v>
       </c>
       <c r="B70">
-        <v>5</v>
+        <v>158</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>44008</v>
+        <v>43995</v>
       </c>
       <c r="B71">
-        <v>6</v>
+        <v>239</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>44009</v>
+        <v>43996</v>
       </c>
       <c r="B72">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>44011</v>
+        <v>43997</v>
       </c>
       <c r="B73">
-        <v>2</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>44012</v>
+        <v>43998</v>
       </c>
       <c r="B74">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>44013</v>
+        <v>43999</v>
       </c>
       <c r="B75">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>44014</v>
+        <v>44000</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>44015</v>
+        <v>44001</v>
       </c>
       <c r="B77">
-        <v>4</v>
+        <v>132</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>44016</v>
+        <v>44002</v>
       </c>
       <c r="B78">
-        <v>3</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>44017</v>
+        <v>44003</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>44018</v>
+        <v>44004</v>
       </c>
       <c r="B80">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>44019</v>
+        <v>44005</v>
       </c>
       <c r="B81">
-        <v>2</v>
+        <v>53</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>44020</v>
+        <v>44006</v>
       </c>
       <c r="B82">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>44021</v>
+        <v>44007</v>
       </c>
       <c r="B83">
-        <v>2</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>44022</v>
+        <v>44008</v>
       </c>
       <c r="B84">
-        <v>6</v>
+        <v>110</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>44023</v>
+        <v>44009</v>
       </c>
       <c r="B85">
-        <v>6</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>44024</v>
+        <v>44010</v>
       </c>
       <c r="B86">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>44025</v>
+        <v>44011</v>
       </c>
       <c r="B87">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>44026</v>
+        <v>44012</v>
       </c>
       <c r="B88">
-        <v>2</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>44027</v>
+        <v>44013</v>
       </c>
       <c r="B89">
-        <v>5</v>
+        <v>145</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>44029</v>
+        <v>44014</v>
       </c>
       <c r="B90">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>44030</v>
+        <v>44015</v>
       </c>
       <c r="B91">
-        <v>10</v>
+        <v>139</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>44031</v>
+        <v>44016</v>
       </c>
       <c r="B92">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>44032</v>
+        <v>44017</v>
       </c>
       <c r="B93">
-        <v>4</v>
+        <v>48</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>44033</v>
+        <v>44018</v>
       </c>
       <c r="B94">
-        <v>4</v>
+        <v>101</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>44034</v>
+        <v>44019</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>44036</v>
+        <v>44020</v>
       </c>
       <c r="B96">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>44037</v>
+        <v>44021</v>
       </c>
       <c r="B97">
-        <v>7</v>
+        <v>48</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>44038</v>
+        <v>44022</v>
       </c>
       <c r="B98">
-        <v>6</v>
+        <v>165</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>44039</v>
+        <v>44023</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>44040</v>
+        <v>44024</v>
       </c>
       <c r="B100">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>44041</v>
+        <v>44025</v>
       </c>
       <c r="B101">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>44042</v>
+        <v>44026</v>
       </c>
       <c r="B102">
-        <v>8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>44043</v>
+        <v>44027</v>
       </c>
       <c r="B103">
-        <v>6</v>
+        <v>92</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>44044</v>
+        <v>44028</v>
       </c>
       <c r="B104">
-        <v>4</v>
+        <v>68</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>44045</v>
+        <v>44029</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>44046</v>
+        <v>44030</v>
       </c>
       <c r="B106">
-        <v>3</v>
+        <v>112</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>44047</v>
+        <v>44031</v>
       </c>
       <c r="B107">
-        <v>4</v>
+        <v>57</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>44048</v>
+        <v>44032</v>
       </c>
       <c r="B108">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>44049</v>
+        <v>44033</v>
       </c>
       <c r="B109">
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>44050</v>
+        <v>44034</v>
       </c>
       <c r="B110">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>44051</v>
+        <v>44035</v>
       </c>
       <c r="B111">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>44052</v>
+        <v>44036</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>76</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>44053</v>
+        <v>44037</v>
       </c>
       <c r="B113">
-        <v>10</v>
+        <v>76</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>44054</v>
+        <v>44038</v>
       </c>
       <c r="B114">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>44055</v>
+        <v>44039</v>
       </c>
       <c r="B115">
-        <v>13</v>
+        <v>122</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>44056</v>
+        <v>44040</v>
       </c>
       <c r="B116">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>44057</v>
+        <v>44041</v>
       </c>
       <c r="B117">
-        <v>13</v>
+        <v>148</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>44058</v>
+        <v>44042</v>
       </c>
       <c r="B118">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>44059</v>
+        <v>44043</v>
       </c>
       <c r="B119">
-        <v>2</v>
+        <v>122</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>44060</v>
+        <v>44044</v>
       </c>
       <c r="B120">
-        <v>11</v>
+        <v>108</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>44061</v>
+        <v>44045</v>
       </c>
       <c r="B121">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>44062</v>
+        <v>44046</v>
       </c>
       <c r="B122">
-        <v>10</v>
+        <v>96</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>44063</v>
+        <v>44047</v>
       </c>
       <c r="B123">
-        <v>13</v>
+        <v>136</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>44064</v>
+        <v>44048</v>
       </c>
       <c r="B124">
-        <v>3</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>44065</v>
+        <v>44049</v>
       </c>
       <c r="B125">
-        <v>5</v>
+        <v>129</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>44066</v>
+        <v>44050</v>
       </c>
       <c r="B126">
-        <v>4</v>
+        <v>99</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>44067</v>
+        <v>44051</v>
       </c>
       <c r="B127">
-        <v>10</v>
+        <v>166</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>44068</v>
+        <v>44052</v>
       </c>
       <c r="B128">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>44069</v>
+        <v>44053</v>
       </c>
       <c r="B129">
-        <v>16</v>
+        <v>184</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>44070</v>
+        <v>44054</v>
       </c>
       <c r="B130">
-        <v>3</v>
+        <v>147</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>44071</v>
+        <v>44055</v>
       </c>
       <c r="B131">
-        <v>10</v>
+        <v>173</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>44072</v>
+        <v>44056</v>
       </c>
       <c r="B132">
-        <v>5</v>
+        <v>215</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>44073</v>
+        <v>44057</v>
       </c>
       <c r="B133">
-        <v>3</v>
+        <v>145</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>44074</v>
+        <v>44058</v>
       </c>
       <c r="B134">
-        <v>3</v>
+        <v>98</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>44075</v>
+        <v>44059</v>
       </c>
       <c r="B135">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>44076</v>
+        <v>44060</v>
       </c>
       <c r="B136">
-        <v>3</v>
+        <v>164</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>44077</v>
+        <v>44061</v>
       </c>
       <c r="B137">
-        <v>3</v>
+        <v>239</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>44078</v>
+        <v>44062</v>
       </c>
       <c r="B138">
-        <v>11</v>
+        <v>207</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>44079</v>
+        <v>44063</v>
       </c>
       <c r="B139">
-        <v>5</v>
+        <v>217</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>44080</v>
+        <v>44064</v>
       </c>
       <c r="B140">
-        <v>2</v>
+        <v>64</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>44081</v>
+        <v>44065</v>
       </c>
       <c r="B141">
-        <v>6</v>
+        <v>119</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>44082</v>
+        <v>44066</v>
       </c>
       <c r="B142">
-        <v>4</v>
+        <v>37</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>44083</v>
+        <v>44067</v>
       </c>
       <c r="B143">
-        <v>8</v>
+        <v>152</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>44084</v>
+        <v>44068</v>
       </c>
       <c r="B144">
-        <v>6</v>
+        <v>248</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>44085</v>
+        <v>44069</v>
       </c>
       <c r="B145">
-        <v>13</v>
+        <v>226</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>44086</v>
+        <v>44070</v>
       </c>
       <c r="B146">
-        <v>5</v>
+        <v>129</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>44087</v>
+        <v>44071</v>
       </c>
       <c r="B147">
-        <v>3</v>
+        <v>144</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>44088</v>
+        <v>44072</v>
       </c>
       <c r="B148">
-        <v>16</v>
+        <v>129</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>44089</v>
+        <v>44073</v>
       </c>
       <c r="B149">
-        <v>6</v>
+        <v>51</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>44090</v>
+        <v>44074</v>
       </c>
       <c r="B150">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>44091</v>
+        <v>44075</v>
       </c>
       <c r="B151">
-        <v>12</v>
+        <v>116</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>44092</v>
+        <v>44076</v>
       </c>
       <c r="B152">
-        <v>5</v>
+        <v>94</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>44094</v>
+        <v>44077</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>44095</v>
+        <v>44078</v>
       </c>
       <c r="B154">
-        <v>10</v>
+        <v>122</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>44096</v>
+        <v>44079</v>
       </c>
       <c r="B155">
-        <v>9</v>
+        <v>77</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>44097</v>
+        <v>44080</v>
       </c>
       <c r="B156">
-        <v>2</v>
+        <v>45</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>44098</v>
+        <v>44081</v>
       </c>
       <c r="B157">
-        <v>8</v>
+        <v>136</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>44099</v>
+        <v>44082</v>
       </c>
       <c r="B158">
-        <v>7</v>
+        <v>114</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>44100</v>
+        <v>44083</v>
       </c>
       <c r="B159">
-        <v>4</v>
+        <v>124</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>44101</v>
+        <v>44084</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>82</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>44102</v>
+        <v>44085</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>183</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>44103</v>
+        <v>44086</v>
       </c>
       <c r="B162">
-        <v>4</v>
+        <v>74</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>44104</v>
+        <v>44087</v>
       </c>
       <c r="B163">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>44105</v>
+        <v>44088</v>
       </c>
       <c r="B164">
-        <v>3</v>
+        <v>159</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>44106</v>
+        <v>44089</v>
       </c>
       <c r="B165">
-        <v>4</v>
+        <v>109</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>44109</v>
+        <v>44090</v>
       </c>
       <c r="B166">
-        <v>3</v>
+        <v>123</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>44110</v>
+        <v>44091</v>
       </c>
       <c r="B167">
-        <v>2</v>
+        <v>169</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>44111</v>
+        <v>44092</v>
       </c>
       <c r="B168">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>44113</v>
+        <v>44093</v>
       </c>
       <c r="B169">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>44114</v>
+        <v>44094</v>
       </c>
       <c r="B170">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>44115</v>
+        <v>44095</v>
       </c>
       <c r="B171">
-        <v>1</v>
+        <v>115</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>44116</v>
+        <v>44096</v>
       </c>
       <c r="B172">
-        <v>5</v>
+        <v>147</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>44117</v>
+        <v>44097</v>
       </c>
       <c r="B173">
-        <v>4</v>
+        <v>64</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>44118</v>
+        <v>44098</v>
       </c>
       <c r="B174">
-        <v>3</v>
+        <v>96</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>44119</v>
+        <v>44099</v>
       </c>
       <c r="B175">
-        <v>1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>44120</v>
+        <v>44100</v>
       </c>
       <c r="B176">
-        <v>3</v>
+        <v>60</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>44121</v>
+        <v>44101</v>
       </c>
       <c r="B177">
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>44122</v>
+        <v>44102</v>
       </c>
       <c r="B178">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>44123</v>
+        <v>44103</v>
       </c>
       <c r="B179">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>44124</v>
+        <v>44104</v>
       </c>
       <c r="B180">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>44125</v>
+        <v>44105</v>
       </c>
       <c r="B181">
-        <v>3</v>
+        <v>51</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>44126</v>
+        <v>44106</v>
       </c>
       <c r="B182">
-        <v>3</v>
+        <v>43</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>44127</v>
+        <v>44107</v>
       </c>
       <c r="B183">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>44128</v>
+        <v>44108</v>
       </c>
       <c r="B184">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>44130</v>
+        <v>44109</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>44132</v>
+        <v>44110</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>84</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>44133</v>
+        <v>44111</v>
       </c>
       <c r="B187">
-        <v>1</v>
+        <v>78</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>44134</v>
+        <v>44112</v>
       </c>
       <c r="B188">
-        <v>2</v>
+        <v>61</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>44135</v>
+        <v>44113</v>
       </c>
       <c r="B189">
-        <v>1</v>
+        <v>84</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>44136</v>
+        <v>44114</v>
       </c>
       <c r="B190">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>44137</v>
+        <v>44115</v>
       </c>
       <c r="B191">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>44138</v>
+        <v>44116</v>
       </c>
       <c r="B192">
-        <v>2</v>
+        <v>62</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>44140</v>
+        <v>44117</v>
       </c>
       <c r="B193">
-        <v>2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>44142</v>
+        <v>44118</v>
       </c>
       <c r="B194">
-        <v>1</v>
+        <v>84</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>44143</v>
+        <v>44119</v>
       </c>
       <c r="B195">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>44145</v>
+        <v>44120</v>
       </c>
       <c r="B196">
-        <v>3</v>
+        <v>55</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>44146</v>
+        <v>44121</v>
       </c>
       <c r="B197">
-        <v>3</v>
+        <v>68</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>44147</v>
+        <v>44122</v>
       </c>
       <c r="B198">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>44148</v>
+        <v>44123</v>
       </c>
       <c r="B199">
-        <v>4</v>
+        <v>62</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>44149</v>
+        <v>44124</v>
       </c>
       <c r="B200">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>44150</v>
+        <v>44125</v>
       </c>
       <c r="B201">
-        <v>4</v>
+        <v>48</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>44152</v>
+        <v>44126</v>
       </c>
       <c r="B202">
-        <v>3</v>
+        <v>84</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>44153</v>
+        <v>44127</v>
       </c>
       <c r="B203">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44154</v>
+        <v>44128</v>
       </c>
       <c r="B204">
-        <v>2</v>
+        <v>44</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44155</v>
+        <v>44129</v>
       </c>
       <c r="B205">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44156</v>
+        <v>44130</v>
       </c>
       <c r="B206">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44157</v>
+        <v>44131</v>
       </c>
       <c r="B207">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44159</v>
+        <v>44132</v>
       </c>
       <c r="B208">
-        <v>2</v>
+        <v>49</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44160</v>
+        <v>44133</v>
       </c>
       <c r="B209">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44161</v>
+        <v>44134</v>
       </c>
       <c r="B210">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44163</v>
+        <v>44135</v>
       </c>
       <c r="B211">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44167</v>
+        <v>44136</v>
       </c>
       <c r="B212">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44168</v>
+        <v>44137</v>
       </c>
       <c r="B213">
-        <v>3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44169</v>
+        <v>44138</v>
       </c>
       <c r="B214">
-        <v>2</v>
+        <v>96</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44172</v>
+        <v>44139</v>
       </c>
       <c r="B215">
-        <v>3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44173</v>
+        <v>44140</v>
       </c>
       <c r="B216">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44174</v>
+        <v>44142</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44175</v>
+        <v>44143</v>
       </c>
       <c r="B218">
-        <v>3</v>
+        <v>54</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44176</v>
+        <v>44144</v>
       </c>
       <c r="B219">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44177</v>
+        <v>44145</v>
       </c>
       <c r="B220">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44178</v>
+        <v>44146</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44179</v>
+        <v>44147</v>
       </c>
       <c r="B222">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44180</v>
+        <v>44148</v>
       </c>
       <c r="B223">
-        <v>2</v>
+        <v>72</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44181</v>
+        <v>44149</v>
       </c>
       <c r="B224">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44182</v>
+        <v>44150</v>
       </c>
       <c r="B225">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44183</v>
+        <v>44151</v>
       </c>
       <c r="B226">
-        <v>1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44185</v>
+        <v>44152</v>
       </c>
       <c r="B227">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44186</v>
+        <v>44153</v>
       </c>
       <c r="B228">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44187</v>
+        <v>44154</v>
       </c>
       <c r="B229">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44191</v>
+        <v>44155</v>
       </c>
       <c r="B230">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44192</v>
+        <v>44156</v>
       </c>
       <c r="B231">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44193</v>
+        <v>44157</v>
       </c>
       <c r="B232">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44194</v>
+        <v>44158</v>
       </c>
       <c r="B233">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44200</v>
+        <v>44159</v>
       </c>
       <c r="B234">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44202</v>
+        <v>44160</v>
       </c>
       <c r="B235">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44203</v>
+        <v>44161</v>
       </c>
       <c r="B236">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44204</v>
+        <v>44162</v>
       </c>
       <c r="B237">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44205</v>
+        <v>44163</v>
       </c>
       <c r="B238">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44207</v>
+        <v>44164</v>
       </c>
       <c r="B239">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44208</v>
+        <v>44165</v>
       </c>
       <c r="B240">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44209</v>
+        <v>44166</v>
       </c>
       <c r="B241">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44210</v>
+        <v>44167</v>
       </c>
       <c r="B242">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44211</v>
+        <v>44168</v>
       </c>
       <c r="B243">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44212</v>
+        <v>44169</v>
       </c>
       <c r="B244">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44213</v>
+        <v>44170</v>
       </c>
       <c r="B245">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44214</v>
+        <v>44172</v>
       </c>
       <c r="B246">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44215</v>
+        <v>44173</v>
       </c>
       <c r="B247">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44216</v>
+        <v>44174</v>
       </c>
       <c r="B248">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44217</v>
+        <v>44175</v>
       </c>
       <c r="B249">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44218</v>
+        <v>44176</v>
       </c>
       <c r="B250">
-        <v>3</v>
+        <v>39</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44219</v>
+        <v>44177</v>
       </c>
       <c r="B251">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44221</v>
+        <v>44178</v>
       </c>
       <c r="B252">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44222</v>
+        <v>44179</v>
       </c>
       <c r="B253">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44223</v>
+        <v>44180</v>
       </c>
       <c r="B254">
-        <v>6</v>
+        <v>61</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44224</v>
+        <v>44181</v>
       </c>
       <c r="B255">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44225</v>
+        <v>44182</v>
       </c>
       <c r="B256">
-        <v>4</v>
+        <v>51</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44226</v>
+        <v>44183</v>
       </c>
       <c r="B257">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44228</v>
+        <v>44184</v>
       </c>
       <c r="B258">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44229</v>
+        <v>44185</v>
       </c>
       <c r="B259">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44231</v>
+        <v>44186</v>
       </c>
       <c r="B260">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44232</v>
+        <v>44187</v>
       </c>
       <c r="B261">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44233</v>
+        <v>44188</v>
       </c>
       <c r="B262">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44234</v>
+        <v>44189</v>
       </c>
       <c r="B263">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44235</v>
+        <v>44190</v>
       </c>
       <c r="B264">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44236</v>
+        <v>44191</v>
       </c>
       <c r="B265">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44237</v>
+        <v>44192</v>
       </c>
       <c r="B266">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44238</v>
+        <v>44193</v>
       </c>
       <c r="B267">
-        <v>2</v>
+        <v>59</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44239</v>
+        <v>44194</v>
       </c>
       <c r="B268">
-        <v>4</v>
+        <v>59</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44240</v>
+        <v>44195</v>
       </c>
       <c r="B269">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44241</v>
+        <v>44196</v>
       </c>
       <c r="B270">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44242</v>
+        <v>44197</v>
       </c>
       <c r="B271">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44243</v>
+        <v>44198</v>
       </c>
       <c r="B272">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44244</v>
+        <v>44199</v>
       </c>
       <c r="B273">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44245</v>
+        <v>44200</v>
       </c>
       <c r="B274">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44246</v>
+        <v>44201</v>
       </c>
       <c r="B275">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44247</v>
+        <v>44202</v>
       </c>
       <c r="B276">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44248</v>
+        <v>44203</v>
       </c>
       <c r="B277">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44249</v>
+        <v>44204</v>
       </c>
       <c r="B278">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44250</v>
+        <v>44205</v>
       </c>
       <c r="B279">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44251</v>
+        <v>44206</v>
       </c>
       <c r="B280">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44252</v>
+        <v>44207</v>
       </c>
       <c r="B281">
-        <v>5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44253</v>
+        <v>44208</v>
       </c>
       <c r="B282">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44254</v>
+        <v>44209</v>
       </c>
       <c r="B283">
-        <v>3</v>
+        <v>60</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44255</v>
+        <v>44210</v>
       </c>
       <c r="B284">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44256</v>
+        <v>44211</v>
       </c>
       <c r="B285">
-        <v>4</v>
+        <v>64</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44257</v>
+        <v>44212</v>
       </c>
       <c r="B286">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44258</v>
+        <v>44213</v>
       </c>
       <c r="B287">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44259</v>
+        <v>44214</v>
       </c>
       <c r="B288">
-        <v>4</v>
+        <v>61</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44260</v>
+        <v>44215</v>
       </c>
       <c r="B289">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44261</v>
+        <v>44216</v>
       </c>
       <c r="B290">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44263</v>
+        <v>44217</v>
       </c>
       <c r="B291">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44264</v>
+        <v>44218</v>
       </c>
       <c r="B292">
-        <v>8</v>
+        <v>61</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44265</v>
+        <v>44219</v>
       </c>
       <c r="B293">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44266</v>
+        <v>44220</v>
       </c>
       <c r="B294">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44267</v>
+        <v>44221</v>
       </c>
       <c r="B295">
-        <v>9</v>
+        <v>58</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44268</v>
+        <v>44222</v>
       </c>
       <c r="B296">
-        <v>9</v>
+        <v>59</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44269</v>
+        <v>44223</v>
       </c>
       <c r="B297">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44270</v>
+        <v>44224</v>
       </c>
       <c r="B298">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44271</v>
+        <v>44225</v>
       </c>
       <c r="B299">
-        <v>6</v>
+        <v>51</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44272</v>
+        <v>44226</v>
       </c>
       <c r="B300">
-        <v>9</v>
+        <v>62</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44273</v>
+        <v>44227</v>
       </c>
       <c r="B301">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44274</v>
+        <v>44228</v>
       </c>
       <c r="B302">
-        <v>10</v>
+        <v>72</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44275</v>
+        <v>44229</v>
       </c>
       <c r="B303">
-        <v>10</v>
+        <v>66</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44276</v>
+        <v>44230</v>
       </c>
       <c r="B304">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44277</v>
+        <v>44231</v>
       </c>
       <c r="B305">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44278</v>
+        <v>44232</v>
       </c>
       <c r="B306">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44279</v>
+        <v>44233</v>
       </c>
       <c r="B307">
-        <v>10</v>
+        <v>59</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44280</v>
+        <v>44234</v>
       </c>
       <c r="B308">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44281</v>
+        <v>44235</v>
       </c>
       <c r="B309">
-        <v>7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44282</v>
+        <v>44236</v>
       </c>
       <c r="B310">
-        <v>6</v>
+        <v>63</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44284</v>
+        <v>44237</v>
       </c>
       <c r="B311">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44285</v>
+        <v>44238</v>
       </c>
       <c r="B312">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44286</v>
+        <v>44239</v>
       </c>
       <c r="B313">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44287</v>
+        <v>44240</v>
       </c>
       <c r="B314">
-        <v>9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44288</v>
+        <v>44241</v>
       </c>
       <c r="B315">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44289</v>
+        <v>44242</v>
       </c>
       <c r="B316">
-        <v>4</v>
+        <v>54</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44290</v>
+        <v>44243</v>
       </c>
       <c r="B317">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44291</v>
+        <v>44244</v>
       </c>
       <c r="B318">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44292</v>
+        <v>44245</v>
       </c>
       <c r="B319">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44293</v>
+        <v>44246</v>
       </c>
       <c r="B320">
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44294</v>
+        <v>44247</v>
       </c>
       <c r="B321">
-        <v>9</v>
+        <v>71</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44295</v>
+        <v>44248</v>
       </c>
       <c r="B322">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44296</v>
+        <v>44249</v>
       </c>
       <c r="B323">
-        <v>3</v>
+        <v>81</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44297</v>
+        <v>44250</v>
       </c>
       <c r="B324">
-        <v>1</v>
+        <v>77</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44298</v>
+        <v>44251</v>
       </c>
       <c r="B325">
-        <v>6</v>
+        <v>59</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44299</v>
+        <v>44252</v>
       </c>
       <c r="B326">
-        <v>7</v>
+        <v>82</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44300</v>
+        <v>44253</v>
       </c>
       <c r="B327">
-        <v>10</v>
+        <v>74</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44301</v>
+        <v>44254</v>
       </c>
       <c r="B328">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44302</v>
+        <v>44255</v>
       </c>
       <c r="B329">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44303</v>
+        <v>44256</v>
       </c>
       <c r="B330">
-        <v>4</v>
+        <v>91</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44304</v>
+        <v>44257</v>
       </c>
       <c r="B331">
-        <v>2</v>
+        <v>97</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44305</v>
+        <v>44258</v>
       </c>
       <c r="B332">
-        <v>9</v>
+        <v>100</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44306</v>
+        <v>44259</v>
       </c>
       <c r="B333">
-        <v>4</v>
+        <v>106</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44307</v>
+        <v>44260</v>
       </c>
       <c r="B334">
-        <v>6</v>
+        <v>128</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44308</v>
+        <v>44261</v>
       </c>
       <c r="B335">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44309</v>
+        <v>44262</v>
       </c>
       <c r="B336">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44310</v>
+        <v>44263</v>
       </c>
       <c r="B337">
-        <v>6</v>
+        <v>147</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44311</v>
+        <v>44264</v>
       </c>
       <c r="B338">
-        <v>1</v>
+        <v>133</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44312</v>
+        <v>44265</v>
       </c>
       <c r="B339">
-        <v>9</v>
+        <v>175</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44313</v>
+        <v>44266</v>
       </c>
       <c r="B340">
-        <v>4</v>
+        <v>193</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44314</v>
+        <v>44267</v>
       </c>
       <c r="B341">
-        <v>3</v>
+        <v>133</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44315</v>
+        <v>44268</v>
       </c>
       <c r="B342">
-        <v>2</v>
+        <v>126</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44316</v>
+        <v>44269</v>
       </c>
       <c r="B343">
-        <v>6</v>
+        <v>46</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44317</v>
+        <v>44270</v>
       </c>
       <c r="B344">
-        <v>1</v>
+        <v>265</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44320</v>
+        <v>44271</v>
       </c>
       <c r="B345">
-        <v>1</v>
+        <v>162</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44321</v>
+        <v>44272</v>
       </c>
       <c r="B346">
-        <v>2</v>
+        <v>205</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44322</v>
+        <v>44273</v>
       </c>
       <c r="B347">
-        <v>4</v>
+        <v>220</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44324</v>
+        <v>44274</v>
       </c>
       <c r="B348">
-        <v>2</v>
+        <v>199</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44326</v>
+        <v>44275</v>
       </c>
       <c r="B349">
-        <v>3</v>
+        <v>160</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44327</v>
+        <v>44276</v>
       </c>
       <c r="B350">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44328</v>
+        <v>44277</v>
       </c>
       <c r="B351">
-        <v>4</v>
+        <v>214</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44329</v>
+        <v>44278</v>
       </c>
       <c r="B352">
-        <v>4</v>
+        <v>184</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44330</v>
+        <v>44279</v>
       </c>
       <c r="B353">
-        <v>3</v>
+        <v>199</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44331</v>
+        <v>44280</v>
       </c>
       <c r="B354">
-        <v>5</v>
+        <v>198</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44333</v>
+        <v>44281</v>
       </c>
       <c r="B355">
-        <v>4</v>
+        <v>169</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44334</v>
+        <v>44282</v>
       </c>
       <c r="B356">
-        <v>1</v>
+        <v>141</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44335</v>
+        <v>44283</v>
       </c>
       <c r="B357">
-        <v>4</v>
+        <v>57</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44336</v>
+        <v>44284</v>
       </c>
       <c r="B358">
-        <v>1</v>
+        <v>146</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44337</v>
+        <v>44285</v>
       </c>
       <c r="B359">
-        <v>3</v>
+        <v>172</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44338</v>
+        <v>44286</v>
       </c>
       <c r="B360">
-        <v>2</v>
+        <v>137</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44340</v>
+        <v>44287</v>
       </c>
       <c r="B361">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44341</v>
+        <v>44288</v>
       </c>
       <c r="B362">
-        <v>2</v>
+        <v>58</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44342</v>
+        <v>44289</v>
       </c>
       <c r="B363">
-        <v>2</v>
+        <v>112</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44343</v>
+        <v>44290</v>
       </c>
       <c r="B364">
-        <v>4</v>
+        <v>61</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44345</v>
+        <v>44291</v>
       </c>
       <c r="B365">
-        <v>1</v>
+        <v>183</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44346</v>
+        <v>44292</v>
       </c>
       <c r="B366">
-        <v>1</v>
+        <v>170</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44348</v>
+        <v>44293</v>
       </c>
       <c r="B367">
-        <v>1</v>
+        <v>133</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44349</v>
+        <v>44294</v>
       </c>
       <c r="B368">
-        <v>2</v>
+        <v>122</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44350</v>
+        <v>44295</v>
       </c>
       <c r="B369">
-        <v>1</v>
+        <v>121</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44351</v>
+        <v>44296</v>
       </c>
       <c r="B370">
-        <v>1</v>
+        <v>98</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44352</v>
+        <v>44297</v>
       </c>
       <c r="B371">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44354</v>
+        <v>44298</v>
       </c>
       <c r="B372">
-        <v>3</v>
+        <v>86</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44355</v>
+        <v>44299</v>
       </c>
       <c r="B373">
-        <v>1</v>
+        <v>130</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44357</v>
+        <v>44300</v>
       </c>
       <c r="B374">
-        <v>2</v>
+        <v>109</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44358</v>
+        <v>44301</v>
       </c>
       <c r="B375">
-        <v>4</v>
+        <v>111</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44361</v>
+        <v>44302</v>
       </c>
       <c r="B376">
-        <v>1</v>
+        <v>95</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44362</v>
+        <v>44303</v>
       </c>
       <c r="B377">
-        <v>1</v>
+        <v>98</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44364</v>
+        <v>44304</v>
       </c>
       <c r="B378">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44365</v>
+        <v>44305</v>
       </c>
       <c r="B379">
-        <v>2</v>
+        <v>91</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44366</v>
+        <v>44306</v>
       </c>
       <c r="B380">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44368</v>
+        <v>44307</v>
       </c>
       <c r="B381">
-        <v>2</v>
+        <v>116</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44369</v>
+        <v>44308</v>
       </c>
       <c r="B382">
-        <v>3</v>
+        <v>93</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44372</v>
+        <v>44309</v>
       </c>
       <c r="B383">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44373</v>
+        <v>44310</v>
       </c>
       <c r="B384">
-        <v>1</v>
+        <v>97</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44377</v>
+        <v>44311</v>
       </c>
       <c r="B385">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44378</v>
+        <v>44312</v>
       </c>
       <c r="B386">
-        <v>1</v>
+        <v>79</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44380</v>
+        <v>44313</v>
       </c>
       <c r="B387">
-        <v>1</v>
+        <v>95</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44386</v>
+        <v>44314</v>
       </c>
       <c r="B388">
-        <v>1</v>
+        <v>79</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44389</v>
+        <v>44315</v>
       </c>
       <c r="B389">
-        <v>1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44391</v>
+        <v>44316</v>
       </c>
       <c r="B390">
-        <v>1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44394</v>
+        <v>44317</v>
       </c>
       <c r="B391">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44397</v>
+        <v>44318</v>
       </c>
       <c r="B392">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44399</v>
+        <v>44319</v>
       </c>
       <c r="B393">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44401</v>
+        <v>44320</v>
       </c>
       <c r="B394">
-        <v>3</v>
+        <v>63</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44403</v>
+        <v>44321</v>
       </c>
       <c r="B395">
-        <v>2</v>
+        <v>45</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44412</v>
+        <v>44322</v>
       </c>
       <c r="B396">
-        <v>3</v>
+        <v>58</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44413</v>
+        <v>44323</v>
       </c>
       <c r="B397">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44428</v>
+        <v>44324</v>
       </c>
       <c r="B398">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44431</v>
+        <v>44325</v>
       </c>
       <c r="B399">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44438</v>
+        <v>44326</v>
       </c>
       <c r="B400">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44440</v>
+        <v>44327</v>
       </c>
       <c r="B401">
-        <v>1</v>
+        <v>69</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44441</v>
+        <v>44328</v>
       </c>
       <c r="B402">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44443</v>
+        <v>44329</v>
       </c>
       <c r="B403">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44469</v>
+        <v>44330</v>
       </c>
       <c r="B404">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44470</v>
+        <v>44331</v>
       </c>
       <c r="B405">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44484</v>
+        <v>44332</v>
       </c>
       <c r="B406">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44504</v>
+        <v>44333</v>
       </c>
       <c r="B407">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44506</v>
+        <v>44334</v>
       </c>
       <c r="B408">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44519</v>
+        <v>44335</v>
       </c>
       <c r="B409">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44520</v>
+        <v>44336</v>
       </c>
       <c r="B410">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44521</v>
+        <v>44337</v>
       </c>
       <c r="B411">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44524</v>
+        <v>44338</v>
       </c>
       <c r="B412">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44525</v>
+        <v>44339</v>
       </c>
       <c r="B413">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44534</v>
+        <v>44340</v>
       </c>
       <c r="B414">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44539</v>
+        <v>44341</v>
       </c>
       <c r="B415">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44545</v>
+        <v>44342</v>
       </c>
       <c r="B416">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44546</v>
+        <v>44343</v>
       </c>
       <c r="B417">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44548</v>
+        <v>44344</v>
       </c>
       <c r="B418">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44550</v>
+        <v>44345</v>
       </c>
       <c r="B419">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44553</v>
+        <v>44346</v>
       </c>
       <c r="B420">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44554</v>
+        <v>44347</v>
       </c>
       <c r="B421">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44560</v>
+        <v>44348</v>
       </c>
       <c r="B422">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44561</v>
+        <v>44349</v>
       </c>
       <c r="B423">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44567</v>
+        <v>44350</v>
       </c>
       <c r="B424">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44569</v>
+        <v>44351</v>
       </c>
       <c r="B425">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44570</v>
+        <v>44352</v>
       </c>
       <c r="B426">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44571</v>
+        <v>44353</v>
       </c>
       <c r="B427">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44572</v>
+        <v>44354</v>
       </c>
       <c r="B428">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44573</v>
+        <v>44355</v>
       </c>
       <c r="B429">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44574</v>
+        <v>44356</v>
       </c>
       <c r="B430">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44575</v>
+        <v>44357</v>
       </c>
       <c r="B431">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44576</v>
+        <v>44358</v>
       </c>
       <c r="B432">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44577</v>
+        <v>44359</v>
       </c>
       <c r="B433">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44578</v>
+        <v>44360</v>
       </c>
       <c r="B434">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44579</v>
+        <v>44361</v>
       </c>
       <c r="B435">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44580</v>
+        <v>44362</v>
       </c>
       <c r="B436">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44581</v>
+        <v>44363</v>
       </c>
       <c r="B437">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44582</v>
+        <v>44364</v>
       </c>
       <c r="B438">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44583</v>
+        <v>44365</v>
       </c>
       <c r="B439">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44584</v>
+        <v>44366</v>
       </c>
       <c r="B440">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44585</v>
+        <v>44367</v>
       </c>
       <c r="B441">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44586</v>
+        <v>44368</v>
       </c>
       <c r="B442">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44587</v>
+        <v>44369</v>
       </c>
       <c r="B443">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44588</v>
+        <v>44370</v>
       </c>
       <c r="B444">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44589</v>
+        <v>44371</v>
       </c>
       <c r="B445">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44590</v>
+        <v>44372</v>
       </c>
       <c r="B446">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44591</v>
+        <v>44373</v>
       </c>
       <c r="B447">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44592</v>
+        <v>44374</v>
       </c>
       <c r="B448">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44593</v>
+        <v>44375</v>
       </c>
       <c r="B449">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44594</v>
+        <v>44376</v>
       </c>
       <c r="B450">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44595</v>
+        <v>44377</v>
       </c>
       <c r="B451">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44596</v>
+        <v>44378</v>
       </c>
       <c r="B452">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44597</v>
+        <v>44379</v>
       </c>
       <c r="B453">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44598</v>
+        <v>44380</v>
       </c>
       <c r="B454">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44599</v>
+        <v>44381</v>
       </c>
       <c r="B455">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44600</v>
+        <v>44382</v>
       </c>
       <c r="B456">
         <v>6</v>
@@ -4039,103 +4039,103 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44601</v>
+        <v>44383</v>
       </c>
       <c r="B457">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44602</v>
+        <v>44384</v>
       </c>
       <c r="B458">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44603</v>
+        <v>44385</v>
       </c>
       <c r="B459">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44604</v>
+        <v>44386</v>
       </c>
       <c r="B460">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44606</v>
+        <v>44387</v>
       </c>
       <c r="B461">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44607</v>
+        <v>44388</v>
       </c>
       <c r="B462">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44608</v>
+        <v>44389</v>
       </c>
       <c r="B463">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44610</v>
+        <v>44390</v>
       </c>
       <c r="B464">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44612</v>
+        <v>44391</v>
       </c>
       <c r="B465">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44613</v>
+        <v>44392</v>
       </c>
       <c r="B466">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44616</v>
+        <v>44393</v>
       </c>
       <c r="B467">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44620</v>
+        <v>44394</v>
       </c>
       <c r="B468">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44621</v>
+        <v>44395</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -4143,39 +4143,39 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44622</v>
+        <v>44396</v>
       </c>
       <c r="B470">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44623</v>
+        <v>44397</v>
       </c>
       <c r="B471">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44625</v>
+        <v>44398</v>
       </c>
       <c r="B472">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44649</v>
+        <v>44399</v>
       </c>
       <c r="B473">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44650</v>
+        <v>44400</v>
       </c>
       <c r="B474">
         <v>3</v>
@@ -4183,31 +4183,31 @@
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44653</v>
+        <v>44401</v>
       </c>
       <c r="B475">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44659</v>
+        <v>44403</v>
       </c>
       <c r="B476">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44662</v>
+        <v>44404</v>
       </c>
       <c r="B477">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44669</v>
+        <v>44405</v>
       </c>
       <c r="B478">
         <v>2</v>
@@ -4215,23 +4215,23 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44670</v>
+        <v>44407</v>
       </c>
       <c r="B479">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44671</v>
+        <v>44408</v>
       </c>
       <c r="B480">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44672</v>
+        <v>44409</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -4239,39 +4239,39 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44692</v>
+        <v>44410</v>
       </c>
       <c r="B482">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44733</v>
+        <v>44411</v>
       </c>
       <c r="B483">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44739</v>
+        <v>44412</v>
       </c>
       <c r="B484">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44740</v>
+        <v>44413</v>
       </c>
       <c r="B485">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44742</v>
+        <v>44414</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -4279,79 +4279,79 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44748</v>
+        <v>44416</v>
       </c>
       <c r="B487">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44749</v>
+        <v>44418</v>
       </c>
       <c r="B488">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44753</v>
+        <v>44419</v>
       </c>
       <c r="B489">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44754</v>
+        <v>44420</v>
       </c>
       <c r="B490">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44755</v>
+        <v>44421</v>
       </c>
       <c r="B491">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44756</v>
+        <v>44422</v>
       </c>
       <c r="B492">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44757</v>
+        <v>44423</v>
       </c>
       <c r="B493">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44758</v>
+        <v>44424</v>
       </c>
       <c r="B494">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44760</v>
+        <v>44425</v>
       </c>
       <c r="B495">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44761</v>
+        <v>44426</v>
       </c>
       <c r="B496">
         <v>4</v>
@@ -4359,31 +4359,31 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44762</v>
+        <v>44427</v>
       </c>
       <c r="B497">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44763</v>
+        <v>44428</v>
       </c>
       <c r="B498">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44764</v>
+        <v>44430</v>
       </c>
       <c r="B499">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44765</v>
+        <v>44431</v>
       </c>
       <c r="B500">
         <v>8</v>
@@ -4391,71 +4391,71 @@
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44766</v>
+        <v>44432</v>
       </c>
       <c r="B501">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44767</v>
+        <v>44433</v>
       </c>
       <c r="B502">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44768</v>
+        <v>44434</v>
       </c>
       <c r="B503">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44769</v>
+        <v>44435</v>
       </c>
       <c r="B504">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44770</v>
+        <v>44436</v>
       </c>
       <c r="B505">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44771</v>
+        <v>44437</v>
       </c>
       <c r="B506">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44772</v>
+        <v>44438</v>
       </c>
       <c r="B507">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44773</v>
+        <v>44439</v>
       </c>
       <c r="B508">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44774</v>
+        <v>44440</v>
       </c>
       <c r="B509">
         <v>4</v>
@@ -4463,103 +4463,103 @@
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44775</v>
+        <v>44441</v>
       </c>
       <c r="B510">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44776</v>
+        <v>44442</v>
       </c>
       <c r="B511">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44777</v>
+        <v>44443</v>
       </c>
       <c r="B512">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44778</v>
+        <v>44444</v>
       </c>
       <c r="B513">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44779</v>
+        <v>44445</v>
       </c>
       <c r="B514">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44781</v>
+        <v>44446</v>
       </c>
       <c r="B515">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44782</v>
+        <v>44447</v>
       </c>
       <c r="B516">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44783</v>
+        <v>44448</v>
       </c>
       <c r="B517">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44784</v>
+        <v>44449</v>
       </c>
       <c r="B518">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44785</v>
+        <v>44450</v>
       </c>
       <c r="B519">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44786</v>
+        <v>44451</v>
       </c>
       <c r="B520">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44788</v>
+        <v>44453</v>
       </c>
       <c r="B521">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44789</v>
+        <v>44454</v>
       </c>
       <c r="B522">
         <v>1</v>
@@ -4567,15 +4567,15 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44791</v>
+        <v>44455</v>
       </c>
       <c r="B523">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44792</v>
+        <v>44456</v>
       </c>
       <c r="B524">
         <v>1</v>
@@ -4583,7 +4583,7 @@
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44794</v>
+        <v>44459</v>
       </c>
       <c r="B525">
         <v>2</v>
@@ -4591,63 +4591,63 @@
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44795</v>
+        <v>44460</v>
       </c>
       <c r="B526">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44797</v>
+        <v>44461</v>
       </c>
       <c r="B527">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44798</v>
+        <v>44463</v>
       </c>
       <c r="B528">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44800</v>
+        <v>44464</v>
       </c>
       <c r="B529">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44801</v>
+        <v>44465</v>
       </c>
       <c r="B530">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44804</v>
+        <v>44466</v>
       </c>
       <c r="B531">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44805</v>
+        <v>44467</v>
       </c>
       <c r="B532">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44810</v>
+        <v>44468</v>
       </c>
       <c r="B533">
         <v>1</v>
@@ -4655,25 +4655,2369 @@
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44811</v>
+        <v>44469</v>
       </c>
       <c r="B534">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44854</v>
+        <v>44470</v>
       </c>
       <c r="B535">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
+        <v>44474</v>
+      </c>
+      <c r="B536">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2">
+      <c r="A537" s="2">
+        <v>44476</v>
+      </c>
+      <c r="B537">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="A538" s="2">
+        <v>44477</v>
+      </c>
+      <c r="B538">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2">
+      <c r="A539" s="2">
+        <v>44478</v>
+      </c>
+      <c r="B539">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="A540" s="2">
+        <v>44480</v>
+      </c>
+      <c r="B540">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2">
+      <c r="A541" s="2">
+        <v>44481</v>
+      </c>
+      <c r="B541">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2">
+      <c r="A542" s="2">
+        <v>44482</v>
+      </c>
+      <c r="B542">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2">
+      <c r="A543" s="2">
+        <v>44483</v>
+      </c>
+      <c r="B543">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2">
+      <c r="A544" s="2">
+        <v>44484</v>
+      </c>
+      <c r="B544">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2">
+      <c r="A545" s="2">
+        <v>44485</v>
+      </c>
+      <c r="B545">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2">
+      <c r="A546" s="2">
+        <v>44488</v>
+      </c>
+      <c r="B546">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2">
+      <c r="A547" s="2">
+        <v>44489</v>
+      </c>
+      <c r="B547">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2">
+      <c r="A548" s="2">
+        <v>44490</v>
+      </c>
+      <c r="B548">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2">
+      <c r="A549" s="2">
+        <v>44491</v>
+      </c>
+      <c r="B549">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2">
+      <c r="A550" s="2">
+        <v>44493</v>
+      </c>
+      <c r="B550">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2">
+      <c r="A551" s="2">
+        <v>44494</v>
+      </c>
+      <c r="B551">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2">
+      <c r="A552" s="2">
+        <v>44495</v>
+      </c>
+      <c r="B552">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2">
+      <c r="A553" s="2">
+        <v>44496</v>
+      </c>
+      <c r="B553">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2">
+      <c r="A554" s="2">
+        <v>44497</v>
+      </c>
+      <c r="B554">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2">
+      <c r="A555" s="2">
+        <v>44498</v>
+      </c>
+      <c r="B555">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2">
+      <c r="A556" s="2">
+        <v>44499</v>
+      </c>
+      <c r="B556">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2">
+      <c r="A557" s="2">
+        <v>44500</v>
+      </c>
+      <c r="B557">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2">
+      <c r="A558" s="2">
+        <v>44501</v>
+      </c>
+      <c r="B558">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2">
+      <c r="A559" s="2">
+        <v>44502</v>
+      </c>
+      <c r="B559">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2">
+      <c r="A560" s="2">
+        <v>44503</v>
+      </c>
+      <c r="B560">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2">
+      <c r="A561" s="2">
+        <v>44504</v>
+      </c>
+      <c r="B561">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2">
+      <c r="A562" s="2">
+        <v>44505</v>
+      </c>
+      <c r="B562">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2">
+      <c r="A563" s="2">
+        <v>44506</v>
+      </c>
+      <c r="B563">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2">
+      <c r="A564" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B564">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2">
+      <c r="A565" s="2">
+        <v>44510</v>
+      </c>
+      <c r="B565">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2">
+      <c r="A566" s="2">
+        <v>44511</v>
+      </c>
+      <c r="B566">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2">
+      <c r="A567" s="2">
+        <v>44512</v>
+      </c>
+      <c r="B567">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2">
+      <c r="A568" s="2">
+        <v>44513</v>
+      </c>
+      <c r="B568">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2">
+      <c r="A569" s="2">
+        <v>44516</v>
+      </c>
+      <c r="B569">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2">
+      <c r="A570" s="2">
+        <v>44517</v>
+      </c>
+      <c r="B570">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2">
+      <c r="A571" s="2">
+        <v>44518</v>
+      </c>
+      <c r="B571">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2">
+      <c r="A572" s="2">
+        <v>44519</v>
+      </c>
+      <c r="B572">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2">
+      <c r="A573" s="2">
+        <v>44520</v>
+      </c>
+      <c r="B573">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2">
+      <c r="A574" s="2">
+        <v>44521</v>
+      </c>
+      <c r="B574">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2">
+      <c r="A575" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B575">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2">
+      <c r="A576" s="2">
+        <v>44523</v>
+      </c>
+      <c r="B576">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2">
+      <c r="A577" s="2">
+        <v>44524</v>
+      </c>
+      <c r="B577">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2">
+      <c r="A578" s="2">
+        <v>44525</v>
+      </c>
+      <c r="B578">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2">
+      <c r="A579" s="2">
+        <v>44526</v>
+      </c>
+      <c r="B579">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2">
+      <c r="A580" s="2">
+        <v>44527</v>
+      </c>
+      <c r="B580">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2">
+      <c r="A581" s="2">
+        <v>44529</v>
+      </c>
+      <c r="B581">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2">
+      <c r="A582" s="2">
+        <v>44530</v>
+      </c>
+      <c r="B582">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2">
+      <c r="A583" s="2">
+        <v>44531</v>
+      </c>
+      <c r="B583">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2">
+      <c r="A584" s="2">
+        <v>44532</v>
+      </c>
+      <c r="B584">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2">
+      <c r="A585" s="2">
+        <v>44533</v>
+      </c>
+      <c r="B585">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2">
+      <c r="A586" s="2">
+        <v>44534</v>
+      </c>
+      <c r="B586">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2">
+      <c r="A587" s="2">
+        <v>44536</v>
+      </c>
+      <c r="B587">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2">
+      <c r="A588" s="2">
+        <v>44537</v>
+      </c>
+      <c r="B588">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2">
+      <c r="A589" s="2">
+        <v>44538</v>
+      </c>
+      <c r="B589">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2">
+      <c r="A590" s="2">
+        <v>44539</v>
+      </c>
+      <c r="B590">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2">
+      <c r="A591" s="2">
+        <v>44540</v>
+      </c>
+      <c r="B591">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2">
+      <c r="A592" s="2">
+        <v>44541</v>
+      </c>
+      <c r="B592">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2">
+      <c r="A593" s="2">
+        <v>44542</v>
+      </c>
+      <c r="B593">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2">
+      <c r="A594" s="2">
+        <v>44543</v>
+      </c>
+      <c r="B594">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2">
+      <c r="A595" s="2">
+        <v>44544</v>
+      </c>
+      <c r="B595">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2">
+      <c r="A596" s="2">
+        <v>44545</v>
+      </c>
+      <c r="B596">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2">
+      <c r="A597" s="2">
+        <v>44546</v>
+      </c>
+      <c r="B597">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2">
+      <c r="A598" s="2">
+        <v>44547</v>
+      </c>
+      <c r="B598">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2">
+      <c r="A599" s="2">
+        <v>44548</v>
+      </c>
+      <c r="B599">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2">
+      <c r="A600" s="2">
+        <v>44549</v>
+      </c>
+      <c r="B600">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2">
+      <c r="A601" s="2">
+        <v>44550</v>
+      </c>
+      <c r="B601">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2">
+      <c r="A602" s="2">
+        <v>44551</v>
+      </c>
+      <c r="B602">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2">
+      <c r="A603" s="2">
+        <v>44552</v>
+      </c>
+      <c r="B603">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2">
+      <c r="A604" s="2">
+        <v>44553</v>
+      </c>
+      <c r="B604">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2">
+      <c r="A605" s="2">
+        <v>44554</v>
+      </c>
+      <c r="B605">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2">
+      <c r="A606" s="2">
+        <v>44556</v>
+      </c>
+      <c r="B606">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2">
+      <c r="A607" s="2">
+        <v>44557</v>
+      </c>
+      <c r="B607">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2">
+      <c r="A608" s="2">
+        <v>44558</v>
+      </c>
+      <c r="B608">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2">
+      <c r="A609" s="2">
+        <v>44559</v>
+      </c>
+      <c r="B609">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2">
+      <c r="A610" s="2">
+        <v>44560</v>
+      </c>
+      <c r="B610">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2">
+      <c r="A611" s="2">
+        <v>44561</v>
+      </c>
+      <c r="B611">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2">
+      <c r="A612" s="2">
+        <v>44563</v>
+      </c>
+      <c r="B612">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2">
+      <c r="A613" s="2">
+        <v>44564</v>
+      </c>
+      <c r="B613">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2">
+      <c r="A614" s="2">
+        <v>44565</v>
+      </c>
+      <c r="B614">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2">
+      <c r="A615" s="2">
+        <v>44566</v>
+      </c>
+      <c r="B615">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2">
+      <c r="A616" s="2">
+        <v>44567</v>
+      </c>
+      <c r="B616">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2">
+      <c r="A617" s="2">
+        <v>44568</v>
+      </c>
+      <c r="B617">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2">
+      <c r="A618" s="2">
+        <v>44569</v>
+      </c>
+      <c r="B618">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2">
+      <c r="A619" s="2">
+        <v>44570</v>
+      </c>
+      <c r="B619">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2">
+      <c r="A620" s="2">
+        <v>44571</v>
+      </c>
+      <c r="B620">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2">
+      <c r="A621" s="2">
+        <v>44572</v>
+      </c>
+      <c r="B621">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2">
+      <c r="A622" s="2">
+        <v>44573</v>
+      </c>
+      <c r="B622">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2">
+      <c r="A623" s="2">
+        <v>44574</v>
+      </c>
+      <c r="B623">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2">
+      <c r="A624" s="2">
+        <v>44575</v>
+      </c>
+      <c r="B624">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2">
+      <c r="A625" s="2">
+        <v>44576</v>
+      </c>
+      <c r="B625">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2">
+      <c r="A626" s="2">
+        <v>44577</v>
+      </c>
+      <c r="B626">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2">
+      <c r="A627" s="2">
+        <v>44578</v>
+      </c>
+      <c r="B627">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2">
+      <c r="A628" s="2">
+        <v>44579</v>
+      </c>
+      <c r="B628">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2">
+      <c r="A629" s="2">
+        <v>44580</v>
+      </c>
+      <c r="B629">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2">
+      <c r="A630" s="2">
+        <v>44581</v>
+      </c>
+      <c r="B630">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2">
+      <c r="A631" s="2">
+        <v>44582</v>
+      </c>
+      <c r="B631">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2">
+      <c r="A632" s="2">
+        <v>44583</v>
+      </c>
+      <c r="B632">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2">
+      <c r="A633" s="2">
+        <v>44584</v>
+      </c>
+      <c r="B633">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2">
+      <c r="A634" s="2">
+        <v>44585</v>
+      </c>
+      <c r="B634">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2">
+      <c r="A635" s="2">
+        <v>44586</v>
+      </c>
+      <c r="B635">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2">
+      <c r="A636" s="2">
+        <v>44587</v>
+      </c>
+      <c r="B636">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2">
+      <c r="A637" s="2">
+        <v>44588</v>
+      </c>
+      <c r="B637">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2">
+      <c r="A638" s="2">
+        <v>44589</v>
+      </c>
+      <c r="B638">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2">
+      <c r="A639" s="2">
+        <v>44590</v>
+      </c>
+      <c r="B639">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2">
+      <c r="A640" s="2">
+        <v>44591</v>
+      </c>
+      <c r="B640">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2">
+      <c r="A641" s="2">
+        <v>44592</v>
+      </c>
+      <c r="B641">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2">
+      <c r="A642" s="2">
+        <v>44593</v>
+      </c>
+      <c r="B642">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2">
+      <c r="A643" s="2">
+        <v>44594</v>
+      </c>
+      <c r="B643">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2">
+      <c r="A644" s="2">
+        <v>44595</v>
+      </c>
+      <c r="B644">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2">
+      <c r="A645" s="2">
+        <v>44596</v>
+      </c>
+      <c r="B645">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2">
+      <c r="A646" s="2">
+        <v>44597</v>
+      </c>
+      <c r="B646">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2">
+      <c r="A647" s="2">
+        <v>44598</v>
+      </c>
+      <c r="B647">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2">
+      <c r="A648" s="2">
+        <v>44599</v>
+      </c>
+      <c r="B648">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2">
+      <c r="A649" s="2">
+        <v>44600</v>
+      </c>
+      <c r="B649">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2">
+      <c r="A650" s="2">
+        <v>44601</v>
+      </c>
+      <c r="B650">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2">
+      <c r="A651" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B651">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2">
+      <c r="A652" s="2">
+        <v>44603</v>
+      </c>
+      <c r="B652">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2">
+      <c r="A653" s="2">
+        <v>44604</v>
+      </c>
+      <c r="B653">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2">
+      <c r="A654" s="2">
+        <v>44605</v>
+      </c>
+      <c r="B654">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2">
+      <c r="A655" s="2">
+        <v>44606</v>
+      </c>
+      <c r="B655">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2">
+      <c r="A656" s="2">
+        <v>44607</v>
+      </c>
+      <c r="B656">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2">
+      <c r="A657" s="2">
+        <v>44608</v>
+      </c>
+      <c r="B657">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2">
+      <c r="A658" s="2">
+        <v>44609</v>
+      </c>
+      <c r="B658">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2">
+      <c r="A659" s="2">
+        <v>44610</v>
+      </c>
+      <c r="B659">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2">
+      <c r="A660" s="2">
+        <v>44611</v>
+      </c>
+      <c r="B660">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2">
+      <c r="A661" s="2">
+        <v>44612</v>
+      </c>
+      <c r="B661">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2">
+      <c r="A662" s="2">
+        <v>44613</v>
+      </c>
+      <c r="B662">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2">
+      <c r="A663" s="2">
+        <v>44614</v>
+      </c>
+      <c r="B663">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2">
+      <c r="A664" s="2">
+        <v>44615</v>
+      </c>
+      <c r="B664">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2">
+      <c r="A665" s="2">
+        <v>44616</v>
+      </c>
+      <c r="B665">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2">
+      <c r="A666" s="2">
+        <v>44617</v>
+      </c>
+      <c r="B666">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2">
+      <c r="A667" s="2">
+        <v>44618</v>
+      </c>
+      <c r="B667">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2">
+      <c r="A668" s="2">
+        <v>44619</v>
+      </c>
+      <c r="B668">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2">
+      <c r="A669" s="2">
+        <v>44620</v>
+      </c>
+      <c r="B669">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2">
+      <c r="A670" s="2">
+        <v>44621</v>
+      </c>
+      <c r="B670">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2">
+      <c r="A671" s="2">
+        <v>44622</v>
+      </c>
+      <c r="B671">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2">
+      <c r="A672" s="2">
+        <v>44623</v>
+      </c>
+      <c r="B672">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2">
+      <c r="A673" s="2">
+        <v>44624</v>
+      </c>
+      <c r="B673">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2">
+      <c r="A674" s="2">
+        <v>44625</v>
+      </c>
+      <c r="B674">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2">
+      <c r="A675" s="2">
+        <v>44626</v>
+      </c>
+      <c r="B675">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2">
+      <c r="A676" s="2">
+        <v>44627</v>
+      </c>
+      <c r="B676">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2">
+      <c r="A677" s="2">
+        <v>44630</v>
+      </c>
+      <c r="B677">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2">
+      <c r="A678" s="2">
+        <v>44631</v>
+      </c>
+      <c r="B678">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2">
+      <c r="A679" s="2">
+        <v>44632</v>
+      </c>
+      <c r="B679">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2">
+      <c r="A680" s="2">
+        <v>44635</v>
+      </c>
+      <c r="B680">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2">
+      <c r="A681" s="2">
+        <v>44636</v>
+      </c>
+      <c r="B681">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2">
+      <c r="A682" s="2">
+        <v>44637</v>
+      </c>
+      <c r="B682">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2">
+      <c r="A683" s="2">
+        <v>44640</v>
+      </c>
+      <c r="B683">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2">
+      <c r="A684" s="2">
+        <v>44643</v>
+      </c>
+      <c r="B684">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2">
+      <c r="A685" s="2">
+        <v>44644</v>
+      </c>
+      <c r="B685">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2">
+      <c r="A686" s="2">
+        <v>44646</v>
+      </c>
+      <c r="B686">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2">
+      <c r="A687" s="2">
+        <v>44648</v>
+      </c>
+      <c r="B687">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2">
+      <c r="A688" s="2">
+        <v>44649</v>
+      </c>
+      <c r="B688">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2">
+      <c r="A689" s="2">
+        <v>44650</v>
+      </c>
+      <c r="B689">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2">
+      <c r="A690" s="2">
+        <v>44651</v>
+      </c>
+      <c r="B690">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2">
+      <c r="A691" s="2">
+        <v>44652</v>
+      </c>
+      <c r="B691">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2">
+      <c r="A692" s="2">
+        <v>44653</v>
+      </c>
+      <c r="B692">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2">
+      <c r="A693" s="2">
+        <v>44655</v>
+      </c>
+      <c r="B693">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2">
+      <c r="A694" s="2">
+        <v>44657</v>
+      </c>
+      <c r="B694">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2">
+      <c r="A695" s="2">
+        <v>44658</v>
+      </c>
+      <c r="B695">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2">
+      <c r="A696" s="2">
+        <v>44659</v>
+      </c>
+      <c r="B696">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2">
+      <c r="A697" s="2">
+        <v>44660</v>
+      </c>
+      <c r="B697">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2">
+      <c r="A698" s="2">
+        <v>44662</v>
+      </c>
+      <c r="B698">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2">
+      <c r="A699" s="2">
+        <v>44664</v>
+      </c>
+      <c r="B699">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2">
+      <c r="A700" s="2">
+        <v>44667</v>
+      </c>
+      <c r="B700">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2">
+      <c r="A701" s="2">
+        <v>44668</v>
+      </c>
+      <c r="B701">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2">
+      <c r="A702" s="2">
+        <v>44669</v>
+      </c>
+      <c r="B702">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2">
+      <c r="A703" s="2">
+        <v>44670</v>
+      </c>
+      <c r="B703">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2">
+      <c r="A704" s="2">
+        <v>44671</v>
+      </c>
+      <c r="B704">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2">
+      <c r="A705" s="2">
+        <v>44672</v>
+      </c>
+      <c r="B705">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2">
+      <c r="A706" s="2">
+        <v>44673</v>
+      </c>
+      <c r="B706">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2">
+      <c r="A707" s="2">
+        <v>44677</v>
+      </c>
+      <c r="B707">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2">
+      <c r="A708" s="2">
+        <v>44678</v>
+      </c>
+      <c r="B708">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2">
+      <c r="A709" s="2">
+        <v>44680</v>
+      </c>
+      <c r="B709">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2">
+      <c r="A710" s="2">
+        <v>44685</v>
+      </c>
+      <c r="B710">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2">
+      <c r="A711" s="2">
+        <v>44692</v>
+      </c>
+      <c r="B711">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2">
+      <c r="A712" s="2">
+        <v>44694</v>
+      </c>
+      <c r="B712">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2">
+      <c r="A713" s="2">
+        <v>44698</v>
+      </c>
+      <c r="B713">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2">
+      <c r="A714" s="2">
+        <v>44699</v>
+      </c>
+      <c r="B714">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2">
+      <c r="A715" s="2">
+        <v>44700</v>
+      </c>
+      <c r="B715">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2">
+      <c r="A716" s="2">
+        <v>44701</v>
+      </c>
+      <c r="B716">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2">
+      <c r="A717" s="2">
+        <v>44705</v>
+      </c>
+      <c r="B717">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2">
+      <c r="A718" s="2">
+        <v>44708</v>
+      </c>
+      <c r="B718">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2">
+      <c r="A719" s="2">
+        <v>44711</v>
+      </c>
+      <c r="B719">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2">
+      <c r="A720" s="2">
+        <v>44714</v>
+      </c>
+      <c r="B720">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2">
+      <c r="A721" s="2">
+        <v>44715</v>
+      </c>
+      <c r="B721">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2">
+      <c r="A722" s="2">
+        <v>44716</v>
+      </c>
+      <c r="B722">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2">
+      <c r="A723" s="2">
+        <v>44719</v>
+      </c>
+      <c r="B723">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2">
+      <c r="A724" s="2">
+        <v>44722</v>
+      </c>
+      <c r="B724">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2">
+      <c r="A725" s="2">
+        <v>44723</v>
+      </c>
+      <c r="B725">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2">
+      <c r="A726" s="2">
+        <v>44725</v>
+      </c>
+      <c r="B726">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2">
+      <c r="A727" s="2">
+        <v>44728</v>
+      </c>
+      <c r="B727">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2">
+      <c r="A728" s="2">
+        <v>44730</v>
+      </c>
+      <c r="B728">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2">
+      <c r="A729" s="2">
+        <v>44732</v>
+      </c>
+      <c r="B729">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2">
+      <c r="A730" s="2">
+        <v>44733</v>
+      </c>
+      <c r="B730">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2">
+      <c r="A731" s="2">
+        <v>44734</v>
+      </c>
+      <c r="B731">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2">
+      <c r="A732" s="2">
+        <v>44735</v>
+      </c>
+      <c r="B732">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2">
+      <c r="A733" s="2">
+        <v>44737</v>
+      </c>
+      <c r="B733">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2">
+      <c r="A734" s="2">
+        <v>44738</v>
+      </c>
+      <c r="B734">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2">
+      <c r="A735" s="2">
+        <v>44739</v>
+      </c>
+      <c r="B735">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2">
+      <c r="A736" s="2">
+        <v>44740</v>
+      </c>
+      <c r="B736">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2">
+      <c r="A737" s="2">
+        <v>44741</v>
+      </c>
+      <c r="B737">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2">
+      <c r="A738" s="2">
+        <v>44742</v>
+      </c>
+      <c r="B738">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2">
+      <c r="A739" s="2">
+        <v>44743</v>
+      </c>
+      <c r="B739">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2">
+      <c r="A740" s="2">
+        <v>44744</v>
+      </c>
+      <c r="B740">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2">
+      <c r="A741" s="2">
+        <v>44745</v>
+      </c>
+      <c r="B741">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2">
+      <c r="A742" s="2">
+        <v>44746</v>
+      </c>
+      <c r="B742">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2">
+      <c r="A743" s="2">
+        <v>44747</v>
+      </c>
+      <c r="B743">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2">
+      <c r="A744" s="2">
+        <v>44748</v>
+      </c>
+      <c r="B744">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2">
+      <c r="A745" s="2">
+        <v>44749</v>
+      </c>
+      <c r="B745">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2">
+      <c r="A746" s="2">
+        <v>44750</v>
+      </c>
+      <c r="B746">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2">
+      <c r="A747" s="2">
+        <v>44751</v>
+      </c>
+      <c r="B747">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2">
+      <c r="A748" s="2">
+        <v>44752</v>
+      </c>
+      <c r="B748">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2">
+      <c r="A749" s="2">
+        <v>44753</v>
+      </c>
+      <c r="B749">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2">
+      <c r="A750" s="2">
+        <v>44754</v>
+      </c>
+      <c r="B750">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2">
+      <c r="A751" s="2">
+        <v>44755</v>
+      </c>
+      <c r="B751">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2">
+      <c r="A752" s="2">
+        <v>44756</v>
+      </c>
+      <c r="B752">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2">
+      <c r="A753" s="2">
+        <v>44757</v>
+      </c>
+      <c r="B753">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2">
+      <c r="A754" s="2">
+        <v>44758</v>
+      </c>
+      <c r="B754">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2">
+      <c r="A755" s="2">
+        <v>44759</v>
+      </c>
+      <c r="B755">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2">
+      <c r="A756" s="2">
+        <v>44760</v>
+      </c>
+      <c r="B756">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2">
+      <c r="A757" s="2">
+        <v>44761</v>
+      </c>
+      <c r="B757">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2">
+      <c r="A758" s="2">
+        <v>44762</v>
+      </c>
+      <c r="B758">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2">
+      <c r="A759" s="2">
+        <v>44763</v>
+      </c>
+      <c r="B759">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2">
+      <c r="A760" s="2">
+        <v>44764</v>
+      </c>
+      <c r="B760">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2">
+      <c r="A761" s="2">
+        <v>44765</v>
+      </c>
+      <c r="B761">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2">
+      <c r="A762" s="2">
+        <v>44766</v>
+      </c>
+      <c r="B762">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2">
+      <c r="A763" s="2">
+        <v>44767</v>
+      </c>
+      <c r="B763">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2">
+      <c r="A764" s="2">
+        <v>44768</v>
+      </c>
+      <c r="B764">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2">
+      <c r="A765" s="2">
+        <v>44769</v>
+      </c>
+      <c r="B765">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2">
+      <c r="A766" s="2">
+        <v>44770</v>
+      </c>
+      <c r="B766">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2">
+      <c r="A767" s="2">
+        <v>44771</v>
+      </c>
+      <c r="B767">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2">
+      <c r="A768" s="2">
+        <v>44772</v>
+      </c>
+      <c r="B768">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2">
+      <c r="A769" s="2">
+        <v>44773</v>
+      </c>
+      <c r="B769">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2">
+      <c r="A770" s="2">
+        <v>44774</v>
+      </c>
+      <c r="B770">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2">
+      <c r="A771" s="2">
+        <v>44775</v>
+      </c>
+      <c r="B771">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2">
+      <c r="A772" s="2">
+        <v>44776</v>
+      </c>
+      <c r="B772">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2">
+      <c r="A773" s="2">
+        <v>44777</v>
+      </c>
+      <c r="B773">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2">
+      <c r="A774" s="2">
+        <v>44778</v>
+      </c>
+      <c r="B774">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2">
+      <c r="A775" s="2">
+        <v>44779</v>
+      </c>
+      <c r="B775">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2">
+      <c r="A776" s="2">
+        <v>44780</v>
+      </c>
+      <c r="B776">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2">
+      <c r="A777" s="2">
+        <v>44781</v>
+      </c>
+      <c r="B777">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2">
+      <c r="A778" s="2">
+        <v>44782</v>
+      </c>
+      <c r="B778">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2">
+      <c r="A779" s="2">
+        <v>44783</v>
+      </c>
+      <c r="B779">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2">
+      <c r="A780" s="2">
+        <v>44784</v>
+      </c>
+      <c r="B780">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2">
+      <c r="A781" s="2">
+        <v>44785</v>
+      </c>
+      <c r="B781">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2">
+      <c r="A782" s="2">
+        <v>44786</v>
+      </c>
+      <c r="B782">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2">
+      <c r="A783" s="2">
+        <v>44787</v>
+      </c>
+      <c r="B783">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2">
+      <c r="A784" s="2">
+        <v>44788</v>
+      </c>
+      <c r="B784">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2">
+      <c r="A785" s="2">
+        <v>44789</v>
+      </c>
+      <c r="B785">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2">
+      <c r="A786" s="2">
+        <v>44790</v>
+      </c>
+      <c r="B786">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2">
+      <c r="A787" s="2">
+        <v>44791</v>
+      </c>
+      <c r="B787">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2">
+      <c r="A788" s="2">
+        <v>44792</v>
+      </c>
+      <c r="B788">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2">
+      <c r="A789" s="2">
+        <v>44793</v>
+      </c>
+      <c r="B789">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2">
+      <c r="A790" s="2">
+        <v>44794</v>
+      </c>
+      <c r="B790">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2">
+      <c r="A791" s="2">
+        <v>44795</v>
+      </c>
+      <c r="B791">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2">
+      <c r="A792" s="2">
+        <v>44796</v>
+      </c>
+      <c r="B792">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2">
+      <c r="A793" s="2">
+        <v>44797</v>
+      </c>
+      <c r="B793">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2">
+      <c r="A794" s="2">
+        <v>44798</v>
+      </c>
+      <c r="B794">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2">
+      <c r="A795" s="2">
+        <v>44799</v>
+      </c>
+      <c r="B795">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2">
+      <c r="A796" s="2">
+        <v>44800</v>
+      </c>
+      <c r="B796">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2">
+      <c r="A797" s="2">
+        <v>44801</v>
+      </c>
+      <c r="B797">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2">
+      <c r="A798" s="2">
+        <v>44802</v>
+      </c>
+      <c r="B798">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2">
+      <c r="A799" s="2">
+        <v>44803</v>
+      </c>
+      <c r="B799">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2">
+      <c r="A800" s="2">
+        <v>44804</v>
+      </c>
+      <c r="B800">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2">
+      <c r="A801" s="2">
+        <v>44805</v>
+      </c>
+      <c r="B801">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2">
+      <c r="A802" s="2">
+        <v>44806</v>
+      </c>
+      <c r="B802">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2">
+      <c r="A803" s="2">
+        <v>44807</v>
+      </c>
+      <c r="B803">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2">
+      <c r="A804" s="2">
+        <v>44809</v>
+      </c>
+      <c r="B804">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2">
+      <c r="A805" s="2">
+        <v>44810</v>
+      </c>
+      <c r="B805">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2">
+      <c r="A806" s="2">
+        <v>44811</v>
+      </c>
+      <c r="B806">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2">
+      <c r="A807" s="2">
+        <v>44812</v>
+      </c>
+      <c r="B807">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2">
+      <c r="A808" s="2">
+        <v>44814</v>
+      </c>
+      <c r="B808">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2">
+      <c r="A809" s="2">
+        <v>44816</v>
+      </c>
+      <c r="B809">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2">
+      <c r="A810" s="2">
+        <v>44817</v>
+      </c>
+      <c r="B810">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2">
+      <c r="A811" s="2">
+        <v>44818</v>
+      </c>
+      <c r="B811">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2">
+      <c r="A812" s="2">
+        <v>44824</v>
+      </c>
+      <c r="B812">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2">
+      <c r="A813" s="2">
+        <v>44825</v>
+      </c>
+      <c r="B813">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2">
+      <c r="A814" s="2">
+        <v>44826</v>
+      </c>
+      <c r="B814">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2">
+      <c r="A815" s="2">
+        <v>44827</v>
+      </c>
+      <c r="B815">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2">
+      <c r="A816" s="2">
+        <v>44830</v>
+      </c>
+      <c r="B816">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2">
+      <c r="A817" s="2">
+        <v>44831</v>
+      </c>
+      <c r="B817">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2">
+      <c r="A818" s="2">
+        <v>44834</v>
+      </c>
+      <c r="B818">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2">
+      <c r="A819" s="2">
+        <v>44835</v>
+      </c>
+      <c r="B819">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2">
+      <c r="A820" s="2">
+        <v>44841</v>
+      </c>
+      <c r="B820">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2">
+      <c r="A821" s="2">
+        <v>44847</v>
+      </c>
+      <c r="B821">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2">
+      <c r="A822" s="2">
+        <v>44854</v>
+      </c>
+      <c r="B822">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2">
+      <c r="A823" s="2">
+        <v>44856</v>
+      </c>
+      <c r="B823">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2">
+      <c r="A824" s="2">
+        <v>44857</v>
+      </c>
+      <c r="B824">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2">
+      <c r="A825" s="2">
+        <v>44862</v>
+      </c>
+      <c r="B825">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2">
+      <c r="A826" s="2">
+        <v>44863</v>
+      </c>
+      <c r="B826">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2">
+      <c r="A827" s="2">
+        <v>44869</v>
+      </c>
+      <c r="B827">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2">
+      <c r="A828" s="2">
         <v>44870</v>
       </c>
-      <c r="B536">
+      <c r="B828">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2">
+      <c r="A829" s="2">
+        <v>44872</v>
+      </c>
+      <c r="B829">
         <v>1</v>
       </c>
     </row>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B829"/>
+  <dimension ref="A1:B838"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4882,7 +4882,7 @@
         <v>44505</v>
       </c>
       <c r="B562">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -4898,7 +4898,7 @@
         <v>44508</v>
       </c>
       <c r="B564">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -4922,7 +4922,7 @@
         <v>44512</v>
       </c>
       <c r="B567">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -4935,23 +4935,23 @@
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44516</v>
+        <v>44514</v>
       </c>
       <c r="B569">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44517</v>
+        <v>44516</v>
       </c>
       <c r="B570">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44518</v>
+        <v>44517</v>
       </c>
       <c r="B571">
         <v>2</v>
@@ -4959,87 +4959,87 @@
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44519</v>
+        <v>44518</v>
       </c>
       <c r="B572">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44520</v>
+        <v>44519</v>
       </c>
       <c r="B573">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44521</v>
+        <v>44520</v>
       </c>
       <c r="B574">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44522</v>
+        <v>44521</v>
       </c>
       <c r="B575">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44523</v>
+        <v>44522</v>
       </c>
       <c r="B576">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44524</v>
+        <v>44523</v>
       </c>
       <c r="B577">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44525</v>
+        <v>44524</v>
       </c>
       <c r="B578">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>44526</v>
+        <v>44525</v>
       </c>
       <c r="B579">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2">
-        <v>44527</v>
+        <v>44526</v>
       </c>
       <c r="B580">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2">
-        <v>44529</v>
+        <v>44527</v>
       </c>
       <c r="B581">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2">
-        <v>44530</v>
+        <v>44529</v>
       </c>
       <c r="B582">
         <v>3</v>
@@ -5047,23 +5047,23 @@
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2">
-        <v>44531</v>
+        <v>44530</v>
       </c>
       <c r="B583">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2">
-        <v>44532</v>
+        <v>44531</v>
       </c>
       <c r="B584">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2">
-        <v>44533</v>
+        <v>44532</v>
       </c>
       <c r="B585">
         <v>2</v>
@@ -5071,95 +5071,95 @@
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2">
-        <v>44534</v>
+        <v>44533</v>
       </c>
       <c r="B586">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2">
-        <v>44536</v>
+        <v>44534</v>
       </c>
       <c r="B587">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2">
-        <v>44537</v>
+        <v>44536</v>
       </c>
       <c r="B588">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="2">
-        <v>44538</v>
+        <v>44537</v>
       </c>
       <c r="B589">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2">
-        <v>44539</v>
+        <v>44538</v>
       </c>
       <c r="B590">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="2">
-        <v>44540</v>
+        <v>44539</v>
       </c>
       <c r="B591">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2">
-        <v>44541</v>
+        <v>44540</v>
       </c>
       <c r="B592">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="2">
-        <v>44542</v>
+        <v>44541</v>
       </c>
       <c r="B593">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2">
-        <v>44543</v>
+        <v>44542</v>
       </c>
       <c r="B594">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="2">
-        <v>44544</v>
+        <v>44543</v>
       </c>
       <c r="B595">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2">
-        <v>44545</v>
+        <v>44544</v>
       </c>
       <c r="B596">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="2">
-        <v>44546</v>
+        <v>44545</v>
       </c>
       <c r="B597">
         <v>7</v>
@@ -5167,639 +5167,639 @@
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2">
-        <v>44547</v>
+        <v>44546</v>
       </c>
       <c r="B598">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="2">
-        <v>44548</v>
+        <v>44547</v>
       </c>
       <c r="B599">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="2">
-        <v>44549</v>
+        <v>44548</v>
       </c>
       <c r="B600">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="2">
-        <v>44550</v>
+        <v>44549</v>
       </c>
       <c r="B601">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="2">
-        <v>44551</v>
+        <v>44550</v>
       </c>
       <c r="B602">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="2">
-        <v>44552</v>
+        <v>44551</v>
       </c>
       <c r="B603">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="2">
-        <v>44553</v>
+        <v>44552</v>
       </c>
       <c r="B604">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="2">
-        <v>44554</v>
+        <v>44553</v>
       </c>
       <c r="B605">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="2">
-        <v>44556</v>
+        <v>44554</v>
       </c>
       <c r="B606">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="2">
-        <v>44557</v>
+        <v>44556</v>
       </c>
       <c r="B607">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="2">
-        <v>44558</v>
+        <v>44557</v>
       </c>
       <c r="B608">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="2">
-        <v>44559</v>
+        <v>44558</v>
       </c>
       <c r="B609">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="2">
-        <v>44560</v>
+        <v>44559</v>
       </c>
       <c r="B610">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" s="2">
-        <v>44561</v>
+        <v>44560</v>
       </c>
       <c r="B611">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" s="2">
-        <v>44563</v>
+        <v>44561</v>
       </c>
       <c r="B612">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="2">
-        <v>44564</v>
+        <v>44563</v>
       </c>
       <c r="B613">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="2">
-        <v>44565</v>
+        <v>44564</v>
       </c>
       <c r="B614">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" s="2">
-        <v>44566</v>
+        <v>44565</v>
       </c>
       <c r="B615">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" s="2">
-        <v>44567</v>
+        <v>44566</v>
       </c>
       <c r="B616">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" s="2">
-        <v>44568</v>
+        <v>44567</v>
       </c>
       <c r="B617">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" s="2">
-        <v>44569</v>
+        <v>44568</v>
       </c>
       <c r="B618">
-        <v>53</v>
+        <v>14</v>
       </c>
     </row>
     <row r="619" spans="1:2">
       <c r="A619" s="2">
-        <v>44570</v>
+        <v>44569</v>
       </c>
       <c r="B619">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" s="2">
-        <v>44571</v>
+        <v>44570</v>
       </c>
       <c r="B620">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" s="2">
-        <v>44572</v>
+        <v>44571</v>
       </c>
       <c r="B621">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" s="2">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B622">
-        <v>73</v>
+        <v>42</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" s="2">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B623">
-        <v>135</v>
+        <v>73</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" s="2">
-        <v>44575</v>
+        <v>44574</v>
       </c>
       <c r="B624">
-        <v>157</v>
+        <v>135</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" s="2">
-        <v>44576</v>
+        <v>44575</v>
       </c>
       <c r="B625">
-        <v>86</v>
+        <v>157</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" s="2">
-        <v>44577</v>
+        <v>44576</v>
       </c>
       <c r="B626">
-        <v>71</v>
+        <v>86</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" s="2">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B627">
-        <v>327</v>
+        <v>71</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" s="2">
-        <v>44579</v>
+        <v>44578</v>
       </c>
       <c r="B628">
-        <v>189</v>
+        <v>327</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" s="2">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="B629">
-        <v>277</v>
+        <v>189</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" s="2">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B630">
-        <v>339</v>
+        <v>277</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" s="2">
-        <v>44582</v>
+        <v>44581</v>
       </c>
       <c r="B631">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" s="2">
-        <v>44583</v>
+        <v>44582</v>
       </c>
       <c r="B632">
-        <v>432</v>
+        <v>347</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" s="2">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B633">
-        <v>137</v>
+        <v>432</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" s="2">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B634">
-        <v>595</v>
+        <v>137</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" s="2">
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="B635">
-        <v>366</v>
+        <v>595</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" s="2">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="B636">
-        <v>405</v>
+        <v>366</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B637">
-        <v>333</v>
+        <v>405</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B638">
-        <v>391</v>
+        <v>333</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B639">
-        <v>325</v>
+        <v>391</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" s="2">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B640">
-        <v>25</v>
+        <v>325</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B641">
-        <v>148</v>
+        <v>25</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B642">
-        <v>125</v>
+        <v>148</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B643">
-        <v>187</v>
+        <v>125</v>
       </c>
     </row>
     <row r="644" spans="1:2">
       <c r="A644" s="2">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B644">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="645" spans="1:2">
       <c r="A645" s="2">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="B645">
-        <v>156</v>
+        <v>196</v>
       </c>
     </row>
     <row r="646" spans="1:2">
       <c r="A646" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B646">
-        <v>183</v>
+        <v>156</v>
       </c>
     </row>
     <row r="647" spans="1:2">
       <c r="A647" s="2">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="B647">
-        <v>22</v>
+        <v>183</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" s="2">
-        <v>44599</v>
+        <v>44598</v>
       </c>
       <c r="B648">
-        <v>76</v>
+        <v>22</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" s="2">
-        <v>44600</v>
+        <v>44599</v>
       </c>
       <c r="B649">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" s="2">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="B650">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="651" spans="1:2">
       <c r="A651" s="2">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="B651">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B652">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" s="2">
-        <v>44604</v>
+        <v>44603</v>
       </c>
       <c r="B653">
-        <v>88</v>
+        <v>46</v>
       </c>
     </row>
     <row r="654" spans="1:2">
       <c r="A654" s="2">
-        <v>44605</v>
+        <v>44604</v>
       </c>
       <c r="B654">
-        <v>14</v>
+        <v>88</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" s="2">
-        <v>44606</v>
+        <v>44605</v>
       </c>
       <c r="B655">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" s="2">
-        <v>44607</v>
+        <v>44606</v>
       </c>
       <c r="B656">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" s="2">
-        <v>44608</v>
+        <v>44607</v>
       </c>
       <c r="B657">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="658" spans="1:2">
       <c r="A658" s="2">
-        <v>44609</v>
+        <v>44608</v>
       </c>
       <c r="B658">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" s="2">
-        <v>44610</v>
+        <v>44609</v>
       </c>
       <c r="B659">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="660" spans="1:2">
       <c r="A660" s="2">
-        <v>44611</v>
+        <v>44610</v>
       </c>
       <c r="B660">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="661" spans="1:2">
       <c r="A661" s="2">
-        <v>44612</v>
+        <v>44611</v>
       </c>
       <c r="B661">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="662" spans="1:2">
       <c r="A662" s="2">
-        <v>44613</v>
+        <v>44612</v>
       </c>
       <c r="B662">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="663" spans="1:2">
       <c r="A663" s="2">
-        <v>44614</v>
+        <v>44613</v>
       </c>
       <c r="B663">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" s="2">
-        <v>44615</v>
+        <v>44614</v>
       </c>
       <c r="B664">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" s="2">
-        <v>44616</v>
+        <v>44615</v>
       </c>
       <c r="B665">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" s="2">
-        <v>44617</v>
+        <v>44616</v>
       </c>
       <c r="B666">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" s="2">
-        <v>44618</v>
+        <v>44617</v>
       </c>
       <c r="B667">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" s="2">
-        <v>44619</v>
+        <v>44618</v>
       </c>
       <c r="B668">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669" s="2">
-        <v>44620</v>
+        <v>44619</v>
       </c>
       <c r="B669">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:2">
       <c r="A670" s="2">
-        <v>44621</v>
+        <v>44620</v>
       </c>
       <c r="B670">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" s="2">
-        <v>44622</v>
+        <v>44621</v>
       </c>
       <c r="B671">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" s="2">
-        <v>44623</v>
+        <v>44622</v>
       </c>
       <c r="B672">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="673" spans="1:2">
       <c r="A673" s="2">
-        <v>44624</v>
+        <v>44623</v>
       </c>
       <c r="B673">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" s="2">
-        <v>44625</v>
+        <v>44624</v>
       </c>
       <c r="B674">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" s="2">
-        <v>44626</v>
+        <v>44625</v>
       </c>
       <c r="B675">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" s="2">
-        <v>44627</v>
+        <v>44626</v>
       </c>
       <c r="B676">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" s="2">
-        <v>44630</v>
+        <v>44627</v>
       </c>
       <c r="B677">
         <v>3</v>
@@ -5807,143 +5807,143 @@
     </row>
     <row r="678" spans="1:2">
       <c r="A678" s="2">
-        <v>44631</v>
+        <v>44630</v>
       </c>
       <c r="B678">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="679" spans="1:2">
       <c r="A679" s="2">
-        <v>44632</v>
+        <v>44631</v>
       </c>
       <c r="B679">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:2">
       <c r="A680" s="2">
-        <v>44635</v>
+        <v>44632</v>
       </c>
       <c r="B680">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" s="2">
-        <v>44636</v>
+        <v>44635</v>
       </c>
       <c r="B681">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" s="2">
-        <v>44637</v>
+        <v>44636</v>
       </c>
       <c r="B682">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" s="2">
-        <v>44640</v>
+        <v>44637</v>
       </c>
       <c r="B683">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="684" spans="1:2">
       <c r="A684" s="2">
-        <v>44643</v>
+        <v>44640</v>
       </c>
       <c r="B684">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685" spans="1:2">
       <c r="A685" s="2">
-        <v>44644</v>
+        <v>44643</v>
       </c>
       <c r="B685">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="686" spans="1:2">
       <c r="A686" s="2">
-        <v>44646</v>
+        <v>44644</v>
       </c>
       <c r="B686">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:2">
       <c r="A687" s="2">
-        <v>44648</v>
+        <v>44646</v>
       </c>
       <c r="B687">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688" spans="1:2">
       <c r="A688" s="2">
-        <v>44649</v>
+        <v>44648</v>
       </c>
       <c r="B688">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="689" spans="1:2">
       <c r="A689" s="2">
-        <v>44650</v>
+        <v>44649</v>
       </c>
       <c r="B689">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" s="2">
-        <v>44651</v>
+        <v>44650</v>
       </c>
       <c r="B690">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" s="2">
-        <v>44652</v>
+        <v>44651</v>
       </c>
       <c r="B691">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="692" spans="1:2">
       <c r="A692" s="2">
-        <v>44653</v>
+        <v>44652</v>
       </c>
       <c r="B692">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" s="2">
-        <v>44655</v>
+        <v>44653</v>
       </c>
       <c r="B693">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="694" spans="1:2">
       <c r="A694" s="2">
-        <v>44657</v>
+        <v>44655</v>
       </c>
       <c r="B694">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="695" spans="1:2">
       <c r="A695" s="2">
-        <v>44658</v>
+        <v>44657</v>
       </c>
       <c r="B695">
         <v>1</v>
@@ -5951,143 +5951,143 @@
     </row>
     <row r="696" spans="1:2">
       <c r="A696" s="2">
-        <v>44659</v>
+        <v>44658</v>
       </c>
       <c r="B696">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697" spans="1:2">
       <c r="A697" s="2">
-        <v>44660</v>
+        <v>44659</v>
       </c>
       <c r="B697">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="698" spans="1:2">
       <c r="A698" s="2">
-        <v>44662</v>
+        <v>44660</v>
       </c>
       <c r="B698">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" s="2">
-        <v>44664</v>
+        <v>44662</v>
       </c>
       <c r="B699">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" s="2">
-        <v>44667</v>
+        <v>44664</v>
       </c>
       <c r="B700">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" s="2">
-        <v>44668</v>
+        <v>44667</v>
       </c>
       <c r="B701">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" s="2">
-        <v>44669</v>
+        <v>44668</v>
       </c>
       <c r="B702">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:2">
       <c r="A703" s="2">
-        <v>44670</v>
+        <v>44669</v>
       </c>
       <c r="B703">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" s="2">
-        <v>44671</v>
+        <v>44670</v>
       </c>
       <c r="B704">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" s="2">
-        <v>44672</v>
+        <v>44671</v>
       </c>
       <c r="B705">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" s="2">
-        <v>44673</v>
+        <v>44672</v>
       </c>
       <c r="B706">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" s="2">
-        <v>44677</v>
+        <v>44673</v>
       </c>
       <c r="B707">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" s="2">
-        <v>44678</v>
+        <v>44677</v>
       </c>
       <c r="B708">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" s="2">
-        <v>44680</v>
+        <v>44678</v>
       </c>
       <c r="B709">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" s="2">
-        <v>44685</v>
+        <v>44680</v>
       </c>
       <c r="B710">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711" s="2">
-        <v>44692</v>
+        <v>44685</v>
       </c>
       <c r="B711">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="712" spans="1:2">
       <c r="A712" s="2">
-        <v>44694</v>
+        <v>44692</v>
       </c>
       <c r="B712">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:2">
       <c r="A713" s="2">
-        <v>44698</v>
+        <v>44694</v>
       </c>
       <c r="B713">
         <v>1</v>
@@ -6095,7 +6095,7 @@
     </row>
     <row r="714" spans="1:2">
       <c r="A714" s="2">
-        <v>44699</v>
+        <v>44698</v>
       </c>
       <c r="B714">
         <v>1</v>
@@ -6103,7 +6103,7 @@
     </row>
     <row r="715" spans="1:2">
       <c r="A715" s="2">
-        <v>44700</v>
+        <v>44699</v>
       </c>
       <c r="B715">
         <v>1</v>
@@ -6111,7 +6111,7 @@
     </row>
     <row r="716" spans="1:2">
       <c r="A716" s="2">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="B716">
         <v>1</v>
@@ -6119,7 +6119,7 @@
     </row>
     <row r="717" spans="1:2">
       <c r="A717" s="2">
-        <v>44705</v>
+        <v>44701</v>
       </c>
       <c r="B717">
         <v>1</v>
@@ -6127,7 +6127,7 @@
     </row>
     <row r="718" spans="1:2">
       <c r="A718" s="2">
-        <v>44708</v>
+        <v>44705</v>
       </c>
       <c r="B718">
         <v>1</v>
@@ -6135,7 +6135,7 @@
     </row>
     <row r="719" spans="1:2">
       <c r="A719" s="2">
-        <v>44711</v>
+        <v>44708</v>
       </c>
       <c r="B719">
         <v>1</v>
@@ -6143,7 +6143,7 @@
     </row>
     <row r="720" spans="1:2">
       <c r="A720" s="2">
-        <v>44714</v>
+        <v>44711</v>
       </c>
       <c r="B720">
         <v>1</v>
@@ -6151,47 +6151,47 @@
     </row>
     <row r="721" spans="1:2">
       <c r="A721" s="2">
-        <v>44715</v>
+        <v>44714</v>
       </c>
       <c r="B721">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722" spans="1:2">
       <c r="A722" s="2">
-        <v>44716</v>
+        <v>44715</v>
       </c>
       <c r="B722">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="723" spans="1:2">
       <c r="A723" s="2">
-        <v>44719</v>
+        <v>44716</v>
       </c>
       <c r="B723">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="724" spans="1:2">
       <c r="A724" s="2">
-        <v>44722</v>
+        <v>44719</v>
       </c>
       <c r="B724">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="725" spans="1:2">
       <c r="A725" s="2">
-        <v>44723</v>
+        <v>44722</v>
       </c>
       <c r="B725">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726" spans="1:2">
       <c r="A726" s="2">
-        <v>44725</v>
+        <v>44723</v>
       </c>
       <c r="B726">
         <v>2</v>
@@ -6199,47 +6199,47 @@
     </row>
     <row r="727" spans="1:2">
       <c r="A727" s="2">
-        <v>44728</v>
+        <v>44725</v>
       </c>
       <c r="B727">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="728" spans="1:2">
       <c r="A728" s="2">
-        <v>44730</v>
+        <v>44728</v>
       </c>
       <c r="B728">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729" spans="1:2">
       <c r="A729" s="2">
-        <v>44732</v>
+        <v>44730</v>
       </c>
       <c r="B729">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" s="2">
-        <v>44733</v>
+        <v>44732</v>
       </c>
       <c r="B730">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731" spans="1:2">
       <c r="A731" s="2">
-        <v>44734</v>
+        <v>44733</v>
       </c>
       <c r="B731">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="732" spans="1:2">
       <c r="A732" s="2">
-        <v>44735</v>
+        <v>44734</v>
       </c>
       <c r="B732">
         <v>1</v>
@@ -6247,127 +6247,127 @@
     </row>
     <row r="733" spans="1:2">
       <c r="A733" s="2">
-        <v>44737</v>
+        <v>44735</v>
       </c>
       <c r="B733">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:2">
       <c r="A734" s="2">
-        <v>44738</v>
+        <v>44737</v>
       </c>
       <c r="B734">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" s="2">
-        <v>44739</v>
+        <v>44738</v>
       </c>
       <c r="B735">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736" spans="1:2">
       <c r="A736" s="2">
-        <v>44740</v>
+        <v>44739</v>
       </c>
       <c r="B736">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" s="2">
-        <v>44741</v>
+        <v>44740</v>
       </c>
       <c r="B737">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" s="2">
-        <v>44742</v>
+        <v>44741</v>
       </c>
       <c r="B738">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" s="2">
-        <v>44743</v>
+        <v>44742</v>
       </c>
       <c r="B739">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" s="2">
-        <v>44744</v>
+        <v>44743</v>
       </c>
       <c r="B740">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" s="2">
-        <v>44745</v>
+        <v>44744</v>
       </c>
       <c r="B741">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" s="2">
-        <v>44746</v>
+        <v>44745</v>
       </c>
       <c r="B742">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" s="2">
-        <v>44747</v>
+        <v>44746</v>
       </c>
       <c r="B743">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" s="2">
-        <v>44748</v>
+        <v>44747</v>
       </c>
       <c r="B744">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" s="2">
-        <v>44749</v>
+        <v>44748</v>
       </c>
       <c r="B745">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" s="2">
-        <v>44750</v>
+        <v>44749</v>
       </c>
       <c r="B746">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" s="2">
-        <v>44751</v>
+        <v>44750</v>
       </c>
       <c r="B747">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="748" spans="1:2">
       <c r="A748" s="2">
-        <v>44752</v>
+        <v>44751</v>
       </c>
       <c r="B748">
         <v>10</v>
@@ -6375,407 +6375,407 @@
     </row>
     <row r="749" spans="1:2">
       <c r="A749" s="2">
-        <v>44753</v>
+        <v>44752</v>
       </c>
       <c r="B749">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="750" spans="1:2">
       <c r="A750" s="2">
-        <v>44754</v>
+        <v>44753</v>
       </c>
       <c r="B750">
-        <v>69</v>
+        <v>40</v>
       </c>
     </row>
     <row r="751" spans="1:2">
       <c r="A751" s="2">
-        <v>44755</v>
+        <v>44754</v>
       </c>
       <c r="B751">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="752" spans="1:2">
       <c r="A752" s="2">
-        <v>44756</v>
+        <v>44755</v>
       </c>
       <c r="B752">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="753" spans="1:2">
       <c r="A753" s="2">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="B753">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="754" spans="1:2">
       <c r="A754" s="2">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="B754">
-        <v>102</v>
+        <v>67</v>
       </c>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" s="2">
-        <v>44759</v>
+        <v>44758</v>
       </c>
       <c r="B755">
-        <v>9</v>
+        <v>102</v>
       </c>
     </row>
     <row r="756" spans="1:2">
       <c r="A756" s="2">
-        <v>44760</v>
+        <v>44759</v>
       </c>
       <c r="B756">
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="757" spans="1:2">
       <c r="A757" s="2">
-        <v>44761</v>
+        <v>44760</v>
       </c>
       <c r="B757">
-        <v>58</v>
+        <v>88</v>
       </c>
     </row>
     <row r="758" spans="1:2">
       <c r="A758" s="2">
-        <v>44762</v>
+        <v>44761</v>
       </c>
       <c r="B758">
-        <v>115</v>
+        <v>58</v>
       </c>
     </row>
     <row r="759" spans="1:2">
       <c r="A759" s="2">
-        <v>44763</v>
+        <v>44762</v>
       </c>
       <c r="B759">
-        <v>169</v>
+        <v>115</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" s="2">
-        <v>44764</v>
+        <v>44763</v>
       </c>
       <c r="B760">
-        <v>126</v>
+        <v>169</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" s="2">
-        <v>44765</v>
+        <v>44764</v>
       </c>
       <c r="B761">
-        <v>143</v>
+        <v>126</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" s="2">
-        <v>44766</v>
+        <v>44765</v>
       </c>
       <c r="B762">
-        <v>42</v>
+        <v>143</v>
       </c>
     </row>
     <row r="763" spans="1:2">
       <c r="A763" s="2">
-        <v>44767</v>
+        <v>44766</v>
       </c>
       <c r="B763">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="764" spans="1:2">
       <c r="A764" s="2">
-        <v>44768</v>
+        <v>44767</v>
       </c>
       <c r="B764">
-        <v>175</v>
+        <v>72</v>
       </c>
     </row>
     <row r="765" spans="1:2">
       <c r="A765" s="2">
-        <v>44769</v>
+        <v>44768</v>
       </c>
       <c r="B765">
-        <v>161</v>
+        <v>175</v>
       </c>
     </row>
     <row r="766" spans="1:2">
       <c r="A766" s="2">
-        <v>44770</v>
+        <v>44769</v>
       </c>
       <c r="B766">
-        <v>74</v>
+        <v>161</v>
       </c>
     </row>
     <row r="767" spans="1:2">
       <c r="A767" s="2">
-        <v>44771</v>
+        <v>44770</v>
       </c>
       <c r="B767">
-        <v>48</v>
+        <v>74</v>
       </c>
     </row>
     <row r="768" spans="1:2">
       <c r="A768" s="2">
-        <v>44772</v>
+        <v>44771</v>
       </c>
       <c r="B768">
-        <v>86</v>
+        <v>48</v>
       </c>
     </row>
     <row r="769" spans="1:2">
       <c r="A769" s="2">
-        <v>44773</v>
+        <v>44772</v>
       </c>
       <c r="B769">
-        <v>34</v>
+        <v>86</v>
       </c>
     </row>
     <row r="770" spans="1:2">
       <c r="A770" s="2">
-        <v>44774</v>
+        <v>44773</v>
       </c>
       <c r="B770">
-        <v>98</v>
+        <v>34</v>
       </c>
     </row>
     <row r="771" spans="1:2">
       <c r="A771" s="2">
-        <v>44775</v>
+        <v>44774</v>
       </c>
       <c r="B771">
-        <v>47</v>
+        <v>98</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" s="2">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="B772">
-        <v>134</v>
+        <v>47</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" s="2">
-        <v>44777</v>
+        <v>44776</v>
       </c>
       <c r="B773">
-        <v>64</v>
+        <v>134</v>
       </c>
     </row>
     <row r="774" spans="1:2">
       <c r="A774" s="2">
-        <v>44778</v>
+        <v>44777</v>
       </c>
       <c r="B774">
-        <v>138</v>
+        <v>64</v>
       </c>
     </row>
     <row r="775" spans="1:2">
       <c r="A775" s="2">
-        <v>44779</v>
+        <v>44778</v>
       </c>
       <c r="B775">
-        <v>18</v>
+        <v>138</v>
       </c>
     </row>
     <row r="776" spans="1:2">
       <c r="A776" s="2">
-        <v>44780</v>
+        <v>44779</v>
       </c>
       <c r="B776">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="777" spans="1:2">
       <c r="A777" s="2">
-        <v>44781</v>
+        <v>44780</v>
       </c>
       <c r="B777">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="778" spans="1:2">
       <c r="A778" s="2">
-        <v>44782</v>
+        <v>44781</v>
       </c>
       <c r="B778">
-        <v>162</v>
+        <v>48</v>
       </c>
     </row>
     <row r="779" spans="1:2">
       <c r="A779" s="2">
-        <v>44783</v>
+        <v>44782</v>
       </c>
       <c r="B779">
-        <v>132</v>
+        <v>162</v>
       </c>
     </row>
     <row r="780" spans="1:2">
       <c r="A780" s="2">
-        <v>44784</v>
+        <v>44783</v>
       </c>
       <c r="B780">
-        <v>45</v>
+        <v>132</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781" s="2">
-        <v>44785</v>
+        <v>44784</v>
       </c>
       <c r="B781">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" s="2">
-        <v>44786</v>
+        <v>44785</v>
       </c>
       <c r="B782">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" s="2">
-        <v>44787</v>
+        <v>44786</v>
       </c>
       <c r="B783">
-        <v>3</v>
+        <v>41</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" s="2">
-        <v>44788</v>
+        <v>44787</v>
       </c>
       <c r="B784">
-        <v>48</v>
+        <v>3</v>
       </c>
     </row>
     <row r="785" spans="1:2">
       <c r="A785" s="2">
-        <v>44789</v>
+        <v>44788</v>
       </c>
       <c r="B785">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786" s="2">
-        <v>44790</v>
+        <v>44789</v>
       </c>
       <c r="B786">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="787" spans="1:2">
       <c r="A787" s="2">
-        <v>44791</v>
+        <v>44790</v>
       </c>
       <c r="B787">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" s="2">
-        <v>44792</v>
+        <v>44791</v>
       </c>
       <c r="B788">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" s="2">
-        <v>44793</v>
+        <v>44792</v>
       </c>
       <c r="B789">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" s="2">
-        <v>44794</v>
+        <v>44793</v>
       </c>
       <c r="B790">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" s="2">
-        <v>44795</v>
+        <v>44794</v>
       </c>
       <c r="B791">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" s="2">
-        <v>44796</v>
+        <v>44795</v>
       </c>
       <c r="B792">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" s="2">
-        <v>44797</v>
+        <v>44796</v>
       </c>
       <c r="B793">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" s="2">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="B794">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" s="2">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="B795">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" s="2">
-        <v>44800</v>
+        <v>44799</v>
       </c>
       <c r="B796">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" s="2">
-        <v>44801</v>
+        <v>44800</v>
       </c>
       <c r="B797">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" s="2">
-        <v>44802</v>
+        <v>44801</v>
       </c>
       <c r="B798">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799" spans="1:2">
       <c r="A799" s="2">
-        <v>44803</v>
+        <v>44802</v>
       </c>
       <c r="B799">
         <v>3</v>
@@ -6783,55 +6783,55 @@
     </row>
     <row r="800" spans="1:2">
       <c r="A800" s="2">
-        <v>44804</v>
+        <v>44803</v>
       </c>
       <c r="B800">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="801" spans="1:2">
       <c r="A801" s="2">
-        <v>44805</v>
+        <v>44804</v>
       </c>
       <c r="B801">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="802" spans="1:2">
       <c r="A802" s="2">
-        <v>44806</v>
+        <v>44805</v>
       </c>
       <c r="B802">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="803" spans="1:2">
       <c r="A803" s="2">
-        <v>44807</v>
+        <v>44806</v>
       </c>
       <c r="B803">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="804" spans="1:2">
       <c r="A804" s="2">
-        <v>44809</v>
+        <v>44807</v>
       </c>
       <c r="B804">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" s="2">
-        <v>44810</v>
+        <v>44809</v>
       </c>
       <c r="B805">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" s="2">
-        <v>44811</v>
+        <v>44810</v>
       </c>
       <c r="B806">
         <v>8</v>
@@ -6839,55 +6839,55 @@
     </row>
     <row r="807" spans="1:2">
       <c r="A807" s="2">
-        <v>44812</v>
+        <v>44811</v>
       </c>
       <c r="B807">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" s="2">
-        <v>44814</v>
+        <v>44812</v>
       </c>
       <c r="B808">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="809" spans="1:2">
       <c r="A809" s="2">
-        <v>44816</v>
+        <v>44814</v>
       </c>
       <c r="B809">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="810" spans="1:2">
       <c r="A810" s="2">
-        <v>44817</v>
+        <v>44816</v>
       </c>
       <c r="B810">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="811" spans="1:2">
       <c r="A811" s="2">
-        <v>44818</v>
+        <v>44817</v>
       </c>
       <c r="B811">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="812" spans="1:2">
       <c r="A812" s="2">
-        <v>44824</v>
+        <v>44818</v>
       </c>
       <c r="B812">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="813" spans="1:2">
       <c r="A813" s="2">
-        <v>44825</v>
+        <v>44824</v>
       </c>
       <c r="B813">
         <v>2</v>
@@ -6895,23 +6895,23 @@
     </row>
     <row r="814" spans="1:2">
       <c r="A814" s="2">
-        <v>44826</v>
+        <v>44825</v>
       </c>
       <c r="B814">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="815" spans="1:2">
       <c r="A815" s="2">
-        <v>44827</v>
+        <v>44826</v>
       </c>
       <c r="B815">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="816" spans="1:2">
       <c r="A816" s="2">
-        <v>44830</v>
+        <v>44827</v>
       </c>
       <c r="B816">
         <v>2</v>
@@ -6919,7 +6919,7 @@
     </row>
     <row r="817" spans="1:2">
       <c r="A817" s="2">
-        <v>44831</v>
+        <v>44830</v>
       </c>
       <c r="B817">
         <v>2</v>
@@ -6927,31 +6927,31 @@
     </row>
     <row r="818" spans="1:2">
       <c r="A818" s="2">
-        <v>44834</v>
+        <v>44831</v>
       </c>
       <c r="B818">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" s="2">
-        <v>44835</v>
+        <v>44834</v>
       </c>
       <c r="B819">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="820" spans="1:2">
       <c r="A820" s="2">
-        <v>44841</v>
+        <v>44835</v>
       </c>
       <c r="B820">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="821" spans="1:2">
       <c r="A821" s="2">
-        <v>44847</v>
+        <v>44841</v>
       </c>
       <c r="B821">
         <v>1</v>
@@ -6959,7 +6959,7 @@
     </row>
     <row r="822" spans="1:2">
       <c r="A822" s="2">
-        <v>44854</v>
+        <v>44847</v>
       </c>
       <c r="B822">
         <v>1</v>
@@ -6967,7 +6967,7 @@
     </row>
     <row r="823" spans="1:2">
       <c r="A823" s="2">
-        <v>44856</v>
+        <v>44854</v>
       </c>
       <c r="B823">
         <v>1</v>
@@ -6975,7 +6975,7 @@
     </row>
     <row r="824" spans="1:2">
       <c r="A824" s="2">
-        <v>44857</v>
+        <v>44856</v>
       </c>
       <c r="B824">
         <v>1</v>
@@ -6983,7 +6983,7 @@
     </row>
     <row r="825" spans="1:2">
       <c r="A825" s="2">
-        <v>44862</v>
+        <v>44857</v>
       </c>
       <c r="B825">
         <v>1</v>
@@ -6991,7 +6991,7 @@
     </row>
     <row r="826" spans="1:2">
       <c r="A826" s="2">
-        <v>44863</v>
+        <v>44862</v>
       </c>
       <c r="B826">
         <v>1</v>
@@ -6999,7 +6999,7 @@
     </row>
     <row r="827" spans="1:2">
       <c r="A827" s="2">
-        <v>44869</v>
+        <v>44863</v>
       </c>
       <c r="B827">
         <v>1</v>
@@ -7007,18 +7007,90 @@
     </row>
     <row r="828" spans="1:2">
       <c r="A828" s="2">
-        <v>44870</v>
+        <v>44869</v>
       </c>
       <c r="B828">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="829" spans="1:2">
       <c r="A829" s="2">
+        <v>44870</v>
+      </c>
+      <c r="B829">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2">
+      <c r="A830" s="2">
         <v>44872</v>
       </c>
-      <c r="B829">
-        <v>1</v>
+      <c r="B830">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2">
+      <c r="A831" s="2">
+        <v>44873</v>
+      </c>
+      <c r="B831">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2">
+      <c r="A832" s="2">
+        <v>44874</v>
+      </c>
+      <c r="B832">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2">
+      <c r="A833" s="2">
+        <v>44875</v>
+      </c>
+      <c r="B833">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2">
+      <c r="A834" s="2">
+        <v>44876</v>
+      </c>
+      <c r="B834">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2">
+      <c r="A835" s="2">
+        <v>44877</v>
+      </c>
+      <c r="B835">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2">
+      <c r="A836" s="2">
+        <v>44878</v>
+      </c>
+      <c r="B836">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2">
+      <c r="A837" s="2">
+        <v>44879</v>
+      </c>
+      <c r="B837">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2">
+      <c r="A838" s="2">
+        <v>44880</v>
+      </c>
+      <c r="B838">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B838"/>
+  <dimension ref="A1:B844"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4986,7 +4986,7 @@
         <v>44521</v>
       </c>
       <c r="B575">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -7018,7 +7018,7 @@
         <v>44870</v>
       </c>
       <c r="B829">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="830" spans="1:2">
@@ -7082,7 +7082,7 @@
         <v>44879</v>
       </c>
       <c r="B837">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="838" spans="1:2">
@@ -7090,7 +7090,55 @@
         <v>44880</v>
       </c>
       <c r="B838">
-        <v>7</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2">
+      <c r="A839" s="2">
+        <v>44881</v>
+      </c>
+      <c r="B839">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2">
+      <c r="A840" s="2">
+        <v>44882</v>
+      </c>
+      <c r="B840">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2">
+      <c r="A841" s="2">
+        <v>44883</v>
+      </c>
+      <c r="B841">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2">
+      <c r="A842" s="2">
+        <v>44884</v>
+      </c>
+      <c r="B842">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2">
+      <c r="A843" s="2">
+        <v>44886</v>
+      </c>
+      <c r="B843">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2">
+      <c r="A844" s="2">
+        <v>44887</v>
+      </c>
+      <c r="B844">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B844"/>
+  <dimension ref="A1:B850"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7090,7 +7090,7 @@
         <v>44880</v>
       </c>
       <c r="B838">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -7098,7 +7098,7 @@
         <v>44881</v>
       </c>
       <c r="B839">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -7106,7 +7106,7 @@
         <v>44882</v>
       </c>
       <c r="B840">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="841" spans="1:2">
@@ -7114,7 +7114,7 @@
         <v>44883</v>
       </c>
       <c r="B841">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -7122,23 +7122,71 @@
         <v>44884</v>
       </c>
       <c r="B842">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" s="2">
-        <v>44886</v>
+        <v>44885</v>
       </c>
       <c r="B843">
-        <v>66</v>
+        <v>2</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" s="2">
+        <v>44886</v>
+      </c>
+      <c r="B844">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2">
+      <c r="A845" s="2">
         <v>44887</v>
       </c>
-      <c r="B844">
-        <v>44</v>
+      <c r="B845">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2">
+      <c r="A846" s="2">
+        <v>44888</v>
+      </c>
+      <c r="B846">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2">
+      <c r="A847" s="2">
+        <v>44889</v>
+      </c>
+      <c r="B847">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2">
+      <c r="A848" s="2">
+        <v>44890</v>
+      </c>
+      <c r="B848">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2">
+      <c r="A849" s="2">
+        <v>44891</v>
+      </c>
+      <c r="B849">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2">
+      <c r="A850" s="2">
+        <v>44892</v>
+      </c>
+      <c r="B850">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C851"/>
+  <dimension ref="A1:C852"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9696,10 +9696,10 @@
         <v>44890</v>
       </c>
       <c r="B848">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="C848">
-        <v>108.1428571428571</v>
+        <v>111.8571428571429</v>
       </c>
     </row>
     <row r="849" spans="1:3">
@@ -9707,10 +9707,10 @@
         <v>44891</v>
       </c>
       <c r="B849">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="C849">
-        <v>109</v>
+        <v>116.7142857142857</v>
       </c>
     </row>
     <row r="850" spans="1:3">
@@ -9721,7 +9721,7 @@
         <v>4</v>
       </c>
       <c r="C850">
-        <v>109.2857142857143</v>
+        <v>117</v>
       </c>
     </row>
     <row r="851" spans="1:3">
@@ -9729,10 +9729,21 @@
         <v>44893</v>
       </c>
       <c r="B851">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C851">
-        <v>104</v>
+        <v>126.5714285714286</v>
+      </c>
+    </row>
+    <row r="852" spans="1:3">
+      <c r="A852" s="2">
+        <v>44894</v>
+      </c>
+      <c r="B852">
+        <v>169</v>
+      </c>
+      <c r="C852">
+        <v>139.4285714285714</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C852"/>
+  <dimension ref="A1:C856"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9619,10 +9619,10 @@
         <v>44883</v>
       </c>
       <c r="B841">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C841">
-        <v>11.85714285714286</v>
+        <v>12</v>
       </c>
     </row>
     <row r="842" spans="1:3">
@@ -9633,7 +9633,7 @@
         <v>49</v>
       </c>
       <c r="C842">
-        <v>18.57142857142857</v>
+        <v>18.71428571428572</v>
       </c>
     </row>
     <row r="843" spans="1:3">
@@ -9644,7 +9644,7 @@
         <v>2</v>
       </c>
       <c r="C843">
-        <v>18.57142857142857</v>
+        <v>18.71428571428572</v>
       </c>
     </row>
     <row r="844" spans="1:3">
@@ -9652,10 +9652,10 @@
         <v>44886</v>
       </c>
       <c r="B844">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C844">
-        <v>31</v>
+        <v>31.28571428571428</v>
       </c>
     </row>
     <row r="845" spans="1:3">
@@ -9663,10 +9663,10 @@
         <v>44887</v>
       </c>
       <c r="B845">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C845">
-        <v>40.14285714285715</v>
+        <v>40.57142857142857</v>
       </c>
     </row>
     <row r="846" spans="1:3">
@@ -9677,7 +9677,7 @@
         <v>192</v>
       </c>
       <c r="C846">
-        <v>65.71428571428571</v>
+        <v>66.14285714285714</v>
       </c>
     </row>
     <row r="847" spans="1:3">
@@ -9685,10 +9685,10 @@
         <v>44889</v>
       </c>
       <c r="B847">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C847">
-        <v>95.57142857142857</v>
+        <v>96.28571428571429</v>
       </c>
     </row>
     <row r="848" spans="1:3">
@@ -9696,10 +9696,10 @@
         <v>44890</v>
       </c>
       <c r="B848">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="C848">
-        <v>111.8571428571429</v>
+        <v>118.2857142857143</v>
       </c>
     </row>
     <row r="849" spans="1:3">
@@ -9707,10 +9707,10 @@
         <v>44891</v>
       </c>
       <c r="B849">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="C849">
-        <v>116.7142857142857</v>
+        <v>130.1428571428571</v>
       </c>
     </row>
     <row r="850" spans="1:3">
@@ -9718,10 +9718,10 @@
         <v>44892</v>
       </c>
       <c r="B850">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C850">
-        <v>117</v>
+        <v>130.8571428571429</v>
       </c>
     </row>
     <row r="851" spans="1:3">
@@ -9729,10 +9729,10 @@
         <v>44893</v>
       </c>
       <c r="B851">
-        <v>161</v>
+        <v>251</v>
       </c>
       <c r="C851">
-        <v>126.5714285714286</v>
+        <v>153.1428571428571</v>
       </c>
     </row>
     <row r="852" spans="1:3">
@@ -9740,10 +9740,54 @@
         <v>44894</v>
       </c>
       <c r="B852">
-        <v>169</v>
+        <v>244</v>
       </c>
       <c r="C852">
-        <v>139.4285714285714</v>
+        <v>176.5714285714286</v>
+      </c>
+    </row>
+    <row r="853" spans="1:3">
+      <c r="A853" s="2">
+        <v>44895</v>
+      </c>
+      <c r="B853">
+        <v>247</v>
+      </c>
+      <c r="C853">
+        <v>184.4285714285714</v>
+      </c>
+    </row>
+    <row r="854" spans="1:3">
+      <c r="A854" s="2">
+        <v>44896</v>
+      </c>
+      <c r="B854">
+        <v>215</v>
+      </c>
+      <c r="C854">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="855" spans="1:3">
+      <c r="A855" s="2">
+        <v>44897</v>
+      </c>
+      <c r="B855">
+        <v>131</v>
+      </c>
+      <c r="C855">
+        <v>175.2857142857143</v>
+      </c>
+    </row>
+    <row r="856" spans="1:3">
+      <c r="A856" s="2">
+        <v>44898</v>
+      </c>
+      <c r="B856">
+        <v>45</v>
+      </c>
+      <c r="C856">
+        <v>162.8571428571429</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C856"/>
+  <dimension ref="A1:C858"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9553,10 +9553,10 @@
         <v>44877</v>
       </c>
       <c r="B835">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C835">
-        <v>2.571428571428572</v>
+        <v>2.714285714285714</v>
       </c>
     </row>
     <row r="836" spans="1:3">
@@ -9567,7 +9567,7 @@
         <v>2</v>
       </c>
       <c r="C836">
-        <v>2.571428571428572</v>
+        <v>2.714285714285714</v>
       </c>
     </row>
     <row r="837" spans="1:3">
@@ -9578,7 +9578,7 @@
         <v>7</v>
       </c>
       <c r="C837">
-        <v>3.428571428571428</v>
+        <v>3.571428571428572</v>
       </c>
     </row>
     <row r="838" spans="1:3">
@@ -9589,7 +9589,7 @@
         <v>15</v>
       </c>
       <c r="C838">
-        <v>5.428571428571429</v>
+        <v>5.571428571428571</v>
       </c>
     </row>
     <row r="839" spans="1:3">
@@ -9600,7 +9600,7 @@
         <v>13</v>
       </c>
       <c r="C839">
-        <v>7</v>
+        <v>7.142857142857143</v>
       </c>
     </row>
     <row r="840" spans="1:3">
@@ -9611,7 +9611,7 @@
         <v>14</v>
       </c>
       <c r="C840">
-        <v>8.142857142857142</v>
+        <v>8.285714285714286</v>
       </c>
     </row>
     <row r="841" spans="1:3">
@@ -9622,7 +9622,7 @@
         <v>31</v>
       </c>
       <c r="C841">
-        <v>12</v>
+        <v>12.14285714285714</v>
       </c>
     </row>
     <row r="842" spans="1:3">
@@ -9696,10 +9696,10 @@
         <v>44890</v>
       </c>
       <c r="B848">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C848">
-        <v>118.2857142857143</v>
+        <v>118.4285714285714</v>
       </c>
     </row>
     <row r="849" spans="1:3">
@@ -9710,7 +9710,7 @@
         <v>132</v>
       </c>
       <c r="C849">
-        <v>130.1428571428571</v>
+        <v>130.2857142857143</v>
       </c>
     </row>
     <row r="850" spans="1:3">
@@ -9718,10 +9718,10 @@
         <v>44892</v>
       </c>
       <c r="B850">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C850">
-        <v>130.8571428571429</v>
+        <v>131.1428571428571</v>
       </c>
     </row>
     <row r="851" spans="1:3">
@@ -9729,10 +9729,10 @@
         <v>44893</v>
       </c>
       <c r="B851">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="C851">
-        <v>153.1428571428571</v>
+        <v>155.1428571428571</v>
       </c>
     </row>
     <row r="852" spans="1:3">
@@ -9740,10 +9740,10 @@
         <v>44894</v>
       </c>
       <c r="B852">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="C852">
-        <v>176.5714285714286</v>
+        <v>180.7142857142857</v>
       </c>
     </row>
     <row r="853" spans="1:3">
@@ -9751,10 +9751,10 @@
         <v>44895</v>
       </c>
       <c r="B853">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C853">
-        <v>184.4285714285714</v>
+        <v>189.1428571428571</v>
       </c>
     </row>
     <row r="854" spans="1:3">
@@ -9762,10 +9762,10 @@
         <v>44896</v>
       </c>
       <c r="B854">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C854">
-        <v>183</v>
+        <v>188.1428571428571</v>
       </c>
     </row>
     <row r="855" spans="1:3">
@@ -9773,10 +9773,10 @@
         <v>44897</v>
       </c>
       <c r="B855">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C855">
-        <v>175.2857142857143</v>
+        <v>182.1428571428571</v>
       </c>
     </row>
     <row r="856" spans="1:3">
@@ -9784,10 +9784,32 @@
         <v>44898</v>
       </c>
       <c r="B856">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C856">
-        <v>162.8571428571429</v>
+        <v>169.8571428571429</v>
+      </c>
+    </row>
+    <row r="857" spans="1:3">
+      <c r="A857" s="2">
+        <v>44899</v>
+      </c>
+      <c r="B857">
+        <v>3</v>
+      </c>
+      <c r="C857">
+        <v>169.1428571428571</v>
+      </c>
+    </row>
+    <row r="858" spans="1:3">
+      <c r="A858" s="2">
+        <v>44900</v>
+      </c>
+      <c r="B858">
+        <v>27</v>
+      </c>
+      <c r="C858">
+        <v>135.4285714285714</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C858"/>
+  <dimension ref="A1:C863"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9454,10 +9454,10 @@
         <v>44862</v>
       </c>
       <c r="B826">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C826">
-        <v>1.285714285714286</v>
+        <v>1.428571428571429</v>
       </c>
     </row>
     <row r="827" spans="1:3">
@@ -9468,15 +9468,15 @@
         <v>1</v>
       </c>
       <c r="C827">
-        <v>1</v>
+        <v>1.142857142857143</v>
       </c>
     </row>
     <row r="828" spans="1:3">
       <c r="A828" s="2">
-        <v>44869</v>
+        <v>44868</v>
       </c>
       <c r="B828">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C828">
         <v>1.142857142857143</v>
@@ -9484,7 +9484,7 @@
     </row>
     <row r="829" spans="1:3">
       <c r="A829" s="2">
-        <v>44870</v>
+        <v>44869</v>
       </c>
       <c r="B829">
         <v>2</v>
@@ -9495,32 +9495,32 @@
     </row>
     <row r="830" spans="1:3">
       <c r="A830" s="2">
-        <v>44872</v>
+        <v>44870</v>
       </c>
       <c r="B830">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C830">
-        <v>1.285714285714286</v>
+        <v>1.428571428571429</v>
       </c>
     </row>
     <row r="831" spans="1:3">
       <c r="A831" s="2">
-        <v>44873</v>
+        <v>44872</v>
       </c>
       <c r="B831">
         <v>1</v>
       </c>
       <c r="C831">
-        <v>1.285714285714286</v>
+        <v>1.428571428571429</v>
       </c>
     </row>
     <row r="832" spans="1:3">
       <c r="A832" s="2">
-        <v>44874</v>
+        <v>44873</v>
       </c>
       <c r="B832">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C832">
         <v>1.428571428571429</v>
@@ -9528,43 +9528,43 @@
     </row>
     <row r="833" spans="1:3">
       <c r="A833" s="2">
-        <v>44875</v>
+        <v>44874</v>
       </c>
       <c r="B833">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C833">
-        <v>2.142857142857143</v>
+        <v>1.428571428571429</v>
       </c>
     </row>
     <row r="834" spans="1:3">
       <c r="A834" s="2">
-        <v>44876</v>
+        <v>44875</v>
       </c>
       <c r="B834">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C834">
-        <v>2.571428571428572</v>
+        <v>2.142857142857143</v>
       </c>
     </row>
     <row r="835" spans="1:3">
       <c r="A835" s="2">
-        <v>44877</v>
+        <v>44876</v>
       </c>
       <c r="B835">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C835">
-        <v>2.714285714285714</v>
+        <v>2.571428571428572</v>
       </c>
     </row>
     <row r="836" spans="1:3">
       <c r="A836" s="2">
-        <v>44878</v>
+        <v>44877</v>
       </c>
       <c r="B836">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C836">
         <v>2.714285714285714</v>
@@ -9572,76 +9572,76 @@
     </row>
     <row r="837" spans="1:3">
       <c r="A837" s="2">
-        <v>44879</v>
+        <v>44878</v>
       </c>
       <c r="B837">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C837">
-        <v>3.571428571428572</v>
+        <v>2.714285714285714</v>
       </c>
     </row>
     <row r="838" spans="1:3">
       <c r="A838" s="2">
-        <v>44880</v>
+        <v>44879</v>
       </c>
       <c r="B838">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C838">
-        <v>5.571428571428571</v>
+        <v>3.571428571428572</v>
       </c>
     </row>
     <row r="839" spans="1:3">
       <c r="A839" s="2">
-        <v>44881</v>
+        <v>44880</v>
       </c>
       <c r="B839">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C839">
-        <v>7.142857142857143</v>
+        <v>5.571428571428571</v>
       </c>
     </row>
     <row r="840" spans="1:3">
       <c r="A840" s="2">
-        <v>44882</v>
+        <v>44881</v>
       </c>
       <c r="B840">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C840">
-        <v>8.285714285714286</v>
+        <v>7.142857142857143</v>
       </c>
     </row>
     <row r="841" spans="1:3">
       <c r="A841" s="2">
-        <v>44883</v>
+        <v>44882</v>
       </c>
       <c r="B841">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C841">
-        <v>12.14285714285714</v>
+        <v>8.285714285714286</v>
       </c>
     </row>
     <row r="842" spans="1:3">
       <c r="A842" s="2">
-        <v>44884</v>
+        <v>44883</v>
       </c>
       <c r="B842">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C842">
-        <v>18.71428571428572</v>
+        <v>12.14285714285714</v>
       </c>
     </row>
     <row r="843" spans="1:3">
       <c r="A843" s="2">
-        <v>44885</v>
+        <v>44884</v>
       </c>
       <c r="B843">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="C843">
         <v>18.71428571428572</v>
@@ -9649,167 +9649,222 @@
     </row>
     <row r="844" spans="1:3">
       <c r="A844" s="2">
-        <v>44886</v>
+        <v>44885</v>
       </c>
       <c r="B844">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="C844">
-        <v>31.28571428571428</v>
+        <v>18.71428571428572</v>
       </c>
     </row>
     <row r="845" spans="1:3">
       <c r="A845" s="2">
-        <v>44887</v>
+        <v>44886</v>
       </c>
       <c r="B845">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C845">
-        <v>40.57142857142857</v>
+        <v>31.28571428571428</v>
       </c>
     </row>
     <row r="846" spans="1:3">
       <c r="A846" s="2">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="B846">
-        <v>192</v>
+        <v>80</v>
       </c>
       <c r="C846">
-        <v>66.14285714285714</v>
+        <v>40.57142857142857</v>
       </c>
     </row>
     <row r="847" spans="1:3">
       <c r="A847" s="2">
-        <v>44889</v>
+        <v>44888</v>
       </c>
       <c r="B847">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="C847">
-        <v>96.28571428571429</v>
+        <v>66.28571428571429</v>
       </c>
     </row>
     <row r="848" spans="1:3">
       <c r="A848" s="2">
-        <v>44890</v>
+        <v>44889</v>
       </c>
       <c r="B848">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="C848">
-        <v>118.4285714285714</v>
+        <v>96.42857142857143</v>
       </c>
     </row>
     <row r="849" spans="1:3">
       <c r="A849" s="2">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="B849">
-        <v>132</v>
+        <v>187</v>
       </c>
       <c r="C849">
-        <v>130.2857142857143</v>
+        <v>118.7142857142857</v>
       </c>
     </row>
     <row r="850" spans="1:3">
       <c r="A850" s="2">
-        <v>44892</v>
+        <v>44891</v>
       </c>
       <c r="B850">
-        <v>8</v>
+        <v>132</v>
       </c>
       <c r="C850">
-        <v>131.1428571428571</v>
+        <v>130.5714285714286</v>
       </c>
     </row>
     <row r="851" spans="1:3">
       <c r="A851" s="2">
-        <v>44893</v>
+        <v>44892</v>
       </c>
       <c r="B851">
-        <v>263</v>
+        <v>8</v>
       </c>
       <c r="C851">
-        <v>155.1428571428571</v>
+        <v>131.4285714285714</v>
       </c>
     </row>
     <row r="852" spans="1:3">
       <c r="A852" s="2">
-        <v>44894</v>
+        <v>44893</v>
       </c>
       <c r="B852">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C852">
-        <v>180.7142857142857</v>
+        <v>157.1428571428571</v>
       </c>
     </row>
     <row r="853" spans="1:3">
       <c r="A853" s="2">
-        <v>44895</v>
+        <v>44894</v>
       </c>
       <c r="B853">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C853">
-        <v>189.1428571428571</v>
+        <v>183.4285714285714</v>
       </c>
     </row>
     <row r="854" spans="1:3">
       <c r="A854" s="2">
-        <v>44896</v>
+        <v>44895</v>
       </c>
       <c r="B854">
-        <v>218</v>
+        <v>257</v>
       </c>
       <c r="C854">
-        <v>188.1428571428571</v>
+        <v>192.5714285714286</v>
       </c>
     </row>
     <row r="855" spans="1:3">
       <c r="A855" s="2">
-        <v>44897</v>
+        <v>44896</v>
       </c>
       <c r="B855">
-        <v>144</v>
+        <v>220</v>
       </c>
       <c r="C855">
-        <v>182.1428571428571</v>
+        <v>191.8571428571429</v>
       </c>
     </row>
     <row r="856" spans="1:3">
       <c r="A856" s="2">
-        <v>44898</v>
+        <v>44897</v>
       </c>
       <c r="B856">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c r="C856">
-        <v>169.8571428571429</v>
+        <v>187.5714285714286</v>
       </c>
     </row>
     <row r="857" spans="1:3">
       <c r="A857" s="2">
-        <v>44899</v>
+        <v>44898</v>
       </c>
       <c r="B857">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="C857">
-        <v>169.1428571428571</v>
+        <v>179.7142857142857</v>
       </c>
     </row>
     <row r="858" spans="1:3">
       <c r="A858" s="2">
+        <v>44899</v>
+      </c>
+      <c r="B858">
+        <v>12</v>
+      </c>
+      <c r="C858">
+        <v>180.2857142857143</v>
+      </c>
+    </row>
+    <row r="859" spans="1:3">
+      <c r="A859" s="2">
         <v>44900</v>
       </c>
-      <c r="B858">
-        <v>27</v>
-      </c>
-      <c r="C858">
-        <v>135.4285714285714</v>
+      <c r="B859">
+        <v>64</v>
+      </c>
+      <c r="C859">
+        <v>150.1428571428571</v>
+      </c>
+    </row>
+    <row r="860" spans="1:3">
+      <c r="A860" s="2">
+        <v>44901</v>
+      </c>
+      <c r="B860">
+        <v>51</v>
+      </c>
+      <c r="C860">
+        <v>119.7142857142857</v>
+      </c>
+    </row>
+    <row r="861" spans="1:3">
+      <c r="A861" s="2">
+        <v>44902</v>
+      </c>
+      <c r="B861">
+        <v>31</v>
+      </c>
+      <c r="C861">
+        <v>87.42857142857143</v>
+      </c>
+    </row>
+    <row r="862" spans="1:3">
+      <c r="A862" s="2">
+        <v>44903</v>
+      </c>
+      <c r="B862">
+        <v>4</v>
+      </c>
+      <c r="C862">
+        <v>56.57142857142857</v>
+      </c>
+    </row>
+    <row r="863" spans="1:3">
+      <c r="A863" s="2">
+        <v>44905</v>
+      </c>
+      <c r="B863">
+        <v>16</v>
+      </c>
+      <c r="C863">
+        <v>36.42857142857143</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C863"/>
+  <dimension ref="A1:C866"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9751,10 +9751,10 @@
         <v>44894</v>
       </c>
       <c r="B853">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C853">
-        <v>183.4285714285714</v>
+        <v>183.7142857142857</v>
       </c>
     </row>
     <row r="854" spans="1:3">
@@ -9765,7 +9765,7 @@
         <v>257</v>
       </c>
       <c r="C854">
-        <v>192.5714285714286</v>
+        <v>192.8571428571429</v>
       </c>
     </row>
     <row r="855" spans="1:3">
@@ -9776,7 +9776,7 @@
         <v>220</v>
       </c>
       <c r="C855">
-        <v>191.8571428571429</v>
+        <v>192.1428571428571</v>
       </c>
     </row>
     <row r="856" spans="1:3">
@@ -9784,10 +9784,10 @@
         <v>44897</v>
       </c>
       <c r="B856">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C856">
-        <v>187.5714285714286</v>
+        <v>188</v>
       </c>
     </row>
     <row r="857" spans="1:3">
@@ -9798,7 +9798,7 @@
         <v>77</v>
       </c>
       <c r="C857">
-        <v>179.7142857142857</v>
+        <v>180.1428571428571</v>
       </c>
     </row>
     <row r="858" spans="1:3">
@@ -9809,7 +9809,7 @@
         <v>12</v>
       </c>
       <c r="C858">
-        <v>180.2857142857143</v>
+        <v>180.7142857142857</v>
       </c>
     </row>
     <row r="859" spans="1:3">
@@ -9820,7 +9820,7 @@
         <v>64</v>
       </c>
       <c r="C859">
-        <v>150.1428571428571</v>
+        <v>150.5714285714286</v>
       </c>
     </row>
     <row r="860" spans="1:3">
@@ -9831,7 +9831,7 @@
         <v>51</v>
       </c>
       <c r="C860">
-        <v>119.7142857142857</v>
+        <v>119.8571428571429</v>
       </c>
     </row>
     <row r="861" spans="1:3">
@@ -9839,10 +9839,10 @@
         <v>44902</v>
       </c>
       <c r="B861">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C861">
-        <v>87.42857142857143</v>
+        <v>87.71428571428571</v>
       </c>
     </row>
     <row r="862" spans="1:3">
@@ -9850,21 +9850,54 @@
         <v>44903</v>
       </c>
       <c r="B862">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C862">
-        <v>56.57142857142857</v>
+        <v>57.28571428571428</v>
       </c>
     </row>
     <row r="863" spans="1:3">
       <c r="A863" s="2">
+        <v>44904</v>
+      </c>
+      <c r="B863">
+        <v>8</v>
+      </c>
+      <c r="C863">
+        <v>35.85714285714285</v>
+      </c>
+    </row>
+    <row r="864" spans="1:3">
+      <c r="A864" s="2">
         <v>44905</v>
       </c>
-      <c r="B863">
-        <v>16</v>
-      </c>
-      <c r="C863">
-        <v>36.42857142857143</v>
+      <c r="B864">
+        <v>26</v>
+      </c>
+      <c r="C864">
+        <v>28.57142857142857</v>
+      </c>
+    </row>
+    <row r="865" spans="1:3">
+      <c r="A865" s="2">
+        <v>44906</v>
+      </c>
+      <c r="B865">
+        <v>3</v>
+      </c>
+      <c r="C865">
+        <v>27.28571428571428</v>
+      </c>
+    </row>
+    <row r="866" spans="1:3">
+      <c r="A866" s="2">
+        <v>44907</v>
+      </c>
+      <c r="B866">
+        <v>14</v>
+      </c>
+      <c r="C866">
+        <v>20.14285714285714</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C866"/>
+  <dimension ref="A1:C868"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9773,10 +9773,10 @@
         <v>44896</v>
       </c>
       <c r="B855">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C855">
-        <v>192.1428571428571</v>
+        <v>192.4285714285714</v>
       </c>
     </row>
     <row r="856" spans="1:3">
@@ -9784,10 +9784,10 @@
         <v>44897</v>
       </c>
       <c r="B856">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C856">
-        <v>188</v>
+        <v>188.4285714285714</v>
       </c>
     </row>
     <row r="857" spans="1:3">
@@ -9795,10 +9795,10 @@
         <v>44898</v>
       </c>
       <c r="B857">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C857">
-        <v>180.1428571428571</v>
+        <v>180.8571428571429</v>
       </c>
     </row>
     <row r="858" spans="1:3">
@@ -9809,7 +9809,7 @@
         <v>12</v>
       </c>
       <c r="C858">
-        <v>180.7142857142857</v>
+        <v>181.4285714285714</v>
       </c>
     </row>
     <row r="859" spans="1:3">
@@ -9817,10 +9817,10 @@
         <v>44900</v>
       </c>
       <c r="B859">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C859">
-        <v>150.5714285714286</v>
+        <v>152.2857142857143</v>
       </c>
     </row>
     <row r="860" spans="1:3">
@@ -9828,10 +9828,10 @@
         <v>44901</v>
       </c>
       <c r="B860">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C860">
-        <v>119.8571428571429</v>
+        <v>121.7142857142857</v>
       </c>
     </row>
     <row r="861" spans="1:3">
@@ -9839,10 +9839,10 @@
         <v>44902</v>
       </c>
       <c r="B861">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C861">
-        <v>87.71428571428571</v>
+        <v>89.71428571428571</v>
       </c>
     </row>
     <row r="862" spans="1:3">
@@ -9850,10 +9850,10 @@
         <v>44903</v>
       </c>
       <c r="B862">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C862">
-        <v>57.28571428571428</v>
+        <v>59.14285714285715</v>
       </c>
     </row>
     <row r="863" spans="1:3">
@@ -9861,10 +9861,10 @@
         <v>44904</v>
       </c>
       <c r="B863">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C863">
-        <v>35.85714285714285</v>
+        <v>38.14285714285715</v>
       </c>
     </row>
     <row r="864" spans="1:3">
@@ -9872,10 +9872,10 @@
         <v>44905</v>
       </c>
       <c r="B864">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C864">
-        <v>28.57142857142857</v>
+        <v>31</v>
       </c>
     </row>
     <row r="865" spans="1:3">
@@ -9883,10 +9883,10 @@
         <v>44906</v>
       </c>
       <c r="B865">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C865">
-        <v>27.28571428571428</v>
+        <v>29.85714285714286</v>
       </c>
     </row>
     <row r="866" spans="1:3">
@@ -9894,10 +9894,32 @@
         <v>44907</v>
       </c>
       <c r="B866">
+        <v>22</v>
+      </c>
+      <c r="C866">
+        <v>22.85714285714286</v>
+      </c>
+    </row>
+    <row r="867" spans="1:3">
+      <c r="A867" s="2">
+        <v>44908</v>
+      </c>
+      <c r="B867">
         <v>14</v>
       </c>
-      <c r="C866">
-        <v>20.14285714285714</v>
+      <c r="C867">
+        <v>17.42857142857143</v>
+      </c>
+    </row>
+    <row r="868" spans="1:3">
+      <c r="A868" s="2">
+        <v>44909</v>
+      </c>
+      <c r="B868">
+        <v>7</v>
+      </c>
+      <c r="C868">
+        <v>13.71428571428571</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C868"/>
+  <dimension ref="A1:C874"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9608,10 +9608,10 @@
         <v>44881</v>
       </c>
       <c r="B840">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C840">
-        <v>7.142857142857143</v>
+        <v>7.571428571428571</v>
       </c>
     </row>
     <row r="841" spans="1:3">
@@ -9622,7 +9622,7 @@
         <v>14</v>
       </c>
       <c r="C841">
-        <v>8.285714285714286</v>
+        <v>8.714285714285714</v>
       </c>
     </row>
     <row r="842" spans="1:3">
@@ -9633,7 +9633,7 @@
         <v>31</v>
       </c>
       <c r="C842">
-        <v>12.14285714285714</v>
+        <v>12.57142857142857</v>
       </c>
     </row>
     <row r="843" spans="1:3">
@@ -9644,7 +9644,7 @@
         <v>49</v>
       </c>
       <c r="C843">
-        <v>18.71428571428572</v>
+        <v>19.14285714285714</v>
       </c>
     </row>
     <row r="844" spans="1:3">
@@ -9655,7 +9655,7 @@
         <v>2</v>
       </c>
       <c r="C844">
-        <v>18.71428571428572</v>
+        <v>19.14285714285714</v>
       </c>
     </row>
     <row r="845" spans="1:3">
@@ -9666,7 +9666,7 @@
         <v>95</v>
       </c>
       <c r="C845">
-        <v>31.28571428571428</v>
+        <v>31.71428571428572</v>
       </c>
     </row>
     <row r="846" spans="1:3">
@@ -9677,7 +9677,7 @@
         <v>80</v>
       </c>
       <c r="C846">
-        <v>40.57142857142857</v>
+        <v>41</v>
       </c>
     </row>
     <row r="847" spans="1:3">
@@ -9718,10 +9718,10 @@
         <v>44891</v>
       </c>
       <c r="B850">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C850">
-        <v>130.5714285714286</v>
+        <v>130.7142857142857</v>
       </c>
     </row>
     <row r="851" spans="1:3">
@@ -9732,7 +9732,7 @@
         <v>8</v>
       </c>
       <c r="C851">
-        <v>131.4285714285714</v>
+        <v>131.5714285714286</v>
       </c>
     </row>
     <row r="852" spans="1:3">
@@ -9743,7 +9743,7 @@
         <v>275</v>
       </c>
       <c r="C852">
-        <v>157.1428571428571</v>
+        <v>157.2857142857143</v>
       </c>
     </row>
     <row r="853" spans="1:3">
@@ -9751,10 +9751,10 @@
         <v>44894</v>
       </c>
       <c r="B853">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C853">
-        <v>183.7142857142857</v>
+        <v>184</v>
       </c>
     </row>
     <row r="854" spans="1:3">
@@ -9762,10 +9762,10 @@
         <v>44895</v>
       </c>
       <c r="B854">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C854">
-        <v>192.8571428571429</v>
+        <v>193.5714285714286</v>
       </c>
     </row>
     <row r="855" spans="1:3">
@@ -9773,10 +9773,10 @@
         <v>44896</v>
       </c>
       <c r="B855">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C855">
-        <v>192.4285714285714</v>
+        <v>193.2857142857143</v>
       </c>
     </row>
     <row r="856" spans="1:3">
@@ -9784,10 +9784,10 @@
         <v>44897</v>
       </c>
       <c r="B856">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C856">
-        <v>188.4285714285714</v>
+        <v>189.4285714285714</v>
       </c>
     </row>
     <row r="857" spans="1:3">
@@ -9795,10 +9795,10 @@
         <v>44898</v>
       </c>
       <c r="B857">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C857">
-        <v>180.8571428571429</v>
+        <v>181.8571428571429</v>
       </c>
     </row>
     <row r="858" spans="1:3">
@@ -9809,7 +9809,7 @@
         <v>12</v>
       </c>
       <c r="C858">
-        <v>181.4285714285714</v>
+        <v>182.4285714285714</v>
       </c>
     </row>
     <row r="859" spans="1:3">
@@ -9817,10 +9817,10 @@
         <v>44900</v>
       </c>
       <c r="B859">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C859">
-        <v>152.2857142857143</v>
+        <v>153.7142857142857</v>
       </c>
     </row>
     <row r="860" spans="1:3">
@@ -9828,10 +9828,10 @@
         <v>44901</v>
       </c>
       <c r="B860">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C860">
-        <v>121.7142857142857</v>
+        <v>123.8571428571429</v>
       </c>
     </row>
     <row r="861" spans="1:3">
@@ -9839,10 +9839,10 @@
         <v>44902</v>
       </c>
       <c r="B861">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C861">
-        <v>89.71428571428571</v>
+        <v>91.57142857142857</v>
       </c>
     </row>
     <row r="862" spans="1:3">
@@ -9853,7 +9853,7 @@
         <v>8</v>
       </c>
       <c r="C862">
-        <v>59.14285714285715</v>
+        <v>60.85714285714285</v>
       </c>
     </row>
     <row r="863" spans="1:3">
@@ -9864,7 +9864,7 @@
         <v>12</v>
       </c>
       <c r="C863">
-        <v>38.14285714285715</v>
+        <v>39.71428571428572</v>
       </c>
     </row>
     <row r="864" spans="1:3">
@@ -9872,10 +9872,10 @@
         <v>44905</v>
       </c>
       <c r="B864">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C864">
-        <v>31</v>
+        <v>32.57142857142857</v>
       </c>
     </row>
     <row r="865" spans="1:3">
@@ -9886,7 +9886,7 @@
         <v>4</v>
       </c>
       <c r="C865">
-        <v>29.85714285714286</v>
+        <v>31.42857142857143</v>
       </c>
     </row>
     <row r="866" spans="1:3">
@@ -9897,7 +9897,7 @@
         <v>22</v>
       </c>
       <c r="C866">
-        <v>22.85714285714286</v>
+        <v>24</v>
       </c>
     </row>
     <row r="867" spans="1:3">
@@ -9905,10 +9905,10 @@
         <v>44908</v>
       </c>
       <c r="B867">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C867">
-        <v>17.42857142857143</v>
+        <v>18</v>
       </c>
     </row>
     <row r="868" spans="1:3">
@@ -9916,10 +9916,76 @@
         <v>44909</v>
       </c>
       <c r="B868">
+        <v>16</v>
+      </c>
+      <c r="C868">
+        <v>15.42857142857143</v>
+      </c>
+    </row>
+    <row r="869" spans="1:3">
+      <c r="A869" s="2">
+        <v>44910</v>
+      </c>
+      <c r="B869">
         <v>7</v>
       </c>
-      <c r="C868">
-        <v>13.71428571428571</v>
+      <c r="C869">
+        <v>15.28571428571429</v>
+      </c>
+    </row>
+    <row r="870" spans="1:3">
+      <c r="A870" s="2">
+        <v>44911</v>
+      </c>
+      <c r="B870">
+        <v>5</v>
+      </c>
+      <c r="C870">
+        <v>14.28571428571429</v>
+      </c>
+    </row>
+    <row r="871" spans="1:3">
+      <c r="A871" s="2">
+        <v>44912</v>
+      </c>
+      <c r="B871">
+        <v>11</v>
+      </c>
+      <c r="C871">
+        <v>11.57142857142857</v>
+      </c>
+    </row>
+    <row r="872" spans="1:3">
+      <c r="A872" s="2">
+        <v>44913</v>
+      </c>
+      <c r="B872">
+        <v>3</v>
+      </c>
+      <c r="C872">
+        <v>11.42857142857143</v>
+      </c>
+    </row>
+    <row r="873" spans="1:3">
+      <c r="A873" s="2">
+        <v>44914</v>
+      </c>
+      <c r="B873">
+        <v>7</v>
+      </c>
+      <c r="C873">
+        <v>9.285714285714286</v>
+      </c>
+    </row>
+    <row r="874" spans="1:3">
+      <c r="A874" s="2">
+        <v>44915</v>
+      </c>
+      <c r="B874">
+        <v>9</v>
+      </c>
+      <c r="C874">
+        <v>8.285714285714286</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C874"/>
+  <dimension ref="A1:C875"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9971,10 +9971,10 @@
         <v>44914</v>
       </c>
       <c r="B873">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C873">
-        <v>9.285714285714286</v>
+        <v>9.714285714285714</v>
       </c>
     </row>
     <row r="874" spans="1:3">
@@ -9982,10 +9982,21 @@
         <v>44915</v>
       </c>
       <c r="B874">
+        <v>11</v>
+      </c>
+      <c r="C874">
         <v>9</v>
       </c>
-      <c r="C874">
-        <v>8.285714285714286</v>
+    </row>
+    <row r="875" spans="1:3">
+      <c r="A875" s="2">
+        <v>44916</v>
+      </c>
+      <c r="B875">
+        <v>4</v>
+      </c>
+      <c r="C875">
+        <v>7.285714285714286</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C875"/>
+  <dimension ref="A1:C879"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9707,10 +9707,10 @@
         <v>44890</v>
       </c>
       <c r="B849">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C849">
-        <v>118.7142857142857</v>
+        <v>119.1428571428571</v>
       </c>
     </row>
     <row r="850" spans="1:3">
@@ -9721,7 +9721,7 @@
         <v>133</v>
       </c>
       <c r="C850">
-        <v>130.7142857142857</v>
+        <v>131.1428571428571</v>
       </c>
     </row>
     <row r="851" spans="1:3">
@@ -9729,10 +9729,10 @@
         <v>44892</v>
       </c>
       <c r="B851">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C851">
-        <v>131.5714285714286</v>
+        <v>132.1428571428571</v>
       </c>
     </row>
     <row r="852" spans="1:3">
@@ -9740,10 +9740,10 @@
         <v>44893</v>
       </c>
       <c r="B852">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C852">
-        <v>157.2857142857143</v>
+        <v>158.2857142857143</v>
       </c>
     </row>
     <row r="853" spans="1:3">
@@ -9754,7 +9754,7 @@
         <v>267</v>
       </c>
       <c r="C853">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="854" spans="1:3">
@@ -9765,7 +9765,7 @@
         <v>260</v>
       </c>
       <c r="C854">
-        <v>193.5714285714286</v>
+        <v>194.5714285714286</v>
       </c>
     </row>
     <row r="855" spans="1:3">
@@ -9776,7 +9776,7 @@
         <v>223</v>
       </c>
       <c r="C855">
-        <v>193.2857142857143</v>
+        <v>194.2857142857143</v>
       </c>
     </row>
     <row r="856" spans="1:3">
@@ -9784,10 +9784,10 @@
         <v>44897</v>
       </c>
       <c r="B856">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C856">
-        <v>189.4285714285714</v>
+        <v>190.1428571428571</v>
       </c>
     </row>
     <row r="857" spans="1:3">
@@ -9798,7 +9798,7 @@
         <v>80</v>
       </c>
       <c r="C857">
-        <v>181.8571428571429</v>
+        <v>182.5714285714286</v>
       </c>
     </row>
     <row r="858" spans="1:3">
@@ -9809,7 +9809,7 @@
         <v>12</v>
       </c>
       <c r="C858">
-        <v>182.4285714285714</v>
+        <v>183</v>
       </c>
     </row>
     <row r="859" spans="1:3">
@@ -9820,7 +9820,7 @@
         <v>74</v>
       </c>
       <c r="C859">
-        <v>153.7142857142857</v>
+        <v>153.8571428571429</v>
       </c>
     </row>
     <row r="860" spans="1:3">
@@ -9831,7 +9831,7 @@
         <v>58</v>
       </c>
       <c r="C860">
-        <v>123.8571428571429</v>
+        <v>124</v>
       </c>
     </row>
     <row r="861" spans="1:3">
@@ -9842,7 +9842,7 @@
         <v>34</v>
       </c>
       <c r="C861">
-        <v>91.57142857142857</v>
+        <v>91.71428571428571</v>
       </c>
     </row>
     <row r="862" spans="1:3">
@@ -9853,7 +9853,7 @@
         <v>8</v>
       </c>
       <c r="C862">
-        <v>60.85714285714285</v>
+        <v>61</v>
       </c>
     </row>
     <row r="863" spans="1:3">
@@ -9872,10 +9872,10 @@
         <v>44905</v>
       </c>
       <c r="B864">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C864">
-        <v>32.57142857142857</v>
+        <v>32.71428571428572</v>
       </c>
     </row>
     <row r="865" spans="1:3">
@@ -9886,7 +9886,7 @@
         <v>4</v>
       </c>
       <c r="C865">
-        <v>31.42857142857143</v>
+        <v>31.57142857142857</v>
       </c>
     </row>
     <row r="866" spans="1:3">
@@ -9894,10 +9894,10 @@
         <v>44907</v>
       </c>
       <c r="B866">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C866">
-        <v>24</v>
+        <v>24.42857142857143</v>
       </c>
     </row>
     <row r="867" spans="1:3">
@@ -9908,7 +9908,7 @@
         <v>16</v>
       </c>
       <c r="C867">
-        <v>18</v>
+        <v>18.42857142857143</v>
       </c>
     </row>
     <row r="868" spans="1:3">
@@ -9919,7 +9919,7 @@
         <v>16</v>
       </c>
       <c r="C868">
-        <v>15.42857142857143</v>
+        <v>15.85714285714286</v>
       </c>
     </row>
     <row r="869" spans="1:3">
@@ -9930,7 +9930,7 @@
         <v>7</v>
       </c>
       <c r="C869">
-        <v>15.28571428571429</v>
+        <v>15.71428571428571</v>
       </c>
     </row>
     <row r="870" spans="1:3">
@@ -9941,7 +9941,7 @@
         <v>5</v>
       </c>
       <c r="C870">
-        <v>14.28571428571429</v>
+        <v>14.71428571428571</v>
       </c>
     </row>
     <row r="871" spans="1:3">
@@ -9952,7 +9952,7 @@
         <v>11</v>
       </c>
       <c r="C871">
-        <v>11.57142857142857</v>
+        <v>11.85714285714286</v>
       </c>
     </row>
     <row r="872" spans="1:3">
@@ -9960,10 +9960,10 @@
         <v>44913</v>
       </c>
       <c r="B872">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C872">
-        <v>11.42857142857143</v>
+        <v>11.85714285714286</v>
       </c>
     </row>
     <row r="873" spans="1:3">
@@ -9974,7 +9974,7 @@
         <v>10</v>
       </c>
       <c r="C873">
-        <v>9.714285714285714</v>
+        <v>9.857142857142858</v>
       </c>
     </row>
     <row r="874" spans="1:3">
@@ -9985,7 +9985,7 @@
         <v>11</v>
       </c>
       <c r="C874">
-        <v>9</v>
+        <v>9.142857142857142</v>
       </c>
     </row>
     <row r="875" spans="1:3">
@@ -9993,10 +9993,54 @@
         <v>44916</v>
       </c>
       <c r="B875">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C875">
-        <v>7.285714285714286</v>
+        <v>7.714285714285714</v>
+      </c>
+    </row>
+    <row r="876" spans="1:3">
+      <c r="A876" s="2">
+        <v>44917</v>
+      </c>
+      <c r="B876">
+        <v>1</v>
+      </c>
+      <c r="C876">
+        <v>6.857142857142857</v>
+      </c>
+    </row>
+    <row r="877" spans="1:3">
+      <c r="A877" s="2">
+        <v>44918</v>
+      </c>
+      <c r="B877">
+        <v>2</v>
+      </c>
+      <c r="C877">
+        <v>6.428571428571429</v>
+      </c>
+    </row>
+    <row r="878" spans="1:3">
+      <c r="A878" s="2">
+        <v>44920</v>
+      </c>
+      <c r="B878">
+        <v>1</v>
+      </c>
+      <c r="C878">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="879" spans="1:3">
+      <c r="A879" s="2">
+        <v>44921</v>
+      </c>
+      <c r="B879">
+        <v>1</v>
+      </c>
+      <c r="C879">
+        <v>4.571428571428571</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C879"/>
+  <dimension ref="A1:C884"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9586,10 +9586,10 @@
         <v>44879</v>
       </c>
       <c r="B838">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C838">
-        <v>3.571428571428572</v>
+        <v>3.714285714285714</v>
       </c>
     </row>
     <row r="839" spans="1:3">
@@ -9600,7 +9600,7 @@
         <v>15</v>
       </c>
       <c r="C839">
-        <v>5.571428571428571</v>
+        <v>5.714285714285714</v>
       </c>
     </row>
     <row r="840" spans="1:3">
@@ -9611,7 +9611,7 @@
         <v>16</v>
       </c>
       <c r="C840">
-        <v>7.571428571428571</v>
+        <v>7.714285714285714</v>
       </c>
     </row>
     <row r="841" spans="1:3">
@@ -9622,7 +9622,7 @@
         <v>14</v>
       </c>
       <c r="C841">
-        <v>8.714285714285714</v>
+        <v>8.857142857142858</v>
       </c>
     </row>
     <row r="842" spans="1:3">
@@ -9630,10 +9630,10 @@
         <v>44883</v>
       </c>
       <c r="B842">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C842">
-        <v>12.57142857142857</v>
+        <v>12.85714285714286</v>
       </c>
     </row>
     <row r="843" spans="1:3">
@@ -9644,7 +9644,7 @@
         <v>49</v>
       </c>
       <c r="C843">
-        <v>19.14285714285714</v>
+        <v>19.42857142857143</v>
       </c>
     </row>
     <row r="844" spans="1:3">
@@ -9655,7 +9655,7 @@
         <v>2</v>
       </c>
       <c r="C844">
-        <v>19.14285714285714</v>
+        <v>19.42857142857143</v>
       </c>
     </row>
     <row r="845" spans="1:3">
@@ -9666,7 +9666,7 @@
         <v>95</v>
       </c>
       <c r="C845">
-        <v>31.71428571428572</v>
+        <v>31.85714285714286</v>
       </c>
     </row>
     <row r="846" spans="1:3">
@@ -9677,7 +9677,7 @@
         <v>80</v>
       </c>
       <c r="C846">
-        <v>41</v>
+        <v>41.14285714285715</v>
       </c>
     </row>
     <row r="847" spans="1:3">
@@ -9688,7 +9688,7 @@
         <v>193</v>
       </c>
       <c r="C847">
-        <v>66.28571428571429</v>
+        <v>66.42857142857143</v>
       </c>
     </row>
     <row r="848" spans="1:3">
@@ -9699,7 +9699,7 @@
         <v>225</v>
       </c>
       <c r="C848">
-        <v>96.42857142857143</v>
+        <v>96.57142857142857</v>
       </c>
     </row>
     <row r="849" spans="1:3">
@@ -9773,10 +9773,10 @@
         <v>44896</v>
       </c>
       <c r="B855">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C855">
-        <v>194.2857142857143</v>
+        <v>194.4285714285714</v>
       </c>
     </row>
     <row r="856" spans="1:3">
@@ -9787,7 +9787,7 @@
         <v>161</v>
       </c>
       <c r="C856">
-        <v>190.1428571428571</v>
+        <v>190.2857142857143</v>
       </c>
     </row>
     <row r="857" spans="1:3">
@@ -9798,7 +9798,7 @@
         <v>80</v>
       </c>
       <c r="C857">
-        <v>182.5714285714286</v>
+        <v>182.7142857142857</v>
       </c>
     </row>
     <row r="858" spans="1:3">
@@ -9809,7 +9809,7 @@
         <v>12</v>
       </c>
       <c r="C858">
-        <v>183</v>
+        <v>183.1428571428571</v>
       </c>
     </row>
     <row r="859" spans="1:3">
@@ -9820,7 +9820,7 @@
         <v>74</v>
       </c>
       <c r="C859">
-        <v>153.8571428571429</v>
+        <v>154</v>
       </c>
     </row>
     <row r="860" spans="1:3">
@@ -9831,7 +9831,7 @@
         <v>58</v>
       </c>
       <c r="C860">
-        <v>124</v>
+        <v>124.1428571428571</v>
       </c>
     </row>
     <row r="861" spans="1:3">
@@ -9842,7 +9842,7 @@
         <v>34</v>
       </c>
       <c r="C861">
-        <v>91.71428571428571</v>
+        <v>91.85714285714286</v>
       </c>
     </row>
     <row r="862" spans="1:3">
@@ -9872,10 +9872,10 @@
         <v>44905</v>
       </c>
       <c r="B864">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C864">
-        <v>32.71428571428572</v>
+        <v>32.85714285714285</v>
       </c>
     </row>
     <row r="865" spans="1:3">
@@ -9886,7 +9886,7 @@
         <v>4</v>
       </c>
       <c r="C865">
-        <v>31.57142857142857</v>
+        <v>31.71428571428572</v>
       </c>
     </row>
     <row r="866" spans="1:3">
@@ -9897,7 +9897,7 @@
         <v>24</v>
       </c>
       <c r="C866">
-        <v>24.42857142857143</v>
+        <v>24.57142857142857</v>
       </c>
     </row>
     <row r="867" spans="1:3">
@@ -9908,7 +9908,7 @@
         <v>16</v>
       </c>
       <c r="C867">
-        <v>18.42857142857143</v>
+        <v>18.57142857142857</v>
       </c>
     </row>
     <row r="868" spans="1:3">
@@ -9919,7 +9919,7 @@
         <v>16</v>
       </c>
       <c r="C868">
-        <v>15.85714285714286</v>
+        <v>16</v>
       </c>
     </row>
     <row r="869" spans="1:3">
@@ -9930,7 +9930,7 @@
         <v>7</v>
       </c>
       <c r="C869">
-        <v>15.71428571428571</v>
+        <v>15.85714285714286</v>
       </c>
     </row>
     <row r="870" spans="1:3">
@@ -9941,7 +9941,7 @@
         <v>5</v>
       </c>
       <c r="C870">
-        <v>14.71428571428571</v>
+        <v>14.85714285714286</v>
       </c>
     </row>
     <row r="871" spans="1:3">
@@ -10041,6 +10041,61 @@
       </c>
       <c r="C879">
         <v>4.571428571428571</v>
+      </c>
+    </row>
+    <row r="880" spans="1:3">
+      <c r="A880" s="2">
+        <v>44922</v>
+      </c>
+      <c r="B880">
+        <v>1</v>
+      </c>
+      <c r="C880">
+        <v>3.285714285714286</v>
+      </c>
+    </row>
+    <row r="881" spans="1:3">
+      <c r="A881" s="2">
+        <v>44923</v>
+      </c>
+      <c r="B881">
+        <v>7</v>
+      </c>
+      <c r="C881">
+        <v>2.714285714285714</v>
+      </c>
+    </row>
+    <row r="882" spans="1:3">
+      <c r="A882" s="2">
+        <v>44924</v>
+      </c>
+      <c r="B882">
+        <v>4</v>
+      </c>
+      <c r="C882">
+        <v>2.428571428571428</v>
+      </c>
+    </row>
+    <row r="883" spans="1:3">
+      <c r="A883" s="2">
+        <v>44925</v>
+      </c>
+      <c r="B883">
+        <v>1</v>
+      </c>
+      <c r="C883">
+        <v>2.428571428571428</v>
+      </c>
+    </row>
+    <row r="884" spans="1:3">
+      <c r="A884" s="2">
+        <v>44926</v>
+      </c>
+      <c r="B884">
+        <v>1</v>
+      </c>
+      <c r="C884">
+        <v>2.285714285714286</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -9641,10 +9641,10 @@
         <v>44884</v>
       </c>
       <c r="B843">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C843">
-        <v>19.42857142857143</v>
+        <v>20</v>
       </c>
     </row>
     <row r="844" spans="1:3">
@@ -9655,7 +9655,7 @@
         <v>2</v>
       </c>
       <c r="C844">
-        <v>19.42857142857143</v>
+        <v>20</v>
       </c>
     </row>
     <row r="845" spans="1:3">
@@ -9666,7 +9666,7 @@
         <v>95</v>
       </c>
       <c r="C845">
-        <v>31.85714285714286</v>
+        <v>32.42857142857143</v>
       </c>
     </row>
     <row r="846" spans="1:3">
@@ -9677,7 +9677,7 @@
         <v>80</v>
       </c>
       <c r="C846">
-        <v>41.14285714285715</v>
+        <v>41.71428571428572</v>
       </c>
     </row>
     <row r="847" spans="1:3">
@@ -9688,7 +9688,7 @@
         <v>193</v>
       </c>
       <c r="C847">
-        <v>66.42857142857143</v>
+        <v>67</v>
       </c>
     </row>
     <row r="848" spans="1:3">
@@ -9699,7 +9699,7 @@
         <v>225</v>
       </c>
       <c r="C848">
-        <v>96.57142857142857</v>
+        <v>97.14285714285714</v>
       </c>
     </row>
     <row r="849" spans="1:3">
@@ -9710,7 +9710,7 @@
         <v>190</v>
       </c>
       <c r="C849">
-        <v>119.1428571428571</v>
+        <v>119.7142857142857</v>
       </c>
     </row>
     <row r="850" spans="1:3">

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C884"/>
+  <dimension ref="A1:C894"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9773,10 +9773,10 @@
         <v>44896</v>
       </c>
       <c r="B855">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C855">
-        <v>194.4285714285714</v>
+        <v>194.7142857142857</v>
       </c>
     </row>
     <row r="856" spans="1:3">
@@ -9787,7 +9787,7 @@
         <v>161</v>
       </c>
       <c r="C856">
-        <v>190.2857142857143</v>
+        <v>190.5714285714286</v>
       </c>
     </row>
     <row r="857" spans="1:3">
@@ -9798,7 +9798,7 @@
         <v>80</v>
       </c>
       <c r="C857">
-        <v>182.7142857142857</v>
+        <v>183</v>
       </c>
     </row>
     <row r="858" spans="1:3">
@@ -9809,7 +9809,7 @@
         <v>12</v>
       </c>
       <c r="C858">
-        <v>183.1428571428571</v>
+        <v>183.4285714285714</v>
       </c>
     </row>
     <row r="859" spans="1:3">
@@ -9820,7 +9820,7 @@
         <v>74</v>
       </c>
       <c r="C859">
-        <v>154</v>
+        <v>154.2857142857143</v>
       </c>
     </row>
     <row r="860" spans="1:3">
@@ -9831,7 +9831,7 @@
         <v>58</v>
       </c>
       <c r="C860">
-        <v>124.1428571428571</v>
+        <v>124.4285714285714</v>
       </c>
     </row>
     <row r="861" spans="1:3">
@@ -9839,10 +9839,10 @@
         <v>44902</v>
       </c>
       <c r="B861">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C861">
-        <v>91.85714285714286</v>
+        <v>92.28571428571429</v>
       </c>
     </row>
     <row r="862" spans="1:3">
@@ -9853,7 +9853,7 @@
         <v>8</v>
       </c>
       <c r="C862">
-        <v>61</v>
+        <v>61.14285714285715</v>
       </c>
     </row>
     <row r="863" spans="1:3">
@@ -9864,7 +9864,7 @@
         <v>12</v>
       </c>
       <c r="C863">
-        <v>39.71428571428572</v>
+        <v>39.85714285714285</v>
       </c>
     </row>
     <row r="864" spans="1:3">
@@ -9875,7 +9875,7 @@
         <v>32</v>
       </c>
       <c r="C864">
-        <v>32.85714285714285</v>
+        <v>33</v>
       </c>
     </row>
     <row r="865" spans="1:3">
@@ -9886,7 +9886,7 @@
         <v>4</v>
       </c>
       <c r="C865">
-        <v>31.71428571428572</v>
+        <v>31.85714285714286</v>
       </c>
     </row>
     <row r="866" spans="1:3">
@@ -9897,7 +9897,7 @@
         <v>24</v>
       </c>
       <c r="C866">
-        <v>24.57142857142857</v>
+        <v>24.71428571428572</v>
       </c>
     </row>
     <row r="867" spans="1:3">
@@ -9905,10 +9905,10 @@
         <v>44908</v>
       </c>
       <c r="B867">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C867">
-        <v>18.57142857142857</v>
+        <v>18.85714285714286</v>
       </c>
     </row>
     <row r="868" spans="1:3">
@@ -9919,7 +9919,7 @@
         <v>16</v>
       </c>
       <c r="C868">
-        <v>16</v>
+        <v>16.14285714285714</v>
       </c>
     </row>
     <row r="869" spans="1:3">
@@ -9930,7 +9930,7 @@
         <v>7</v>
       </c>
       <c r="C869">
-        <v>15.85714285714286</v>
+        <v>16</v>
       </c>
     </row>
     <row r="870" spans="1:3">
@@ -9941,7 +9941,7 @@
         <v>5</v>
       </c>
       <c r="C870">
-        <v>14.85714285714286</v>
+        <v>15</v>
       </c>
     </row>
     <row r="871" spans="1:3">
@@ -9952,7 +9952,7 @@
         <v>11</v>
       </c>
       <c r="C871">
-        <v>11.85714285714286</v>
+        <v>12</v>
       </c>
     </row>
     <row r="872" spans="1:3">
@@ -9963,7 +9963,7 @@
         <v>4</v>
       </c>
       <c r="C872">
-        <v>11.85714285714286</v>
+        <v>12</v>
       </c>
     </row>
     <row r="873" spans="1:3">
@@ -9974,7 +9974,7 @@
         <v>10</v>
       </c>
       <c r="C873">
-        <v>9.857142857142858</v>
+        <v>10</v>
       </c>
     </row>
     <row r="874" spans="1:3">
@@ -10081,10 +10081,10 @@
         <v>44925</v>
       </c>
       <c r="B883">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C883">
-        <v>2.428571428571428</v>
+        <v>2.571428571428572</v>
       </c>
     </row>
     <row r="884" spans="1:3">
@@ -10095,7 +10095,117 @@
         <v>1</v>
       </c>
       <c r="C884">
-        <v>2.285714285714286</v>
+        <v>2.428571428571428</v>
+      </c>
+    </row>
+    <row r="885" spans="1:3">
+      <c r="A885" s="2">
+        <v>44928</v>
+      </c>
+      <c r="B885">
+        <v>2</v>
+      </c>
+      <c r="C885">
+        <v>2.571428571428572</v>
+      </c>
+    </row>
+    <row r="886" spans="1:3">
+      <c r="A886" s="2">
+        <v>44929</v>
+      </c>
+      <c r="B886">
+        <v>1</v>
+      </c>
+      <c r="C886">
+        <v>2.571428571428572</v>
+      </c>
+    </row>
+    <row r="887" spans="1:3">
+      <c r="A887" s="2">
+        <v>44930</v>
+      </c>
+      <c r="B887">
+        <v>2</v>
+      </c>
+      <c r="C887">
+        <v>2.714285714285714</v>
+      </c>
+    </row>
+    <row r="888" spans="1:3">
+      <c r="A888" s="2">
+        <v>44931</v>
+      </c>
+      <c r="B888">
+        <v>1</v>
+      </c>
+      <c r="C888">
+        <v>1.857142857142857</v>
+      </c>
+    </row>
+    <row r="889" spans="1:3">
+      <c r="A889" s="2">
+        <v>44933</v>
+      </c>
+      <c r="B889">
+        <v>2</v>
+      </c>
+      <c r="C889">
+        <v>1.571428571428571</v>
+      </c>
+    </row>
+    <row r="890" spans="1:3">
+      <c r="A890" s="2">
+        <v>44934</v>
+      </c>
+      <c r="B890">
+        <v>2</v>
+      </c>
+      <c r="C890">
+        <v>1.571428571428571</v>
+      </c>
+    </row>
+    <row r="891" spans="1:3">
+      <c r="A891" s="2">
+        <v>44935</v>
+      </c>
+      <c r="B891">
+        <v>2</v>
+      </c>
+      <c r="C891">
+        <v>1.714285714285714</v>
+      </c>
+    </row>
+    <row r="892" spans="1:3">
+      <c r="A892" s="2">
+        <v>44937</v>
+      </c>
+      <c r="B892">
+        <v>1</v>
+      </c>
+      <c r="C892">
+        <v>1.571428571428571</v>
+      </c>
+    </row>
+    <row r="893" spans="1:3">
+      <c r="A893" s="2">
+        <v>44941</v>
+      </c>
+      <c r="B893">
+        <v>1</v>
+      </c>
+      <c r="C893">
+        <v>1.571428571428571</v>
+      </c>
+    </row>
+    <row r="894" spans="1:3">
+      <c r="A894" s="2">
+        <v>44942</v>
+      </c>
+      <c r="B894">
+        <v>2</v>
+      </c>
+      <c r="C894">
+        <v>1.571428571428571</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C894"/>
+  <dimension ref="A1:C874"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7100,10 +7100,10 @@
         <v>44561</v>
       </c>
       <c r="B612">
-        <v>10</v>
+        <v>438</v>
       </c>
       <c r="C612">
-        <v>8.428571428571429</v>
+        <v>69.57142857142857</v>
       </c>
     </row>
     <row r="613" spans="1:3">
@@ -7114,7 +7114,7 @@
         <v>3</v>
       </c>
       <c r="C613">
-        <v>7.428571428571429</v>
+        <v>68.57142857142857</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -7125,7 +7125,7 @@
         <v>9</v>
       </c>
       <c r="C614">
-        <v>8.571428571428571</v>
+        <v>69.71428571428571</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -7136,7 +7136,7 @@
         <v>21</v>
       </c>
       <c r="C615">
-        <v>11.28571428571429</v>
+        <v>72.42857142857143</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -7147,7 +7147,7 @@
         <v>22</v>
       </c>
       <c r="C616">
-        <v>12.71428571428571</v>
+        <v>73.85714285714286</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -7158,7 +7158,7 @@
         <v>47</v>
       </c>
       <c r="C617">
-        <v>18.57142857142857</v>
+        <v>79.71428571428571</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -7169,7 +7169,7 @@
         <v>14</v>
       </c>
       <c r="C618">
-        <v>18</v>
+        <v>79.14285714285714</v>
       </c>
     </row>
     <row r="619" spans="1:3">
@@ -9454,10 +9454,10 @@
         <v>44862</v>
       </c>
       <c r="B826">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C826">
-        <v>1.428571428571429</v>
+        <v>1.285714285714286</v>
       </c>
     </row>
     <row r="827" spans="1:3">
@@ -9468,15 +9468,15 @@
         <v>1</v>
       </c>
       <c r="C827">
-        <v>1.142857142857143</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828" spans="1:3">
       <c r="A828" s="2">
-        <v>44868</v>
+        <v>44869</v>
       </c>
       <c r="B828">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C828">
         <v>1.142857142857143</v>
@@ -9484,7 +9484,7 @@
     </row>
     <row r="829" spans="1:3">
       <c r="A829" s="2">
-        <v>44869</v>
+        <v>44870</v>
       </c>
       <c r="B829">
         <v>2</v>
@@ -9495,32 +9495,32 @@
     </row>
     <row r="830" spans="1:3">
       <c r="A830" s="2">
-        <v>44870</v>
+        <v>44872</v>
       </c>
       <c r="B830">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C830">
-        <v>1.428571428571429</v>
+        <v>1.285714285714286</v>
       </c>
     </row>
     <row r="831" spans="1:3">
       <c r="A831" s="2">
-        <v>44872</v>
+        <v>44873</v>
       </c>
       <c r="B831">
         <v>1</v>
       </c>
       <c r="C831">
-        <v>1.428571428571429</v>
+        <v>1.285714285714286</v>
       </c>
     </row>
     <row r="832" spans="1:3">
       <c r="A832" s="2">
-        <v>44873</v>
+        <v>44874</v>
       </c>
       <c r="B832">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C832">
         <v>1.428571428571429</v>
@@ -9528,32 +9528,32 @@
     </row>
     <row r="833" spans="1:3">
       <c r="A833" s="2">
-        <v>44874</v>
+        <v>44875</v>
       </c>
       <c r="B833">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C833">
-        <v>1.428571428571429</v>
+        <v>2.142857142857143</v>
       </c>
     </row>
     <row r="834" spans="1:3">
       <c r="A834" s="2">
-        <v>44875</v>
+        <v>44876</v>
       </c>
       <c r="B834">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C834">
-        <v>2.142857142857143</v>
+        <v>2.571428571428572</v>
       </c>
     </row>
     <row r="835" spans="1:3">
       <c r="A835" s="2">
-        <v>44876</v>
+        <v>44877</v>
       </c>
       <c r="B835">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C835">
         <v>2.571428571428572</v>
@@ -9561,651 +9561,431 @@
     </row>
     <row r="836" spans="1:3">
       <c r="A836" s="2">
-        <v>44877</v>
+        <v>44878</v>
       </c>
       <c r="B836">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C836">
-        <v>2.714285714285714</v>
+        <v>2.571428571428572</v>
       </c>
     </row>
     <row r="837" spans="1:3">
       <c r="A837" s="2">
-        <v>44878</v>
+        <v>44879</v>
       </c>
       <c r="B837">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C837">
-        <v>2.714285714285714</v>
+        <v>3.428571428571428</v>
       </c>
     </row>
     <row r="838" spans="1:3">
       <c r="A838" s="2">
-        <v>44879</v>
+        <v>44880</v>
       </c>
       <c r="B838">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C838">
-        <v>3.714285714285714</v>
+        <v>5.428571428571429</v>
       </c>
     </row>
     <row r="839" spans="1:3">
       <c r="A839" s="2">
-        <v>44880</v>
+        <v>44881</v>
       </c>
       <c r="B839">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C839">
-        <v>5.714285714285714</v>
+        <v>7</v>
       </c>
     </row>
     <row r="840" spans="1:3">
       <c r="A840" s="2">
-        <v>44881</v>
+        <v>44882</v>
       </c>
       <c r="B840">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C840">
-        <v>7.714285714285714</v>
+        <v>8.142857142857142</v>
       </c>
     </row>
     <row r="841" spans="1:3">
       <c r="A841" s="2">
-        <v>44882</v>
+        <v>44883</v>
       </c>
       <c r="B841">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C841">
-        <v>8.857142857142858</v>
+        <v>12</v>
       </c>
     </row>
     <row r="842" spans="1:3">
       <c r="A842" s="2">
-        <v>44883</v>
+        <v>44884</v>
       </c>
       <c r="B842">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C842">
-        <v>12.85714285714286</v>
+        <v>18.71428571428572</v>
       </c>
     </row>
     <row r="843" spans="1:3">
       <c r="A843" s="2">
-        <v>44884</v>
+        <v>44885</v>
       </c>
       <c r="B843">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="C843">
-        <v>20</v>
+        <v>18.71428571428572</v>
       </c>
     </row>
     <row r="844" spans="1:3">
       <c r="A844" s="2">
-        <v>44885</v>
+        <v>44886</v>
       </c>
       <c r="B844">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="C844">
-        <v>20</v>
+        <v>31.28571428571428</v>
       </c>
     </row>
     <row r="845" spans="1:3">
       <c r="A845" s="2">
-        <v>44886</v>
+        <v>44887</v>
       </c>
       <c r="B845">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C845">
-        <v>32.42857142857143</v>
+        <v>40.57142857142857</v>
       </c>
     </row>
     <row r="846" spans="1:3">
       <c r="A846" s="2">
-        <v>44887</v>
+        <v>44888</v>
       </c>
       <c r="B846">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="C846">
-        <v>41.71428571428572</v>
+        <v>66.14285714285714</v>
       </c>
     </row>
     <row r="847" spans="1:3">
       <c r="A847" s="2">
-        <v>44888</v>
+        <v>44889</v>
       </c>
       <c r="B847">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="C847">
-        <v>67</v>
+        <v>96.28571428571429</v>
       </c>
     </row>
     <row r="848" spans="1:3">
       <c r="A848" s="2">
-        <v>44889</v>
+        <v>44890</v>
       </c>
       <c r="B848">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="C848">
-        <v>97.14285714285714</v>
+        <v>118.2857142857143</v>
       </c>
     </row>
     <row r="849" spans="1:3">
       <c r="A849" s="2">
-        <v>44890</v>
+        <v>44891</v>
       </c>
       <c r="B849">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="C849">
-        <v>119.7142857142857</v>
+        <v>130.1428571428571</v>
       </c>
     </row>
     <row r="850" spans="1:3">
       <c r="A850" s="2">
-        <v>44891</v>
+        <v>44892</v>
       </c>
       <c r="B850">
-        <v>133</v>
+        <v>7</v>
       </c>
       <c r="C850">
-        <v>131.1428571428571</v>
+        <v>130.8571428571429</v>
       </c>
     </row>
     <row r="851" spans="1:3">
       <c r="A851" s="2">
-        <v>44892</v>
+        <v>44893</v>
       </c>
       <c r="B851">
-        <v>9</v>
+        <v>251</v>
       </c>
       <c r="C851">
-        <v>132.1428571428571</v>
+        <v>153.1428571428571</v>
       </c>
     </row>
     <row r="852" spans="1:3">
       <c r="A852" s="2">
-        <v>44893</v>
+        <v>44894</v>
       </c>
       <c r="B852">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="C852">
-        <v>158.2857142857143</v>
+        <v>176.5714285714286</v>
       </c>
     </row>
     <row r="853" spans="1:3">
       <c r="A853" s="2">
-        <v>44894</v>
+        <v>44895</v>
       </c>
       <c r="B853">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="C853">
-        <v>185</v>
+        <v>184.4285714285714</v>
       </c>
     </row>
     <row r="854" spans="1:3">
       <c r="A854" s="2">
-        <v>44895</v>
+        <v>44896</v>
       </c>
       <c r="B854">
-        <v>260</v>
+        <v>215</v>
       </c>
       <c r="C854">
-        <v>194.5714285714286</v>
+        <v>183</v>
       </c>
     </row>
     <row r="855" spans="1:3">
       <c r="A855" s="2">
-        <v>44896</v>
+        <v>44897</v>
       </c>
       <c r="B855">
-        <v>226</v>
+        <v>131</v>
       </c>
       <c r="C855">
-        <v>194.7142857142857</v>
+        <v>175.2857142857143</v>
       </c>
     </row>
     <row r="856" spans="1:3">
       <c r="A856" s="2">
-        <v>44897</v>
+        <v>44898</v>
       </c>
       <c r="B856">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="C856">
-        <v>190.5714285714286</v>
+        <v>162.8571428571429</v>
       </c>
     </row>
     <row r="857" spans="1:3">
       <c r="A857" s="2">
-        <v>44898</v>
+        <v>44900</v>
       </c>
       <c r="B857">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="C857">
-        <v>183</v>
+        <v>165.2857142857143</v>
       </c>
     </row>
     <row r="858" spans="1:3">
       <c r="A858" s="2">
-        <v>44899</v>
+        <v>44901</v>
       </c>
       <c r="B858">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C858">
-        <v>183.4285714285714</v>
+        <v>132.1428571428571</v>
       </c>
     </row>
     <row r="859" spans="1:3">
       <c r="A859" s="2">
-        <v>44900</v>
+        <v>44902</v>
       </c>
       <c r="B859">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="C859">
-        <v>154.2857142857143</v>
+        <v>100.1428571428571</v>
       </c>
     </row>
     <row r="860" spans="1:3">
       <c r="A860" s="2">
-        <v>44901</v>
+        <v>44905</v>
       </c>
       <c r="B860">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="C860">
-        <v>124.4285714285714</v>
+        <v>67.14285714285714</v>
       </c>
     </row>
     <row r="861" spans="1:3">
       <c r="A861" s="2">
-        <v>44902</v>
+        <v>44907</v>
       </c>
       <c r="B861">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C861">
-        <v>92.28571428571429</v>
+        <v>37.57142857142857</v>
       </c>
     </row>
     <row r="862" spans="1:3">
       <c r="A862" s="2">
-        <v>44903</v>
+        <v>44908</v>
       </c>
       <c r="B862">
         <v>8</v>
       </c>
       <c r="C862">
-        <v>61.14285714285715</v>
+        <v>20</v>
       </c>
     </row>
     <row r="863" spans="1:3">
       <c r="A863" s="2">
-        <v>44904</v>
+        <v>44909</v>
       </c>
       <c r="B863">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C863">
-        <v>39.85714285714285</v>
+        <v>14.14285714285714</v>
       </c>
     </row>
     <row r="864" spans="1:3">
       <c r="A864" s="2">
-        <v>44905</v>
+        <v>44910</v>
       </c>
       <c r="B864">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="C864">
-        <v>33</v>
+        <v>11.14285714285714</v>
       </c>
     </row>
     <row r="865" spans="1:3">
       <c r="A865" s="2">
-        <v>44906</v>
+        <v>44911</v>
       </c>
       <c r="B865">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C865">
-        <v>31.85714285714286</v>
+        <v>8.714285714285714</v>
       </c>
     </row>
     <row r="866" spans="1:3">
       <c r="A866" s="2">
-        <v>44907</v>
+        <v>44912</v>
       </c>
       <c r="B866">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C866">
-        <v>24.71428571428572</v>
+        <v>6.428571428571429</v>
       </c>
     </row>
     <row r="867" spans="1:3">
       <c r="A867" s="2">
-        <v>44908</v>
+        <v>44914</v>
       </c>
       <c r="B867">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C867">
-        <v>18.85714285714286</v>
+        <v>4.285714285714286</v>
       </c>
     </row>
     <row r="868" spans="1:3">
       <c r="A868" s="2">
-        <v>44909</v>
+        <v>44915</v>
       </c>
       <c r="B868">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C868">
-        <v>16.14285714285714</v>
+        <v>4.428571428571429</v>
       </c>
     </row>
     <row r="869" spans="1:3">
       <c r="A869" s="2">
-        <v>44910</v>
+        <v>44916</v>
       </c>
       <c r="B869">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C869">
-        <v>16</v>
+        <v>3.428571428571428</v>
       </c>
     </row>
     <row r="870" spans="1:3">
       <c r="A870" s="2">
-        <v>44911</v>
+        <v>44918</v>
       </c>
       <c r="B870">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C870">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="871" spans="1:3">
       <c r="A871" s="2">
-        <v>44912</v>
+        <v>44924</v>
       </c>
       <c r="B871">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C871">
-        <v>12</v>
+        <v>2.714285714285714</v>
       </c>
     </row>
     <row r="872" spans="1:3">
       <c r="A872" s="2">
-        <v>44913</v>
+        <v>44933</v>
       </c>
       <c r="B872">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C872">
-        <v>12</v>
+        <v>2.571428571428572</v>
       </c>
     </row>
     <row r="873" spans="1:3">
       <c r="A873" s="2">
-        <v>44914</v>
+        <v>44937</v>
       </c>
       <c r="B873">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C873">
-        <v>10</v>
+        <v>2.142857142857143</v>
       </c>
     </row>
     <row r="874" spans="1:3">
       <c r="A874" s="2">
-        <v>44915</v>
+        <v>44952</v>
       </c>
       <c r="B874">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C874">
-        <v>9.142857142857142</v>
-      </c>
-    </row>
-    <row r="875" spans="1:3">
-      <c r="A875" s="2">
-        <v>44916</v>
-      </c>
-      <c r="B875">
-        <v>6</v>
-      </c>
-      <c r="C875">
-        <v>7.714285714285714</v>
-      </c>
-    </row>
-    <row r="876" spans="1:3">
-      <c r="A876" s="2">
-        <v>44917</v>
-      </c>
-      <c r="B876">
-        <v>1</v>
-      </c>
-      <c r="C876">
-        <v>6.857142857142857</v>
-      </c>
-    </row>
-    <row r="877" spans="1:3">
-      <c r="A877" s="2">
-        <v>44918</v>
-      </c>
-      <c r="B877">
-        <v>2</v>
-      </c>
-      <c r="C877">
-        <v>6.428571428571429</v>
-      </c>
-    </row>
-    <row r="878" spans="1:3">
-      <c r="A878" s="2">
-        <v>44920</v>
-      </c>
-      <c r="B878">
-        <v>1</v>
-      </c>
-      <c r="C878">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="879" spans="1:3">
-      <c r="A879" s="2">
-        <v>44921</v>
-      </c>
-      <c r="B879">
-        <v>1</v>
-      </c>
-      <c r="C879">
-        <v>4.571428571428571</v>
-      </c>
-    </row>
-    <row r="880" spans="1:3">
-      <c r="A880" s="2">
-        <v>44922</v>
-      </c>
-      <c r="B880">
-        <v>1</v>
-      </c>
-      <c r="C880">
-        <v>3.285714285714286</v>
-      </c>
-    </row>
-    <row r="881" spans="1:3">
-      <c r="A881" s="2">
-        <v>44923</v>
-      </c>
-      <c r="B881">
-        <v>7</v>
-      </c>
-      <c r="C881">
-        <v>2.714285714285714</v>
-      </c>
-    </row>
-    <row r="882" spans="1:3">
-      <c r="A882" s="2">
-        <v>44924</v>
-      </c>
-      <c r="B882">
-        <v>4</v>
-      </c>
-      <c r="C882">
-        <v>2.428571428571428</v>
-      </c>
-    </row>
-    <row r="883" spans="1:3">
-      <c r="A883" s="2">
-        <v>44925</v>
-      </c>
-      <c r="B883">
-        <v>2</v>
-      </c>
-      <c r="C883">
-        <v>2.571428571428572</v>
-      </c>
-    </row>
-    <row r="884" spans="1:3">
-      <c r="A884" s="2">
-        <v>44926</v>
-      </c>
-      <c r="B884">
-        <v>1</v>
-      </c>
-      <c r="C884">
-        <v>2.428571428571428</v>
-      </c>
-    </row>
-    <row r="885" spans="1:3">
-      <c r="A885" s="2">
-        <v>44928</v>
-      </c>
-      <c r="B885">
-        <v>2</v>
-      </c>
-      <c r="C885">
-        <v>2.571428571428572</v>
-      </c>
-    </row>
-    <row r="886" spans="1:3">
-      <c r="A886" s="2">
-        <v>44929</v>
-      </c>
-      <c r="B886">
-        <v>1</v>
-      </c>
-      <c r="C886">
-        <v>2.571428571428572</v>
-      </c>
-    </row>
-    <row r="887" spans="1:3">
-      <c r="A887" s="2">
-        <v>44930</v>
-      </c>
-      <c r="B887">
-        <v>2</v>
-      </c>
-      <c r="C887">
-        <v>2.714285714285714</v>
-      </c>
-    </row>
-    <row r="888" spans="1:3">
-      <c r="A888" s="2">
-        <v>44931</v>
-      </c>
-      <c r="B888">
-        <v>1</v>
-      </c>
-      <c r="C888">
-        <v>1.857142857142857</v>
-      </c>
-    </row>
-    <row r="889" spans="1:3">
-      <c r="A889" s="2">
-        <v>44933</v>
-      </c>
-      <c r="B889">
-        <v>2</v>
-      </c>
-      <c r="C889">
-        <v>1.571428571428571</v>
-      </c>
-    </row>
-    <row r="890" spans="1:3">
-      <c r="A890" s="2">
-        <v>44934</v>
-      </c>
-      <c r="B890">
-        <v>2</v>
-      </c>
-      <c r="C890">
-        <v>1.571428571428571</v>
-      </c>
-    </row>
-    <row r="891" spans="1:3">
-      <c r="A891" s="2">
-        <v>44935</v>
-      </c>
-      <c r="B891">
-        <v>2</v>
-      </c>
-      <c r="C891">
-        <v>1.714285714285714</v>
-      </c>
-    </row>
-    <row r="892" spans="1:3">
-      <c r="A892" s="2">
-        <v>44937</v>
-      </c>
-      <c r="B892">
-        <v>1</v>
-      </c>
-      <c r="C892">
-        <v>1.571428571428571</v>
-      </c>
-    </row>
-    <row r="893" spans="1:3">
-      <c r="A893" s="2">
-        <v>44941</v>
-      </c>
-      <c r="B893">
-        <v>1</v>
-      </c>
-      <c r="C893">
-        <v>1.571428571428571</v>
-      </c>
-    </row>
-    <row r="894" spans="1:3">
-      <c r="A894" s="2">
-        <v>44942</v>
-      </c>
-      <c r="B894">
-        <v>2</v>
-      </c>
-      <c r="C894">
-        <v>1.571428571428571</v>
+        <v>2.142857142857143</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/casos_ucayali.xlsx
+++ b/regiones/casos_ucayali.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C874"/>
+  <dimension ref="A1:C905"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7100,10 +7100,10 @@
         <v>44561</v>
       </c>
       <c r="B612">
-        <v>438</v>
+        <v>10</v>
       </c>
       <c r="C612">
-        <v>69.57142857142857</v>
+        <v>8.428571428571429</v>
       </c>
     </row>
     <row r="613" spans="1:3">
@@ -7114,7 +7114,7 @@
         <v>3</v>
       </c>
       <c r="C613">
-        <v>68.57142857142857</v>
+        <v>7.428571428571429</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -7125,7 +7125,7 @@
         <v>9</v>
       </c>
       <c r="C614">
-        <v>69.71428571428571</v>
+        <v>8.571428571428571</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -7136,7 +7136,7 @@
         <v>21</v>
       </c>
       <c r="C615">
-        <v>72.42857142857143</v>
+        <v>11.28571428571429</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -7147,7 +7147,7 @@
         <v>22</v>
       </c>
       <c r="C616">
-        <v>73.85714285714286</v>
+        <v>12.71428571428571</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -7158,7 +7158,7 @@
         <v>47</v>
       </c>
       <c r="C617">
-        <v>79.71428571428571</v>
+        <v>18.57142857142857</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -7169,7 +7169,7 @@
         <v>14</v>
       </c>
       <c r="C618">
-        <v>79.14285714285714</v>
+        <v>18</v>
       </c>
     </row>
     <row r="619" spans="1:3">
@@ -9454,10 +9454,10 @@
         <v>44862</v>
       </c>
       <c r="B826">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C826">
-        <v>1.285714285714286</v>
+        <v>1.428571428571429</v>
       </c>
     </row>
     <row r="827" spans="1:3">
@@ -9468,15 +9468,15 @@
         <v>1</v>
       </c>
       <c r="C827">
-        <v>1</v>
+        <v>1.142857142857143</v>
       </c>
     </row>
     <row r="828" spans="1:3">
       <c r="A828" s="2">
-        <v>44869</v>
+        <v>44868</v>
       </c>
       <c r="B828">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C828">
         <v>1.142857142857143</v>
@@ -9484,7 +9484,7 @@
     </row>
     <row r="829" spans="1:3">
       <c r="A829" s="2">
-        <v>44870</v>
+        <v>44869</v>
       </c>
       <c r="B829">
         <v>2</v>
@@ -9495,32 +9495,32 @@
     </row>
     <row r="830" spans="1:3">
       <c r="A830" s="2">
-        <v>44872</v>
+        <v>44870</v>
       </c>
       <c r="B830">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C830">
-        <v>1.285714285714286</v>
+        <v>1.428571428571429</v>
       </c>
     </row>
     <row r="831" spans="1:3">
       <c r="A831" s="2">
-        <v>44873</v>
+        <v>44872</v>
       </c>
       <c r="B831">
         <v>1</v>
       </c>
       <c r="C831">
-        <v>1.285714285714286</v>
+        <v>1.428571428571429</v>
       </c>
     </row>
     <row r="832" spans="1:3">
       <c r="A832" s="2">
-        <v>44874</v>
+        <v>44873</v>
       </c>
       <c r="B832">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C832">
         <v>1.428571428571429</v>
@@ -9528,32 +9528,32 @@
     </row>
     <row r="833" spans="1:3">
       <c r="A833" s="2">
-        <v>44875</v>
+        <v>44874</v>
       </c>
       <c r="B833">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C833">
-        <v>2.142857142857143</v>
+        <v>1.428571428571429</v>
       </c>
     </row>
     <row r="834" spans="1:3">
       <c r="A834" s="2">
-        <v>44876</v>
+        <v>44875</v>
       </c>
       <c r="B834">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C834">
-        <v>2.571428571428572</v>
+        <v>2.142857142857143</v>
       </c>
     </row>
     <row r="835" spans="1:3">
       <c r="A835" s="2">
-        <v>44877</v>
+        <v>44876</v>
       </c>
       <c r="B835">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C835">
         <v>2.571428571428572</v>
@@ -9561,431 +9561,772 @@
     </row>
     <row r="836" spans="1:3">
       <c r="A836" s="2">
-        <v>44878</v>
+        <v>44877</v>
       </c>
       <c r="B836">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C836">
-        <v>2.571428571428572</v>
+        <v>2.714285714285714</v>
       </c>
     </row>
     <row r="837" spans="1:3">
       <c r="A837" s="2">
-        <v>44879</v>
+        <v>44878</v>
       </c>
       <c r="B837">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C837">
-        <v>3.428571428571428</v>
+        <v>2.714285714285714</v>
       </c>
     </row>
     <row r="838" spans="1:3">
       <c r="A838" s="2">
-        <v>44880</v>
+        <v>44879</v>
       </c>
       <c r="B838">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C838">
-        <v>5.428571428571429</v>
+        <v>3.714285714285714</v>
       </c>
     </row>
     <row r="839" spans="1:3">
       <c r="A839" s="2">
-        <v>44881</v>
+        <v>44880</v>
       </c>
       <c r="B839">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C839">
-        <v>7</v>
+        <v>5.714285714285714</v>
       </c>
     </row>
     <row r="840" spans="1:3">
       <c r="A840" s="2">
-        <v>44882</v>
+        <v>44881</v>
       </c>
       <c r="B840">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C840">
-        <v>8.142857142857142</v>
+        <v>7.714285714285714</v>
       </c>
     </row>
     <row r="841" spans="1:3">
       <c r="A841" s="2">
-        <v>44883</v>
+        <v>44882</v>
       </c>
       <c r="B841">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C841">
-        <v>12</v>
+        <v>8.857142857142858</v>
       </c>
     </row>
     <row r="842" spans="1:3">
       <c r="A842" s="2">
-        <v>44884</v>
+        <v>44883</v>
       </c>
       <c r="B842">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C842">
-        <v>18.71428571428572</v>
+        <v>12.85714285714286</v>
       </c>
     </row>
     <row r="843" spans="1:3">
       <c r="A843" s="2">
-        <v>44885</v>
+        <v>44884</v>
       </c>
       <c r="B843">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="C843">
-        <v>18.71428571428572</v>
+        <v>20</v>
       </c>
     </row>
     <row r="844" spans="1:3">
       <c r="A844" s="2">
-        <v>44886</v>
+        <v>44885</v>
       </c>
       <c r="B844">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="C844">
-        <v>31.28571428571428</v>
+        <v>20</v>
       </c>
     </row>
     <row r="845" spans="1:3">
       <c r="A845" s="2">
-        <v>44887</v>
+        <v>44886</v>
       </c>
       <c r="B845">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C845">
-        <v>40.57142857142857</v>
+        <v>32.42857142857143</v>
       </c>
     </row>
     <row r="846" spans="1:3">
       <c r="A846" s="2">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="B846">
-        <v>192</v>
+        <v>80</v>
       </c>
       <c r="C846">
-        <v>66.14285714285714</v>
+        <v>41.71428571428572</v>
       </c>
     </row>
     <row r="847" spans="1:3">
       <c r="A847" s="2">
-        <v>44889</v>
+        <v>44888</v>
       </c>
       <c r="B847">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="C847">
-        <v>96.28571428571429</v>
+        <v>67</v>
       </c>
     </row>
     <row r="848" spans="1:3">
       <c r="A848" s="2">
-        <v>44890</v>
+        <v>44889</v>
       </c>
       <c r="B848">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="C848">
-        <v>118.2857142857143</v>
+        <v>97.14285714285714</v>
       </c>
     </row>
     <row r="849" spans="1:3">
       <c r="A849" s="2">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="B849">
-        <v>132</v>
+        <v>190</v>
       </c>
       <c r="C849">
-        <v>130.1428571428571</v>
+        <v>119.7142857142857</v>
       </c>
     </row>
     <row r="850" spans="1:3">
       <c r="A850" s="2">
-        <v>44892</v>
+        <v>44891</v>
       </c>
       <c r="B850">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="C850">
-        <v>130.8571428571429</v>
+        <v>131.1428571428571</v>
       </c>
     </row>
     <row r="851" spans="1:3">
       <c r="A851" s="2">
-        <v>44893</v>
+        <v>44892</v>
       </c>
       <c r="B851">
-        <v>251</v>
+        <v>9</v>
       </c>
       <c r="C851">
-        <v>153.1428571428571</v>
+        <v>132.1428571428571</v>
       </c>
     </row>
     <row r="852" spans="1:3">
       <c r="A852" s="2">
-        <v>44894</v>
+        <v>44893</v>
       </c>
       <c r="B852">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="C852">
-        <v>176.5714285714286</v>
+        <v>158.2857142857143</v>
       </c>
     </row>
     <row r="853" spans="1:3">
       <c r="A853" s="2">
-        <v>44895</v>
+        <v>44894</v>
       </c>
       <c r="B853">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="C853">
-        <v>184.4285714285714</v>
+        <v>185</v>
       </c>
     </row>
     <row r="854" spans="1:3">
       <c r="A854" s="2">
-        <v>44896</v>
+        <v>44895</v>
       </c>
       <c r="B854">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="C854">
-        <v>183</v>
+        <v>194.5714285714286</v>
       </c>
     </row>
     <row r="855" spans="1:3">
       <c r="A855" s="2">
-        <v>44897</v>
+        <v>44896</v>
       </c>
       <c r="B855">
-        <v>131</v>
+        <v>226</v>
       </c>
       <c r="C855">
-        <v>175.2857142857143</v>
+        <v>194.7142857142857</v>
       </c>
     </row>
     <row r="856" spans="1:3">
       <c r="A856" s="2">
-        <v>44898</v>
+        <v>44897</v>
       </c>
       <c r="B856">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="C856">
-        <v>162.8571428571429</v>
+        <v>190.5714285714286</v>
       </c>
     </row>
     <row r="857" spans="1:3">
       <c r="A857" s="2">
-        <v>44900</v>
+        <v>44898</v>
       </c>
       <c r="B857">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="C857">
-        <v>165.2857142857143</v>
+        <v>183</v>
       </c>
     </row>
     <row r="858" spans="1:3">
       <c r="A858" s="2">
-        <v>44901</v>
+        <v>44899</v>
       </c>
       <c r="B858">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C858">
-        <v>132.1428571428571</v>
+        <v>183.4285714285714</v>
       </c>
     </row>
     <row r="859" spans="1:3">
       <c r="A859" s="2">
-        <v>44902</v>
+        <v>44900</v>
       </c>
       <c r="B859">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="C859">
-        <v>100.1428571428571</v>
+        <v>154.2857142857143</v>
       </c>
     </row>
     <row r="860" spans="1:3">
       <c r="A860" s="2">
-        <v>44905</v>
+        <v>44901</v>
       </c>
       <c r="B860">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="C860">
-        <v>67.14285714285714</v>
+        <v>124.4285714285714</v>
       </c>
     </row>
     <row r="861" spans="1:3">
       <c r="A861" s="2">
-        <v>44907</v>
+        <v>44902</v>
       </c>
       <c r="B861">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C861">
-        <v>37.57142857142857</v>
+        <v>92.28571428571429</v>
       </c>
     </row>
     <row r="862" spans="1:3">
       <c r="A862" s="2">
-        <v>44908</v>
+        <v>44903</v>
       </c>
       <c r="B862">
         <v>8</v>
       </c>
       <c r="C862">
-        <v>20</v>
+        <v>61.14285714285715</v>
       </c>
     </row>
     <row r="863" spans="1:3">
       <c r="A863" s="2">
-        <v>44909</v>
+        <v>44904</v>
       </c>
       <c r="B863">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C863">
-        <v>14.14285714285714</v>
+        <v>39.85714285714285</v>
       </c>
     </row>
     <row r="864" spans="1:3">
       <c r="A864" s="2">
-        <v>44910</v>
+        <v>44905</v>
       </c>
       <c r="B864">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="C864">
-        <v>11.14285714285714</v>
+        <v>33</v>
       </c>
     </row>
     <row r="865" spans="1:3">
       <c r="A865" s="2">
-        <v>44911</v>
+        <v>44906</v>
       </c>
       <c r="B865">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C865">
-        <v>8.714285714285714</v>
+        <v>31.85714285714286</v>
       </c>
     </row>
     <row r="866" spans="1:3">
       <c r="A866" s="2">
-        <v>44912</v>
+        <v>44907</v>
       </c>
       <c r="B866">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C866">
-        <v>6.428571428571429</v>
+        <v>24.71428571428572</v>
       </c>
     </row>
     <row r="867" spans="1:3">
       <c r="A867" s="2">
-        <v>44914</v>
+        <v>44908</v>
       </c>
       <c r="B867">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C867">
-        <v>4.285714285714286</v>
+        <v>18.85714285714286</v>
       </c>
     </row>
     <row r="868" spans="1:3">
       <c r="A868" s="2">
-        <v>44915</v>
+        <v>44909</v>
       </c>
       <c r="B868">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C868">
-        <v>4.428571428571429</v>
+        <v>16.14285714285714</v>
       </c>
     </row>
     <row r="869" spans="1:3">
       <c r="A869" s="2">
-        <v>44916</v>
+        <v>44910</v>
       </c>
       <c r="B869">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C869">
-        <v>3.428571428571428</v>
+        <v>16</v>
       </c>
     </row>
     <row r="870" spans="1:3">
       <c r="A870" s="2">
-        <v>44918</v>
+        <v>44911</v>
       </c>
       <c r="B870">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C870">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="871" spans="1:3">
       <c r="A871" s="2">
-        <v>44924</v>
+        <v>44912</v>
       </c>
       <c r="B871">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C871">
-        <v>2.714285714285714</v>
+        <v>12</v>
       </c>
     </row>
     <row r="872" spans="1:3">
       <c r="A872" s="2">
-        <v>44933</v>
+        <v>44913</v>
       </c>
       <c r="B872">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C872">
-        <v>2.571428571428572</v>
+        <v>12</v>
       </c>
     </row>
     <row r="873" spans="1:3">
       <c r="A873" s="2">
-        <v>44937</v>
+        <v>44914</v>
       </c>
       <c r="B873">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C873">
-        <v>2.142857142857143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="874" spans="1:3">
       <c r="A874" s="2">
+        <v>44915</v>
+      </c>
+      <c r="B874">
+        <v>11</v>
+      </c>
+      <c r="C874">
+        <v>9.142857142857142</v>
+      </c>
+    </row>
+    <row r="875" spans="1:3">
+      <c r="A875" s="2">
+        <v>44916</v>
+      </c>
+      <c r="B875">
+        <v>6</v>
+      </c>
+      <c r="C875">
+        <v>7.714285714285714</v>
+      </c>
+    </row>
+    <row r="876" spans="1:3">
+      <c r="A876" s="2">
+        <v>44917</v>
+      </c>
+      <c r="B876">
+        <v>1</v>
+      </c>
+      <c r="C876">
+        <v>6.857142857142857</v>
+      </c>
+    </row>
+    <row r="877" spans="1:3">
+      <c r="A877" s="2">
+        <v>44918</v>
+      </c>
+      <c r="B877">
+        <v>2</v>
+      </c>
+      <c r="C877">
+        <v>6.428571428571429</v>
+      </c>
+    </row>
+    <row r="878" spans="1:3">
+      <c r="A878" s="2">
+        <v>44920</v>
+      </c>
+      <c r="B878">
+        <v>1</v>
+      </c>
+      <c r="C878">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="879" spans="1:3">
+      <c r="A879" s="2">
+        <v>44921</v>
+      </c>
+      <c r="B879">
+        <v>1</v>
+      </c>
+      <c r="C879">
+        <v>4.571428571428571</v>
+      </c>
+    </row>
+    <row r="880" spans="1:3">
+      <c r="A880" s="2">
+        <v>44922</v>
+      </c>
+      <c r="B880">
+        <v>1</v>
+      </c>
+      <c r="C880">
+        <v>3.285714285714286</v>
+      </c>
+    </row>
+    <row r="881" spans="1:3">
+      <c r="A881" s="2">
+        <v>44923</v>
+      </c>
+      <c r="B881">
+        <v>7</v>
+      </c>
+      <c r="C881">
+        <v>2.714285714285714</v>
+      </c>
+    </row>
+    <row r="882" spans="1:3">
+      <c r="A882" s="2">
+        <v>44924</v>
+      </c>
+      <c r="B882">
+        <v>4</v>
+      </c>
+      <c r="C882">
+        <v>2.428571428571428</v>
+      </c>
+    </row>
+    <row r="883" spans="1:3">
+      <c r="A883" s="2">
+        <v>44925</v>
+      </c>
+      <c r="B883">
+        <v>2</v>
+      </c>
+      <c r="C883">
+        <v>2.571428571428572</v>
+      </c>
+    </row>
+    <row r="884" spans="1:3">
+      <c r="A884" s="2">
+        <v>44926</v>
+      </c>
+      <c r="B884">
+        <v>1</v>
+      </c>
+      <c r="C884">
+        <v>2.428571428571428</v>
+      </c>
+    </row>
+    <row r="885" spans="1:3">
+      <c r="A885" s="2">
+        <v>44928</v>
+      </c>
+      <c r="B885">
+        <v>2</v>
+      </c>
+      <c r="C885">
+        <v>2.571428571428572</v>
+      </c>
+    </row>
+    <row r="886" spans="1:3">
+      <c r="A886" s="2">
+        <v>44929</v>
+      </c>
+      <c r="B886">
+        <v>1</v>
+      </c>
+      <c r="C886">
+        <v>2.571428571428572</v>
+      </c>
+    </row>
+    <row r="887" spans="1:3">
+      <c r="A887" s="2">
+        <v>44930</v>
+      </c>
+      <c r="B887">
+        <v>2</v>
+      </c>
+      <c r="C887">
+        <v>2.714285714285714</v>
+      </c>
+    </row>
+    <row r="888" spans="1:3">
+      <c r="A888" s="2">
+        <v>44931</v>
+      </c>
+      <c r="B888">
+        <v>1</v>
+      </c>
+      <c r="C888">
+        <v>1.857142857142857</v>
+      </c>
+    </row>
+    <row r="889" spans="1:3">
+      <c r="A889" s="2">
+        <v>44933</v>
+      </c>
+      <c r="B889">
+        <v>2</v>
+      </c>
+      <c r="C889">
+        <v>1.571428571428571</v>
+      </c>
+    </row>
+    <row r="890" spans="1:3">
+      <c r="A890" s="2">
+        <v>44934</v>
+      </c>
+      <c r="B890">
+        <v>3</v>
+      </c>
+      <c r="C890">
+        <v>1.714285714285714</v>
+      </c>
+    </row>
+    <row r="891" spans="1:3">
+      <c r="A891" s="2">
+        <v>44935</v>
+      </c>
+      <c r="B891">
+        <v>5</v>
+      </c>
+      <c r="C891">
+        <v>2.285714285714286</v>
+      </c>
+    </row>
+    <row r="892" spans="1:3">
+      <c r="A892" s="2">
+        <v>44937</v>
+      </c>
+      <c r="B892">
+        <v>1</v>
+      </c>
+      <c r="C892">
+        <v>2.142857142857143</v>
+      </c>
+    </row>
+    <row r="893" spans="1:3">
+      <c r="A893" s="2">
+        <v>44941</v>
+      </c>
+      <c r="B893">
+        <v>1</v>
+      </c>
+      <c r="C893">
+        <v>2.142857142857143</v>
+      </c>
+    </row>
+    <row r="894" spans="1:3">
+      <c r="A894" s="2">
+        <v>44942</v>
+      </c>
+      <c r="B894">
+        <v>2</v>
+      </c>
+      <c r="C894">
+        <v>2.142857142857143</v>
+      </c>
+    </row>
+    <row r="895" spans="1:3">
+      <c r="A895" s="2">
+        <v>44950</v>
+      </c>
+      <c r="B895">
+        <v>1</v>
+      </c>
+      <c r="C895">
+        <v>2.142857142857143</v>
+      </c>
+    </row>
+    <row r="896" spans="1:3">
+      <c r="A896" s="2">
         <v>44952</v>
       </c>
-      <c r="B874">
+      <c r="B896">
+        <v>2</v>
+      </c>
+      <c r="C896">
+        <v>2.142857142857143</v>
+      </c>
+    </row>
+    <row r="897" spans="1:3">
+      <c r="A897" s="2">
+        <v>44953</v>
+      </c>
+      <c r="B897">
         <v>1</v>
       </c>
-      <c r="C874">
-        <v>2.142857142857143</v>
+      <c r="C897">
+        <v>1.857142857142857</v>
+      </c>
+    </row>
+    <row r="898" spans="1:3">
+      <c r="A898" s="2">
+        <v>44957</v>
+      </c>
+      <c r="B898">
+        <v>1</v>
+      </c>
+      <c r="C898">
+        <v>1.285714285714286</v>
+      </c>
+    </row>
+    <row r="899" spans="1:3">
+      <c r="A899" s="2">
+        <v>44958</v>
+      </c>
+      <c r="B899">
+        <v>1</v>
+      </c>
+      <c r="C899">
+        <v>1.285714285714286</v>
+      </c>
+    </row>
+    <row r="900" spans="1:3">
+      <c r="A900" s="2">
+        <v>44972</v>
+      </c>
+      <c r="B900">
+        <v>1</v>
+      </c>
+      <c r="C900">
+        <v>1.285714285714286</v>
+      </c>
+    </row>
+    <row r="901" spans="1:3">
+      <c r="A901" s="2">
+        <v>44975</v>
+      </c>
+      <c r="B901">
+        <v>1</v>
+      </c>
+      <c r="C901">
+        <v>1.142857142857143</v>
+      </c>
+    </row>
+    <row r="902" spans="1:3">
+      <c r="A902" s="2">
+        <v>44986</v>
+      </c>
+      <c r="B902">
+        <v>1</v>
+      </c>
+      <c r="C902">
+        <v>1.142857142857143</v>
+      </c>
+    </row>
+    <row r="903" spans="1:3">
+      <c r="A903" s="2">
+        <v>44989</v>
+      </c>
+      <c r="B903">
+        <v>1</v>
+      </c>
+      <c r="C903">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="904" spans="1:3">
+      <c r="A904" s="2">
+        <v>44993</v>
+      </c>
+      <c r="B904">
+        <v>1</v>
+      </c>
+      <c r="C904">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="905" spans="1:3">
+      <c r="A905" s="2">
+        <v>44999</v>
+      </c>
+      <c r="B905">
+        <v>1</v>
+      </c>
+      <c r="C905">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
